--- a/data_files/levels_tokenize_2.xlsx
+++ b/data_files/levels_tokenize_2.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['сотрудник', 'все', 'подразделен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'учен', 'зван', 'член', 'члены-корреспондент', 'ран', 'ра', 'имеющ', 'степен', 'PhD', 'наград', 'награжден', 'государствен', 'наград', 'почетн', 'зван', 'отмечен', 'наград', 'почетн', 'зван', 'правительств', 'федеральн', 'собран', 'федеральн', 'орган', 'исполнительн', 'власт', 'отмечен', 'наград', 'почетн', 'зван', 'регион', 'муниципальн', 'образован', 'награжден', 'наград', 'иностра', 'государств', 'награжден', 'почетн', 'знак', 'вшэ', 'лауреат', 'прем', 'золот', 'вышк', 'награжден', 'медал', 'вшэ', 'отмечен', 'почетн', 'грамот', 'университет', 'функциона', 'ответствен', 'персональн', 'страниц', 'сотрудник', 'ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'сотрудник', 'учебн', 'офис', 'аболин', 'натал', 'александровн', 'начальник', 'управлен', 'научн', 'интерес', 'wеб-технолог', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'рейтинг', 'высш', 'учебн', 'заведен', 'юзабилит', 'смирнов', 'людм', 'викторовн', 'администратор', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'никитин', 'мар', 'константиновн', 'главн', 'редактор', 'грибб', 'кристофер', 'майкл', 'редактор', 'соловов', 'екатерин', 'сергеевн', 'редактор', 'черняховск', 'ан', 'мировн', 'редактор', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'фомичев', 'татья', 'александровн', 'начальник', 'отдел', 'научн', 'интерес', 'социолог', 'наук', 'образован', 'инклюзивн', 'образован', 'интернет-исследован', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'социолог', 'сем', 'детств', 'университетск', 'сайт', 'бережн', 'ларис', 'георгиевн', 'дизайнер', 'воробьев', 'татья', 'олеговн', 'редактор', 'золотусск', 'мар', 'игоревн', 'редактор', 'клименк', 'евген', 'ивановн', 'редактор', 'новиков', 'ел', 'геннадьевн', 'редактор', 'научн', 'интерес', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'чудаев', 'ольг', 'владимировн', 'редактор', 'шушак', 'макс', 'сергеевич', 'дизайнер']</t>
+          <t>['дан', 'обозначен', 'использова', 'оформлен', 'лендинг', 'цвет', 'подложк', 'шапк', 'основн', 'колонк', 'контент-блок', 'цвет', 'подложек', 'виджет', 'набор', 'выпадайк', 'таб', 'карточк', 'виджет', 'цифр', 'дня', 'плашк', 'цифр', 'хронолог', 'фон', 'виджет', 'программ', 'карусел', 'цифр', 'цифр', 'факт', 'ссылк', 'мероприят', 'публикац', 'такж', 'мобильн', 'тулбар']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -639,59 +639,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['наш', 'подразделен', 'осуществля', 'концептуальн', 'структурн', 'разработк', 'сопровожден', 'корпоративн', 'порта', 'ни', 'вшэ', 'прощ', 'говор', 'развива', 'корпоративн', 'порта', 'университет', 'поддержива', 'созда', 'нов', 'тематическ', 'раздел', 'открыва', 'сайт', 'подразделен', 'образовательн', 'программ', 'конференц', 'учебн', 'курс', 'спецпроект', 'публику', 'главн', 'страниц', 'анонс', 'обуча', 'сотрудник', 'редактирован', 'сайт', 'вед', 'нескольк', 'баз', 'дан']</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['корпоративн', 'порта', 'hse.ru', 'это…', 'над', 'портал', 'работа', 'нам', 'очен', 'тяжел', 'обойт', 'наш', 'коллег', 'друг', 'подразделен']</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['новост', 'анонс', 'главн', 'страниц', 'порта', 'управлен', 'связ', 'обществен', 'основн', 'поставщик', 'новост', 'главн', 'страниц', 'корпоративн', 'порта', 'университет', 'без', 'порта', 'так', 'интересн', 'есл', 'ваш', 'подразделен', 'новостн', 'повод', 'забудьт', 'проинформирова', 'наш', 'коллег', 'мож', 'помоч', 'проанонсирова', 'ваш', 'мероприят', 'чтоб', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'необходим', 'размест', 'анонс', 'сайт', 'подразделен', 'присла', 'ссылк', 'адрес', 'portalnews', 'hse.ru', 'подробн', 'анонсирован', 'мероприят', 'прочита']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['персональн', 'страниц', 'кажд', 'сотрудник', 'буд', 'именит', 'профессор', 'менеджер', 'бухгалтер', 'программист', 'портал', 'сво', 'страниц', 'заглянув', 'персональн', 'страниц', 'узна', 'занима', 'учен', 'как', 'предмет', 'препода', 'профессор', 'как', 'вопрос', 'помога', 'реш', 'административн', 'сотрудник', 'созда', 'автоматическ', 'внесен', 'приказ', 'прием', 'сотрудник', 'баз', 'управлен', 'персона', 'ис-пр', 'да', 'сотрудник', 'необходим', 'прав', 'редактирован', 'персональн', 'страниц', 'для', 'получ', 'доступ', 'редактирован', 'необходим', 'написа', 'заявк', 'адрес', 'portal', 'hse.ru', 'есл', 'вопрос', 'том', 'появля', 'ин', 'информац', 'страниц', 'имен', 'публикует', 'появля', 'автоматическ', 'баз', 'дан', 'университет', 'ответ', 'найт', 'страниц', 'есл', 'вопрос', 'все-так', 'оста', 'обрат', 'ответствен', 'сво', 'подразделен', 'английск', 'верс', 'личн', 'страниц', 'активир', 'английск', 'редакц', 'порта', 'заполня', 'открыт', 'редактирован', 'пол', 'необходим', 'самостоятельн']</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>['баз', 'учебн', 'курс', 'осуществля', 'техническ', 'поддержк', 'баз', 'учебн', 'курс', 'портал', 'ни', 'вшэ', 'однак', 'описан', 'курс', 'ответствен', 'нес', 'вся', 'информац', 'загружа', 'нам', 'автоматическ', 'учебн', 'план', 'модул', 'нагрузк', 'систем', 'абитуриент-студент-выпускник-аспирант', 'аса', 'аса', 'получа', 'такж', 'английск', 'назван', 'курс', 'отображен', 'расписан', 'есл', 'явля', 'ответствен', 'кафедры/департамент', 'необходим', 'получ', 'прав', 'написа', 'адрес', 'portal', 'hse.ru']</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['сайт', 'подразделен', 'образовательн', 'программ', 'вмест', 'сотрудник', 'подразделен', 'работа', 'сайт', 'подразделен', 'образовательн', 'программ', 'мероприят', 'проект', 'сайт', 'подразделен', 'созда', 'автоматическ', 'сведен', 'внес', 'ис-пр', 'подробн', 'сайт', 'подразделен', 'прочита', 'сайт', 'образовательн', 'программ', 'открыва', 'внесен', 'программ', 'аса', 'инач', 'сайт', 'будут', 'отобража', 'рабоч', 'учебн', 'план', 'расписан', 'при', 'дальн', 'работ', 'сайт', 'поможет', 'инструкц', 'сайт', 'мероприят', 'семинар', 'школ', 'школьник', 'мож', 'созда', 'налич', 'материал', 'наполнен', 'сайт', 'пуст', 'сайт', 'надпис', 'разработк', 'открыва', 'осуществля', 'первичн', 'наполнен', 'сайт', 'оказыва', 'техническ', 'поддержк', 'поддержан', 'актуальн', 'сайт', 'ответствен', 'сотрудник', 'подразделен', 'котор', 'сайт', 'созда', 'вопрос', 'создан', 'сайт', 'обраща', 'пожалуйст', 'portal', 'hse.ru']</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>['английск', 'верс', 'порта', 'англоязычн', 'сайт', 'высш', 'школ', 'экономик', 'заня', '2015', 'год', 'перв', 'мест', 'рейтинг', 'сайт', 'университет', 'составлен', 'российск', 'совет', 'международн', 'дел', 'осуществля', 'перевод', 'новост', 'главн', 'лент', 'порта', 'такж', 'мож', 'помоч', 'перевест', 'основн', 'информац', 'сайт', 'подразделен', 'текст', 'подразделен', 'научн', 'деятельн', 'друг', 'текст', 'котор', 'меня', 'редк', 'перевод', 'новост', 'анонс', 'проч', 'текст', 'подразделен', 'занима', 'самостоятельн', 'такж', 'размеща', 'главн', 'лент', 'порта', 'анонс', 'англоязычн', 'мероприят', 'активиру', 'английск', 'верс', 'личн', 'страниц', 'англоязычн', 'верс', 'сайт', 'обязательн', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'такж', 'образовательн', 'программ', 'котор', 'преподаван', 'ведет', 'английск', 'язык', 'друг', 'случа', 'сайт', 'созда', 'услов', 'готовн', 'подразделен', 'оперативн', 'поддержива', 'регулярн', 'обновля', 'сво', 'сил', 'английск', 'верс', 'созда', 'заявк', 'подразделен', 'адрес', 'portal', 'hse.ru', 'непосредствен', 'обращен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'мар', 'бесов', 'при', 'создан', 'текст', 'необходим', 'руководствова', 'глоссар', 'термин', 'вшэ', 'стилистическ', 'справочник']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>['раздел', 'цифр', 'факт', 'ни', 'вшэ', 'постоя', 'что-т', 'меня', 'открыва', 'нов', 'программ', 'провод', 'исследован', 'появля', 'нов', 'подразделен', 'подготов', 'статистическ', 'информац', 'жизн', 'университет', 'нам', 'помога', 'аналитическ', 'центр.', 'когд', 'использует', 'какие-т', 'цифр', 'стат', 'интерв', 'проч.', 'пожалуйст', 'уточн', 'аналитическ', 'центр', 'будут', 'сведен', 'обновл', 'ближайш', 'врем']</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['систем', 'антиплагиат', 'предоставля', 'прав', 'преподавател', 'ни', 'вшэ', 'проверк', 'студенческ', 'работ', 'систем', 'антиплагиат', 'чтоб', 'получ', 'доступ', 'достаточн', 'написа', 'заявк', 'люб', 'адрес', 'корпоративн', 'почт', 'адрес', 'antiplagiat', 'hse.ru']</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>['отчет', 'мож', 'дат', 'доступ', 'заполнен', 'след', 'электрон', 'форм', 'отчет', 'отчет', 'деятельн', 'научно-учебн', 'проектно-учебн', 'лаборатор', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'отчет', 'участник', 'групп', 'высок', 'профессиональн', 'потенциа', 'ни', 'вшэ', 'отчет', 'кадров', 'резерв', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'мож', 'рассказа', 'внос', 'информац', 'мож', 'рассказа', 'имен', 'должн', 'внес', 'отчет', 'вопрос', 'смогут', 'ответ', 'сотрудник', 'соответств', 'подразделен', 'чтоб', 'получ', 'доступ', 'отчет', 'достаточн', 'написа', 'письм', 'адрес', 'portal', 'hse.ru', 'пожалуйст', 'указыва', 'письм', 'заполнен', 'как', 'отчет', 'отвеча', 'некотор', 'отчет', 'сдают', 'одн', 'врем', 'нам', 'сложн', 'поня', 'имен', 'интерес']</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>['нов', 'функциона', 'портал', 'разработк', 'порта', 'занима', 'управлен', 'разработк', 'информацион', 'сист', 'порта', 'есл', 'объективн', 'необходим', 'появлен', 'чего-т', 'нов', 'готов', 'обсуд', 'эт', 'вмест', 'пожалуйст', 'обсужден', 'постара', 'кратк', 'сформулирова', 'основн', 'пожелан', 'прикинут', 'как', 'систем', 'внутр', 'университет', 'эт', 'затронут', 'пожалуйст', 'нужн', 'пыта', 'заказа', 'разработк', 'одновремен', 'дирекц', 'информацион', 'технолог', 'дирекц', 'портал', 'мобильн', 'приложен', 'желан', 'подстрахова', 'естествен', 'поверьт', 'ник', 'хочет', 'дела', 'работ', 'стол.', 'есл', 'прочита', 'эт', 'нашл', 'ответ', 'сво', 'вопрос', 'напиш', 'директор', 'портал', 'дмитр', 'коптюбенк']</t>
-        </is>
-      </c>
+          <t>['сотрудник', 'все', 'подразделен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'учен', 'зван', 'член', 'члены-корреспондент', 'ран', 'ра', 'имеющ', 'степен', 'PhD', 'наград', 'награжден', 'государствен', 'наград', 'почетн', 'зван', 'отмечен', 'наград', 'почетн', 'зван', 'правительств', 'федеральн', 'собран', 'федеральн', 'орган', 'исполнительн', 'власт', 'отмечен', 'наград', 'почетн', 'зван', 'регион', 'муниципальн', 'образован', 'награжден', 'наград', 'иностра', 'государств', 'награжден', 'почетн', 'знак', 'вшэ', 'лауреат', 'прем', 'золот', 'вышк', 'награжден', 'медал', 'вшэ', 'отмечен', 'почетн', 'грамот', 'университет', 'функциона', 'ответствен', 'персональн', 'страниц', 'сотрудник', 'ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'сотрудник', 'учебн', 'офис', 'аболин', 'натал', 'александровн', 'начальник', 'управлен', 'научн', 'интерес', 'wеб-технолог', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'рейтинг', 'высш', 'учебн', 'заведен', 'юзабилит', 'смирнов', 'людм', 'викторовн', 'администратор', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'никитин', 'мар', 'константиновн', 'главн', 'редактор', 'грибб', 'кристофер', 'майкл', 'редактор', 'соловов', 'екатерин', 'сергеевн', 'редактор', 'черняховск', 'ан', 'мировн', 'редактор', 'отдел', 'развит', 'поддержк', 'русскоязычн', 'верс', 'порта', 'фомичев', 'татья', 'александровн', 'начальник', 'отдел', 'научн', 'интерес', 'социолог', 'наук', 'образован', 'инклюзивн', 'образован', 'интернет-исследован', 'качеств', 'контент', 'сайт', 'мониторинг', 'качеств', 'образован', 'социолог', 'сем', 'детств', 'университетск', 'сайт', 'бережн', 'ларис', 'георгиевн', 'дизайнер', 'воробьев', 'татья', 'олеговн', 'редактор', 'золотусск', 'мар', 'игоревн', 'редактор', 'клименк', 'евген', 'ивановн', 'редактор', 'новиков', 'ел', 'геннадьевн', 'редактор', 'научн', 'интерес', 'мониторинг', 'качеств', 'образован', 'мониторинг', 'качеств', 'прием', 'вуз', 'чудаев', 'ольг', 'владимировн', 'редактор', 'шушак', 'макс', 'сергеевич', 'дизайнер']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -712,94 +672,66 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['шаблон', 'сайт', 'образовательн', 'программ', 'шаблон', 'сайт', 'образовательн', 'программ', 'сам', 'сложн', 'портал', 'при', 'формирован', 'страниц', 'использ', 'информац', 'различн', 'баз', 'дан', 'университет', 'аса', 'руз', 'внутрен', 'баз', 'порта', 'поэт', 'случа', 'необходим', 'добавления/корректировк', 'информац', 'необходим', 'правк', 'имен', 'эт', 'баз', 'дан', 'шаблон', 'позволя', 'постав', 'главн', 'страниц', 'сайт', 'люб', 'блок', 'люб', 'последовательн', 'зависим', 'этап', 'приемн', 'кампан', 'при', 'меня', 'информац', 'страниц', 'редактор', 'сайт', 'программ', 'самостоятельн', 'обра', 'помощ', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'исключен', 'аннотац', 'шапк', 'образовательн', 'программ', 'текст', 'вывод', 'баз', 'дан', 'каталог', 'образовательн', 'программ', 'ест', 'возможн', 'созда', 'турбо-верс', 'сайт', 'эт', 'помога', 'существен', 'увелич', 'трафик', 'мобильн', 'устройств', 'размещен', 'SEO-оптимизирова', 'текст', 'SEO', 'search', 'engine', 'optimization', 'главн', 'страниц', 'служ', 'поднят', 'позиц', 'сайт', 'результат', 'выдач', 'поисков', 'сист', 'определен', 'запрос', 'пользовател', 'обрат', 'вниман', 'SEO-оптимизац', 'эт', 'комплекс', 'мероприят', 'продвижен', 'сайт', 'однак', 'наибольш', 'рол', 'игра', 'качествен', 'контент']</t>
+          <t>['наш', 'подразделен', 'осуществля', 'концептуальн', 'структурн', 'разработк', 'сопровожден', 'корпоративн', 'порта', 'ни', 'вшэ', 'прощ', 'говор', 'развива', 'корпоративн', 'порта', 'университет', 'поддержива', 'созда', 'нов', 'тематическ', 'раздел', 'открыва', 'сайт', 'подразделен', 'образовательн', 'программ', 'конференц', 'учебн', 'курс', 'спецпроект', 'публику', 'главн', 'страниц', 'анонс', 'обуча', 'сотрудник', 'редактирован', 'сайт', 'вед', 'нескольк', 'баз', 'дан']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['основн', 'контакт', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'получен', 'редакторск', 'прав', 'размещен', 'виде', 'главн', 'страниц', 'налич', 'виде', 'Youtube', 'включен', 'раздел', 'студент', 'выпускник', 'налич', 'наполнен', 'страниц', 'раздел', 'добавлен', 'ссылок', 'пункт', 'мен', 'помечен', 'замочк', 'ссылк', 'общ', 'мен', 'страниц', 'рейтинг', 'общ', 'техническ', 'вопрос', 'редактирован', 'сайт', 'вынесен', 'пункт', 'ниж', 'никитин', 'мар', 'константиновн', 'управлен', 'развит', 'поддержк', 'порта', 'английск', 'верс', 'сайт', 'райа', 'сюзан', 'халилевн', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'раздел', 'руководств', 'руководител', 'менеджер', 'игнатов', 'натал', 'генадиевн', 'центр', 'сервис', 'департамент', 'страниц', 'рейтинг', 'курс', 'преподавател', 'раздел', 'документ', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'управлен', 'развит', 'образовательн', 'программ', 'раздел', 'паспорт', 'образовательн', 'программ', 'аббасов', 'ел', 'сергеевн', 'центр', 'сервис', 'студент', 'страниц', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'редактор', 'подразделен', 'реализ', 'программ', 'размещен', 'анонс', 'шапк', 'программ', 'шишк', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'дирекц', 'маркетингов', 'коммуникац', 'съемк', 'проморолик', 'участ', 'акад', 'руководител', 'размещен', 'проморолик', 'Yоутубе-канал', 'ни', 'вшэ']</t>
+          <t>['корпоративн', 'порта', 'hse.ru', 'это…', 'над', 'портал', 'работа', 'нам', 'очен', 'тяжел', 'обойт', 'наш', 'коллег', 'друг', 'подразделен']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['основн', 'документ', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'бакалавриат', 'магистратур', 'специалитет', 'корпоративн', 'сайт', 'портал', 'национальн', 'исследовательск', 'университет', 'высш', 'школ', 'экономик', 'положен', 'основн', 'образовательн', 'программ', 'высш', 'образован', 'быстр', 'ссылк', 'как', 'нача', 'что', 'дела', 'программ', 'нов', 'сайт', 'как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'структур', 'сайт', 'образовательн', 'программ', 'шапк', 'сайт', 'образовательн', 'программ', 'размещен', 'анонс', 'шапк', 'сайт', 'главн', 'страниц', 'программ', 'верхн', 'мен', 'раздел', 'программ', 'общ', 'мен', 'создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'адрес', 'текстов', 'блок', 'учебн', 'офис', 'социальн', 'кнопк', 'буклет', 'программ', 'турбо-верс', 'английск', 'верс', 'таблиц', 'регистрацион', 'форм']</t>
+          <t>['новост', 'анонс', 'главн', 'страниц', 'порта', 'управлен', 'связ', 'обществен', 'основн', 'поставщик', 'новост', 'главн', 'страниц', 'корпоративн', 'порта', 'университет', 'без', 'порта', 'так', 'интересн', 'есл', 'ваш', 'подразделен', 'новостн', 'повод', 'забудьт', 'проинформирова', 'наш', 'коллег', 'мож', 'помоч', 'проанонсирова', 'ваш', 'мероприят', 'чтоб', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'необходим', 'размест', 'анонс', 'сайт', 'подразделен', 'присла', 'ссылк', 'адрес', 'portalnews', 'hse.ru', 'подробн', 'анонсирован', 'мероприят', 'прочита']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['как', 'нача', 'есл', 'ран', 'работа', 'сайт', 'образовательн', 'программ', 'т.ч.', 'предыдущ', 'верс', 'получ', 'прав', 'редактор', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'указа', 'ссылк', 'сайт', 'программ', 'котор', 'необходим', 'доступ', 'для', 'получен', 'редакторск', 'доступ', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'порта', 'заявк', 'присыла', 'одн', 'письм']</t>
+          <t>['персональн', 'страниц', 'кажд', 'сотрудник', 'буд', 'именит', 'профессор', 'менеджер', 'бухгалтер', 'программист', 'портал', 'сво', 'страниц', 'заглянув', 'персональн', 'страниц', 'узна', 'занима', 'учен', 'как', 'предмет', 'препода', 'профессор', 'как', 'вопрос', 'помога', 'реш', 'административн', 'сотрудник', 'созда', 'автоматическ', 'внесен', 'приказ', 'прием', 'сотрудник', 'баз', 'управлен', 'персона', 'ис-пр', 'да', 'сотрудник', 'необходим', 'прав', 'редактирован', 'персональн', 'страниц', 'для', 'получ', 'доступ', 'редактирован', 'необходим', 'написа', 'заявк', 'адрес', 'portal', 'hse.ru', 'есл', 'вопрос', 'том', 'появля', 'ин', 'информац', 'страниц', 'имен', 'публикует', 'появля', 'автоматическ', 'баз', 'дан', 'университет', 'ответ', 'найт', 'страниц', 'есл', 'вопрос', 'все-так', 'оста', 'обрат', 'ответствен', 'сво', 'подразделен', 'английск', 'верс', 'личн', 'страниц', 'активир', 'английск', 'редакц', 'порта', 'заполня', 'открыт', 'редактирован', 'пол', 'необходим', 'самостоятельн']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['что', 'дела', 'программ', 'нов', 'сайт', 'сайт', 'открыва', 'программ', 'утвержден', 'учен', 'совет', 'вшэ', 'контент', 'сайт', 'нача', 'готов', 'заран', 'как', 'материал', 'нужн', 'открыт', 'сайт', 'базов', 'верс', 'точн', 'назван', 'программ', 'русск', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'аннотац', 'шапк', 'программ', '500', 'знак', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'контакт', 'адрес', 'указан', 'город', 'телефон', 'e-mail', 'ком', 'предостав', 'редакторск', 'прав', 'сотрудник', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'портал']</t>
+          <t>['баз', 'учебн', 'курс', 'осуществля', 'техническ', 'поддержк', 'баз', 'учебн', 'курс', 'портал', 'ни', 'вшэ', 'однак', 'описан', 'курс', 'ответствен', 'нес', 'вся', 'информац', 'загружа', 'нам', 'автоматическ', 'учебн', 'план', 'модул', 'нагрузк', 'систем', 'абитуриент-студент-выпускник-аспирант', 'аса', 'аса', 'получа', 'такж', 'английск', 'назван', 'курс', 'отображен', 'расписан', 'есл', 'явля', 'ответствен', 'кафедры/департамент', 'необходим', 'получ', 'прав', 'написа', 'адрес', 'portal', 'hse.ru']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'необходим', 'определ', 'готов', 'самостоятельн', 'подготов', 'текст', 'техническ', 'задан', 'получен', 'управлен', 'развит', 'поддержк', 'порта', 'нужн', 'услуг', 'копирайтер', 'порта', 'втор', 'случа', 'срок', 'подготовк', 'текст', 'будут', 'зависет', 'общ', 'загружен', 'внешн', 'копирайтер', 'порта', 'работ', 'подготовк', 'текст', 'начина', 'получен', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'заявк', 'подготовк', 'техническ', 'задан', 'копирайтер', 'эт', 'необходим', 'текст', 'сайт', 'заявк', 'необходим', 'указа', 'адрес', 'сайт', 'нов', 'программ', 'прилож', 'письм', 'концепц', 'программ', 'описан', 'курс', 'проч.', 'документ', 'основ', 'котор', 'состав', 'представлен', 'содержан', 'программ', 'обрат', 'вниман', 'налич', 'SEO-оптимизирова', 'текст', 'сайт', 'программ', 'учитыва', 'KPI', 'декан', 'ежегодн', 'проверк', 'сайт', 'котор', 'обычн', 'проход', 'ноябре-декабр', 'есл', 'программ', 'англоязычн', 'SEO-оптимизац', 'обязательн', 'порядк', 'подлежат', 'такж', 'текст', 'английск', 'верс', 'сайт']</t>
+          <t>['сайт', 'подразделен', 'образовательн', 'программ', 'вмест', 'сотрудник', 'подразделен', 'работа', 'сайт', 'подразделен', 'образовательн', 'программ', 'мероприят', 'проект', 'сайт', 'подразделен', 'созда', 'автоматическ', 'сведен', 'внес', 'ис-пр', 'подробн', 'сайт', 'подразделен', 'прочита', 'сайт', 'образовательн', 'программ', 'открыва', 'внесен', 'программ', 'аса', 'инач', 'сайт', 'будут', 'отобража', 'рабоч', 'учебн', 'план', 'расписан', 'при', 'дальн', 'работ', 'сайт', 'поможет', 'инструкц', 'сайт', 'мероприят', 'семинар', 'школ', 'школьник', 'мож', 'созда', 'налич', 'материал', 'наполнен', 'сайт', 'пуст', 'сайт', 'надпис', 'разработк', 'открыва', 'осуществля', 'первичн', 'наполнен', 'сайт', 'оказыва', 'техническ', 'поддержк', 'поддержан', 'актуальн', 'сайт', 'ответствен', 'сотрудник', 'подразделен', 'котор', 'сайт', 'созда', 'вопрос', 'создан', 'сайт', 'обраща', 'пожалуйст', 'portal', 'hse.ru']</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['структур', 'сайт', 'образовательн', 'программ', 'сайт', 'имеет', 'жестк', 'структур', 'мен', 'назван', 'раздел', 'измен', 'главн', 'страниц', 'абитуриент', 'программ', 'ведущ', 'набор', 'текущ', 'год', 'студент', 'программ', 'имеющ', 'студент', 'выпускник', 'программ', 'имеющ', 'выпускник', 'открыва', 'желан', 'программ', 'обязательн', 'подраздел', 'мен', 'определя', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'есл', 'программ', 'необходим', 'завест', 'страниц', 'пункт', 'мен', 'определен', 'стандарт', 'сдела', 'эт', 'самостоятельн', 'все', 'страниц', 'созда', 'редактор', 'сайт', 'самостоятельн', 'никак', 'запрет', 'эт', 'требован', 'содержан', 'сайт', 'определ', 'закон', 'образован', 'локальн', 'акт', 'университет']</t>
+          <t>['английск', 'верс', 'порта', 'англоязычн', 'сайт', 'высш', 'школ', 'экономик', 'заня', '2015', 'год', 'перв', 'мест', 'рейтинг', 'сайт', 'университет', 'составлен', 'российск', 'совет', 'международн', 'дел', 'осуществля', 'перевод', 'новост', 'главн', 'лент', 'порта', 'такж', 'мож', 'помоч', 'перевест', 'основн', 'информац', 'сайт', 'подразделен', 'текст', 'подразделен', 'научн', 'деятельн', 'друг', 'текст', 'котор', 'меня', 'редк', 'перевод', 'новост', 'анонс', 'проч', 'текст', 'подразделен', 'занима', 'самостоятельн', 'такж', 'размеща', 'главн', 'лент', 'порта', 'анонс', 'англоязычн', 'мероприят', 'активиру', 'английск', 'верс', 'личн', 'страниц', 'англоязычн', 'верс', 'сайт', 'обязательн', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'такж', 'образовательн', 'программ', 'котор', 'преподаван', 'ведет', 'английск', 'язык', 'друг', 'случа', 'сайт', 'созда', 'услов', 'готовн', 'подразделен', 'оперативн', 'поддержива', 'регулярн', 'обновля', 'сво', 'сил', 'английск', 'верс', 'созда', 'заявк', 'подразделен', 'адрес', 'portal', 'hse.ru', 'непосредствен', 'обращен', 'отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'мар', 'бесов', 'при', 'создан', 'текст', 'необходим', 'руководствова', 'глоссар', 'термин', 'вшэ', 'стилистическ', 'справочник']</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>['шапк', 'сайт', 'образовательн', 'программ', 'шапк', 'образовательн', 'программ', 'размеща', 'аннотац', 'программ', 'объем', '500', 'знак', 'текст', 'аннотац', 'присыла', 'представител', 'программ', 'размеща', 'внос', 'правк', 'текст', 'просьб', 'служб', 'поддержк', 'порта', 'кнопк', 'обратн', 'связ', 'например', 'зада', 'вопрос', 'программ', 'опросн', 'форм', 'созда', 'размеща', 'кнопк', 'шапк', 'служб', 'поддержк', 'порта', 'чтоб', 'ознаком', 'инструкц', 'создан', 'опросн', 'форм', 'перейд', 'ссылк', 'https', '//portal.hse.ru/poll', 'тизер', 'очен', 'важн', 'анонс', 'обычн', 'анонс', 'дня', 'открыт', 'двер', 'размещен', 'тизер', 'шапк', 'сайт', 'перед', 'размест', 'тизер', 'шапк', 'образовательн', 'программ', 'необходим', 'размест', 'непосредствен', 'анонс', 'подробн', 'размещен', 'анонс', 'сам', 'тизер', 'шапк', 'добавля', 'сайт', 'программ', 'сайт', 'подразделен', 'котор', 'реализ', 'программ', 'для', 'необходим', 'войт', 'редактор', 'дан', 'блоки→', 'образовательн', 'программ', 'проставля', 'дат', 'событ', 'заголовок', 'заголовк', 'прописыва', 'назван', 'например', 'ден', 'открыт', 'двер', 'дополнительн', 'прописыва', 'дат', 'назван', 'программ', 'нужн', 'ссылк', 'анонс', 'обязательн', 'став', 'галочк', 'активн', 'проставля', 'дат', 'котор', 'тизер', 'отобража', 'программ', 'посл', 'клика', 'выбра', 'образовательн', 'программ', 'откроет', 'список', 'всем', 'программ', 'бакалаврск', 'магистерск', 'котор', 'реализ', 'подразделен', 'проставля', 'галк', 'напрот', 'нужн', 'сохраня']</t>
+          <t>['раздел', 'цифр', 'факт', 'ни', 'вшэ', 'постоя', 'что-т', 'меня', 'открыва', 'нов', 'программ', 'провод', 'исследован', 'появля', 'нов', 'подразделен', 'подготов', 'статистическ', 'информац', 'жизн', 'университет', 'нам', 'помога', 'аналитическ', 'центр.', 'когд', 'использует', 'какие-т', 'цифр', 'стат', 'интерв', 'проч.', 'пожалуйст', 'уточн', 'аналитическ', 'центр', 'будут', 'сведен', 'обновл', 'ближайш', 'врем']</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['главн', 'страниц', 'программ', 'главн', 'страниц', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'при', 'открыт', 'сайт', 'служб', 'поддержк', 'порта', 'созда', 'базов', 'структур', 'страниц', 'поэт', 'нул', 'работа', 'не', 'придет', 'как', 'элемент', 'страниц', 'открыт', 'сайт', 'метаинформац', 'основн', 'дан', 'программ', 'соста', 'элемент', 'блок', 'неизмен', 'для', 'русск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'количеств', 'мест', 'язык', 'обучен', 'информац', 'аккредитац', 'английск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'стоимост', 'обучен', 'язык', 'обучен', 'информац', 'аккредитац', 'все', 'дан', 'вывод', 'баз', 'дан', 'порта', 'котор', 'внос', 'утвержден', 'учен', 'совет', 'университет', 'случа', 'обнаружен', 'ошибк', 'напиш', 'portal', 'hse.ru', 'предварительн', 'провер', 'дан', 'сайт', 'программ', 'действительн', 'отлича', 'официальн', 'дан', 'сайт', 'приемн', 'комисс', 'бакалавриат', 'магистратур', 'есл', 'согласн', 'информац', 'эт', 'сайт', 'обраща', 'коллег', 'приемн', 'комисс', 'исключен', 'составля', 'информац', 'международн', 'аккредитац', 'профессионально-обществен', 'аккредитац', 'независим', 'оценк', 'качеств', 'образован', 'налич', 'дан', 'информац', 'размеща', 'прав', 'редактор', 'сайт', 'раздел', 'дан', 'блок', 'аккредитац', 'дан', 'стоимост', 'показыва', 'английск', 'верс', 'вид', 'диапазон', 'цен', 'случа', 'точн', 'дан', 'стипенд', 'иностранц', 'зависим', 'получен', 'балл', 'есл', 'программ', 'особ', 'услов', 'предоставлен', 'скидок', 'умолчан', 'сто', 'полн', 'стоимост', 'программ', 'письм', 'адрес', 'служб', 'поддержк', 'portal', 'hse.ru', 'добавл', 'примечан', 'особ', 'услов', 'предоставлен', 'скидок', 'формулировк', 'HSE', 'Scholarships', 'for', 'International', 'Applicants', 'университеты-партнер', 'образовательн', 'программ', 'дан', 'вывод', 'баз', 'порта', 'есл', 'хот', 'поменя', 'добав', 'партнер', 'portal', 'hse.ru', 'нужн', 'присла', 'назван', 'университет', 'ссылк', 'сайт', 'логотип', 'максимальн', 'числ', 'партнер', 'главн', 'есл', 'необходим', 'показа', 'возможн', 'партнерск', 'отношен', 'эт', 'необходим', 'сдела', 'отдельн', 'страниц', 'партнер', 'Partners', 'раздел', 'главн', 'подробн', 'см.', 'стандарт', 'информац', 'раскрыва', 'блок', 'редактирован', 'блок', 'осуществля', 'раздел', 'дан', 'блок', 'главн', 'страниц', 'информац', 'аккордеон', 'блок', 'использ', 'формирован', 'турбо-верс', 'поэт', 'подразумева', 'добавлен', 'графическ', 'информац', 'затрудня', 'загрузк', 'страниц', 'мобильн', 'устройств', 'обычн', 'раздел', 'сто', 'SEO-оптимизирова', 'текст.', 'виде', 'опциональн', 'главн', 'страниц', 'программ', 'размест', 'проморолик', 'выступлен', 'академическ', 'руководител', 'статистик', 'просмотр', 'видеоролик', 'посмотрет', 'обычн', 'работ', 'съемк', 'видеоролик', 'организ', 'реализ', 'подразделен', 'самостоятельн', 'случа', 'невозможн', 'снят', 'виде', 'сил', 'подразделен', 'обрат', 'дирекц', 'маркетингов', 'коммуникац', 'продвижен', 'шишков', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'есл', 'программ', 'готов', 'ролик', 'необходим', 'зал', 'YоуTубе-кана', 'подразделен', 'YоуTубе-кана', 'университет', 'последн', 'случа', 'обрат', 'семенов', 'алин', 'викторовн', 'для', 'размещен', 'проморолик', 'сайт', 'программ', 'пришл', 'ссылк', 'YouTube', 'адрес', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'важн', 'объявлен', 'использ', 'акцентирован', 'важн', 'событий/нов', 'программ', 'помн', 'важн', 'объявлен', 'должн', 'содержа', 'символ', 'он', 'занима', 'одн', 'строк', 'экран', 'все', 'подробн', 'перечисля', 'ссылк', 'важн', 'объявлен', 'одн', 'максимум', 'нужн', 'размеща', 'важн', 'объявлен', 'ссылк', 'мероприят', 'использ', 'функциона', 'анонс', 'важн', 'объявлен', 'оформля', 'ссылк', 'отдельн', 'страниц', 'сам', 'программ', 'люб', 'страниц', 'порта', 'внешн', 'ресурс', 'дан', 'редактир', 'раздел', 'дан', 'блок', 'важн', 'объявлен', 'нажм', 'важн', 'объявлен', 'добав', 'объявлен', 'заполня', 'пол', 'текст', 'пол', 'ссылк', 'добавьт', 'адрес', 'страниц', 'котор', 'перенаправл', 'пользовател', 'нажат', 'текст', 'объявлен', 'информац', 'пол', 'дат', 'отобража', 'лев', 'ссылк', 'объявлен', 'подход', 'уточнен', 'времен', 'событ', 'размещен', 'объявлен', 'пол', 'заполня', 'посл', 'обязательн', 'поставьт', 'галк', 'объявлен', 'активн', 'пол', 'укаж', 'дат', 'котор', 'дан', 'объявлен', 'вывод', 'главн', 'страниц', 'программ', 'нажима', 'сохран', 'объявлен', 'добавл', 'мероприят', 'раздел', 'анонсы/мероприят', 'эт', 'раздел', 'котор', 'предусмотр', 'кажд', 'образовательн', 'программ', 'располага', 'адрес', '/announcements', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'значим', 'все', 'программ', 'цел', 'например', 'предстоя', 'лекция/мастер-класс', 'учен', 'цикл', 'лекций/семинар', 'конференц', 'конкурс', 'студент', 'зимние/летн', 'школ', 'встреч', 'работодател', 'дни', 'открыт', 'двер', 'защит', 'предзащит', 'все', 'значим', 'студент', 'абитуриент', 'программ', 'зде', 'могут', 'размещ', 'объявлен', 'конкурс', 'грант', 'приглашен', 'летние/зимн', 'школ', 'мероприят', 'определен', 'срок', 'подач', 'заявок', 'при', 'добавлен', 'анонс', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'можн', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'сообщен', 'инструкц', 'размещен', 'анонс', 'наход', 'адрес', 'https', '//portal.hse.ru/instann', 'анонсирован', 'дне', 'открыт', 'двер', 'как', 'необходим', 'размеща', 'информац', 'сайт', 'факультет', 'образовательн', 'программ', 'случа', 'ден', 'открыт', 'двер', 'провод', 'сраз', 'нескольк', 'образовательн', 'программ', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'посл', 'сайт', 'факультет', 'необходим', 'размест', 'ссылк', 'анонс', 'котор', 'вывод', 'шапк', 'образовательн', 'программ', 'вид', 'тизер', 'обрат', 'вниман', 'назван', 'анонс', 'должн', 'представля', 'соб', 'развернут', 'предложен', 'достаточн', 'прост', 'написа', 'ден', 'открыт', 'двер', 'дополнительн', 'анонс', 'дня', 'открыт', 'двер', 'размест', 'анонс', 'раздел', 'главн', 'абитуриент', 'сайт', 'образовательн', 'программ', 'полност', 'копирова', 'анонс', 'мероприят', 'сайт', 'программ', 'такж', 'нужн', 'достаточн', 'воспользова', 'функционал', 'размест', 'подразделен', 'выбер', 'вариант', 'ссылк', 'оригинальн', 'анонс', 'есл', 'ден', 'открыт', 'двер', 'провод', 'одн', 'программ', 'анонс', 'размеща', 'непосредствен', 'сайт', 'соответств', 'программ', 'раздел', 'главн', 'абитуриент', 'такж', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'для', 'использ', 'функциона', 'размест', 'подразделен', 'случа', 'мероприят', 'обширн', 'программ', 'например', 'https', '//www.hse.ru/dod2021', 'мероприят', 'созда', 'отдельн', 'ресурс', 'случа', 'размещен', 'анонс', 'сайт', 'факультет', 'программ', 'такж', 'тизер', 'став', 'гиперссылк', 'сайт', 'мероприят', 'обычн', 'случа', 'реч', 'идет', 'факультетск', 'дне', 'открыт', 'двер', 'котор', 'инач', 'присутств', 'программ', 'для', 'создан', 'страниц', 'нужн', 'отправ', 'запрос', 'адрес', 'portal', 'hse.ru', 'прилож', 'письм', 'наполнен', 'сайт', 'новост', 'раздел', 'новост', 'предусматрива', 'размещен', 'развернут', 'материал', 'прошедш', 'состоя', 'событ', 'зде', 'например', 'могут', 'размещ', 'новост', 'имен', 'прошл', 'событ', 'анонсируем', 'мероприят', 'информац', 'студент', 'выигра', 'какие-либ', 'олимпиады/грант', 'заключен', 'договор', 'иностра', 'университет', 'программ', 'обм', 'исследован', 'каса', 'тематик', 'программ', 'поздравлен', 'значим', 'событиями/достижениями…', 'при', 'добавлен', 'новост', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'так', 'раздел', 'четыр', 'главн', 'абитуриент', 'студент', 'выпускник', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'новост', 'случа', 'выбра', 'раздел', 'программ', 'добавлен', 'информац', 'отобража', 'сайт', 'программ', 'инструкц', 'размещен', 'новост', 'похож', 'программ', 'вниз', 'главн', 'страниц', 'программ', 'вывод', 'список', 'программ', 'реализуем', 'вшэ', 'так', 'направлен', 'обучен', 'однак', 'список', 'отобража', 'программ', 'измен', 'редактирован', 'дан', 'блок', 'бакалаврск', 'программ', 'друг', 'образовательн', 'программ', 'для', 'изменен', 'списк', 'программ', 'заход', 'друг', 'образовательн', 'программ', 'нажима', 'добав', 'откр', 'окн', 'ввод', 'назван', 'программ', 'нажима', 'найт', 'результат', 'поиск', 'выбира', 'нужн', 'программ', 'клика', 'ок.', 'посл', 'добавл', 'хот', 'одн', 'программ', 'дан', 'блок', 'главн', 'страниц', 'пропадут', 'программ', 'котор', 'вывод', 'автоматическ', 'будут', 'вывод', 'котор', 'зада', 'вручн', 'блок', 'друг', 'образовательн', 'программ', 'вокруг', 'социальн', 'блок', 'есл', 'страниц', 'ваш', 'профил', 'социальн', 'сет', 'идет', 'активн', 'жизн', 'социальн', 'сет', 'материал', 'интересн', 'абитуриент', 'студент', 'программ', 'ссылк', 'актуальн', 'пост', 'запис', 'вывод', 'непосредствен', 'главн', 'страниц', 'программ', 'для', 'предусмотр', 'блок', 'вокруг', 'обрат', 'вниман', 'добавля', 'ссылк', 'кажд', 'нов', 'интересн', 'пост', 'убира', 'неактуальн', 'пост', 'необходим', 'вручн', 'раздел', 'блок', 'выбира', 'вокруг', 'социальн', 'блок', 'добавля', 'заголовок', 'блок', 'добавля', 'запис', 'заполн', 'необходим', 'пол', 'посл', 'проставля', 'галк', 'включ', 'нажима', 'сохран', 'обновля', 'главн', 'страниц', 'кнопк', 'клавиатур', 'проверя', 'отобраз', 'блок', 'социальн', 'сет', 'мен', 'прав', 'колонк', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'мен', 'главн', 'страниц', 'может', 'дублирова', 'пункт', 'мен', 'раздел', 'главн', 'содержа', 'какие-т', 'друг', 'важн', 'пункт', 'усмотрен', 'программ', 'заполня', 'менеджер', 'программ', 'отобража', 'главн', 'страниц', 'сайт', 'программ', 'одн', 'сам', 'кликабельн', 'мест', 'справ', 'верхн', 'част', 'главн', 'страниц', 'руководств', 'программ', 'руководител', 'менеджер', 'раздел', 'редактир', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'вопрос', 'внесен', 'изменен', 'необходим', 'обраща', 'сюзан', 'райа']</t>
+          <t>['систем', 'антиплагиат', 'предоставля', 'прав', 'преподавател', 'ни', 'вшэ', 'проверк', 'студенческ', 'работ', 'систем', 'антиплагиат', 'чтоб', 'получ', 'доступ', 'достаточн', 'написа', 'заявк', 'люб', 'адрес', 'корпоративн', 'почт', 'адрес', 'antiplagiat', 'hse.ru']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['верхн', 'мен', 'раздел', 'программ', 'верхн', 'мен', 'наход', 'раздел', 'программ', 'абитуриент', 'студент', 'выпускник', 'чтоб', 'попаст', 'главн', 'страниц', 'кажд', 'раздел', 'необходим', 'щелкнут', 'назван', 'вкладк', 'раздел', 'программ', 'абитуриент', 'появля', 'мен', 'мер', 'наполнен', 'раздел', 'блок', 'главн', 'административн', 'интерфейс', 'раздел', 'студент', 'выпускник', 'программ', 'включаеют', 'отключа', 'служб', 'поддержк', 'порта', 'есл', 'программ', 'необходим', 'включ', 'отключ', 'раздел', 'студент', 'и/', 'выпускник', 'пиш', 'portal', 'hse.ru', 'раздел', 'программ', 'дан', 'раздел', 'размеща', 'общ', 'информац', 'программ', 'раздел', 'программ', 'должн', 'вход', 'след', 'пункт', 'программ', 'статстраниц', 'техническ', 'имен', 'about', 'специализац', 'налич', 'специализац', 'добавля', 'подпункт', 'мен', 'партнер', 'статстраниц', 'техническ', 'имен', 'partners', 'рассказ', 'партнер', 'программ', 'зарубежн', 'российск', 'внутрен', 'подразделен', 'вшэ', 'относя', 'факультет', 'пункт', 'явля', 'обязательн', 'достижен', 'студент', 'статстраниц', 'техническ', 'имен', 'success', 'пункт', 'созда', 'случа', 'программ', 'готов', 'дела', 'сводн', 'текст', 'достижен', 'студент', 'вест', 'статистик', 'пункт', 'явля', 'обязательн', 'выпускник', 'статстраниц', 'техническ', 'имен', 'alumni', 'страниц', 'рассказыва', 'выпускник', 'программ', 'привод', 'статистик', 'пункт', 'явля', 'обязательн', 'научно-исследовательск', 'семинар', 'статстраниц', 'техническ', 'имен', 'seminar', 'пункт', 'явля', 'обязательн', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'главн', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'раздел', 'абитуриент', 'набор', 'раздел', 'абитуриент', 'доступ', 'ссылк', '/admission', 'центральн', 'част', 'дан', 'раздел', 'составля', 'паспорт', 'программ', 'такж', 'страниц', 'вывод', 'виде', 'программ', 'новост', 'мероприят', 'важн', 'объявлен', 'налич', 'вся', 'информац', 'представлен', 'паспорт', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'размещен', 'некорректн', 'информац', 'необходим', 'отправ', 'запрос', 'внесен', 'изменен', 'portal', 'hse.ru', 'раздел', 'абитуриент', 'вход', 'след', 'обязательн', 'пункт', 'траектор', 'поступлен', 'статстраниц', 'техническ', 'имен', 'tracks', 'будущ', 'професс', 'статстраниц', 'техническ', 'имен', 'career', 'подготовк', 'статстраниц', 'техническ', 'имен', 'requirements', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'абитурент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'раздел', 'студент', 'студент', 'раздел', 'студент', 'программ', 'доступ', 'ссылк', '/students', 'нем', 'обязательн', 'представл', 'мен', 'предусмотрен', 'программ', 'верхн', 'сер', 'блок', 'доск', 'объявлен', 'при', 'налич', 'программ', 'новост', 'мероприят', 'ориентирова', 'студент', 'такж', 'вывод', 'главн', 'страниц', 'раздел', 'студент', 'сер', 'блок', 'сер', 'блок', 'вынос', 'тематическ', 'ссылк', 'сред', 'котор', 'обязательн', 'котор', 'программ', 'добав', 'сам', 'существ', 'ограничен', 'скольк', 'добав', 'ссылок', 'блок', 'блок', 'ссылок', 'для', 'кажд', 'филиа', 'набор', 'ссылок', 'сво', 'ссылк', 'умолчан', 'программ', 'блок', 'студенческ', 'жизн', 'студенческ', 'организац', 'вшэ', 'https', '//studlife.hse.ru/studentlife', 'спорт', 'http', '//sport.hse.ru/', 'студенческ', 'совет', 'вшэ', 'http', '//studsovet.hse.ru/', 'центр', 'развит', 'карьер', 'http', '//career.hse.ru/', 'блок', 'социальн', 'сфер', 'стипенд', 'http', '//www.hse.ru/scholarships/', 'социальн', 'поддержк', 'http', '//www.hse.ru/org/hse/aup/social/', 'служб', 'психологическ', 'помощ', 'http', '//www.hse.ru/cpc/studenti', 'общежит', 'http', '//www.hse.ru/dormitory/', 'блок', 'информацион', 'сред', 'LMS', 'http', '//lms.hse.ru/', 'антиплагиат', 'http', '//www.hse.ru/org/hse/antiplagiat_info/', 'справочник', 'учебн', 'процесс', 'http', '//www.hse.ru/studyspravka/', 'библиотек', 'http', '//library.hse.ru/', 'кажд', 'колонок', 'редактир', 'соответств', 'раздел', 'блок', 'пункт', 'колонок', 'котор', 'явля', 'обязательн', 'программ', 'отобража', 'редакторск', 'интерфейс', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'назван', 'пункт', 'меня', 'программ', 'сраз', 'редакторск', 'интерфейс', 'программ', 'отобража', 'пункт', 'колонок', 'котор', 'менеджер', 'программ', 'добавляют/редактир', 'самостоятельн', 'раздел', 'студент', 'вход', 'след', 'обязательн', 'пункт', 'рейтинг', 'автоматическ', 'страниц', 'техническ', 'имен', 'ratings', 'курс', 'выбор', 'проектн', 'работ', 'http', '//electives.hse.ru/', 'рекомендова', 'онлайн-курс', 'MOOCs', 'статстраниц', 'техническ', 'имен', 'moocs', 'студенческ', 'мобильн', 'cтажировк', 'программ', 'обмен', 'проч.', 'статстраниц', 'техническ', 'имен', 'mobility', 'практическ', 'подготовк', 'статстраниц', 'техническ', 'имен', 'internships', 'каталог', 'вкр', 'автоматическ', 'страниц', 'техническ', 'имен', 'diplomas', 'итогов', 'аттестац', 'актуальн', 'статстраниц', 'техническ', 'имен', 'assessment', 'страниц', 'рейтинг', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/ратингс', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'страниц', 'каталог', 'вкр', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/дипломас', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'студент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'доск', 'объявлен', 'доск', 'объявлен', 'доступн', 'адрес', '/blackboard', 'использ', 'коротк', 'объявлен', 'текущ', 'учебн', 'процесс', 'изменен', 'расписан', 'отм', 'перенос', 'занят', 'вопрос', 'подготовк', 'письмен', 'работ', 'консультац', 'экзамен', 'разнообразн', 'оповещен', 'справк', 'пр.', 'подробн', 'инструкц', 'настройк', 'работ', 'доск', 'объявлен', 'представл', 'раздел', 'выпускник', 'информац', 'выпускник', 'раздел', 'отобража', 'верхн', 'мен', 'программ', 'случа', 'заполн', 'страниц', 'относя', 'раздел', 'мен', 'выпускник', 'проставл', 'ссылк', 'дан', 'страниц', 'непосредствен', 'главн', 'страниц', 'раздел', 'могут', 'располага', 'новост', 'анонс', 'раздел', 'могут', 'вход', 'след', 'пункт', 'ваканс', 'клуб', 'выпускников/встреч', 'выпускник', 'пожертвован', 'фонд', 'целев', 'капита', 'мен', 'раздел', 'редактир', 'редактор', 'блок', 'нов', 'мен', 'выпускник']</t>
+          <t>['отчет', 'мож', 'дат', 'доступ', 'заполнен', 'след', 'электрон', 'форм', 'отчет', 'отчет', 'деятельн', 'научно-учебн', 'проектно-учебн', 'лаборатор', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'отчет', 'участник', 'групп', 'высок', 'профессиональн', 'потенциа', 'ни', 'вшэ', 'отчет', 'кадров', 'резерв', 'отчет', 'принима', 'управлен', 'академическ', 'развит', 'мож', 'рассказа', 'внос', 'информац', 'мож', 'рассказа', 'имен', 'должн', 'внес', 'отчет', 'вопрос', 'смогут', 'ответ', 'сотрудник', 'соответств', 'подразделен', 'чтоб', 'получ', 'доступ', 'отчет', 'достаточн', 'написа', 'письм', 'адрес', 'portal', 'hse.ru', 'пожалуйст', 'указыва', 'письм', 'заполнен', 'как', 'отчет', 'отвеча', 'некотор', 'отчет', 'сдают', 'одн', 'врем', 'нам', 'сложн', 'поня', 'имен', 'интерес']</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>['общ', 'мен', 'показыва', 'прав', 'колонк', 'страниц', 'сайт', 'программ', 'чтоб', 'вывест', 'пункт', 'сайт', 'нужн', 'написа', 'portal', 'hse.ru', 'предварительн', 'необходим', 'провер', 'показыва', 'информац', 'соответств', 'страниц', 'учебн', 'курс', 'страниц', 'генерир', 'автоматическ', 'адрес', '/courses', 'основ', 'дан', 'LMS', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'преподавател', 'страниц', 'генерир', 'автоматическ', 'адрес', '/tutors', 'основ', 'дан', 'нагрузк', 'преподавател', 'аса', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'автоматическ', 'страниц', 'доступн', 'адрес', '/vacant', 'дан', 'внос', 'редакторск', 'интерфейс', 'для', 'главн', 'страниц', 'сайт', 'программ', 'необходим', 'зайт', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'дан', 'бюджетн', 'вакантн', 'мест', 'есл', 'дан', 'обновл', 'показыва', 'некорректн', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'аббасов', 'елен', 'сергеевн', 'информац', 'обновля', 'мен', 'четырех', 'год.', 'документ', 'раздел', 'располага', 'адрес', '/documents', 'част', 'документ', 'вывод', 'страниц', 'автоматическ', 'аса', 'част', 'внос', 'менеджер', 'структур', 'документ', 'образовательн', 'программ', 'выгляд', 'след', 'образ', 'включа', 'паспорт', 'образовательн', 'программ', 'изменя', 'част', 'документ', 'образовательн', 'программ', 'учебн', 'план', 'образовательн', 'программ', 'календарн', 'учебн', 'график', 'документ', 'автоматическ', 'загружа', 'аса', 'оценочн', 'материал', 'методическ', 'материал', 'ин', 'компонент', 'образовательн', 'программ', 'заполня', 'ответствен', 'программ', 'редактирован', 'страниц', 'образовательн', 'программ', 'инструкц', 'заполнен', 'раздел', 'документ', 'для', 'внесен', 'информац', 'раздел', 'документ', 'зайт', 'сайт', 'сво', 'образовательн', 'программ', 'дал', 'редактор', 'блок', 'раздел', 'документ', 'образовательн', 'программ', 'при', 'нажат', 'раздел', 'документ', 'откроет', 'так', 'окн', 'программ', 'практик', 'ссылк', 'страниц', 'описан', 'практик', 'добавля', 'самостоятельн', 'оценочн', 'материал', 'образовательн', 'программ', 'нажима', 'кнопк', 'добав', 'размеща', 'ссылк', 'имеющ', 'документ', 'необходим', 'например', 'программ', 'госэкзам', 'методическ', 'рекомендац', 'подготовк', 'вкр', 'ссылк', 'файл', 'добавля', 'обязательн', 'методическ', 'материал', 'образовательн', 'программ', 'могут', 'добавля', 'требован', 'организац', 'результат', 'проектн', 'научно-исследовательск', 'деятельн', 'студент', 'ссылк', 'файл', 'методическ', 'рекомендац', 'подготовк', 'курсов', 'работ', 'ссылк', 'файл', 'перечен', 'вкр', 'ссылк', 'баз', 'вкр', 'прошл', 'лет', 'выпуск', 'прикреп', 'файл', 'примерн', 'тем', 'вкр', 'обязательн', 'тем', 'вкр', 'котор', 'ин', 'компонент', 'образовательн', 'программ', 'добавля', 'ссылк', 'имеющ', 'документ', 'перечен', 'курсов', 'работ', 'предусмотр', 'прикрепля', 'файл', 'пример', 'курсов', 'перечен', 'тематик', 'проект', 'студент', 'предусмотр', 'прикрепля', 'файл', 'пример', 'проект', 'инструкц', 'заполнен', 'паспорт', 'образовательн', 'программ', 'необходим', 'зайт', 'порта', 'страниц', 'сво', 'образовательн', 'программ', 'качеств', 'редактор', 'дал', 'блок', 'паспорт', 'программ', 'приступа', 'заполнен', 'раздел', 'паспорт', 'пол', 'утвержден', 'программ', 'должн', 'пол', 'реквизит', 'документ', 'утверд', 'программ', 'например', 'приказ', '15.07.2014', '6.18.1-01/1507-07', 'тех', 'новеньк', 'протокол', 'заседан', 'учен', 'совет', '28.09.2018', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'обраща', 'вниман', 'реквизит', 'утвержден', 'программ', 'паспорт', 'дат', 'документ', 'котор', 'утвержда', 'программ', 'пол', 'дат', 'обновлен', 'паспорт', 'должн', 'дат', 'обновлен', 'документ', 'реквизит', 'соответств', 'документ', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'например', '26.08.2019', 'протокол', 'пол', 'количеств', 'зачетн', 'единиц', 'внос', 'значен', 'объем', 'ваш', 'образовательн', 'программ', 'з.е.', 'пол', 'конкурентн', 'преимуществ', 'программ', 'бер', 'соответств', 'текст', 'сво', 'программ', 'пол', 'характеристик', 'профессиональн', 'деятельн', 'перечен', 'профессиональн', 'компетенц', 'выпускник', 'бер', 'текст', 'сво', 'программ', 'соответств', 'стандарт', 'пол', 'характеристик', 'образовательн', 'модул', 'программ', 'берет', 'текст', 'сво', 'программ', 'соответств', 'учебн', 'план', 'посл', 'заполнен', 'пол', 'нажима', 'кнопк', 'сохран', 'информац', 'отраз', 'паспорт', 'вопрос', 'раздел', 'паспорт', 'образовательн', 'программ', 'необходим', 'направля', 'управлен', 'развит', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'расписан', 'страниц', 'генерир', 'автоматическ', 'основ', 'дан', 'руз', 'доступн', 'адрес', '/timetable', 'есл', 'расписан', 'загруж', 'руз', 'формирован', 'автоматическ', 'страниц', 'адрес', 'timetable', 'необходим', 'редакторск', 'интерфейс', 'раздел', 'расписан', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'настройк', 'расписан', 'простав', 'галк', 'отобража', 'страниц', 'расписан', 'академическ', 'совет', 'страниц', 'академическ', 'совет', 'созда', 'редактир', 'раздел', 'академическ', 'совет', 'блок', 'зде', 'сможет', 'добав', 'сотрудник', 'вшэ', 'внешн', 'люд', 'есл', 'сотрудник', 'вшэ', 'вписыва', 'фамил', 'нажима', 'найт', 'откр', 'окн', 'выбира', 'нужн', 'персон', 'должност', 'может', 'добав', 'котор', 'предлага', 'систем', 'либ', 'вписа', 'должност', 'самостоятельн', 'меня', 'порядок', 'расположен', 'член', 'академическ', 'совет', 'прост', 'перетаскив', 'мышк', 'ин', 'зап', 'нужн', 'мест', 'обрат', 'вниман', 'дан', 'блок', 'прописыва', 'назван', 'групп', 'персон', 'академическ', 'совет', 'нужн', 'посл', 'заполн', 'блок', 'проверьт', 'страниц', 'совет', 'выгляд', 'нужн', 'адресн', 'строк', 'прописа', 'адрес', 'ваш', 'программы/аcадем_cоунc', 'когд', 'убед', 'порядк', 'напиш', 'portal', 'hse.ru', 'просьб', 'откр', 'пункт', 'мен']</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>['создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'прежд', 'создава', 'страниц', 'прочита', 'информац', 'каса', 'страниц', 'раздел', 'верхн', 'мен', 'раздел', 'программ', 'прежд', 'добав', 'нов', 'пункт', 'мен', 'необходим', 'созда', 'статическ', 'страниц', 'наполнен', 'поможет', 'инструкц', 'создан', 'нов', 'статическ', 'страниц', 'при', 'добавлен', 'страниц', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'случа', 'например', 'клик', 'раздел', 'подготовк', 'пользовател', 'остава', 'раздел', 'абитуриент', 'страниц', 'быва', 'прост', 'составн', 'есл', 'необходим', 'прост', 'аккуратн', 'размест', 'текст', 'текст', 'таблиц', 'достаточн', 'прост', 'страниц', 'есл', 'хот', 'добав', 'фот', 'преподавателей/студент', 'кнопк', 'проч.', 'воспользова', 'составн', 'страниц', 'зат', 'выбира', 'мен', 'главн', 'абитуриент', 'студент', 'котор', 'располага', 'ссылк', 'статическ', 'страниц', 'нажима', 'добав', 'групп', 'прописыва', 'назван', 'групп', 'пункт', 'мен', 'ссылк', 'статстраниц', 'сохраня', 'есл', 'какого-т', 'пункт', 'предусмотр', 'подмен', 'внутр', 'групп', 'клика', 'добав', 'ссылк', 'прописыва', 'назван', 'страниц', 'ссылк', 'не', 'сохраня', 'обрат', 'вниман', 'групп', 'сто', 'символ', 'замок', 'менеджер', 'программ', 'редактирова', 'дан', 'пункт', 'мен', 'однак', 'созда', 'редактирова', 'непосредствен', 'страниц', 'для', 'внесен', 'изменен', 'мен', 'добавлен', 'ссылк', 'страниц', 'заблокирова', 'пункт', 'мен', 'необходим', 'отправ', 'письм', 'portal', 'hse.ru', 'пункт', 'мен', 'раздел', 'общ', 'такж', 'открыва', 'служб', 'поддержк', 'порта', 'запрос', 'программ', 'важн', 'создава', 'нов', 'пункт', 'мен', 'аналогичн', 'наход', 'замочк']</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>['адрес', 'текстов', 'блок', 'отредактирова', 'добав', 'адрес', 'подразделен', 'реализ', 'программ', 'зайд', 'раздел', 'текстов', 'блок', 'главн', 'страниц', 'заход', 'редактор', 'дан', 'блок', 'заголовк', 'указыва', 'назван', 'блок', 'опциональн', 'пол', 'текст', 'непосредствен', 'фактическ', 'адрес', 'кром', 'текстов', 'блок', 'позволя', 'добавля', 'люб', 'дополнительн', 'информац', 'прав', 'колонк', 'сайт', 'контактн', 'информац', 'дополнительн', 'ссылк', 'руководств', 'т.п.', 'текстов', 'блок', 'использ', 'след', 'визуальн', 'редактор', 'иллюстрац', 'указа', 'основн', 'инструмент', 'обрат', 'вниман', 'назначен', 'кажд', 'инструмент', 'узна', 'навед', 'курсор', 'соответств', 'иконк', 'панел']</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>['буклет', 'программ', 'нов', 'буклет', 'образовательн', 'программ', 'ежегодн', 'верста', 'сотрудник', 'отдел', 'визуальн', 'коммуникац', 'обновля', 'буклет', 'сайт', 'служб', 'поддержк', 'порта', 'получен', 'файл', 'отдел', 'визуальн', 'коммуникац', 'обрат', 'вниман', 'созда', 'буклет', 'самостоятельн', 'отправ', 'служб', 'поддержк', 'порта', 'просьб', 'замен', 'буклет', 'сайт', 'снача', 'соглас', 'готов', 'макет', 'руководител', 'отдел', 'визуальн', 'коммуникац', 'кутьков', 'ю.']</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>['учебн', 'офис', 'главн', 'страниц', 'необходим', 'добав', 'ссылк', 'учебн', 'офис', 'программ', 'редакторск', 'интерфейс', 'сайт', 'образовательн', 'программ', 'предусмотр', 'возможн', 'создан', 'страниц', 'учебн', 'офис', 'специальн', 'функциона', 'чтоб', 'добра', 'блок', 'учебн', 'офис', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'учебн', 'офис', 'вам', 'необходим', 'зайт', 'блок', 'учебн', 'офис', 'добав', 'персон', 'обрат', 'вниман', 'такж', 'предусмотр', 'возможн', 'добавлен', 'контактн', 'дан', 'кажд', 'персон', 'нажа', 'кнопк', 'сохран', 'посмотрет', 'получ', 'может', 'страниц', 'адрес', 'http', '//адрес_вашей_программы/студы_оффиc', 'например', 'http', '//www.hse.ru/ba/cultural/study_office/', 'посл', 'нов', 'ссылк', 'необходим', 'добав', 'раздел', 'ссылк', 'учебн', 'офис']</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>['социальн', 'кнопк', 'блок', 'социальн', 'кнопк', 'использ', 'программ', 'проф', 'популярн', 'социальн', 'сет', 'редакторск', 'интерфейс', 'необходим', 'лиш', 'выбра', 'сет', 'дат', 'ссылк', 'профил', 'порядок', 'расположен', 'ссылок', 'социальн', 'сет', 'легк', 'меня', 'прост', 'перетащ', 'ссылк', 'нужн', 'строк']</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>['турбо-верс', 'турбо-страниц', 'ускоря', 'загрузк', 'контент', 'поиск', 'яндекс', 'новост', 'дзен', '3G-сет', 'турбо-страниц', 'формир', 'един', 'шаблон', 'быстр', 'загружа', 'смартфон', 'медлен', 'нестабильн', 'интернет', 'при', 'открыт', 'сайт', 'нов', 'программ', 'турбо-верс', 'созда', 'служб', 'поддержк', 'порта', 'дальн', 'корректировк', 'содержан', 'турбо-верс', 'дела', 'самостоятельн', 'изменен', 'турбо-верс', 'привод', 'автоматическ', 'изменен', 'главн', 'страниц', 'сайт', 'турбо-верс', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'турбо-верс', 'шапк', 'турбо-верс', 'навигацион', 'мен', 'содержа', 'максимальн', 'вкладк', 'кажд', 'дает', 'ссылк', 'главн', 'страниц', 'сайт', 'программ', 'абитуриент', 'студент', 'выпускник', 'есл', 'программ', 'появ', 'вкладк', 'котор', 'ран', 'например', 'студент', 'выпускник', 'добавьт', 'навигацион', 'мен', 'турбо-верс', 'заголовок', 'ссылк', 'забудьт', 'сохран', 'изменен', 'важн', 'заголовк', 'уровн', 'такж', 'изображен', 'внос', 'сотрудник', 'служб', 'поддержк', 'порта', 'главн', 'страниц', 'турбо-верс', 'виджет', 'текст', 'текстов', 'пол', 'внос', 'скопирова', 'главн', 'страниц', 'описан', 'программ', 'при', 'изменен', 'описан', 'зам', 'текст', 'главн', 'страниц', 'производ', 'сотрудник', 'служб', 'порта', 'меня', 'текст', 'турбо-верс', 'виджет', 'информац', 'аккордеон', 'зам', 'текст', 'внутр', 'происход', 'автоматическ', 'измен', 'текст', 'раскрыва', 'блок', 'главн', 'страниц', 'сайт', 'оп.', 'виджет', 'кнопк', 'заголовок', 'вынос', 'назван', 'кнопк', 'пол', 'ссылк', 'став', 'ссылк', 'есл', 'главн', 'страниц', 'поменя', 'назван', 'кнопк', 'ссылк', 'забудьт', 'внест', 'обновлен', 'турбо-верс', 'добавля', 'турбо-верс', 'одн', 'кнопк', 'виджет', 'ссылк', 'виде', 'став', 'налич', 'виде', 'главн', 'страниц', 'оп.', 'есл', 'виде', 'измен', 'главн', 'страниц', 'он', 'появ', 'автоматическ', 'турбо-верс', 'должн', 'поменя', 'ссылк', 'самостоятельн']</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>['английск', 'верс', 'есл', 'программ', 'английск', 'верс', 'редактирован', 'происход', 'русск', 'верс', 'английск', 'блок', 'редактор', 'дан', 'блок', 'англ.', 'единствен', 'отлич', 'создан', 'статическ', 'страниц', 'пол', 'язык', 'необходим', 'установ', 'английск', 'есл', 'программ', 'существ', 'страниц', 'одинаков', 'содержан', 'русск', 'английск', 'язык', 'например', 'программ', 'техническ', 'им', 'должн', 'совпада', 'нужн', 'имен', 'английск', 'страниц', 'задава', 'различ', 'дан', 'случа', 'служ', 'пол', 'язык', 'тольк', 'случа', 'им', 'стат.', 'страниц', 'разн', 'язык', 'совпада', 'пользовател', 'переход', 'страниц', 'одн', 'язык', 'страниц', 'друг', 'язык', 'попада', 'идентичн', 'страниц', 'главн', 'страниц', 'программ', 'есл', 'программ', 'английск', 'верс', 'необходим', 'программ', 'провод', 'английск', 'язык', 'больш', 'числ', 'англоязычн', 'курс', 'след', 'присла', 'заявк', 'активац', 'английск', 'верс', 'главн', 'редактор', 'мар', 'никитин', 'mpustovoyt', 'hse.ru', 'письм', 'необходим', 'прилож', 'имеющ', 'английск', 'текст', 'программ', 'есл', 'готов', 'текст', 'нужн', 'указа', 'список', 'страниц', 'перевод', 'есл', 'программ', 'существ', 'английск', 'верс', 'необходим', 'поддержива', 'обновля', 'добавля', 'новост', 'анонс', 'мероприят', 'интересн', 'иностра', 'аудитор', 'подробн', 'инструкц', 'guidelines', 'работ', 'английск', 'верс', 'сайт', 'образовательн', 'программ']</t>
-        </is>
-      </c>
+          <t>['нов', 'функциона', 'портал', 'разработк', 'порта', 'занима', 'управлен', 'разработк', 'информацион', 'сист', 'порта', 'есл', 'объективн', 'необходим', 'появлен', 'чего-т', 'нов', 'готов', 'обсуд', 'эт', 'вмест', 'пожалуйст', 'обсужден', 'постара', 'кратк', 'сформулирова', 'основн', 'пожелан', 'прикинут', 'как', 'систем', 'внутр', 'университет', 'эт', 'затронут', 'пожалуйст', 'нужн', 'пыта', 'заказа', 'разработк', 'одновремен', 'дирекц', 'информацион', 'технолог', 'дирекц', 'портал', 'мобильн', 'приложен', 'желан', 'подстрахова', 'естествен', 'поверьт', 'ник', 'хочет', 'дела', 'работ', 'стол.', 'есл', 'прочита', 'эт', 'нашл', 'ответ', 'сво', 'вопрос', 'напиш', 'директор', 'портал', 'дмитр', 'коптюбенк']</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -813,69 +745,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['чтоб', 'включ', 'доск', 'объявлен', 'сайт', 'образовательн', 'программ', 'необходим', 'откр', 'блок', 'доск', 'объявлен', 'дан', 'блок', 'постав', 'соответств', 'галочк']</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['блок', 'добав', 'нов', 'рубрик', 'фильтр', 'обрат', 'вниман', 'умолчан', 'доск', 'объявлен', 'содержат', 'ряд', 'типов', 'част', 'встреча', 'рубрик', 'кажд', 'объявлен', 'обязательн', 'порядк', 'должн', 'привяза', 'хот', 'одн', 'фильтр', 'умолчан', 'эт', 'курс', 'хот', 'одн', 'рубрик']</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>['программ', 'котор', 'имеют', 'нескольк', 'специализац', 'рекоменду', 'добав', 'дополнительн', 'фильтр', 'рубрик', 'специализац', 'имет', 'возможн', 'публикова', 'объявлен', 'студент', 'обуча', 'разн', 'трекам.чтоб', 'добав', 'нов', 'объявлен', 'мен', 'личн', 'кабинет', 'hse.ru/user', 'раздел', 'мо', 'задач', 'редактор', 'сайт', 'образовательн', 'программ', 'долж', 'выбра', 'пункт', 'объявлен', 'доск', 'объявлен']</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['откр', 'страниц', 'будут', 'доступн', 'ссылк', 'добавлен', 'нов', 'объявлен', 'ниж', 'наход', 'список', 'размещен', 'ран', 'объявлен', 'таков']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>['обрат', 'вниман', 'явля', 'редактор', 'сайт', 'нескольк', 'программ', 'создан', 'нов', 'объявлен', 'след', 'выбра', 'нужн', 'доск', 'списк']</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>['что', 'след', 'дела']</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>['создава', 'фильтр', 'тем', 'несущ', 'смыслов', 'нагрузк', 'так', 'например', 'относ', 'важн', 'информац', 'важн', 'пропуст', 'всем', 'использова', 'написан', 'заголовк', 'прописн', 'заглавн', 'букв', 'неправильн', 'обновл', 'расписан', 'правильн', 'обновл', 'расписан', 'пренебрега', 'форматирован', 'текст', 'текст', 'больш', 'количеств', 'пробел', 'интервал', 'т.п.', 'неудобн', 'чита']</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>['все', 'материал', 'связа', 'образовательн', 'программ', 'необходим', 'размеща', 'сайт', 'программ', 'например', 'расписан', 'должн', 'наход', 'сайт', 'образовательн', 'программ', 'сайт', 'факультет']</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>['инструкц', 'редактирован', 'сайт', 'образовательн', 'программ', 'размещ', 'http', '//portal.hse.ru/progs']</t>
-        </is>
-      </c>
+          <t>['шаг', 'необходим', 'удостовер', 'ваш', 'персональн', 'страниц', 'появ', 'сайт', 'персональн', 'страниц', 'появля', 'портал', 'автоматическ', 'внесен', 'дан', 'баз', 'сотрудник', 'управлен', 'персона', 'шаг', 'след', 'авторизова', 'един', 'личн', 'кабинет', 'елк', 'для', 'необходим', 'качеств', 'логин', 'ввест', 'адрес', 'корпоративн', 'почт', 'сотрудник', 'качеств', 'парол', 'парол', 'почт', 'есл', 'помн', 'парол', 'сво', 'почт', 'возника', 'ошибк', 'авторизац', 'обраща', 'digital', 'hse.ru', 'шаг', 'елк', 'нужн', 'перейт', 'раздел', 'корпоративн', 'порта', 'нажа', 'персональн', 'страниц', 'порта', 'есл', 'сможет', 'войт', 'редактирован', 'персональн', 'страниц', 'знач', 'ваш', 'корпоративн', 'e-mail', 'прописа', 'необходим', 'пол', 'напиш', 'пожалуйст', 'portal', 'hse.ru', 'письм', 'укаж', 'фи', 'сотрудник', 'адрес', 'корпоративн', 'почт', 'служб', 'порта', 'пропишет', 'e-mail', 'сможет', 'войт', 'письм', 'должн', 'отправл', 'строг', 'корпоративн', 'почт', 'сотрудник', 'hse.ru']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -894,12 +778,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['шаг', 'необходим', 'удостовер', 'ваш', 'персональн', 'страниц', 'появ', 'сайт', 'персональн', 'страниц', 'появля', 'портал', 'автоматическ', 'внесен', 'дан', 'баз', 'сотрудник', 'управлен', 'персона', 'шаг', 'след', 'авторизова', 'един', 'личн', 'кабинет', 'елк', 'для', 'необходим', 'качеств', 'логин', 'ввест', 'адрес', 'корпоративн', 'почт', 'сотрудник', 'качеств', 'парол', 'парол', 'почт', 'есл', 'помн', 'парол', 'сво', 'почт', 'возника', 'ошибк', 'авторизац', 'обраща', 'digital', 'hse.ru', 'шаг', 'елк', 'нужн', 'перейт', 'раздел', 'корпоративн', 'порта', 'нажа', 'персональн', 'страниц', 'порта', 'есл', 'сможет', 'войт', 'редактирован', 'персональн', 'страниц', 'знач', 'ваш', 'корпоративн', 'e-mail', 'прописа', 'необходим', 'пол', 'напиш', 'пожалуйст', 'portal', 'hse.ru', 'письм', 'укаж', 'фи', 'сотрудник', 'адрес', 'корпоративн', 'почт', 'служб', 'порта', 'пропишет', 'e-mail', 'сможет', 'войт', 'письм', 'должн', 'отправл', 'строг', 'корпоративн', 'почт', 'сотрудник', 'hse.ru']</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>['ког', 'персональн', 'страниц', 'появля', 'портал', 'сотрудник', 'ни', 'вшэ', 'исключен', 'сотрудник', 'категор', 'административно-хозяйствен', 'персона', 'занима', 'руководя', 'должност', 'обяза', 'имет', 'заполнен', 'соответств', 'стандарт', 'персональн', 'страниц', 'персональн', 'страниц', 'появля', 'автоматическ', 'внесен', 'приказ', 'трудоустройств', 'сотрудник', 'баз', 'управлен', 'персона', 'зик', 'ис-пр', 'показыва', 'общ', 'списк', 'преподавател', 'сотрудник', 'такж', 'списк', 'сотрудник', 'страниц', 'подразделен', 'автоматическ', 'появля', 'страниц', 'штатн', 'сотрудник', 'преподавател', 'имеющ', 'договор', 'гпх', 'ппс', 'так', 'сотрудник', 'показыва', 'портал', 'должност', 'приглашен', 'преподавател', 'есл', 'необходим', 'персональн', 'страниц', 'появ', 'сотрудник', 'работа', 'обычн', 'договор', 'гпх', 'оформлен', 'договор', 'сэд', 'необходим', 'постав', 'соответств', 'галочк', 'для', 'оформлен', 'договор', 'галочк', 'нужн', 'постав', 'кадров', 'систем', 'зик', 'посмотрет', 'наход', 'галочк', 'интерфейс', 'сэд', 'сотрудник', 'несут', 'ответствен', 'актуальн', 'информац', 'размещен', 'персональн', 'страниц']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['как', 'информац', 'должн', 'персональн', 'страниц', 'страниц', 'должн', 'сведен', 'определен', 'стандарт', 'такж', 'сотрудник', 'размест', 'люб', 'информац', 'наруша', 'закон', 'противореча', 'декларац', 'ценност', 'университет', 'информац', 'персональн', 'страниц', 'сотрудник', 'внос', 'самостоятельн', 'исключен', 'сведен', 'котор', 'отобража', 'страниц', 'баз', 'дан', 'университет', 'при', 'возникновен', 'вопрос', 'сотрудник', 'обраща', 'ответствен', 'персональн', 'страниц', 'руководител', 'подразделен', 'случа', 'отсутств', 'ответствен', 'подразделен', 'доступ', 'редактирован', 'персональн', 'страниц', 'осуществля', 'логин', 'парол', 'елк', 'налич', 'доступ', 'корпоративн', 'почт', 'консультац', 'вопрос', 'наполнен', 'персональн', 'страниц', 'осуществля', 'ответствен', 'подразделен']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['сведен', 'баз', 'дан', 'университет', 'част', 'информац', 'попада', 'персональн', 'страниц', 'баз', 'дан', 'университет', 'поэт', 'важн', 'подразделен', 'отвеча', 'внесен', 'информац', 'баз', 'воврем', 'получа', 'необходим', 'дан', 'сведен', 'поступа', 'баз', 'дан', 'университет', 'сотрудник', 'исправ', 'самостоятельн', 'пример', 'есл', 'сотрудник', 'предостав', 'управлен', 'персона', 'сведен', 'наград', 'учен', 'степен', 'сведен', 'появ', 'персональн', 'страниц', 'сведен', 'поступа', 'сист', 'зик', 'москв', 'ис-пр', 'кампус', 'аса', 'руз', 'LMS', 'баз', 'дан', 'порта', 'могут', 'измен', 'сотрудник', 'подразделен', 'отвеча', 'информац', 'эт', 'сист', 'фамил', 'им', 'отчеств', 'зик', 'ис-пр', 'пол', 'зик', 'ис-пр', 'подразделен', 'зик', 'ис-пр', 'должност', 'возложен', 'обязан', 'зик', 'ис-пр', 'нача', 'работ', 'ни', 'вшэ', 'зик', 'ис-пр', 'научно-педагогическ', 'стаж', 'зик', 'ис-пр', 'образован', 'зик', 'ис-пр', 'учен', 'степен', 'зик', 'ис-пр', 'учен', 'зван', 'зик', 'ис-пр', 'достижен', 'поощрен', 'зик', 'ис-пр', 'академическ', 'надбавк', 'баз', 'дан', 'порта', 'учебн', 'курс', 'аса', 'руководств', 'аспирант', 'аса', 'руководств', 'вкр', 'LMS', 'расписан', 'руз', 'участ', 'административн', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'участ', 'академическ', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'баз', 'дан', 'порта', 'публикац', 'издательск', 'дом', 'вшэ', 'баз', 'дан', 'порта', 'зик', 'ис-пр', 'кадров', 'информац', 'сведен', 'прав', 'управлен', 'персона', 'изменен', 'будут', 'видн', 'портал', 'течен', 'суток', 'внесен', 'ис-пр', 'сведен', 'ис-пр', 'фамил', 'им', 'отчествопол', 'подразделен', 'должност', 'нача', 'работ', 'ни', 'вшэ', 'научно-педагогическ', 'стаж', 'образован', 'учен', 'степен', 'учен', 'званиедостижен', 'поощрен', 'сотрудник', 'отвеча', 'внесен', 'правок', 'москв', 'щегольск', 'татья', 'натал', 'малыхин', 'штатн', 'сотрудник', 'российск', 'гражданств', 'запрос', 'консультац', 'ялугин', 'анастас', 'натал', 'нижаловск', 'сотрудник', 'работа', 'договор', 'гпх', 'ппс', 'запрос', 'консультац', 'старокадомск', 'вероник', 'сотрудник', 'иностра', 'гражданств', 'запрос', 'консультац', 'натал', 'малыхин', 'информац', 'наград', 'вне', 'зависим', 'гражданств', 'запрос', 'консультац', 'кампус', 'правк', 'внос', 'кадров', 'служб', 'кампус', 'что', 'сотрудник', 'дополн', 'самостоятельн', 'образован', 'уточн', 'уровен', 'образован', 'например', 'указа', 'BSc', 'бакалавриат', 'получен', 'зарубеж', 'факультет', 'специальн', 'английск', 'язык', 'умолчан', 'перевод', 'специальн', 'английск', 'язык', 'учен', 'степен', 'уточн', 'тем', 'диссертац', 'мест', 'защит', 'аса', 'систем', 'абитуриент-студент-аспирант-выпускник', 'изменен', 'будут', 'видн', 'портал', 'синхронизац', 'баз', 'дан', 'синхронизац', 'происход', 'приблизительн', 'месяц', 'либ', 'запрос', 'подразделен', 'отвеча', 'информац', 'учебн', 'курс', 'сведен', 'формир', 'основ', 'информац', 'рабоч', 'учебн', 'план', 'модул', 'нагрузк', 'преподавател', 'правк', 'внос', 'ответствен', 'подразделений.курир', 'сист', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'синхронизац', 'портал', 'учебн', 'курс', 'запрос', 'приблизительн', 'месяц', 'программ', 'дисциплин', 'кажд', 'час', 'нагрузк', 'преподавател', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'ответствен', 'планирован', 'нагрузк', 'преподавател', 'ответствен', 'прикреплен', 'программ', 'дисциплин', 'аса', 'научн', 'руководств', 'аспирант', 'сведен', 'прав', 'управлен', 'аспирантур', 'докторантур', 'синхронизац', 'портал', 'запрос', 'месяц', 'руз', 'расписан', 'сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'руз', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис', 'LMS', 'сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'LMS', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'вкр', 'выпускн', 'квалификацион', 'работ', 'синхронизац', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис', 'баз', 'дан', 'порта', 'изменен', 'видн', 'сраз', 'внесен', 'участ', 'административн', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'руководител', 'программ', 'юл', 'гринкевич', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'юл', 'гринкевич', 'участ', 'академическ', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'управлен', 'академическ', 'развит', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'управлен', 'академическ', 'развит', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'сведен', 'внос', 'дирекц', 'правов', 'вопрос', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'дирекц', 'правов', 'вопрос', 'академическ', 'надбавк', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'научн', 'фонд', 'ольг', 'чуриков', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'начальник', 'управлен', 'академическ', 'исследован', 'ольг', 'чуриков', 'публикац', 'автоматическ', 'портал', 'появля', 'публикац', 'издательск', 'дом', 'вшэ', 'остальн', 'публикац', 'внос', 'представител', 'подразделен', 'либ', 'сотрудник', 'самостоятельн', 'внос', 'изменен', 'публикац', 'могут', 'автор', 'публикац', 'сотрудник', 'созда', 'публикац', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'адрес', 'publications', 'hse.ru', 'подробн', 'см.', 'справочник', 'публикац']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>['част', 'задава', 'вопрос', 'редактирован', 'личн', 'страниц', 'доступ', 'редактирован', 'страниц', 'как', 'эт', 'работа', 'добавлен', 'нов', 'вкладок', 'работ', 'вкладк', 'форматирован', 'научн', 'интерес', 'фотограф', 'Scopus', 'SPIN', 'ринц', 'ORCID', '...', 'английск', 'верс', 'персональн', 'страниц', 'доступ', 'редактирован', 'страниц', 'персональн', 'страниц', 'редактирова', 'сам', 'сотрудник', 'представител', 'персон', 'директор', 'дека', 'проректор', 'ответствен', 'персональн', 'страниц', 'редактирован', 'персональн', 'страниц', 'сотрудник', 'определен', 'подразделен', 'для', 'получен', 'прав', 'редактирован', 'необходим', 'отправ', 'запрос', 'ваш', 'корпоративн', 'почт', 'адрес', 'portal', 'hse.ru', 'обязательн', 'укаж', 'как', 'прав', 'необходим', 'предостав', 'представител', 'персон', 'указыва', 'чью', 'страниц', 'будет', 'редактирова', 'ответствен', 'персональн', 'страниц', 'указыва', 'подразделен', 'страниц', 'сотрудник', 'котор', 'будет', 'редактирова', 'как', 'эт', 'работа', 'непосредствен', 'личн', 'кабинет', 'инструкц', 'редактирован', 'страниц', 'больш', 'син', 'кнопк', 'как', 'эт', 'работа', 'английск', 'верс', 'How', 'works', 'добавлен', 'нов', 'вкладок', 'есл', 'собира', 'добав', 'информац', 'котор', 'подход', 'предложен', 'вкладок', 'может', 'созда', 'собствен', 'вкладк', 'для', 'нажм', 'добав', 'вкладк', 'введ', 'заголовок', 'нажм', 'посл', 'созда', 'вкладк', 'добав', 'необходим', 'информац', 'нажима', 'добав', 'текст', 'заполня', 'необходим', 'пол', 'работ', 'вкладк', 'раздел', 'ряд', 'котор', 'сто', 'замок', 'формир', 'автоматическ', 'различн', 'баз', 'вышк', 'может', 'внос', 'изменен', 'удаля', 'перемеща', 'раздел', 'отмечен', 'эт', 'символ', 'легк', 'перетаскива', 'мышк', 'мен', 'порядок', 'добав', 'нов', 'раздел', 'нажа', 'добав', 'текст', 'созда', 'раздел', 'такж', 'перетащ', 'люб', 'вкладк', 'есл', 'удал', 'раздел', 'котор', 'умолчан', 'предусмотр', 'одн', 'вкладок', 'информац', 'представлен', 'нем', 'формир', 'автоматическ', 'легк', 'может', 'восстанов', 'раздел', 'нажа', 'символ', 'вниз', 'вкладк', 'при', 'показа', 'список', 'раздел', 'подлежа', 'восстановлен', 'есл', 'удал', 'раздел', 'котор', 'созда', 'вручн', 'восстанов', 'автоматическ', 'невозможн', 'вам', 'придет', 'занов', 'внос', 'информац', 'помн', 'все', 'изменен', 'сохраня', 'нажа', 'кнопк', 'сохран', 'есл', 'случайн', 'что-т', 'удал', 'добав', 'что-т', 'прост', 'закройт', 'страниц', 'сохранен', 'изменен', 'форматирован', 'чтоб', 'текст', 'вкладк', 'одинаков', 'необходим', 'добавля', 'информац', 'одн', 'след', 'алгоритм', 'заполня', 'вкладк', 'пол', 'непосредствен', 'личн', 'кабинет', 'копиру', 'информац', 'текстов', 'редактор', 'браузер', 'т.п.', 'ве', 'текст', 'котор', 'собира', 'добав', 'текстов', 'пол', 'необходим', 'добав', 'снача', 'блокнот', 'скопирова', 'блокнот', 'встав', 'непосредствен', 'текстов', 'пол', 'личн', 'кабинет', 'вставк', 'текст', 'использова', 'кнопк', 'вставк', 'Word', 'случа', 'текст', 'все', 'равн', 'выгляд', 'текст', 'автоматическ', 'вкладк', 'использова', 'кнопк', 'убра', 'форматирован', 'вставк', 'текст', 'использова', 'кнопк', 'встав', 'текст', 'случа', 'все', 'форматирован', 'пропадет', 'вставк', 'текст', 'текстов', 'пол', 'выдел', 'ве', 'текст', 'нажа', 'кнопк', 'убра', 'форматирован', 'научн', 'интерес', 'при', 'добавлен', 'интерес', 'нажима', 'добав', 'рус.', 'пиш', 'ключев', 'слов', 'нажима', 'найт', 'отобраз', 'список', 'упоминан', 'иском', 'слов', 'выбира', 'нужн', 'слов', 'словосочетан', 'нажима', 'кнопк', 'выбра', 'фотограф', 'фотограф', 'загружа', 'баз', 'служб', 'безопасн', 'систем', 'таков', 'недел', 'дирекц', 'безопасн', 'присыла', 'фот', 'управлен', 'персона', 'котор', 'занос', 'ис-пр', 'однак', 'сотрудник', 'зал', 'отредактирова', 'фот', 'самостоятельн', 'SmartPoint', 'елк', 'SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Scopus', 'AuthorID', 'Google', 'Scholar', 'инструкц', 'SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Google', 'Scholar', 'всем', 'вопрос', 'связа', 'дан', 'баз', 'необходим', 'обраща', 'ответствен', 'подразделен', 'английск', 'верс', 'персональн', 'страниц', 'для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет', 'заполн', 'пол', 'фи', 'английск', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок', 'подробн', 'см.', 'работ', 'английск', 'верс', 'персональн', 'страниц']</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -927,25 +823,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['ког', 'персональн', 'страниц', 'появля', 'портал', 'сотрудник', 'ни', 'вшэ', 'исключен', 'сотрудник', 'категор', 'административно-хозяйствен', 'персона', 'занима', 'руководя', 'должност', 'обяза', 'имет', 'заполнен', 'соответств', 'стандарт', 'персональн', 'страниц', 'персональн', 'страниц', 'появля', 'автоматическ', 'внесен', 'приказ', 'трудоустройств', 'сотрудник', 'баз', 'управлен', 'персона', 'зик', 'ис-пр', 'показыва', 'общ', 'списк', 'преподавател', 'сотрудник', 'такж', 'списк', 'сотрудник', 'страниц', 'подразделен', 'автоматическ', 'появля', 'страниц', 'штатн', 'сотрудник', 'преподавател', 'имеющ', 'договор', 'гпх', 'ппс', 'так', 'сотрудник', 'показыва', 'портал', 'должност', 'приглашен', 'преподавател', 'есл', 'необходим', 'персональн', 'страниц', 'появ', 'сотрудник', 'работа', 'обычн', 'договор', 'гпх', 'оформлен', 'договор', 'сэд', 'необходим', 'постав', 'соответств', 'галочк', 'для', 'оформлен', 'договор', 'галочк', 'нужн', 'постав', 'кадров', 'систем', 'зик', 'посмотрет', 'наход', 'галочк', 'интерфейс', 'сэд', 'сотрудник', 'несут', 'ответствен', 'актуальн', 'информац', 'размещен', 'персональн', 'страниц']</t>
+          <t>['отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'управлен', 'развит', 'поддержк', 'порта', 'консультир', 'ответствен', 'подразделен', 'менеджер', 'образовательн', 'программ', 'вопрос', 'веден', 'английск', 'верс', 'сайт', 'подразделен', 'образовательн', 'программ']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['как', 'информац', 'должн', 'персональн', 'страниц', 'страниц', 'должн', 'сведен', 'определен', 'стандарт', 'такж', 'сотрудник', 'размест', 'люб', 'информац', 'наруша', 'закон', 'противореча', 'декларац', 'ценност', 'университет', 'информац', 'персональн', 'страниц', 'сотрудник', 'внос', 'самостоятельн', 'исключен', 'сведен', 'котор', 'отобража', 'страниц', 'баз', 'дан', 'университет', 'при', 'возникновен', 'вопрос', 'сотрудник', 'обраща', 'ответствен', 'персональн', 'страниц', 'руководител', 'подразделен', 'случа', 'отсутств', 'ответствен', 'подразделен', 'доступ', 'редактирован', 'персональн', 'страниц', 'осуществля', 'логин', 'парол', 'елк', 'налич', 'доступ', 'корпоративн', 'почт', 'консультац', 'вопрос', 'наполнен', 'персональн', 'страниц', 'осуществля', 'ответствен', 'подразделен']</t>
+          <t>['быстр', 'ссылк', 'персональн', 'страниц', 'подразделен', 'образовательн', 'программ']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['сведен', 'баз', 'дан', 'университет', 'част', 'информац', 'попада', 'персональн', 'страниц', 'баз', 'дан', 'университет', 'поэт', 'важн', 'подразделен', 'отвеча', 'внесен', 'информац', 'баз', 'воврем', 'получа', 'необходим', 'дан', 'сведен', 'поступа', 'баз', 'дан', 'университет', 'сотрудник', 'исправ', 'самостоятельн', 'пример', 'есл', 'сотрудник', 'предостав', 'управлен', 'персона', 'сведен', 'наград', 'учен', 'степен', 'сведен', 'появ', 'персональн', 'страниц', 'сведен', 'поступа', 'сист', 'зик', 'москв', 'ис-пр', 'кампус', 'аса', 'руз', 'LMS', 'баз', 'дан', 'порта', 'могут', 'измен', 'сотрудник', 'подразделен', 'отвеча', 'информац', 'эт', 'сист', 'фамил', 'им', 'отчеств', 'зик', 'ис-пр', 'пол', 'зик', 'ис-пр', 'подразделен', 'зик', 'ис-пр', 'должност', 'возложен', 'обязан', 'зик', 'ис-пр', 'нача', 'работ', 'ни', 'вшэ', 'зик', 'ис-пр', 'научно-педагогическ', 'стаж', 'зик', 'ис-пр', 'образован', 'зик', 'ис-пр', 'учен', 'степен', 'зик', 'ис-пр', 'учен', 'зван', 'зик', 'ис-пр', 'достижен', 'поощрен', 'зик', 'ис-пр', 'академическ', 'надбавк', 'баз', 'дан', 'порта', 'учебн', 'курс', 'аса', 'руководств', 'аспирант', 'аса', 'руководств', 'вкр', 'LMS', 'расписан', 'руз', 'участ', 'административн', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'участ', 'академическ', 'кадров', 'резерв', 'баз', 'дан', 'порта', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'баз', 'дан', 'порта', 'публикац', 'издательск', 'дом', 'вшэ', 'баз', 'дан', 'порта', 'зик', 'ис-пр', 'кадров', 'информац', 'сведен', 'прав', 'управлен', 'персона', 'изменен', 'будут', 'видн', 'портал', 'течен', 'суток', 'внесен', 'ис-пр', 'сведен', 'ис-пр', 'фамил', 'им', 'отчествопол', 'подразделен', 'должност', 'нача', 'работ', 'ни', 'вшэ', 'научно-педагогическ', 'стаж', 'образован', 'учен', 'степен', 'учен', 'званиедостижен', 'поощрен', 'сотрудник', 'отвеча', 'внесен', 'правок', 'москв', 'щегольск', 'татья', 'натал', 'малыхин', 'штатн', 'сотрудник', 'российск', 'гражданств', 'запрос', 'консультац', 'ялугин', 'анастас', 'натал', 'нижаловск', 'сотрудник', 'работа', 'договор', 'гпх', 'ппс', 'запрос', 'консультац', 'старокадомск', 'вероник', 'сотрудник', 'иностра', 'гражданств', 'запрос', 'консультац', 'натал', 'малыхин', 'информац', 'наград', 'вне', 'зависим', 'гражданств', 'запрос', 'консультац', 'кампус', 'правк', 'внос', 'кадров', 'служб', 'кампус', 'что', 'сотрудник', 'дополн', 'самостоятельн', 'образован', 'уточн', 'уровен', 'образован', 'например', 'указа', 'BSc', 'бакалавриат', 'получен', 'зарубеж', 'факультет', 'специальн', 'английск', 'язык', 'умолчан', 'перевод', 'специальн', 'английск', 'язык', 'учен', 'степен', 'уточн', 'тем', 'диссертац', 'мест', 'защит', 'аса', 'систем', 'абитуриент-студент-аспирант-выпускник', 'изменен', 'будут', 'видн', 'портал', 'синхронизац', 'баз', 'дан', 'синхронизац', 'происход', 'приблизительн', 'месяц', 'либ', 'запрос', 'подразделен', 'отвеча', 'информац', 'учебн', 'курс', 'сведен', 'формир', 'основ', 'информац', 'рабоч', 'учебн', 'план', 'модул', 'нагрузк', 'преподавател', 'правк', 'внос', 'ответствен', 'подразделений.курир', 'сист', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'синхронизац', 'портал', 'учебн', 'курс', 'запрос', 'приблизительн', 'месяц', 'программ', 'дисциплин', 'кажд', 'час', 'нагрузк', 'преподавател', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'ответствен', 'планирован', 'нагрузк', 'преподавател', 'ответствен', 'прикреплен', 'программ', 'дисциплин', 'аса', 'научн', 'руководств', 'аспирант', 'сведен', 'прав', 'управлен', 'аспирантур', 'докторантур', 'синхронизац', 'портал', 'запрос', 'месяц', 'руз', 'расписан', 'сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'руз', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис', 'LMS', 'сведен', 'внос', 'сотрудник', 'учебн', 'офис', 'курир', 'LMS', 'заместител', 'руководител', 'центр', 'сервис', 'департамент', 'игнатов', 'натал', 'генадиевн', 'вкр', 'выпускн', 'квалификацион', 'работ', 'синхронизац', 'ежедневн', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'сотрудник', 'учебн', 'офис', 'баз', 'дан', 'порта', 'изменен', 'видн', 'сраз', 'внесен', 'участ', 'административн', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'руководител', 'программ', 'юл', 'гринкевич', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'юл', 'гринкевич', 'участ', 'академическ', 'кадров', 'резерв', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'управлен', 'академическ', 'развит', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'руководител', 'программ', 'управлен', 'академическ', 'развит', 'патент', 'свидетельств', 'прав', 'интеллектуальн', 'собствен', 'сведен', 'внос', 'дирекц', 'правов', 'вопрос', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'дирекц', 'правов', 'вопрос', 'академическ', 'надбавк', 'сведен', 'внос', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'научн', 'фонд', 'ольг', 'чуриков', 'ком', 'обраща', 'внесен', 'правок', 'ответствен', 'подразделен', 'начальник', 'управлен', 'академическ', 'исследован', 'ольг', 'чуриков', 'публикац', 'автоматическ', 'портал', 'появля', 'публикац', 'издательск', 'дом', 'вшэ', 'остальн', 'публикац', 'внос', 'представител', 'подразделен', 'либ', 'сотрудник', 'самостоятельн', 'внос', 'изменен', 'публикац', 'могут', 'автор', 'публикац', 'сотрудник', 'созда', 'публикац', 'управлен', 'развит', 'поддержк', 'порта', 'заявк', 'адрес', 'publications', 'hse.ru', 'подробн', 'см.', 'справочник', 'публикац']</t>
+          <t>['персональн', 'страниц', 'английск', 'верс', 'персональн', 'страниц', 'активир', 'желан', 'сотрудник', 'род', 'деятельн', 'необходим', 'взаимодействова', 'иностранц', 'кром', 'английск', 'верс', 'активир', 'возника', 'необходим', 'дат', 'ссылк', 'страниц', 'сотрудник', 'английск', 'новости/анонса/страниц', 'мероприят', 'подразделен', 'для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет', 'заполн', 'пол', 'фамил', 'им', 'английск', 'отчеств', 'полност', 'добавля', 'постав', 'перв', 'букв', 'отчеств', 'например', 'Ivan', 'Ivanov', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок', 'дал', 'постав', 'статус', 'черновик', 'посл', 'выставлен', 'статус', 'черновик', 'страниц', 'поступа', 'редактор', 'порта', 'котор', 'проверя', 'информац', 'страниц', 'отобража', 'корректн', 'меня', 'статус', 'провер', 'английск', 'страниц', 'появля', 'портал', 'информац', 'пол', 'закрыт', 'редактирован', 'выгружа', 'автоматическ', 'основ', 'дан', 'зик/ис-пр', 'поступа', 'управлен', 'персонал', 'информац', 'автоматическ', 'загружа', 'баз', 'дан', 'подразделен', 'должност', 'образован', 'учен', 'степен', 'учен', 'зван', 'отобража', 'един', 'формат', 'сотрудник', 'английск', 'верс', 'предусмотр', 'вывод', 'информац', 'зик/ис-пр', 'раздел', 'достижен', 'поощрен', 'есл', 'нужн', 'добав', 'раздел', 'английск', 'верс', 'эт', 'сдела', 'функц', 'добав', 'текст', 'сдела', 'текстов', 'вставк', 'чтоб', 'вставк', 'появля', 'английск', 'верс', 'остав', 'пуст', 'пол', 'заголовок', 'русск', 'текст', 'комментар', 'русск', 'заполн', 'пол', 'заголовок', 'английск', 'текст', 'комментар', 'английск']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['част', 'задава', 'вопрос', 'редактирован', 'личн', 'страниц', 'доступ', 'редактирован', 'страниц', 'как', 'эт', 'работа', 'добавлен', 'нов', 'вкладок', 'работ', 'вкладк', 'форматирован', 'научн', 'интерес', 'фотограф', 'Scopus', 'SPIN', 'ринц', 'ORCID', '...', 'английск', 'верс', 'персональн', 'страниц', 'доступ', 'редактирован', 'страниц', 'персональн', 'страниц', 'редактирова', 'сам', 'сотрудник', 'представител', 'персон', 'директор', 'дека', 'проректор', 'ответствен', 'персональн', 'страниц', 'редактирован', 'персональн', 'страниц', 'сотрудник', 'определен', 'подразделен', 'для', 'получен', 'прав', 'редактирован', 'необходим', 'отправ', 'запрос', 'ваш', 'корпоративн', 'почт', 'адрес', 'portal', 'hse.ru', 'обязательн', 'укаж', 'как', 'прав', 'необходим', 'предостав', 'представител', 'персон', 'указыва', 'чью', 'страниц', 'будет', 'редактирова', 'ответствен', 'персональн', 'страниц', 'указыва', 'подразделен', 'страниц', 'сотрудник', 'котор', 'будет', 'редактирова', 'как', 'эт', 'работа', 'непосредствен', 'личн', 'кабинет', 'инструкц', 'редактирован', 'страниц', 'больш', 'син', 'кнопк', 'как', 'эт', 'работа', 'английск', 'верс', 'How', 'works', 'добавлен', 'нов', 'вкладок', 'есл', 'собира', 'добав', 'информац', 'котор', 'подход', 'предложен', 'вкладок', 'может', 'созда', 'собствен', 'вкладк', 'для', 'нажм', 'добав', 'вкладк', 'введ', 'заголовок', 'нажм', 'посл', 'созда', 'вкладк', 'добав', 'необходим', 'информац', 'нажима', 'добав', 'текст', 'заполня', 'необходим', 'пол', 'работ', 'вкладк', 'раздел', 'ряд', 'котор', 'сто', 'замок', 'формир', 'автоматическ', 'различн', 'баз', 'вышк', 'может', 'внос', 'изменен', 'удаля', 'перемеща', 'раздел', 'отмечен', 'эт', 'символ', 'легк', 'перетаскива', 'мышк', 'мен', 'порядок', 'добав', 'нов', 'раздел', 'нажа', 'добав', 'текст', 'созда', 'раздел', 'такж', 'перетащ', 'люб', 'вкладк', 'есл', 'удал', 'раздел', 'котор', 'умолчан', 'предусмотр', 'одн', 'вкладок', 'информац', 'представлен', 'нем', 'формир', 'автоматическ', 'легк', 'может', 'восстанов', 'раздел', 'нажа', 'символ', 'вниз', 'вкладк', 'при', 'показа', 'список', 'раздел', 'подлежа', 'восстановлен', 'есл', 'удал', 'раздел', 'котор', 'созда', 'вручн', 'восстанов', 'автоматическ', 'невозможн', 'вам', 'придет', 'занов', 'внос', 'информац', 'помн', 'все', 'изменен', 'сохраня', 'нажа', 'кнопк', 'сохран', 'есл', 'случайн', 'что-т', 'удал', 'добав', 'что-т', 'прост', 'закройт', 'страниц', 'сохранен', 'изменен', 'форматирован', 'чтоб', 'текст', 'вкладк', 'одинаков', 'необходим', 'добавля', 'информац', 'одн', 'след', 'алгоритм', 'заполня', 'вкладк', 'пол', 'непосредствен', 'личн', 'кабинет', 'копиру', 'информац', 'текстов', 'редактор', 'браузер', 'т.п.', 'ве', 'текст', 'котор', 'собира', 'добав', 'текстов', 'пол', 'необходим', 'добав', 'снача', 'блокнот', 'скопирова', 'блокнот', 'встав', 'непосредствен', 'текстов', 'пол', 'личн', 'кабинет', 'вставк', 'текст', 'использова', 'кнопк', 'вставк', 'Word', 'случа', 'текст', 'все', 'равн', 'выгляд', 'текст', 'автоматическ', 'вкладк', 'использова', 'кнопк', 'убра', 'форматирован', 'вставк', 'текст', 'использова', 'кнопк', 'встав', 'текст', 'случа', 'все', 'форматирован', 'пропадет', 'вставк', 'текст', 'текстов', 'пол', 'выдел', 'ве', 'текст', 'нажа', 'кнопк', 'убра', 'форматирован', 'научн', 'интерес', 'при', 'добавлен', 'интерес', 'нажима', 'добав', 'рус.', 'пиш', 'ключев', 'слов', 'нажима', 'найт', 'отобраз', 'список', 'упоминан', 'иском', 'слов', 'выбира', 'нужн', 'слов', 'словосочетан', 'нажима', 'кнопк', 'выбра', 'фотограф', 'фотограф', 'загружа', 'баз', 'служб', 'безопасн', 'систем', 'таков', 'недел', 'дирекц', 'безопасн', 'присыла', 'фот', 'управлен', 'персона', 'котор', 'занос', 'ис-пр', 'однак', 'сотрудник', 'зал', 'отредактирова', 'фот', 'самостоятельн', 'SmartPoint', 'елк', 'SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Scopus', 'AuthorID', 'Google', 'Scholar', 'инструкц', 'SPIN', 'ринц', 'ORCID', 'ResearcherID', 'Google', 'Scholar', 'всем', 'вопрос', 'связа', 'дан', 'баз', 'необходим', 'обраща', 'ответствен', 'подразделен', 'английск', 'верс', 'персональн', 'страниц', 'для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет', 'заполн', 'пол', 'фи', 'английск', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок', 'подробн', 'см.', 'работ', 'английск', 'верс', 'персональн', 'страниц']</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>['подразделен', 'ком', 'завод', 'английск', 'верс', 'англоязычн', 'верс', 'сайт', 'созда', 'структурн', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'заявк', 'структурн', 'подразделен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'для', 'структурн', 'подразделен', 'ведущ', 'международн', 'деятельн', 'взаимодейств', 'англоязычн', 'студент', 'преподавател', 'партнер', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'структурн', 'подразделен', 'обновлен', 'информац', 'англоязычн', 'сайт', 'осуществля', 'сил', 'ответствен', 'подразделен', 'веден', 'сайт', 'оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц', 'как', 'откр', 'английск', 'верс', 'сайт', 'есл', 'английск', 'верс', 'нужн', 'ресурс', 'поддержан', 'необходим', 'присла', 'заявк', 'активац', 'английск', 'верс', 'вмест', 'текст', 'первоначальн', 'наполнен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'нельз', 'выставля', 'статус', 'английск', 'верс', 'черновик', 'подготов', 'текст', 'сайт', 'присла', 'предварительн', 'заявк', 'открыт', 'английск', 'верс', 'открыва', 'пуст', 'сайт', 'английск', 'статическ', 'страниц', 'поэт', 'нужн', 'снача', 'присла', 'текст', 'английск', 'верс', 'сайт', 'активирова', 'английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'подразделения_раздел', 'например', 'департамент', 'математик', 'фэн_абоут.доc', 'кто', 'редактирова', 'английск', 'верс', 'сайт', 'отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим', 'что', 'нужн', 'имет', 'вид', 'работ', 'английск', 'верс', 'сайт', 'принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'подробн', 'форматирован', 'редактирован', 'страниц', 'сайт', 'почита', 'для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'подразделен', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'подразделен', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'есл', 'вариант', 'перевод', 'назван', 'подразделен', 'портал', 'устраива', 'необходим', 'присла', 'заявк', 'смен', 'назван', 'обоснован', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'факультет', 'поменя', 'руководств', 'нов', 'люд', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'новост', 'новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'значим', 'англоязычн', 'публикац', 'международн', 'проект', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова', 'анонс', 'важн', 'объявлен', 'есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'подразделен', 'появля', 'информац', 'актуальн', 'иностра', 'сотрудник', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>['образовательн', 'программ', 'англоязычн', 'верс', 'сайт', 'обязательн', 'порядк', 'созда', 'образовательн', 'программ', 'осуществля', 'полност', 'частичн', 'английск', 'язык', 'для', 'образовательн', 'программ', 'реализуем', 'русск', 'язык', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'менеджер', 'образовательн', 'программ', 'оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц', 'английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присыла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'программы_кампус_раздел', 'например', 'big', 'data_stpete_about.doc', 'отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим', 'что', 'нужн', 'имет', 'вид', 'работ', 'английск', 'верс', 'сайт', 'принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'программ', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'программ', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'корректн', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'поменя', 'описан', 'программ', 'нов', 'информац', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'обязательн', 'рекомендова', 'страниц', 'порядок', 'ссылок', 'мен', 'английск', 'верс', 'сайт', 'образовательн', 'программ', 'раздел', 'ABOUT', 'Programme', 'Overview', 'техническ', 'им', 'страниц', 'about', 'Curriculum', 'описан', 'содержания/структур', 'программ', 'прост', 'список', 'курс', 'Partnerships', 'налич', 'рассказ', 'характер', 'партнерств', 'польз', 'студент', 'Faculty', 'Members', 'рассказ', 'ключев', 'преподавател', 'прост', 'список', 'Student', 'Profiles', 'мини-интерв', 'фотограф', 'минимум', 'студент', 'Alumni', 'минимум', 'выпускник', 'налич', 'рассказ', 'карьер', 'выпуск', 'необходим', 'фотограф', 'техническ', 'им', 'страниц', 'alumni', 'Career', 'Opportunities', 'карьерн', 'траектор', 'пример', 'компан', 'ожида', 'зарплат', 'выпуск', 'техническ', 'им', 'страниц', 'career', 'раздел', 'FOR', 'PROSPECTIVE', 'STUDENTS', 'Requirements', 'требован', 'портфол', 'предыдущ', 'уровн', 'образования/опыт', 'техническ', 'им', 'страниц', 'requirements', 'How', 'Apply', 'процесс', 'подач', 'документ', 'техническ', 'им', 'страниц', 'tracks', 'Class', 'Profile', 'рекомендова', 'страниц', 'пример', 'https', '//www.hse.ru/en/ma/sti/classprofile', 'FAQ', 'рекомендова', 'страниц', 'раздел', 'FOR', 'STUDENTS', 'рекомендова', 'ссылк', 'страниц', 'Notice', 'Board', 'доск', 'объявлен', 'Student', 'Ratings', 'Student', 'Theses', 'Final', 'Assessment', 'техническ', 'им', 'assessment', 'Academic', 'Mobility', 'техническ', 'им', 'страниц', 'mobility', 'Practical', 'Training', 'техническ', 'им', 'страниц', 'internships', 'Recommended', 'MOOCs', 'техническ', 'им', 'страниц', 'moocs', 'список', 'перевод', 'рубрик', 'сайт', 'образовательн', 'программ', 'назван', 'раздела/подраздел', 'English', 'titles', 'учебн', 'курс', 'Courses', 'преподавател', 'Faculty', 'документ', 'Documents', 'расписан', 'Timetable', 'тизер', 'дня', 'открыт', 'двер', 'Open', 'House', 'академическ', 'совет', 'Academic', 'Council', 'академическ', 'руководител', 'Academic', 'Supervisor', 'отдел', 'сопровожден', 'учебн', 'процесс', 'образовательн', 'программы/менеджер', 'образовательн', 'программ', 'Study', 'Office', 'Programme', 'Coordinator', 'важн', 'объявлен', 'Important', 'Announcements', 'новост', 'News', 'анонс', 'Events', 'кратк', 'паспорт', 'программ', 'Programme', 'Facts', 'программ', 'Programme', 'Overview', 'партнер', 'Partnerships', 'Double', 'degree', 'Programme', 'налич', 'проф', 'студент', 'русск', 'верс', 'достижен', 'студент', 'Student', 'Profiles', 'выпускник', 'Alumni', 'научно-исследовательск', 'семинар', 'нис', 'англ', 'верс', 'необязательн', 'раздел', 'Research', 'Seminar', 'проектн', 'исследовательск', 'работ', 'англ', 'верс', 'обязательн', 'раздел', 'Project', 'and', 'Research', 'Work', 'Research', 'Opportunities', 'представл', 'список', 'возможн', 'мест', 'описан', 'осуществлен', 'проект', 'паспорт', 'образовательн', 'программ', 'Programme', 'Facts', 'будущ', 'професс', 'Career', 'Opportunitiies', 'траектор', 'поступлен', 'How', 'Apply', 'подготовк', 'Requirements', 'информацион', 'блок', 'полезн', 'ссылк', 'студент', 'программ', 'рейтинг', 'Student', 'Rating', 'студенческ', 'мобильн', 'Academic', 'Mobility', 'практическ', 'подготовк', 'практик', 'Practical', 'Training', 'Internship', 'курсов', 'выпускн', 'квалификацион', 'работ', 'вкр', 'Term', 'Papers', 'and', 'Student', 'Theses', 'итогов', 'аттестац', 'Final', 'Assessment', 'рекомендова', 'онлайн-курс', 'Recommended', 'MOOCs', 'скача', 'одн', 'файл', 'английск', 'назван', 'рубрик', 'DOCX', 'новост', 'новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'международн', 'проект', 'стажировк', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'скриншот', 'выш', 'раздел', 'сайт', 'подразделен', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова', 'анонс', 'важн', 'объявлен', 'есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'появля', 'информац', 'актуальн', 'иностра', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -972,27 +872,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['отдел', 'развит', 'поддержк', 'англоязычн', 'верс', 'порта', 'управлен', 'развит', 'поддержк', 'порта', 'консультир', 'ответствен', 'подразделен', 'менеджер', 'образовательн', 'программ', 'вопрос', 'веден', 'английск', 'верс', 'сайт', 'подразделен', 'образовательн', 'программ']</t>
+          <t>['https', '//portal.hse.ru/im', 'сайт', 'структурн', 'подразделен', 'должн', 'соответствова', 'утвержден', 'стандарт', 'дизайн', 'сайт', 'долж', 'выполн', 'общ', 'стилистик', 'корпоративн', 'порта', 'элемент', 'фирмен', 'стил', 'могут', 'противореч', 'брендбук', 'ни', 'вшэ', 'использован', 'должн', 'согласова', 'отдел', 'визуальн', 'коммуникац', 'visual', 'hse.ru', 'рекомендац', 'цветов', 'палитр', 'см.', 'брендбук', 'ни', 'вшэ', 'цифров', 'носител', 'сайт', 'размеща', 'домен', 'hse.ru', 'имеют', 'адрес', 'вид', 'http', '//www.hсе.ру/им', 'http', '//имя.hсе.р', 'см.', 'регламент', 'англоязычн', 'верс', 'сайт', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'для', 'остальн', 'подразделен', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'подразделен', 'ответствен', 'своевремен', 'размещен', 'актуализац', 'информац', 'несет', 'руководител', 'подразделен', 'обновлен', 'информац', 'осуществля', 'ответствен', 'структурн', 'подразделен', 'веден', 'сайт', 'заявк', 'создан', 'сайт', 'нужн', 'присла', 'portal', 'hse.ru', 'указа', 'назван', 'подразделен', 'готов', 'контент', 'имеет', 'размещен', 'подробн', 'дальн', 'шаг', 'будут', 'содержа', 'ответн', 'письм']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['быстр', 'ссылк', 'персональн', 'страниц', 'подразделен', 'образовательн', 'программ']</t>
+          <t>['https', '//portal.hse.ru/im', 'инструкц', 'работ', 'сайт', 'основн', 'принцип', 'работ', 'сайт', 'как', 'получ', 'доступ', 'редактирован', 'редактирован', 'блок', 'функциона', 'сотрудник', 'подразделен', 'редактирован', 'блок', 'показ', 'списк', 'карт', 'раздел', 'сотрудник', 'размещен', 'новост', 'размещен', 'анонс', 'создан', 'статическ', 'страниц', 'прост', 'статическ', 'страниц', 'составн', 'статическ', 'страниц', 'создан', 'таблиц', 'оптимизац', 'фотограф', 'размещен', 'баннер', 'создан', 'опроса/регистрацион', 'форм', 'как', 'переда', 'дан', 'CRM', 'размещен', 'мета-тег', 'рекомендац', 'поисков', 'оптимизац', 'помощ', 'редактор', 'фотобанк', 'инструмент', 'шрифт', 'HSE', 'Sans', 'редактирован', 'английск', 'верс', 'русско-английск', 'глоссар', 'термин', 'вшэ']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['персональн', 'страниц', 'английск', 'верс', 'персональн', 'страниц', 'активир', 'желан', 'сотрудник', 'род', 'деятельн', 'необходим', 'взаимодействова', 'иностранц', 'кром', 'английск', 'верс', 'активир', 'возника', 'необходим', 'дат', 'ссылк', 'страниц', 'сотрудник', 'английск', 'новости/анонса/страниц', 'мероприят', 'подразделен', 'для', 'активац', 'английск', 'верс', 'необходим', 'личн', 'кабинет', 'заполн', 'пол', 'фамил', 'им', 'английск', 'отчеств', 'полност', 'добавля', 'постав', 'перв', 'букв', 'отчеств', 'например', 'Ivan', 'Ivanov', 'заполн', 'английск', 'пол', 'открыт', 'редактирован', 'аналогичн', 'русск', 'страниц', 'информац', 'актуальн', 'иностра', 'аудитор', 'частност', 'необходим', 'заполн', 'пол', 'специальн', 'раздел', 'образован', 'учен', 'степен', 'сохран', 'изменен', 'выбра', 'пункт', 'статус', 'английск', 'верс', 'британск', 'флажок', 'дал', 'постав', 'статус', 'черновик', 'посл', 'выставлен', 'статус', 'черновик', 'страниц', 'поступа', 'редактор', 'порта', 'котор', 'проверя', 'информац', 'страниц', 'отобража', 'корректн', 'меня', 'статус', 'провер', 'английск', 'страниц', 'появля', 'портал', 'информац', 'пол', 'закрыт', 'редактирован', 'выгружа', 'автоматическ', 'основ', 'дан', 'зик/ис-пр', 'поступа', 'управлен', 'персонал', 'информац', 'автоматическ', 'загружа', 'баз', 'дан', 'подразделен', 'должност', 'образован', 'учен', 'степен', 'учен', 'зван', 'отобража', 'един', 'формат', 'сотрудник', 'английск', 'верс', 'предусмотр', 'вывод', 'информац', 'зик/ис-пр', 'раздел', 'достижен', 'поощрен', 'есл', 'нужн', 'добав', 'раздел', 'английск', 'верс', 'эт', 'сдела', 'функц', 'добав', 'текст', 'сдела', 'текстов', 'вставк', 'чтоб', 'вставк', 'появля', 'английск', 'верс', 'остав', 'пуст', 'пол', 'заголовок', 'русск', 'текст', 'комментар', 'русск', 'заполн', 'пол', 'заголовок', 'английск', 'текст', 'комментар', 'английск']</t>
+          <t>['https', '//portal.hse.ru/im', 'контакт', 'редактор', 'сайт', 'подразделен', 'список', 'редактор', 'вшэ-москв', 'кампус', 'вшэ', 'нижн', 'новгород', 'перм', 'санкт-петербург']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['подразделен', 'ком', 'завод', 'английск', 'верс', 'англоязычн', 'верс', 'сайт', 'созда', 'структурн', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'заявк', 'структурн', 'подразделен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'для', 'структурн', 'подразделен', 'ведущ', 'международн', 'деятельн', 'взаимодейств', 'англоязычн', 'студент', 'преподавател', 'партнер', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'структурн', 'подразделен', 'обновлен', 'информац', 'англоязычн', 'сайт', 'осуществля', 'сил', 'ответствен', 'подразделен', 'веден', 'сайт', 'оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц', 'как', 'откр', 'английск', 'верс', 'сайт', 'есл', 'английск', 'верс', 'нужн', 'ресурс', 'поддержан', 'необходим', 'присла', 'заявк', 'активац', 'английск', 'верс', 'вмест', 'текст', 'первоначальн', 'наполнен', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'нельз', 'выставля', 'статус', 'английск', 'верс', 'черновик', 'подготов', 'текст', 'сайт', 'присла', 'предварительн', 'заявк', 'открыт', 'английск', 'верс', 'открыва', 'пуст', 'сайт', 'английск', 'статическ', 'страниц', 'поэт', 'нужн', 'снача', 'присла', 'текст', 'английск', 'верс', 'сайт', 'активирова', 'английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'подразделения_раздел', 'например', 'департамент', 'математик', 'фэн_абоут.доc', 'кто', 'редактирова', 'английск', 'верс', 'сайт', 'отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим', 'что', 'нужн', 'имет', 'вид', 'работ', 'английск', 'верс', 'сайт', 'принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'подробн', 'форматирован', 'редактирован', 'страниц', 'сайт', 'почита', 'для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'подразделен', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'подразделен', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'есл', 'вариант', 'перевод', 'назван', 'подразделен', 'портал', 'устраива', 'необходим', 'присла', 'заявк', 'смен', 'назван', 'обоснован', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'факультет', 'поменя', 'руководств', 'нов', 'люд', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'новост', 'новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'значим', 'англоязычн', 'публикац', 'международн', 'проект', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова', 'анонс', 'важн', 'объявлен', 'есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'подразделен', 'появля', 'информац', 'актуальн', 'иностра', 'сотрудник', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']</t>
+          <t>['https', '//portal.hse.ru/im', 'част', 'задава', 'вопрос', 'JavaScript', 'iframe', 'сайт', 'подразделен']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['образовательн', 'программ', 'англоязычн', 'верс', 'сайт', 'обязательн', 'порядк', 'созда', 'образовательн', 'программ', 'осуществля', 'полност', 'частичн', 'английск', 'язык', 'для', 'образовательн', 'программ', 'реализуем', 'русск', 'язык', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'менеджер', 'образовательн', 'программ', 'оперативн', 'поддержан', 'подразумева', 'регулярн', 'размещен', 'анонс', 'англоязычн', 'мероприят', 'новост', 'английск', 'новостн', 'лент', 'такж', 'обновлен', 'статическ', 'страниц', 'английск', 'редакц', 'помоч', 'перевод', 'текст', 'основн', 'статическ', 'страниц', 'первичн', 'наполнен', 'сайт', 'заявк', 'перевод', 'необходим', 'присыла', 'главн', 'редактор', 'англоязычн', 'верс', 'порта', 'мар', 'никитин', 'им', 'файл', 'текст', 'перевод', 'редактирован', 'след', 'оформля', 'след', 'образ', 'назван', 'программы_кампус_раздел', 'например', 'big', 'data_stpete_about.doc', 'отдельн', 'прав', 'редактирован', 'английск', 'верс', 'получа', 'редактор', 'работа', 'русск', 'сайт', 'отвеча', 'английск', 'верс', 'есл', 'доступ', 'русск', 'верс', 'запрашива', 'доступ', 'английск', 'верс', 'необходим', 'что', 'нужн', 'имет', 'вид', 'работ', 'английск', 'верс', 'сайт', 'принцип', 'работ', 'сайт', 'абсолютн', 'русск', 'верс', 'раздел', 'сайт', 'редактир', 'пункт', 'блок', 'англ', 'статическ', 'страниц', 'новост', 'анонс', 'раздел', 'страниц', 'новост', 'анонс', 'соответствен', 'для', 'создан', 'статическ', 'страниц', 'английск', 'верс', 'нужн', 'действова', 'создан', 'русск', 'статическ', 'страниц', 'язык', 'страниц', 'нужн', 'выбра', 'английск', 'статическ', 'страниц', 'сходн', 'содержан', 'например', 'программ', 'должн', 'имет', 'одинаков', 'техническ', 'им', 'набра', 'латиниц', 'прописн', 'букв', 'страниц', 'программ', 'имет', 'техническ', 'им', 'about', 'обе', 'верс', 'английск', 'русск', 'тольк', 'случа', 'корректн', 'работа', 'переключалк', 'язык', 'при', 'перевод', 'текст', 'след', 'руководствова', 'глоссар', 'вшэ', 'стилистическ', 'справочник', 'располож', 'портал', 'историческ', 'прин', 'британск', 'вариант', 'английск', 'язык', 'поэт', 'соблюден', 'единообраз', 'необходим', 'придержива', 'британск', 'правописан', 'например', 'programme', 'program', 'centre', 'вмест', 'center', 'след', 'имет', 'вид', 'ин', 'вариант', 'язык', 'никак', 'влия', 'пониман', 'текст', 'иностра', 'аудитор', 'разноб', 'правописан', 'где-т', 'британск', 'где-т', 'американск', 'смотр', 'плох', 'поэт', 'недопуст', 'при', 'перевод', 'назван', 'подразделен', 'необходим', 'использова', 'назван', 'котор', 'принят', 'портал', 'нужн', 'подразделен', 'найт', 'помощ', 'функц', 'поиск', 'портал', 'использован', 'одинаков', 'вариант', 'повыша', 'индексируем', 'сайт', 'поисков', 'систем', 'английск', 'новост', 'анонс', 'размеща', 'английск', 'верс', 'русск', 'верс', 'став', 'есл', 'внос', 'изменен', 'русск', 'страниц', 'необходим', 'измен', 'соответств', 'английск', 'страниц', 'например', 'поменя', 'описан', 'программ', 'нов', 'информац', 'добав', 'русск', 'английск', 'страниц', 'изменен', 'русск', 'страниц', 'транслир', 'автоматическ', 'английск', 'страниц', 'необходим', 'внест', 'отдельн', 'обязательн', 'рекомендова', 'страниц', 'порядок', 'ссылок', 'мен', 'английск', 'верс', 'сайт', 'образовательн', 'программ', 'раздел', 'ABOUT', 'Programme', 'Overview', 'техническ', 'им', 'страниц', 'about', 'Curriculum', 'описан', 'содержания/структур', 'программ', 'прост', 'список', 'курс', 'Partnerships', 'налич', 'рассказ', 'характер', 'партнерств', 'польз', 'студент', 'Faculty', 'Members', 'рассказ', 'ключев', 'преподавател', 'прост', 'список', 'Student', 'Profiles', 'мини-интерв', 'фотограф', 'минимум', 'студент', 'Alumni', 'минимум', 'выпускник', 'налич', 'рассказ', 'карьер', 'выпуск', 'необходим', 'фотограф', 'техническ', 'им', 'страниц', 'alumni', 'Career', 'Opportunities', 'карьерн', 'траектор', 'пример', 'компан', 'ожида', 'зарплат', 'выпуск', 'техническ', 'им', 'страниц', 'career', 'раздел', 'FOR', 'PROSPECTIVE', 'STUDENTS', 'Requirements', 'требован', 'портфол', 'предыдущ', 'уровн', 'образования/опыт', 'техническ', 'им', 'страниц', 'requirements', 'How', 'Apply', 'процесс', 'подач', 'документ', 'техническ', 'им', 'страниц', 'tracks', 'Class', 'Profile', 'рекомендова', 'страниц', 'пример', 'https', '//www.hse.ru/en/ma/sti/classprofile', 'FAQ', 'рекомендова', 'страниц', 'раздел', 'FOR', 'STUDENTS', 'рекомендова', 'ссылк', 'страниц', 'Notice', 'Board', 'доск', 'объявлен', 'Student', 'Ratings', 'Student', 'Theses', 'Final', 'Assessment', 'техническ', 'им', 'assessment', 'Academic', 'Mobility', 'техническ', 'им', 'страниц', 'mobility', 'Practical', 'Training', 'техническ', 'им', 'страниц', 'internships', 'Recommended', 'MOOCs', 'техническ', 'им', 'страниц', 'moocs', 'список', 'перевод', 'рубрик', 'сайт', 'образовательн', 'программ', 'назван', 'раздела/подраздел', 'English', 'titles', 'учебн', 'курс', 'Courses', 'преподавател', 'Faculty', 'документ', 'Documents', 'расписан', 'Timetable', 'тизер', 'дня', 'открыт', 'двер', 'Open', 'House', 'академическ', 'совет', 'Academic', 'Council', 'академическ', 'руководител', 'Academic', 'Supervisor', 'отдел', 'сопровожден', 'учебн', 'процесс', 'образовательн', 'программы/менеджер', 'образовательн', 'программ', 'Study', 'Office', 'Programme', 'Coordinator', 'важн', 'объявлен', 'Important', 'Announcements', 'новост', 'News', 'анонс', 'Events', 'кратк', 'паспорт', 'программ', 'Programme', 'Facts', 'программ', 'Programme', 'Overview', 'партнер', 'Partnerships', 'Double', 'degree', 'Programme', 'налич', 'проф', 'студент', 'русск', 'верс', 'достижен', 'студент', 'Student', 'Profiles', 'выпускник', 'Alumni', 'научно-исследовательск', 'семинар', 'нис', 'англ', 'верс', 'необязательн', 'раздел', 'Research', 'Seminar', 'проектн', 'исследовательск', 'работ', 'англ', 'верс', 'обязательн', 'раздел', 'Project', 'and', 'Research', 'Work', 'Research', 'Opportunities', 'представл', 'список', 'возможн', 'мест', 'описан', 'осуществлен', 'проект', 'паспорт', 'образовательн', 'программ', 'Programme', 'Facts', 'будущ', 'професс', 'Career', 'Opportunitiies', 'траектор', 'поступлен', 'How', 'Apply', 'подготовк', 'Requirements', 'информацион', 'блок', 'полезн', 'ссылк', 'студент', 'программ', 'рейтинг', 'Student', 'Rating', 'студенческ', 'мобильн', 'Academic', 'Mobility', 'практическ', 'подготовк', 'практик', 'Practical', 'Training', 'Internship', 'курсов', 'выпускн', 'квалификацион', 'работ', 'вкр', 'Term', 'Papers', 'and', 'Student', 'Theses', 'итогов', 'аттестац', 'Final', 'Assessment', 'рекомендова', 'онлайн-курс', 'Recommended', 'MOOCs', 'скача', 'одн', 'файл', 'английск', 'назван', 'рубрик', 'DOCX', 'новост', 'новост', 'необходим', 'обновля', 'минимум', 'месяц', 'английск', 'верс', 'необходим', 'новост', 'интересн', 'иностра', 'аудитор', 'международн', 'проект', 'стажировк', 'конференц', 'перевод', 'новост', 'подразделен', 'занима', 'самостоятельн', 'английск', 'текст', 'должн', 'написа', 'грамотн', 'понятн', 'язык', 'использован', 'автоматическ', 'переводчик', 'тип', 'google', 'translate', 'есл', 'новост', 'русск', 'вариант', 'след', 'став', 'перевод', 'работа', 'переключалк', 'язык', 'подробн', 'работ', 'новост', 'английск', 'верс', 'прочест', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'новост', 'главн', 'лент', 'порта', 'сайт', 'друг', 'подразделен', 'копирова', 'сайт', 'подразделен', 'помощ', 'функц', 'размест', 'подразделен', 'ссылк', 'оригинальн', 'новост', 'скриншот', 'выш', 'раздел', 'сайт', 'подразделен', 'случа', 'сайт', 'подразделен', 'попадет', 'русск', 'новост', 'подтянет', 'перевод', 'появ', 'портал', 'есл', 'использова', 'функц', 'полн', 'клонирован', 'никак', 'изменен', 'оригинал', 'новост', 'например', 'добавлен', 'перевод', 'будут', 'отобража', 'клон', 'новост', 'поэт', 'вариант', 'использова', 'анонс', 'важн', 'объявлен', 'есл', 'подразделен', 'провод', 'англоязычн', 'мероприят', 'необходим', 'размест', 'анонс', 'русск', 'английск', 'верс', 'анонс', 'размеща', 'перевод', 'работа', 'переключалк', 'язык', 'есл', 'сайт', 'появля', 'информац', 'актуальн', 'иностра', 'студент', 'подач', 'заявок', 'конкурс', 'необходим', 'дублирова', 'английск', 'верс', 'анонс', 'важн', 'объявлен']</t>
+          <t>['https', '//portal.hse.ru/im', 'шрифт', 'HSESans/HSESlab', 'ZIP', '228']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1021,29 +921,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/im', 'сайт', 'структурн', 'подразделен', 'должн', 'соответствова', 'утвержден', 'стандарт', 'дизайн', 'сайт', 'долж', 'выполн', 'общ', 'стилистик', 'корпоративн', 'порта', 'элемент', 'фирмен', 'стил', 'могут', 'противореч', 'брендбук', 'ни', 'вшэ', 'использован', 'должн', 'согласова', 'отдел', 'визуальн', 'коммуникац', 'visual', 'hse.ru', 'рекомендац', 'цветов', 'палитр', 'см.', 'брендбук', 'ни', 'вшэ', 'цифров', 'носител', 'сайт', 'размеща', 'домен', 'hse.ru', 'имеют', 'адрес', 'вид', 'http', '//www.hсе.ру/им', 'http', '//имя.hсе.р', 'см.', 'регламент', 'англоязычн', 'верс', 'сайт', 'созда', 'подразделен', 'осуществля', 'международн', 'деятельн', 'и/', 'взаимодейств', 'иностра', 'организац', 'студент', 'преподавател', 'для', 'остальн', 'подразделен', 'создан', 'англоязычн', 'верс', 'сайт', 'возможн', 'услов', 'оперативн', 'поддержан', 'регулярн', 'обновлен', 'дальн', 'сил', 'подразделен', 'ответствен', 'своевремен', 'размещен', 'актуализац', 'информац', 'несет', 'руководител', 'подразделен', 'обновлен', 'информац', 'осуществля', 'ответствен', 'структурн', 'подразделен', 'веден', 'сайт', 'заявк', 'создан', 'сайт', 'нужн', 'присла', 'portal', 'hse.ru', 'указа', 'назван', 'подразделен', 'готов', 'контент', 'имеет', 'размещен', 'подробн', 'дальн', 'шаг', 'будут', 'содержа', 'ответн', 'письм']</t>
+          <t>['https', '//portal.hse.ru/slider_banners', 'баннер', 'размеща', 'главн', 'страниц', 'сайт', 'эт', 'прост', 'элемент', 'оформлен', 'повесел', 'баннер', 'призва', 'обрат', 'вниман', 'посетител', 'какой-т', 'контент', 'например', 'ссылк', 'баннер', 'вест', 'анонс', 'конференц', 'новост', 'крупн', 'проект']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/im', 'инструкц', 'работ', 'сайт', 'основн', 'принцип', 'работ', 'сайт', 'как', 'получ', 'доступ', 'редактирован', 'редактирован', 'блок', 'функциона', 'сотрудник', 'подразделен', 'редактирован', 'блок', 'показ', 'списк', 'карт', 'раздел', 'сотрудник', 'размещен', 'новост', 'размещен', 'анонс', 'создан', 'статическ', 'страниц', 'прост', 'статическ', 'страниц', 'составн', 'статическ', 'страниц', 'создан', 'таблиц', 'оптимизац', 'фотограф', 'размещен', 'баннер', 'создан', 'опроса/регистрацион', 'форм', 'как', 'переда', 'дан', 'CRM', 'размещен', 'мета-тег', 'рекомендац', 'поисков', 'оптимизац', 'помощ', 'редактор', 'фотобанк', 'инструмент', 'шрифт', 'HSE', 'Sans', 'редактирован', 'английск', 'верс', 'русско-английск', 'глоссар', 'термин', 'вшэ']</t>
+          <t>['https', '//portal.hse.ru/slider_banners', 'заголовок', 'нескольк', 'слов', 'кратк', 'емк', 'описыва', 'тем', 'есл', 'заголовок', 'слишк', 'длин', 'вмест', 'текст', 'анонс', 'помест', 'мобильн', 'верс', 'анонс', 'бол', 'детальн', 'раскрыва', 'тем', 'баннер', 'зада', 'обычн', 'шрифт', 'поэт', 'длин', 'заголовк', 'как', 'мобильн', 'верс', 'скрыт', 'част', 'анонс', 'есл', 'вид', 'экран', 'мобильн', 'текст', 'анонс', 'помеща', 'полност', 'оберн', 'тэг', 'span', 'class=', 'is-desktop', 'текст', 'скрыт', 'мобильн', '/span', 'есл', 'нужн', 'наоборот', 'отобража', 'какой-т', 'фрагмент', 'текст', 'мобильн', 'скрыва', 'больш', 'экран', 'использ', 'span', 'class=', 'is-mobile', '…текст…', '/span']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/im', 'контакт', 'редактор', 'сайт', 'подразделен', 'список', 'редактор', 'вшэ-москв', 'кампус', 'вшэ', 'нижн', 'новгород', 'перм', 'санкт-петербург']</t>
+          <t>['https', '//portal.hse.ru/slider_banners', 'как', 'оформ', 'баннер', 'существ', 'вариант', 'оформлен', 'баннер', 'заливк', 'цвет', 'фонов', 'картинк', 'умолчан', 'редактор', 'предлага', 'стил', 'Amethyst', 'друг', 'градиентн', 'фон', 'может', 'выбра', 'котор', 'наибол', 'подход', 'цвет', 'ваш', 'сайт', 'стара', 'избега', 'крича', 'цвет', 'есл', 'хот', 'использова', 'качеств', 'фон', 'картинк', 'пол', 'стил', 'выбира', 'сво', 'баннер', 'фон', 'сплешк', 'эт', 'фонов', 'фотограф', 'баннер', 'выбир', 'изображен', 'ориентир', 'фотостил', 'вышк', 'размер', 'обычн', 'пропорц', 'горизонтальн', 'ориентирова', 'фот', '1600', 'ширин', 'перед', 'загрузк', 'картинк', 'необходим', 'оптимизирова', 'подробн', 'поч', 'важн', 'оптимизирова', 'фот', 'прочита', 'страниц', 'найдет', 'ссылк', 'бесплатн', 'фотобанк', 'фотограф', 'наш', 'университет', 'использу', 'может', 'увер', 'наруша', 'авторск', 'прав', 'баннер', 'размеща', 'изображен', 'готов', 'текст', 'больш', 'вероятн', 'обреза', 'различн', 'устройств', 'похож', 'рекомендац', 'относ', 'композиц', 'след', 'след', 'экран', 'мобильн', 'отобража', 'значим', 'част', 'фотограф', 'иллюстрац', 'есл', 'фонов', 'фот', 'достаточн', 'светл', 'текст', 'нем', 'теря', 'затемн', 'как', 'затемн', 'фонов', 'изображен', 'можн', 'воспользова', 'программ', 'Photoshop', 'бесплатн', 'онлайн-фотошоп', 'открыва', 'изображен', 'программ', 'выбира', 'верхн', 'мен', 'изображен', 'коррекц', 'крив', 'использу', 'горяч', 'клавиш', 'Ctrl', 'дал', 'помощ', 'изменен', 'точек', 'крив', 'затемня', 'изображен', 'нужн', 'уровн', 'стил', 'CSS', 'пол', 'установ', 'позиционирован', 'фонов', 'баннер', 'страниц', 'чем', 'меньш', 'значен', 'ниж', 'изображен', 'значен', 'перв', 'класс', 'пример', 'выш', 'эт', '.vp', 'должн', 'уникальн', 'кажд', 'баннер', 'написа', 'латиниц', 'так', '.vp', 'cокращен', 'высш', 'пилотаж', 'использ', 'след', 'код', 'замен', 'перв', 'значен', '.vp.splash.pseudo', 'background-position', 'CSS', 'класс', 'чтоб', 'стил', 'работа', 'скопир', 'значен', 'перв', 'класс', 'стил', 'CSS', 'точк', 'пример', 'эт', 'темн', 'текст.', 'устанавлива', 'фон', 'сплешк', 'светл']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/im', 'част', 'задава', 'вопрос', 'JavaScript', 'iframe', 'сайт', 'подразделен']</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/im', 'шрифт', 'HSESans/HSESlab', 'ZIP', '228']</t>
-        </is>
-      </c>
+          <t>['https', '//portal.hse.ru/slider_banners', 'как', 'скрыть/удал', 'баннер', 'есл', 'нужн', 'скрыт', 'баннер', 'дела', 'неактивн', 'убра', 'галочк', 'слайд', 'актив', 'чтоб', 'удал', 'неактуальн', 'баннер', 'необходим', 'нажа', 'крестик', 'прав', 'угл', 'сохран', 'изменен']</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -1070,50 +966,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['сайт', 'подразделен', 'существ', 'функциона', 'позволя', 'подразделен', 'самостоятельн', 'формирова', 'списк', 'сотрудник', 'котор', 'обраща', 'ин', 'вопрос']</t>
+          <t>['поч', 'эт', 'важн', 'мног', 'трафик', 'ваш', 'сайт', 'следств', 'степен', 'интерес', 'ваш', 'продукт', 'результат', 'деятельн', 'завис', 'скорост', 'загрузк', 'страниц', 'вот', 'некотор', 'страниц', 'порта', 'дума', 'искусствен', 'интеллект']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['списк', 'показыва', 'справочник', 'сотрудник', 'такж', 'личн', 'кабинет', 'сотрудник']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['настоя', 'врем', 'сайт', 'подразделен', 'завед', 'след', 'категор', 'функциональн', 'ответствен']</t>
+          <t>['может', 'сам', 'провер', 'сво', 'сайт', 'помощ', 'инструмент']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']</t>
+          <t>['как', 'эт', 'борот', 'прежд', 'тщательн', 'след', 'загружа', 'вам', 'порта', 'фотограф', 'чрезмерн', 'тяжел', 'помн', 'размер', 'фотограф', 'вес', 'фотограф', 'отчаст', 'завис', 'размер', 'пиксел', 'сам', 'маленьк', 'изображен', 'вес', 'достаточн', 'он', 'хорош', 'качеств']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['добавлен', 'список', 'ответствен', 'автоматическ', 'дает', 'доступ', 'редактирован', 'сайт', 'персональн', 'страниц', 'для', 'необходим', 'получ', 'соответств', 'прав', 'подразделен', 'отвеча', 'соответств', 'ресурс']</t>
+          <t>['для', 'нача', 'уменьш', 'изображен', 'нужн', 'размер', 'эт', 'сдела', 'люб', 'графическ', 'редактор', 'есл', 'компьютер', 'установлен', 'программ', 'может', 'воспользова', 'например', 'онлайн-сервис', 'Photoshop', 'Express', 'Pixlr', 'сам', 'широк', 'картинк', 'портал', 'превыша', '1600', 'пиксел', 'ширин', 'ориентир', 'ширин', 'максимальн', 'оптимизир', 'изображен', 'помощ', 'сервис', 'Tinypng', 'эт', 'очен', 'прост', 'заход', 'сайт', 'перетаскива', 'изображен', 'специальн', 'контейнер', 'прям', 'сайт', 'посл', 'останет', 'скача', 'обратн', 'сво', 'компьютер', 'сжат', 'картинк', 'тепер', 'использова', 'портал']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['управлен', 'информацион', 'ресурс', 'выда', 'прав', 'заявк', 'адрес', 'portal', 'hse.ru']</t>
+          <t>['можн', 'продолжа', 'работа', 'сайт', 'оптимизиру', 'изображен', 'так', 'случа', 'нужн', 'помн', 'эт', 'повлечет', 'соб', 'потер', 'част', 'посетител', 'ваш', 'сайт', 'прежд', 'сам', 'продвинут', 'заходя', 'интернет', 'мобильн', 'телефон', 'такж', 'потенциальн', 'клиент', 'ряд', 'зарубежн', 'стран', 'скорост', 'интернет', 'оставля', 'жела', 'лучш', 'команд', 'порта', 'сво', 'сторон', 'прикладыва', 'усил', 'оптимизирова', 'друг', 'элемент', 'страниц', 'технологическ', 'средств']</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']</t>
+          <t>['чтоб', 'узна', 'как', 'изображен', 'числ', 'тех', 'размещ', 'ваш', 'сайт', 'нужда', 'оптимизац', 'воспольз', 'сервис', 'Google', 'PageSpeed', 'Insights', 'зайд', 'страниц', 'сервис', 'введ', 'адрес', 'страниц', 'котор', 'нужн', 'провер', 'дожд', 'результат', 'найд', 'вкладк', 'оптимизир', 'изображен', 'например', 'главн', 'страниц', 'порта', 'выгляд']</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>['как', 'измен', 'сведен', 'ответствен', 'добавлен', 'сотрудник', 'необходим', 'перейт', 'реж', 'редактирован', 'сайт', 'конкретн', 'подразделен', 'раздел', 'дан', 'блок', 'функциона', 'сотрудник', 'подразделен', 'нажа', 'кнопк', 'добав', 'сотрудник', 'вбит', 'пол', 'поиск', 'фи', 'выбра', 'сотрудник', 'галочк', 'выбра', 'возможн', 'категор', 'ответствен', 'удален', 'сотрудник', 'списк', 'для', 'удален', 'сотрудник', 'необходим', 'убра', 'галк', 'списк', 'функциональн', 'ответствен', 'сотрудник', 'обрат', 'вниман', 'ниж', 'блок', 'функциона', 'список', 'активн', 'рол', 'подразделен', 'нем', 'указа', 'люд', 'котор', 'имеют', 'доступ', 'просмотр', 'редактирован', 'дан', 'портал', 'относя', 'ваш', 'подразделен', 'есл', 'сред', 'люд', 'котор', 'работа', 'вшэ', 'имеют', 'отношен', 'конкретн', 'подразделен', 'необходим', 'сообщ', 'portal', 'hse.ru']</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>['главн', 'страниц', 'типичн', 'образовательн', 'программ']</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>['разниц', 'объем', 'потенциальн', 'оптимизируем']</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>['может', 'оптимизирова', 'размещен', 'сайт', 'изображен', 'помощ', 'встроен', 'инструмент', 'Google', 'PageSpeed', 'Insights', 'для', 'вниз', 'страниц', 'результат', 'обследован', 'ваш', 'страниц', 'найд', 'ссылк', 'скача', 'оптимизирова', 'изображен', 'ресурс', 'JavaScript', 'CSS', 'страниц']</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>['компьютер', 'скача', 'арх', 'одн', 'папк', 'котор', 'будут', 'содержа', 'ужат', 'изображен', 'необходим', 'опубликова', 'ваш', 'сайт', 'взам', 'тех', 'котор', 'ран']</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
@@ -1131,24 +1051,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/nov', 'быстр', 'ссылк', 'создан', 'новост', 'предосмотр', 'новост', 'составн', 'редактор', 'иллюстрац', 'новост', 'копирован', 'сайт']</t>
+          <t>['мног', 'использ', 'сво', 'работ', 'фот', 'виде', 'изображен', 'университет', 'дирекц', 'связ', 'обществен', 'подготов', 'собра', 'фото-', 'видеоконтент', 'котор', 'показыва', 'наш', 'корпус', 'учебн', 'процесс', 'переда', 'атмосфер', 'вышк']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/nov', 'раздел', 'новост', 'предусматрива', 'размещен', 'репортаж', 'прошедш', 'мероприят', 'сообщен', 'получен', 'наград', 'профессиональн', 'обществен', 'признан', 'образовательн', 'программ', 'мегафакультет', 'преподавател', 'т.п.', 'новост', 'обязательн', 'должн', 'содержа', 'заголовок', 'кратк', 'аннотац', 'текст', 'новост', 'рубрик', 'ключев', 'слов', 'желан', 'текст', 'новост', 'сопровожда', 'иллюстрац', 'недопустим', 'размещен', 'английск', 'текст', 'русск', 'верс', 'сайт', 'русск', 'текст', 'английск', 'верс', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'размеща', 'лент', 'новост', 'анонс', 'мероприят', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн', 'есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'новост', 'пиш', 'portal', 'hse.ru', 'создан', 'новост', 'для', 'добавлен', 'новост', 'необходим', 'зайт', 'редактор', 'дан', 'новост', 'нов', 'зап', 'добавля', 'клик', 'иконк', 'заголовок', 'кратк', 'указыва', 'сам', 'сут', 'событ', 'заголовок', 'долж', 'назывн', 'кратк', 'заголовок', 'став', 'нескольк', 'предложен', 'одн', 'длин', 'предложен', 'больш', 'количеств', 'подробн', 'пример', 'длин', 'заголовк', 'посмотрет', 'главн', 'лент', 'порта', 'заголовк', 'употребля', 'слов', 'вниман', 'важн', 'информац', 'дорог', 'друз', 'т.д.', 'точк', 'конц', 'заголовк', 'став', 'CapsLock', 'заглавн', 'букв', 'использу', 'аннотац', 'должн', 'обязательн', 'кратк', 'изложен', 'чем', 'читател', 'узна', 'стат', '2-3', 'предложен', 'текст', 'долж', 'обязательн', 'непосредствен', 'тел', 'новост', 'подробн', 'раскрыва', 'сут', 'событ', 'новост', 'состоя', 'одн', 'предложен', 'фотограф', 'подробн', 'сопроводительн', 'текст', 'дублирова', 'аннотац', 'пол', 'текст', 'нужн', 'есл', 'ваш', 'аннотац', 'повторя', 'перв', 'абзац', 'текст', 'новост', 'став', 'напрот', 'пол', 'отобража', 'аннотац', 'нет', 'при', 'копирован', 'текст', 'Word', 'вставк', 'сайт', 'необходим', 'обязательн', 'порядк', 'чист', 'формат', 'обязательн', 'выбира', 'рубрик', 'ключев', 'слов', 'есл', 'имеющ', 'рубрик', 'соответств', 'тематик', 'ваш', 'сайт', 'напиш', 'portal', 'hse.ru', 'пришл', 'список', 'необходим', 'рубрик', 'завед', 'специальн', 'ваш', 'сайт', 'есл', 'необходим', 'может', 'выбра', 'тип', 'материала/статус', 'новости/сфер', 'деятельн', 'выбира', 'действительн', 'соответств', 'содержан', 'новост', 'эт', 'раздел', 'разработа', 'главн', 'лент', 'hse.ru', 'есл', 'подход', 'новост', 'ваш', 'подразделен', 'пропуска', 'ключев', 'слов', 'выбира', 'соответств', 'содержан', 'ваш', 'новост', 'он', 'дальн', 'позволя', 'дела', 'выборк', 'новост', 'ин', 'тем', 'внутр', 'ваш', 'сайт', 'ключев', 'слов', 'рубрик', 'нужн', 'читател', 'могл', 'найт', 'нужн', 'интересн', 'новост', 'поэт', 'выбира', 'рубрик', 'ключев', 'слов', 'котор', 'соответств', 'тематик', 'новост', 'инач', 'эт', 'прост', 'набор', 'рубрик', 'ключев', 'слов', 'котор', 'ваш', 'новост', 'найдут', 'необходим', 'нажа', 'добав', 'ключев', 'слов', 'вписа', 'необходим', 'слов', 'нажа', 'поиск', 'зат', 'выбра', 'слов', 'словосочетан', 'есл', 'нашл', 'нужн', 'ключев', 'слов', 'может', 'ввест', 'самостоятельн', 'он', 'попадет', 'баз', 'ключев', 'слов', 'настоятельн', 'просьб', 'прежд', 'эт', 'сдела', 'убед', 'нужн', 'ключев', 'слов', 'действительн', 'отсутств', 'предосмотр', 'новост', 'прежд', 'вывод', 'новост', 'лент', 'ваш', 'сайт', 'посмотр', 'пожалуйст', 'получ', 'для', 'нужн', 'воспользова', 'функц', 'предосмотр', 'ссылк', 'располож', 'редакторск', 'интерфейс', 'ряд', 'заголовк', 'новост', 'составн', 'редактор', 'есл', 'новост', 'треб', 'использова', 'сложн', 'верстк', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн', 'дал', 'следу', 'инструкц', 'составн', 'страниц', 'иллюстрац', 'новост', 'обрат', 'вниман', 'картинк', 'используем', 'новост', 'сайт', 'цел', 'должн', 'размеща', 'соблюден', 'закон', 'авторск', 'прав', 'т.е.', 'эт', 'должн', 'фот', 'либ', 'сдела', 'непосредствен', 'сотрудниками/студент', 'либ', 'приобретен', 'фотоагентств', 'фото/картинк', 'найден', 'случайн', 'образ', 'простор', 'интернет', 'недопустим', 'размещен', 'фот', 'явля', 'обязательн', 'элемент', 'новост', 'фотограф', 'должн', 'горизонтальн', 'хорош', 'качеств', 'есл', 'картинк', 'плох', 'качеств', 'несет', 'никак', 'смыслов', 'нагрузк', 'нужн', 'загружа', 'новост', 'нужн', 'загружа', 'качеств', 'иллюстрац', 'новост', 'главн', 'страниц', 'сайт', 'скан', 'скриншот', 'баннер', 'постер', 'обложк', 'логотип', 'портретн', 'фот', 'крупн', 'одн', 'лиц', 'чтоб', 'картинк', 'появ', 'лент', 'новост', 'ваш', 'сайт', 'нужн', 'загруз', 'сплеш-картинк', 'новост', 'размер', 'фот', '1083', '722', 'есл', 'собира', 'размест', 'нескольк', 'изображен', 'воспользова', 'опц', 'фотоальб', 'нажима', 'кнопк', 'добав', 'изображен', 'выбира', 'нужн', 'файл', 'дал', 'сохраня', 'новост', 'либ', 'может', 'воспользова', 'функционал', 'составн', 'редактор', 'обрат', 'ваш', 'вниман', 'фот', 'размеща', 'портал', 'необходим', 'оптимизирова', 'копирован', 'сайт', 'чтоб', 'воспользова', 'функц', 'необходим', 'залогин', 'портал', 'посл', 'открыва', 'нужн', 'новост', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'новост', 'списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова', 'размест', 'новост', 'двум', 'способ', 'ссылк', 'оригинальн', 'новост', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'аннотац', 'котор', 'будут', 'увод', 'оригинальн', 'новост', 'сможет', 'редактирова', 'втор', 'случа', 'новост', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'новост', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'новост', 'размещен', 'полн', 'клонирован', 'подтянет', 'есл', 'вам', 'необходим', 'убра', 'новост', 'размещен', 'ссылк', 'оригинальн', 'новост', 'вам', 'необходим', 'зайт', 'раздел', 'новост', 'импортирова', 'новост', 'ссылк', 'справ', 'найт', 'нужн', 'новост', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'новост', 'подразделен']</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
+          <t>['YоуTубе-канал', 'может', 'найт', 'плейлист', 'имиджев', 'ролик', 'экскурс', 'здан', 'лета', 'видеогид', 'покровк', 'ролик', 'университетск', 'лаборатор', 'вопрос', 'учен', 'мног', 'друг']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['такж', 'воспользова', 'фотограф', 'университет', 'страниц', 'love.hse', 'размещ', 'вариант', 'обоев/фон', 'зум', 'стикерпак']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['страниц', 'собра', 'ссылк', 'зарекомендова', 'бесплатн', 'онлайн-инструмент', 'котор', 'могут', 'облегч', 'работ', 'редактор', 'сайт', 'корпоративн', 'порта', 'больш', 'част', 'эт', 'сервис', 'использ', 'сотрудник', 'дирекц', 'портал', 'мобильн', 'приложен', 'повседневн', 'работ', 'однак', 'необходим', 'имет', 'вид', 'сотрудник', 'дирекц', 'осуществля', 'поддержк', 'числ', 'имеют', 'возможн', 'консультирова', 'использован', 'есл', 'пользует', 'удобн', 'ресурс', 'котор', 'зна', 'присыла', 'информац', 'адрес', 'dkoptubenko', 'hse.ru']</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>['обработк', 'фотограф', 'Colordot', 'инструмент', 'определен', 'HTML-код', 'требуем', 'цвет', 'отлич', 'аналог', 'имеет', 'визуальн', 'удобн', 'палитр', 'Pixlr', 'обработк', 'фот', 'тех', 'ког', 'рук', 'фотошоп', 'аналог', 'зде', 'удобн', 'дела', 'коллаж', 'нескольк', 'изображен', 'TinyPNG', 'проверен', 'инструмент', 'сжат', 'изображен', 'публикац', 'сайт']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['бесплатн', 'фотобанк', 'Unsplash', 'изумительн', 'красот', 'фотограф', 'основн', 'видов', 'Gratisography', 'бесплатн', 'жанров', 'фотограф', 'StockSnap.io', 'кажд', 'недел', 'сервис', 'пополня', 'сотн', 'нов', 'разрешен', 'свободн', 'использован', 'изображен', 'Picjumbo', 'платн', 'ресурс', 'част', 'фотограф', 'брат', 'оттуд', 'прост', 'Picography', 'небольш', 'обь', 'коллекц', 'бесплатн', 'фотограф', 'Library', 'Congress', 'историческ', 'фотограф', 'коллекц', 'библиотек', 'конгресс', 'сша', 'перед', 'использован', 'кажд', 'фотограф', 'прочита', 'распространя', 'прав', 'использован', 'разрешен', 'Morguefile', 'основн', 'пользовательск', 'фотограф', 'невысок', 'качеств', 'встреча', 'превосходн', 'снимк', 'Textures', 'подборк', 'паттерн', 'фонов', 'изображен', 'L+T', 'альтернативн', 'сервис', 'подборк', 'фонов', 'изображен', 'FreeStockTextures', '800', 'паттерн', 'TextureZoom', 'тематическ', 'текстур']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['решен', 'инфографик', 'draw.io', 'интерактивн', 'блок-схем', 'созда', 'помощ', 'инструмент', 'easelly', 'прост', 'употреблен', 'сервис', 'инфографик', 'след', 'обрат', 'вниман', 'русскоязычн', 'шрифт', 'отобража', 'задумыва', 'MyBalsamiq', 'сервис', 'создан', 'прототип', 'можн', 'использова', 'взаимодейств', 'иллюстратор']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['визуальн', 'решен', 'сайт', 'StoryMap', 'помощ', 'создава', 'интерактивн', 'карт', 'Juxtapose', 'элегантн', 'инструмент', 'демонстрац', 'изменен', 'однотипн', 'объект', 'помощ', 'слайдер', 'пользовател', 'сравн', 'стал', 'подобн', 'инструмент', 'активн', 'применя', 'сми', 'демонстрац', 'изменен', 'например', 'реконструкц', 'дом', 'улиц', 'снят', 'одн', 'ракурс', 'Timeline', 'помощ', 'создава', 'таймлайн', 'интерактивн', 'истор', 'растянут', 'времен', 'портал', 'использова', 'например', 'создан', 'страниц', '20-лет', 'нижегородск', 'кампус', 'Soundcite', 'инструмент', 'создан', 'аудиопрезентац', 'Prezi', 'мощн', 'альтернатив', 'Powerpoint', 'создан', 'презентац', 'Fliphtml5', 'инструмент', 'размещен', 'пдф-файл', 'вид', 'раскрыт', 'книг', 'возможн', 'листан', 'страниц', 'мышк', 'единствен', 'известн', 'нам', 'стабильн', 'бесплатн', 'инструмент', 'подобн', 'род', 'формул', 'инструмент', 'отображен', 'формул', 'сайт']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>['создан', 'опрос', 'Google', 'форм', 'бесплатн', 'генератор', 'опрос', 'может', 'пригод', 'нужн', 'провест', 'опрос', 'периметр', 'порта', 'для', 'формирован', 'опросн', 'регистрацион', 'форм', 'портал', 'штатн', 'инструмент']</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>['работ', 'соцсет', 'вконтакт', 'pages.clearCache', 'инструмент', 'вконтакт', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен', 'vk.com/cc', 'инструмент', 'генерац', 'коротк', 'ссылок', 'вконтакт', 'SMMPlanner', 'отложен', 'постинг', 'социальн', 'сет', 'Ezgif', 'создан', 'гиф-изображен', 'видеозапис', 'такж', 'редактур', 'изменен', 'размер', 'обрезк', 'дал', 'Make', 'Beliefs', 'Comix', 'создан', 'комикс']</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>['оптимизац', 'файл', 'онлайн-инструмент', 'любител', 'PDF', 'полност', 'бесплатн', 'онлайн-инструмент', 'объединен', 'разделен', 'сжат', 'PDF-файл', 'преобразован', 'документ', 'Office', 'PDF-файл', 'преобразован', 'PDF-файл', 'JPG', 'JPG', 'PDF', 'без', 'необходим', 'установк']</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>['узна', 'Tutorialspoint', 'обширн', 'набор', 'учебник', 'инструкц', 'пользова', 'Word', 'Powepoint', 'Excel', 'сотн', 'друг', 'программ', 'приложен', 'html', 'academy', 'сайт', 'отличн', 'бесплатн', 'базов', 'курс', 'html', 'css', 'настольн', 'книг', 'кажд', 'имеет', 'доступ', 'редактирован', 'страниц', 'портал', 'Codecademy', 'интерактивн', 'курс', 'программирован', 'https', '//smmplanner.com/']</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -1168,74 +1128,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['поч', 'эт', 'важн', 'мног', 'трафик', 'ваш', 'сайт', 'следств', 'степен', 'интерес', 'ваш', 'продукт', 'результат', 'деятельн', 'завис', 'скорост', 'загрузк', 'страниц', 'вот', 'некотор', 'страниц', 'порта', 'дума', 'искусствен', 'интеллект']</t>
+          <t>['https', '//portal.hse.ru/poll', 'быстр', 'ссылк', 'создан', 'форм', 'уведомлен', 'почт', 'ответн', 'письм', 'пользовател', 'ссылк', 'форму/клонирование/выгрузк', 'результат', 'CRM-систем']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['https', '//portal.hse.ru/poll', 'создан', 'форм', 'для', 'создан', 'регистрацион', 'форм', 'форм', 'подписк', 'новост', 'опрос', 'др.', 'необходим', 'сайт', 'ваш', 'подразделен', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'нажима', 'созда', 'форм', 'дал', 'нужн', 'указа', 'назван', 'назван', 'использ', 'длин', 'слов', 'может', 'постав', 'галочк', 'расстав', 'мягк', 'перенос', 'врем', 'проведен', 'период', 'времен', 'течен', 'котор', 'ответ', 'вопрос', 'статус', 'меня', 'активн', 'форм', 'готов', 'язык', 'форм', 'английск', 'язык', 'необходим', 'выстав', 'язык', 'английск', 'есл', 'регистрац', 'мероприят', 'ограничен', 'количеств', 'участник', 'существ', 'возможн', 'закр', 'регистрац', 'определен', 'количеств', 'заявок', 'ин', 'случа', 'оставля', 'эт', 'пол', 'незаполнен', 'галочк', 'пройт', 'нужн', 'случа', 'созда', 'опрос', 'галочк', 'автоматическ', 'нумерова', 'вопрос', 'сто', 'умолчан', 'однак', 'быва', 'случа', 'автоматическ', 'нумерац', 'нужн', 'галочк', 'нужн', 'убра', 'дал', 'необходим', 'нажа', 'кнопк', 'добав', 'блок', 'вопрос', 'есл', 'нужн', 'разб', 'вопрос', 'нескольк', 'тематическ', 'блок', 'заполня', 'пол', 'блок', 'вопрос', 'необходим', 'такж', 'пол', 'описан', 'пример', 'блок', 'есл', 'ваш', 'вопрос', 'должн', 'идт', 'подряд', 'разбивк', 'блок', 'эт', 'пол', 'заполня', 'сраз', 'переход', 'кнопк', 'добав', 'вопрос', 'пол', 'вопрос', 'вписыва', 'непосредствен', 'вопрос', 'пол', 'описан', 'добав', 'комментар', 'вопрос', 'дал', 'нажима', 'кнопк', 'добав', 'ответ', 'вписыва', 'необходим', 'вариант', 'есл', 'ответ', 'дан', 'вопрос', 'обязател', 'став', 'галочк', 'напрот', 'соответств', 'пункт', 'есл', 'вопрос', 'допуска', 'ответ', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'есл', 'вопрос', 'допуска', 'нескольк', 'вариант', 'ответ', 'такж', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'ответ', 'сдела', 'выпада', 'списк', 'пол', 'формат', 'ответ', 'нужн', 'выбра', 'соответств', 'строк', 'есл', 'ответ', 'зада', 'заполня', 'форм', 'долж', 'вписа', 'сво', 'вариант', 'ответ', 'пол', 'формат', 'ответ', 'выбира', 'значен', 'строк', 'нескольк', 'строк', 'может', 'добав', 'какой-т', 'комментар', 'свободн', 'ответ', 'пояснительн', 'текст', 'такж', 'огранич', 'ответ', 'количеств', 'символ', 'есл', 'ответ', 'предполага', 'указан', 'дат', 'номер', 'телефон', 'e-mail', 'стран', 'проживан', 'загрузк', 'файл', 'выбра', 'строк', 'специальн', 'вопрос', 'пол', 'формат', 'ответ', 'дал', 'выпада', 'списк', 'выбра', 'нужн', 'вариант', 'обрат', 'вниман', 'выберет', 'тип', 'специальн', 'вопрос', 'email', 'заполнен', 'форм', 'браузер', 'пользовател', 'постара', 'автозаполн', 'эт', 'пол', 'кеш', 'эт', 'облегча', 'пользовател', 'заполнен', 'форм', 'автозаполнен', 'кеш', 'браузер', 'возможн', 'такж', 'отношен', 'пол', 'фамил', 'нужн', 'выбра', 'код', 'вопрос', 'lastname', 'им', 'код', 'вопрос', 'firstname', 'автозаполнен', 'гарантир', 'однак', 'прав', 'работа', 'посл', 'заполнен', 'необходим', 'сохран', 'форм', 'нажа', 'кнопк', 'созда']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['может', 'сам', 'провер', 'сво', 'сайт', 'помощ', 'инструмент']</t>
+          <t>['https', '//portal.hse.ru/poll', 'дополнительн', 'параметр', 'чтоб', 'откр', 'дополнительн', 'параметр', 'необходим', 'нажа', 'стрелк', 'откр', 'окн', 'может', 'добав', 'форм', 'пояснительн', 'текст', 'отобража', 'сраз', 'заголовк', 'добав', 'сообщен', 'страниц', 'отправк', 'форм', 'вывод', 'экран', 'напр.', 'спасиб', 'регистрац', 'ждем', 'адрес', '...', 'добав', 'сообщен', 'страниц', 'завершен', 'регистрац', 'заменя', 'стандартн', 'фраз', 'извин', 'регистрац', 'законч', 'измен', 'текст', 'соглас', 'обработк', 'персональн', 'дан', 'использ', 'необходим', 'замен', 'стандартн', 'текст', 'раздел', 'дополнительн', 'параметр', 'такж', 'сможет', 'постав', 'ссылк', 'переход', 'сохранен', 'имет', 'вид', 'заполн', 'эт', 'пол', 'сообщен', 'тип', 'спасиб', 'регистрац', 'регистрац', 'заверш', 'вывод', 'будут', 'измен', 'схем', 'показ', 'вопрос', 'умолчан', 'идут', 'друг', 'друг', 'схем', 'вопрос', 'вид', 'таблиц', 'позволя', 'выстраива', 'две', 'колонк', 'привяза', 'форм', 'определен', 'сайт', 'например', 'сдела', 'одн', 'сайт', 'нужн', 'форм', 'друг', 'либ', 'нужн', 'привяза', 'сайт', 'указа', 'корпоративн', 'e-mail', 'сотрудник', 'вшэ', 'котор', 'будут', 'приход', 'уведомлен', 'нов', 'ответ', 'кажд', 'адрес', 'долж', 'добавл', 'отдельн', 'кнопк', 'добав', 'связа', 'форм', 'друг', 'язык', 'работа', 'переключалк', 'язык', 'так', 'форм', 'например', 'английск', 'есл', 'хот', 'почт', 'пользовател', 'приход', 'ответн', 'письм', 'постав', 'галочк', 'напрот', 'направ', 'ответн', 'письм', 'пользовател', 'дан', 'функц', 'работа', 'случа', 'форм', 'нужн', 'указыва', 'email', 'ответ', 'вопрос', 'обязател', 'пол', 'текст', 'письм', 'нужн', 'размест', 'текст', 'код', 'вопрос', 'электрон', 'почт', 'прописа', 'слов', 'email', 'больш', 'просьб', 'текст', 'письм', 'указыва', 'контактн', 'информац', 'пользовател', 'обрат', 'вопрос', 'т.к.', 'письм', 'приход', 'адрес', 'robot', 'hse.ru', 'есл', 'хот', 'ответн', 'письм', 'пользовател', 'персонализирова', 'пол', 'текст', 'письм', 'начал', 'нужн', 'размест', 'фраз', 'здравств', 'ANSWER_TO_QUESTION_lastname', 'ANSWER_TO_QUESTION_firstname', 'при', 'необходим', 'кром', 'e-mail', 'ваш', 'форм', 'обязательн', 'вопрос', 'отдельн', 'фамил', 'им', 'имя-отчеств', 'код', 'вопрос', 'нужн', 'прописа', 'слов', 'lastname', 'firstname']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['как', 'эт', 'борот', 'прежд', 'тщательн', 'след', 'загружа', 'вам', 'порта', 'фотограф', 'чрезмерн', 'тяжел', 'помн', 'размер', 'фотограф', 'вес', 'фотограф', 'отчаст', 'завис', 'размер', 'пиксел', 'сам', 'маленьк', 'изображен', 'вес', 'достаточн', 'он', 'хорош', 'качеств']</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>['для', 'нача', 'уменьш', 'изображен', 'нужн', 'размер', 'эт', 'сдела', 'люб', 'графическ', 'редактор', 'есл', 'компьютер', 'установлен', 'программ', 'может', 'воспользова', 'например', 'онлайн-сервис', 'Photoshop', 'Express', 'Pixlr', 'сам', 'широк', 'картинк', 'портал', 'превыша', '1600', 'пиксел', 'ширин', 'ориентир', 'ширин', 'максимальн', 'оптимизир', 'изображен', 'помощ', 'сервис', 'Tinypng', 'эт', 'очен', 'прост', 'заход', 'сайт', 'перетаскива', 'изображен', 'специальн', 'контейнер', 'прям', 'сайт', 'посл', 'останет', 'скача', 'обратн', 'сво', 'компьютер', 'сжат', 'картинк', 'тепер', 'использова', 'портал']</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['можн', 'продолжа', 'работа', 'сайт', 'оптимизиру', 'изображен', 'так', 'случа', 'нужн', 'помн', 'эт', 'повлечет', 'соб', 'потер', 'част', 'посетител', 'ваш', 'сайт', 'прежд', 'сам', 'продвинут', 'заходя', 'интернет', 'мобильн', 'телефон', 'такж', 'потенциальн', 'клиент', 'ряд', 'зарубежн', 'стран', 'скорост', 'интернет', 'оставля', 'жела', 'лучш', 'команд', 'порта', 'сво', 'сторон', 'прикладыва', 'усил', 'оптимизирова', 'друг', 'элемент', 'страниц', 'технологическ', 'средств']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>['чтоб', 'узна', 'как', 'изображен', 'числ', 'тех', 'размещ', 'ваш', 'сайт', 'нужда', 'оптимизац', 'воспольз', 'сервис', 'Google', 'PageSpeed', 'Insights', 'зайд', 'страниц', 'сервис', 'введ', 'адрес', 'страниц', 'котор', 'нужн', 'провер', 'дожд', 'результат', 'найд', 'вкладк', 'оптимизир', 'изображен', 'например', 'главн', 'страниц', 'порта', 'выгляд']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['главн', 'страниц', 'типичн', 'образовательн', 'программ']</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>['разниц', 'объем', 'потенциальн', 'оптимизируем']</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>['может', 'оптимизирова', 'размещен', 'сайт', 'изображен', 'помощ', 'встроен', 'инструмент', 'Google', 'PageSpeed', 'Insights', 'для', 'вниз', 'страниц', 'результат', 'обследован', 'ваш', 'страниц', 'найд', 'ссылк', 'скача', 'оптимизирова', 'изображен', 'ресурс', 'JavaScript', 'CSS', 'страниц']</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>['компьютер', 'скача', 'арх', 'одн', 'папк', 'котор', 'будут', 'содержа', 'ужат', 'изображен', 'необходим', 'опубликова', 'ваш', 'сайт', 'взам', 'тех', 'котор', 'ран']</t>
-        </is>
-      </c>
+          <t>['https', '//portal.hse.ru/poll', 'ссылк', 'форму/клонирование/выгрузк', 'ответ', 'необходим', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'сможет', 'редактирова', 'форм', 'сохран', 'изменен', 'нужн', 'нажа', 'кнопк', 'сохран', 'клонирова', 'форм', 'необходим', 'созда', 'форм', 'тем', 'похож', 'вопрос', 'найт', 'ссылк', 'форм', 'нажима', 'встраиван', 'откр', 'окн', 'выбира', 'ссылк', 'назван', 'ваш', 'подразделен', 'форм', 'открыва', 'внутр', 'ваш', 'сайт', 'клика', 'ссылк', 'адресн', 'строк', 'открыш', 'окн', 'копирует', 'ссылк', 'ваш', 'форм', 'пример', 'выгруз', 'ответ', 'форм', 'возможн', 'посмотрет', 'результат', 'pdf', 'html', 'excel']</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
@@ -1253,124 +1173,60 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['для', 'создан', 'составн', 'статическ', 'страниц', 'необходим', 'продела', 'шаг', 'создан', 'прост', 'статическ', 'страниц', 'посл', 'заполнен', 'основн', 'пол', 'переход', 'пол', 'вид', 'страниц', 'располож', 'пол', 'текст', 'умолчан', 'флажок', 'установл', 'положен', 'прост', 'клика', 'выбира', 'составн']</t>
+          <t>['сайт', 'подразделен', 'существ', 'функциона', 'позволя', 'подразделен', 'самостоятельн', 'формирова', 'списк', 'сотрудник', 'котор', 'обраща', 'ин', 'вопрос']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['списк', 'показыва', 'справочник', 'сотрудник', 'такж', 'личн', 'кабинет', 'сотрудник']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['слев', 'располож', 'виджет', 'отвеча', 'формат', 'размещен', 'информац', 'ин', 'блок', 'текст', 'фот', 'виде', '...', 'справ', 'непосредствен', 'пол', 'размещен', 'виджет', 'соответствен', 'информац']</t>
+          <t>['настоя', 'врем', 'сайт', 'подразделен', 'завед', 'след', 'категор', 'функциональн', 'ответствен']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк']</t>
+          <t>['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['внутр', 'центральн', 'част', 'страниц', 'редакторск', 'интерфейс', 'виджет', 'легк', 'меня', 'мест', 'прост', 'перетягив', 'мыш', 'удаля', 'ненужн', 'добавля', 'нов']</t>
+          <t>['добавлен', 'список', 'ответствен', 'автоматическ', 'дает', 'доступ', 'редактирован', 'сайт', 'персональн', 'страниц', 'для', 'необходим', 'получ', 'соответств', 'прав', 'подразделен', 'отвеча', 'соответств', 'ресурс']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['посл', 'размещен', 'необходим', 'информац', 'нажима', 'сохран', 'обязательн', 'проверя', 'получ']</t>
+          <t>['управлен', 'информацион', 'ресурс', 'выда', 'прав', 'заявк', 'адрес', 'portal', 'hse.ru']</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['виджет']</t>
+          <t>['ответствен', 'факультет', 'филиал', 'редактирован', 'страниц', 'подразделен', 'ответствен', 'персональн', 'страниц', 'сотрудник']</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>['текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'остальн', 'принцип', 'оформлен', 'текст', 'прост', 'статическ', 'страниц']</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова']</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>['виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок']</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>['якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'опеределен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor']</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>['цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример']</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>['связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример']</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>['список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример']</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>['хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример']</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>['партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример']</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>['колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример']</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>['соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример']</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>['плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'можн', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример']</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>['дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример']</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>['цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример']</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>['выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример']</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>['кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример']</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>['част', 'задава', 'вопрос', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример']</t>
-        </is>
-      </c>
+          <t>['как', 'измен', 'сведен', 'ответствен', 'добавлен', 'сотрудник', 'необходим', 'перейт', 'реж', 'редактирован', 'сайт', 'конкретн', 'подразделен', 'раздел', 'дан', 'блок', 'функциона', 'сотрудник', 'подразделен', 'нажа', 'кнопк', 'добав', 'сотрудник', 'вбит', 'пол', 'поиск', 'фи', 'выбра', 'сотрудник', 'галочк', 'выбра', 'возможн', 'категор', 'ответствен', 'удален', 'сотрудник', 'списк', 'для', 'удален', 'сотрудник', 'необходим', 'убра', 'галк', 'списк', 'функциональн', 'ответствен', 'сотрудник', 'обрат', 'вниман', 'ниж', 'блок', 'функциона', 'список', 'активн', 'рол', 'подразделен', 'нем', 'указа', 'люд', 'котор', 'имеют', 'доступ', 'просмотр', 'редактирован', 'дан', 'портал', 'относя', 'ваш', 'подразделен', 'есл', 'сред', 'люд', 'котор', 'работа', 'вшэ', 'имеют', 'отношен', 'конкретн', 'подразделен', 'необходим', 'сообщ', 'portal', 'hse.ru']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1378,7 +1234,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['перейд', 'раздел', 'страниц', 'верхн', 'мен', 'режим', 'редактирован', 'сайт']</t>
+          <t>['для', 'создан', 'составн', 'статическ', 'страниц', 'необходим', 'продела', 'шаг', 'создан', 'прост', 'статическ', 'страниц', 'посл', 'заполнен', 'основн', 'пол', 'переход', 'пол', 'вид', 'страниц', 'располож', 'пол', 'текст', 'умолчан', 'флажок', 'установл', 'положен', 'прост', 'клика', 'выбира', 'составн']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1388,78 +1244,114 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['созда', 'страниц', 'кликнув', 'иконк']</t>
+          <t>['слев', 'располож', 'виджет', 'отвеча', 'формат', 'размещен', 'информац', 'ин', 'блок', 'текст', 'фот', 'виде', '...', 'справ', 'непосредствен', 'пол', 'размещен', 'виджет', 'соответствен', 'информац']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['при', 'заполнен', 'пол', 'заголовок', 'использ', 'форматирован', 'текст', 'разбива', 'текст', 'строк', 'вставля', 'пол', 'картинк', 'есл', 'копирует', 'эт', 'пол', 'текст', 'Word', 'обязательн', 'очист', 'форматирован', 'эт', 'пол', 'предназнач', 'исключительн', 'текст', 'форматирован', 'люб', 'случа', 'отраж', 'готов', 'страниц']</t>
+          <t>['внутр', 'центральн', 'част', 'страниц', 'редакторск', 'интерфейс', 'виджет', 'легк', 'меня', 'мест', 'прост', 'перетягив', 'мыш', 'удаля', 'ненужн', 'добавля', 'нов']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['техническ', 'им', 'страниц', 'пол', 'пут', 'указыва', 'латинск', 'строчн', 'букв', 'желательн', 'техническ', 'им', 'состоя', 'одн', 'слов', 'есл', 'необходим', 'использова', 'слов', 'назван', 'страниц', 'ко', 'случа', 'дела', 'пробел', 'слов', 'help', 'managers', 'должн', 'либ', 'help_managers', 'либ', 'help/managers']</t>
+          <t>['посл', 'размещен', 'необходим', 'информац', 'нажима', 'сохран', 'обязательн', 'проверя', 'получ']</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['виджет']</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>['нельз', 'создава', 'пуст', 'страниц', 'страниц', 'размещен', 'ссылк', 'друг', 'страниц', 'страниц', 'размещен', 'одного-единствен', 'файл']</t>
+          <t>['текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'остальн', 'принцип', 'оформлен', 'текст', 'прост', 'статическ', 'страниц']</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>['английск', 'верс', 'русск', 'страниц', 'должн', 'имет', 'так', 'техническ', 'им', 'русскоязычн', 'страниц', 'единствен', 'отлич', 'создан', 'английск', 'страниц', 'пол', 'язык', 'необходим', 'простав', 'значен', 'английск']</t>
+          <t>['изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова']</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>['рамк', 'одн', 'сайт', 'должн', 'статическ', 'страниц', 'одинаков', 'адрес', 'пол', 'пут', 'одн', 'язык']</t>
+          <t>['виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок']</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>['посл', 'наполн', 'страниц', 'прописа', 'техническ', 'им', 'необходим', 'сохран', 'страниц']</t>
+          <t>['якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'опеределен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor']</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>['посл', 'сохранен', 'страниц', 'доступн', 'адрес', 'адрес-главной-страницы-сайта/пут', 'например', 'дан', 'страниц', 'адрес', 'https', '//portal.hse.ru/pages/', 'https', '//portal.hse.ru/', 'адрес', 'главн', 'страниц', 'сайт', 'pages', 'пут', 'страниц']</t>
+          <t>['цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример']</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>['чтоб', 'страниц', 'могл', 'заход', 'пользовател', 'ссылк', 'не', 'необходим', 'добав', 'мен']</t>
+          <t>['связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример']</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>['ссылк', 'мен', 'добавля', 'страниц', 'полност', 'готов', 'наполн', 'содержим']</t>
+          <t>['список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример']</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>['инструкц', 'дальн', 'работ', 'страниц', 'может', 'найт']</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+          <t>['хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример']</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>['партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример']</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>['колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример']</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>['соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример']</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>['плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'можн', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример']</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>['дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример']</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>['цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример']</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>['выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример']</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>['кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример']</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>['част', 'задава', 'вопрос', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример']</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1549,7 +1441,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['редакторск', 'режим', 'сайт', 'статическ', 'страниц', 'новост', 'анонс', 'вид', 'след', 'пол', 'заполнен']</t>
+          <t>['перейд', 'раздел', 'страниц', 'верхн', 'мен', 'режим', 'редактирован', 'сайт']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1559,29 +1451,69 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['быстр', 'ссылк', 'описан', 'документ', 'соцсет']</t>
+          <t>['созда', 'страниц', 'кликнув', 'иконк']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['описан', 'документ', 'сам', 'важн', 'пол', 'описан', 'документ', 'мер', 'наполнен', 'сайт', 'забыва', 'заполня', 'эт', 'пол', 'нов', 'страниц', 'новост', 'анонс', 'больш', 'просьб', 'такж', 'заполн', 'созда', 'сайт', 'статическ', 'страниц', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'описан', 'документ', 'эт', 'фактическ', 'кратк', 'описан', 'написа', 'главн', 'страниц', 'сайт', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'рекомендац', 'составлен', 'мета-описан', 'сайт', 'яндекс', 'мета-описан', 'должн', 'содержа', 'нескольк', 'слов', 'должн', 'описыва', 'конкретн', 'страниц', 'сайт', 'сайт', 'цел', 'мета-описан', 'должн', 'написа', 'люд', 'нормальн', 'человеческ', 'язык', 'развернут', 'правильн', 'выстроен', 'предложен', 'злоупотреблен', 'ключев', 'слов', 'фраз', 'заглавн', 'букв', 'рекламн', 'лозунг', 'пр.', 'мета-описан', 'должн', 'емк', 'содержательн', 'стара', 'выраз', 'основн', 'сут', 'документ', 'нескольк', 'предложен', 'содержим', 'тег', 'meta', 'должн', 'актуальн', 'отража', 'текущ', 'состоян', 'страниц', 'мета-описан', 'должн', 'соответствова', 'язык', 'документ', 'пример', 'плох', 'мета-описан', 'сайт', 'яндекс', 'наполнен', 'мета-описан', 'времен', 'служебн', 'информац', 'например', 'заб', 'добав', 'текст', 'устаревш', 'описан', 'например', 'цен', 'сайт', 'измен', 'описыва', 'документ', 'располож', 'друг', 'адрес', 'описан', 'прежн', 'размещен', 'важн', 'информац', 'конц', 'текст', 'стара', 'располага', 'наибол', 'важн', 'информац', 'фраз', 'начал', 'мета-описан', 'пример', 'правильн', 'заполнен', 'мета-описан', 'https', '//elearning.hse.ru/mooc', 'массов', 'открыт', 'онлайн', 'курс', 'ни', 'вшэ', 'description', 'открыт', 'доступ', 'международн', 'платформ', 'Coursera', 'российск', 'национальн', 'платформ', 'открыт', 'образован', 'нпо', 'может', 'бесплатн', 'изуча', 'курс', 'лучш', 'преподавател', 'высш', 'школ', 'экономик', 'https', '//www.hse.ru/abiturient', 'поступа', 'ни', 'вшэ', 'description', 'высш', 'школ', 'экономик', 'эт', 'отличн', 'старт', 'карьер', 'бизнес', 'государствен', 'служб', 'наук', 'зде', 'готов', 'высококлассн', 'специалист', 'нужн', 'стран', 'все', 'нужн', 'знат', 'поступа', 'ни', 'вшэ', 'дни', 'открыт', 'двер', 'проходн', 'балл', 'друг', 'информац', 'https', '//www.hse.ru/figures/', 'цифр', 'факт', 'description', 'что', 'так', 'вшэ', 'цифр', 'факт', 'статистик', 'рейтинг', 'инфографик', 'мног', 'друг', 'хотел', 'знат', 'вышк', 'https', '//ma.hse.ru/', 'абитуриент', 'магистратур', 'description', 'при', 'информац', 'поступа', 'магистратур', 'ни', 'вшэ', 'список', 'направлен', 'подготовк', 'программ', 'вопрос', 'ответ', 'вступительн', 'испытан', 'дни', 'открыт', 'двер', 'официальн', 'сайт']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['соцсет', 'есл', 'хот', 'ваш', 'сайт', 'отдельн', 'страниц', 'красив', 'выглядел', 'соцсет', 'пользовател', 'дел', 'ссылк', 'нужн', 'пол', 'заполн', 'картинк', 'ниж', 'увидет', 'отлича', 'ссылк', 'соцсет', 'случа', 'соответств', 'пол', 'заполн', 'картинк', 'заполн', 'картинк', 'заполн', 'чтоб', 'посмотрет', 'отобража', 'ин', 'страниц', 'копирован', 'ссылк', 'вконтакт', 'воспользова', 'инструмент', 'вконтакт', 'pages.clearCache', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен']</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
+          <t>['при', 'заполнен', 'пол', 'заголовок', 'использ', 'форматирован', 'текст', 'разбива', 'текст', 'строк', 'вставля', 'пол', 'картинк', 'есл', 'копирует', 'эт', 'пол', 'текст', 'Word', 'обязательн', 'очист', 'форматирован', 'эт', 'пол', 'предназнач', 'исключительн', 'текст', 'форматирован', 'люб', 'случа', 'отраж', 'готов', 'страниц']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['техническ', 'им', 'страниц', 'пол', 'пут', 'указыва', 'латинск', 'строчн', 'букв', 'желательн', 'техническ', 'им', 'состоя', 'одн', 'слов', 'есл', 'необходим', 'использова', 'слов', 'назван', 'страниц', 'ко', 'случа', 'дела', 'пробел', 'слов', 'help', 'managers', 'должн', 'либ', 'help_managers', 'либ', 'help/managers']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['нельз', 'создава', 'пуст', 'страниц', 'страниц', 'размещен', 'ссылк', 'друг', 'страниц', 'страниц', 'размещен', 'одного-единствен', 'файл']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>['английск', 'верс', 'русск', 'страниц', 'должн', 'имет', 'так', 'техническ', 'им', 'русскоязычн', 'страниц', 'единствен', 'отлич', 'создан', 'английск', 'страниц', 'пол', 'язык', 'необходим', 'простав', 'значен', 'английск']</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>['рамк', 'одн', 'сайт', 'должн', 'статическ', 'страниц', 'одинаков', 'адрес', 'пол', 'пут', 'одн', 'язык']</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>['посл', 'наполн', 'страниц', 'прописа', 'техническ', 'им', 'необходим', 'сохран', 'страниц']</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>['посл', 'сохранен', 'страниц', 'доступн', 'адрес', 'адрес-главной-страницы-сайта/пут', 'например', 'дан', 'страниц', 'адрес', 'https', '//portal.hse.ru/pages/', 'https', '//portal.hse.ru/', 'адрес', 'главн', 'страниц', 'сайт', 'pages', 'пут', 'страниц']</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>['чтоб', 'страниц', 'могл', 'заход', 'пользовател', 'ссылк', 'не', 'необходим', 'добав', 'мен']</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>['ссылк', 'мен', 'добавля', 'страниц', 'полност', 'готов', 'наполн', 'содержим']</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>['инструкц', 'дальн', 'работ', 'страниц', 'может', 'найт']</t>
+        </is>
+      </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
@@ -1598,27 +1530,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['настоя', 'врем', 'сведен', 'блок', 'показ', 'списк', 'карт', 'дан', 'показ', 'списк', 'карт', 'показыва', 'сайт', 'подразделен', 'однак', 'использ', 'отображен', 'информац', 'подразделен', 'раздел', 'порта']</t>
+          <t>['быстр', 'ссылк', 'заголовк', 'страниц', 'мета-описан', 'страниц', 'заголовк', 'текст', 'ссылк', 'изображен', 'общ', 'рекомендац']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['здан', 'наук', 'поиск', 'подразделен', 'сведен', 'образовательн', 'организац', 'кром', 'информац', 'раздел', 'переда', 'яндекс.карт', 'эт', 'каса', 'прежд', 'крупн', 'подразделен']</t>
+          <t>['заголовк', 'страниц', 'заголовк', 'должн', 'соответствова', 'содержан', 'страниц', 'заголовок', 'долж', 'уникальн', 'максимальн', 'соответствова', 'содержан', 'страниц', 'чег', 'след', 'избега', 'заголовк', 'имеющ', 'отношен', 'содержан', 'страниц', 'шаблон', 'бессмыслен', 'заголовк', 'так', 'поступа', 'студент', 'использ', 'кратк', 'содержательн', 'заголовк', 'максимальн', 'длин', 'заголовк', '150', 'символ', 'оптимальн', 'символ', 'заголовок', 'долж', 'информативн', 'кратк', 'есл', 'связа', 'содержан', 'слишк', 'длин', 'поисков', 'систем', 'показа', 'част', 'заголовок', 'котор', 'созда', 'основ', 'содержим', 'страниц', 'чег', 'след', 'избега', 'слишк', 'длин', 'заголовк', 'бесполезн', 'пользовател']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['редактирован', 'дан', 'чтоб', 'перейт', 'редактирован', 'блок', 'зайд', 'административн', 'интерфейс', 'порта', 'перейд', 'дан', 'показ', 'списк', 'карт']</t>
+          <t>['мета-описан', 'страниц', 'тег', 'description', 'описан', 'должн', 'точн', 'отража', 'содержан', 'страниц', 'помн', 'описан', 'показа', 'результат', 'поиск', 'поэт', 'он', 'должн', 'информативн', 'интересн', 'пользовател', 'дела', 'мета-описан', '300', 'символ', 'коротк', 'будут', 'плох', 'выглядет', 'длин', 'уреза', 'чег', 'след', 'избега', 'создан', 'мет', 'тег', 'описан', 'имеющ', 'отношен', 'содержан', 'страниц', 'использован', 'описан', 'общ', 'характер', 'например', 'эт', 'веб-страниц', 'учебн', 'программ', 'использован', 'описан', 'ключев', 'слов', 'копирован', 'описан', 'содержан', 'документ', 'использ', 'разн', 'описан', 'разн', 'страниц', 'есл', 'будет', 'использова', 'уникальн', 'мет', 'тег', 'описан', 'кажд', 'страниц', 'эт', 'поможет', 'пользовател', 'сдела', 'правильн', 'выбор', 'особен', 'случа', 'результат', 'поиск', 'отобража', 'нескольк', 'страниц', 'сайт', 'чег', 'след', 'избега', 'использован', 'одн', 'мет', 'тег', 'описан', 'мног', 'страниц', 'сайт', 'инструкц', 'заполнен', 'мета-тег', 'редактор', 'найт', 'https', '//portal.hse.ru/meta']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['описан', 'пол', 'телефон', 'адрес', 'основн', 'телефон', 'укаж', 'телефон', 'формат', '4957787704', 'внутрен', 'телефон', 'необход', 'при', 'необходим', 'укаж', 'ком', 'принадлеж', 'номер', 'есл', 'подразделен', 'располага', 'разн', 'здан', 'кажд', 'адрес', 'указа', 'сво', 'номер', 'телефон', 'есл', 'укажет', 'телефон', 'кажд', 'адрес', 'указыва', 'основн', 'телефон', 'необязательн', 'отображен', 'яндекс.карт', 'будут', 'использова', 'телефон', 'указа', 'адрес', 'есл', 'указа', 'основн', 'телефон', 'показыва', 'обо', 'адрес', 'есл', 'нашл', 'адрес', 'ни', 'вшэ', 'справочник', 'напиш', 'portal', 'hse.ru', 'поч', 'важн', 'указа', 'телефон', 'подразделен', 'вам', 'удобн', 'связа', 'тольк', 'налич', 'адрес', 'телефон', 'подразделен', 'показа', 'яндекс.карт', 'обрат', 'вниман', 'яндекс.карт', 'показыва', 'факультет', 'крупн', 'институт', 'международн', 'лаборатор', 'редакц', 'журнал', 'электрон', 'почт', 'укаж', 'корпоративн', 'почт', 'подразделен', 'корпоративн', 'почт', 'сотрудник', 'выполня', 'обязан', 'секретаря/менеджер', 'уровен', 'подготовк', 'указан', 'уровн', 'образован', 'актуальн', 'подразделен', 'реализ', 'образовательн', 'программ', 'имеющ', 'аспирантск', 'школ', 'тип', 'подразделен', 'яндекс', 'актуальн', 'крупн', 'подразделен', 'тип', 'факультет', 'указыва', 'подразделен', 'реализ', 'основн', 'образовательн', 'программ', 'крупн', 'институт', 'тип', 'дополнительн', 'образован', 'курс', 'иностра', 'язык', 'маркетингов', 'услуг', 'учебн', 'центр', 'центр', 'повышен', 'квалификац', 'указыва', 'тех', 'подразделен', 'котор', 'эт', 'категор', 'подразделен', 'скор', 'категор', 'проставл', 'есл', 'проставьт', 'обрат', 'вниман', 'научно-учебн', 'лаборатор', 'явля', 'международн', 'долж', 'стоя', 'тип', 'международн', 'лаборатор', 'возникновен', 'вопрос', 'обраща', 'мар', 'юдкевич', 'тематик', 'исследован', 'дан', 'справочник', 'основа', 'расширен', 'классификатор', 'OECD', 'использ', 'отображен', 'подразделен', 'раздел', 'наук', 'такж', 'общ', 'каталог', 'подразделен', 'ни', 'вшэ']</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+          <t>['заголовк', 'текст', 'h2-h6', 'предназначен', 'пример', 'основн', 'предназначен', 'дан', 'тег', 'структурирован', 'оформлен', 'контент', 'страниц', 'сдела', 'чита', 'легк', 'воспринима', 'пользовател', 'сайт', 'кром', 'применен', 'дан', 'тег', 'качеств', 'структуризац', 'контент', 'оформлен', 'использован', 'придан', 'дизайн', 'отдельн', 'фраз', 'предложен', 'допуска', 'заголовк', 'должн', 'использова', 'разбиен', 'текст', 'логическ', 'блок', 'тег', 'заголовк', 'h2-h6', 'отлича', 'значим', 'кажд', 'низш', 'уровен', 'долж', 'мен', 'знач', 'при', 'использован', 'дан', 'тег', 'нужн', 'выдержива', 'структур', 'h2-h3-h4-h5-h6', 'так', 'избега', 'использован', 'друг', 'тег', 'акцентирован', 'strong', 'ссылок', 'внутр', 'тег', 'h2-h6', 'длин', 'заголовк', 'должн', 'превыша', 'символ', 'поисков', 'систем', 'обрабатыва', 'ограничен', 'количеств', 'знак', 'длин', 'заголовк', 'будут', 'воспринят', 'полност', 'редактор', 'дан', 'заголовк', 'найт', 'пол', 'формат', 'инструкц', 'добавлен', 'заголовк', 'редактор', 'https', '//portal.hse.ru/format/', 'headrs', 'представьт', 'пишет', 'обзор', 'как', 'написан', 'обзор', 'больш', 'текст', 'излож', 'основн', 'пункт', 'подпункт', 'документ', 'подума', 'использова', 'тег', 'заголовк', 'чег', 'след', 'избега', 'выделен', 'тег', 'заголовк', 'так', 'текст', 'котор', 'помога', 'определ', 'структур', 'страниц', 'использован', 'заголовк', 'подход', 'друг', 'тег', 'например', 'курс', 'strong', 'полужирн', 'бессистемн', 'использован', 'заголовк', 'разн', 'размер', 'злоупотребля', 'заголовк', 'использ', 'тег', 'заголовк', 'эт', 'имеет', 'смысл', 'чрезмерн', 'количеств', 'заголовк', 'страниц', 'затрудня', 'просмотр', 'контент', 'меша', 'определ', 'заканчива', 'одн', 'тем', 'начина', 'друг', 'чег', 'след', 'избега', 'злоупотреблен', 'заголовк', 'страниц', 'слишк', 'длин', 'заголовк', 'использован', 'заголовк', 'оформлен', 'текст', 'структурирован']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>['ссылк', 'тщательн', 'продумыва', 'текст', 'ссылок', 'видим', 'текст', 'ссылк', 'помога', 'пользовател', 'поисковик', 'поня', 'содержан', 'страниц', 'ссылк', 'страниц', 'могут', 'внутрен', 'указыва', 'друг', 'страниц', 'сайт', 'внешн', 'ведут', 'друг', 'сайт', 'люб', 'случа', 'понятн', 'текст', 'ссылк', 'прощ', 'пользовател', 'ориентирова', 'сайт', 'поисков', 'систем', 'легч', 'поня', 'страниц', 'котор', 'ведет', 'ссылк', 'хорош', 'продума', 'текст', 'ссылк', 'помога', 'пользовател', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'использ', 'информативн', 'текст', 'текст', 'ссылк', 'долж', 'хот', 'общ', 'описыва', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'чег', 'след', 'избега', 'использован', 'текст', 'ссылк', 'общ', 'слов', 'например', 'страниц', 'стат', 'нажм', 'слов', 'имеющ', 'отношен', 'тем', 'контент', 'страниц', 'котор', 'ведет', 'ссылк', 'част', 'использован', 'URL', 'страниц', 'качеств', 'текст', 'ссылк', 'эт', 'допуска', 'например', 'продвижен', 'указан', 'нов', 'адрес', 'сайт', 'текст', 'долж', 'лаконичн', 'текст', 'долж', 'описательн', 'возможн', 'небольш', 'нескольк', 'слов', 'коротк', 'фраз', 'чег', 'след', 'избега', 'длин', 'текст', 'ссылк', 'например', 'сложн', 'предложен', 'цел', 'абзац', 'подбер', 'текст', 'ссылок', 'внутрен', 'URL', 'забыва', 'ссылк', 'быва', 'внешн', 'внутрен', 'тщательн', 'продума', 'текст', 'внутрен', 'ссылок', 'поможет', 'ориентирова', 'сайт', 'пользовател', 'поисков', 'систем', 'чег', 'след', 'избега', 'длин', 'текст', 'больш', 'количеств', 'ключев', 'слов', 'предназначен', 'поисков', 'сист', 'создан', 'ненужн', 'ссылок', 'котор', 'упроща', 'навигац', 'сайт']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['изображен', 'использ', 'атрибут', 'alt', 'для', 'изображен', 'использ', 'описательн', 'им', 'файл', 'атрибут', 'alt', 'атрибут', 'alt', 'содерж', 'текст', 'котор', 'вид', 'пользовател', 'изображен', 'показыва', 'то', 'ин', 'причин', 'чтоб', 'заполн', 'атрибут', 'редактор', 'сайт', 'добавлен', 'картинк', 'нужн', 'заполн', 'пол', 'описан', 'для', 'нуж', 'атрибут', 'есл', 'посетител', 'использ', 'просмотр', 'сайт', 'вспомогательн', 'технолог', 'например', 'программ', 'чтен', 'экра', 'сможет', 'поня', 'изображ', 'картинк', 'кром', 'использует', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'служ', 'текст', 'обычн', 'ссылк', 'однак', 'рекоменду', 'злоупотребля', 'изображен', 'навигац', 'сайт', 'использова', 'текстов', 'ссылк', 'наконец', 'оптимизац', 'им', 'графическ', 'файл', 'текст', 'атрибут', 'alt', 'упроща', 'поиск', 'изображен', 'например', 'Google', 'картинк', 'использ', 'кратк', 'описательн', 'им', 'файл', 'текст', 'атрибут', 'alt', 'как', 'мног', 'друг', 'элемент', 'страниц', 'котор', 'оптимизирова', 'им', 'файл', 'текст', 'атрибут', 'alt', 'должн', 'кратк', 'содержательн', 'чег', 'след', 'избега', 'шаблон', 'бессмыслен', 'им', 'так', 'image1.jpg', 'pic.gif', '1.jpg', 'возможн', 'слишк', 'длин', 'им', 'файл', 'добавлен', 'ключев', 'слов', 'цел', 'предложен', 'текст', 'атрибут', 'alt', 'добавля', 'текст', 'атрибут', 'alt', 'использует', 'изображен', 'ссылк', 'есл', 'реш', 'использова', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'поможет', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'счита', 'пишет', 'текст', 'обычн', 'ссылк', 'чег', 'след', 'избега', 'слишк', 'длин', 'текст', 'атрибут', 'alt', 'рассматрива', 'спам', 'чрезмерн', 'использован', 'изображен', 'качеств', 'ссылок', 'навигац', 'сайт']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['общ', 'рекомендац', 'пиш', 'легк', 'чита', 'текст', 'текст', 'долж', 'понят', 'пользовател', 'стара', 'выдержива', 'стил', 'допуска', 'ошибок', 'чег', 'след', 'избега', 'грамматическ', 'орфографическ', 'ошибок', 'текст', 'запута', 'формулировок', 'некачествен', 'контент']</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1643,25 +1587,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/slider_banners', 'баннер', 'размеща', 'главн', 'страниц', 'сайт', 'эт', 'прост', 'элемент', 'оформлен', 'повесел', 'баннер', 'призва', 'обрат', 'вниман', 'посетител', 'какой-т', 'контент', 'например', 'ссылк', 'баннер', 'вест', 'анонс', 'конференц', 'новост', 'крупн', 'проект']</t>
+          <t>['редакторск', 'режим', 'сайт', 'статическ', 'страниц', 'новост', 'анонс', 'вид', 'след', 'пол', 'заполнен']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/slider_banners', 'заголовок', 'нескольк', 'слов', 'кратк', 'емк', 'описыва', 'тем', 'есл', 'заголовок', 'слишк', 'длин', 'вмест', 'текст', 'анонс', 'помест', 'мобильн', 'верс', 'анонс', 'бол', 'детальн', 'раскрыва', 'тем', 'баннер', 'зада', 'обычн', 'шрифт', 'поэт', 'длин', 'заголовк', 'как', 'мобильн', 'верс', 'скрыт', 'част', 'анонс', 'есл', 'вид', 'экран', 'мобильн', 'текст', 'анонс', 'помеща', 'полност', 'оберн', 'тэг', 'span', 'class=', 'is-desktop', 'текст', 'скрыт', 'мобильн', '/span', 'есл', 'нужн', 'наоборот', 'отобража', 'какой-т', 'фрагмент', 'текст', 'мобильн', 'скрыва', 'больш', 'экран', 'использ', 'span', 'class=', 'is-mobile', '…текст…', '/span']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/slider_banners', 'как', 'оформ', 'баннер', 'существ', 'вариант', 'оформлен', 'баннер', 'заливк', 'цвет', 'фонов', 'картинк', 'умолчан', 'редактор', 'предлага', 'стил', 'Amethyst', 'друг', 'градиентн', 'фон', 'может', 'выбра', 'котор', 'наибол', 'подход', 'цвет', 'ваш', 'сайт', 'стара', 'избега', 'крича', 'цвет', 'есл', 'хот', 'использова', 'качеств', 'фон', 'картинк', 'пол', 'стил', 'выбира', 'сво', 'баннер', 'фон', 'сплешк', 'эт', 'фонов', 'фотограф', 'баннер', 'выбир', 'изображен', 'ориентир', 'фотостил', 'вышк', 'размер', 'обычн', 'пропорц', 'горизонтальн', 'ориентирова', 'фот', '1600', 'ширин', 'перед', 'загрузк', 'картинк', 'необходим', 'оптимизирова', 'подробн', 'поч', 'важн', 'оптимизирова', 'фот', 'прочита', 'страниц', 'найдет', 'ссылк', 'бесплатн', 'фотобанк', 'фотограф', 'наш', 'университет', 'использу', 'может', 'увер', 'наруша', 'авторск', 'прав', 'баннер', 'размеща', 'изображен', 'готов', 'текст', 'больш', 'вероятн', 'обреза', 'различн', 'устройств', 'похож', 'рекомендац', 'относ', 'композиц', 'след', 'след', 'экран', 'мобильн', 'отобража', 'значим', 'част', 'фотограф', 'иллюстрац', 'есл', 'фонов', 'фот', 'достаточн', 'светл', 'текст', 'нем', 'теря', 'затемн', 'как', 'затемн', 'фонов', 'изображен', 'можн', 'воспользова', 'программ', 'Photoshop', 'бесплатн', 'онлайн-фотошоп', 'открыва', 'изображен', 'программ', 'выбира', 'верхн', 'мен', 'изображен', 'коррекц', 'крив', 'использу', 'горяч', 'клавиш', 'Ctrl', 'дал', 'помощ', 'изменен', 'точек', 'крив', 'затемня', 'изображен', 'нужн', 'уровн', 'стил', 'CSS', 'пол', 'установ', 'позиционирован', 'фонов', 'баннер', 'страниц', 'чем', 'меньш', 'значен', 'ниж', 'изображен', 'значен', 'перв', 'класс', 'пример', 'выш', 'эт', '.vp', 'должн', 'уникальн', 'кажд', 'баннер', 'написа', 'латиниц', 'так', '.vp', 'cокращен', 'высш', 'пилотаж', 'использ', 'след', 'код', 'замен', 'перв', 'значен', '.vp.splash.pseudo', 'background-position', 'CSS', 'класс', 'чтоб', 'стил', 'работа', 'скопир', 'значен', 'перв', 'класс', 'стил', 'CSS', 'точк', 'пример', 'эт', 'темн', 'текст.', 'устанавлива', 'фон', 'сплешк', 'светл']</t>
+          <t>['быстр', 'ссылк', 'описан', 'документ', 'соцсет']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/slider_banners', 'как', 'скрыть/удал', 'баннер', 'есл', 'нужн', 'скрыт', 'баннер', 'дела', 'неактивн', 'убра', 'галочк', 'слайд', 'актив', 'чтоб', 'удал', 'неактуальн', 'баннер', 'необходим', 'нажа', 'крестик', 'прав', 'угл', 'сохран', 'изменен']</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>['описан', 'документ', 'сам', 'важн', 'пол', 'описан', 'документ', 'мер', 'наполнен', 'сайт', 'забыва', 'заполня', 'эт', 'пол', 'нов', 'страниц', 'новост', 'анонс', 'больш', 'просьб', 'такж', 'заполн', 'созда', 'сайт', 'статическ', 'страниц', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'описан', 'документ', 'эт', 'фактическ', 'кратк', 'описан', 'написа', 'главн', 'страниц', 'сайт', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'рекомендац', 'составлен', 'мета-описан', 'сайт', 'яндекс', 'мета-описан', 'должн', 'содержа', 'нескольк', 'слов', 'должн', 'описыва', 'конкретн', 'страниц', 'сайт', 'сайт', 'цел', 'мета-описан', 'должн', 'написа', 'люд', 'нормальн', 'человеческ', 'язык', 'развернут', 'правильн', 'выстроен', 'предложен', 'злоупотреблен', 'ключев', 'слов', 'фраз', 'заглавн', 'букв', 'рекламн', 'лозунг', 'пр.', 'мета-описан', 'должн', 'емк', 'содержательн', 'стара', 'выраз', 'основн', 'сут', 'документ', 'нескольк', 'предложен', 'содержим', 'тег', 'meta', 'должн', 'актуальн', 'отража', 'текущ', 'состоян', 'страниц', 'мета-описан', 'должн', 'соответствова', 'язык', 'документ', 'пример', 'плох', 'мета-описан', 'сайт', 'яндекс', 'наполнен', 'мета-описан', 'времен', 'служебн', 'информац', 'например', 'заб', 'добав', 'текст', 'устаревш', 'описан', 'например', 'цен', 'сайт', 'измен', 'описыва', 'документ', 'располож', 'друг', 'адрес', 'описан', 'прежн', 'размещен', 'важн', 'информац', 'конц', 'текст', 'стара', 'располага', 'наибол', 'важн', 'информац', 'фраз', 'начал', 'мета-описан', 'пример', 'правильн', 'заполнен', 'мета-описан', 'https', '//elearning.hse.ru/mooc', 'массов', 'открыт', 'онлайн', 'курс', 'ни', 'вшэ', 'description', 'открыт', 'доступ', 'международн', 'платформ', 'Coursera', 'российск', 'национальн', 'платформ', 'открыт', 'образован', 'нпо', 'может', 'бесплатн', 'изуча', 'курс', 'лучш', 'преподавател', 'высш', 'школ', 'экономик', 'https', '//www.hse.ru/abiturient', 'поступа', 'ни', 'вшэ', 'description', 'высш', 'школ', 'экономик', 'эт', 'отличн', 'старт', 'карьер', 'бизнес', 'государствен', 'служб', 'наук', 'зде', 'готов', 'высококлассн', 'специалист', 'нужн', 'стран', 'все', 'нужн', 'знат', 'поступа', 'ни', 'вшэ', 'дни', 'открыт', 'двер', 'проходн', 'балл', 'друг', 'информац', 'https', '//www.hse.ru/figures/', 'цифр', 'факт', 'description', 'что', 'так', 'вшэ', 'цифр', 'факт', 'статистик', 'рейтинг', 'инфографик', 'мног', 'друг', 'хотел', 'знат', 'вышк', 'https', '//ma.hse.ru/', 'абитуриент', 'магистратур', 'description', 'при', 'информац', 'поступа', 'магистратур', 'ни', 'вшэ', 'список', 'направлен', 'подготовк', 'программ', 'вопрос', 'ответ', 'вступительн', 'испытан', 'дни', 'открыт', 'двер', 'официальн', 'сайт']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>['соцсет', 'есл', 'хот', 'ваш', 'сайт', 'отдельн', 'страниц', 'красив', 'выглядел', 'соцсет', 'пользовател', 'дел', 'ссылк', 'нужн', 'пол', 'заполн', 'картинк', 'ниж', 'увидет', 'отлича', 'ссылк', 'соцсет', 'случа', 'соответств', 'пол', 'заполн', 'картинк', 'заполн', 'картинк', 'заполн', 'чтоб', 'посмотрет', 'отобража', 'ин', 'страниц', 'копирован', 'ссылк', 'вконтакт', 'воспользова', 'инструмент', 'вконтакт', 'pages.clearCache', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен']</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
@@ -1688,64 +1636,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['мног', 'использ', 'сво', 'работ', 'фот', 'виде', 'изображен', 'университет', 'дирекц', 'связ', 'обществен', 'подготов', 'собра', 'фото-', 'видеоконтент', 'котор', 'показыва', 'наш', 'корпус', 'учебн', 'процесс', 'переда', 'атмосфер', 'вышк']</t>
+          <t>['осторожн', 'относ', 'просьб', 'коллег', 'размест', 'сайт', 'подразделен', 'произвольн', 'JavaScript', 'сторон', 'iframe', 'подобн', 'вставк', 'оказыва', 'очен', 'уязвим', 'элемент', 'сайт', 'точк', 'зрен', 'безопасн', 'через', 'связ', 'внеш', 'сайт', 'могут', 'стат', 'рассадник', 'огромн', 'числ', 'вирус', 'инфицирова', 'компьютер', 'подозрева', 'посетител', 'порта']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['YоуTубе-канал', 'может', 'найт', 'плейлист', 'имиджев', 'ролик', 'экскурс', 'здан', 'лета', 'видеогид', 'покровк', 'ролик', 'университетск', 'лаборатор', 'вопрос', 'учен', 'мног', 'друг']</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['такж', 'воспользова', 'фотограф', 'университет', 'страниц', 'love.hse', 'размещ', 'вариант', 'обоев/фон', 'зум', 'стикерпак']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['страниц', 'собра', 'ссылк', 'зарекомендова', 'бесплатн', 'онлайн-инструмент', 'котор', 'могут', 'облегч', 'работ', 'редактор', 'сайт', 'корпоративн', 'порта', 'больш', 'част', 'эт', 'сервис', 'использ', 'сотрудник', 'дирекц', 'портал', 'мобильн', 'приложен', 'повседневн', 'работ', 'однак', 'необходим', 'имет', 'вид', 'сотрудник', 'дирекц', 'осуществля', 'поддержк', 'числ', 'имеют', 'возможн', 'консультирова', 'использован', 'есл', 'пользует', 'удобн', 'ресурс', 'котор', 'зна', 'присыла', 'информац', 'адрес', 'dkoptubenko', 'hse.ru']</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>['обработк', 'фотограф', 'Colordot', 'инструмент', 'определен', 'HTML-код', 'требуем', 'цвет', 'отлич', 'аналог', 'имеет', 'визуальн', 'удобн', 'палитр', 'Pixlr', 'обработк', 'фот', 'тех', 'ког', 'рук', 'фотошоп', 'аналог', 'зде', 'удобн', 'дела', 'коллаж', 'нескольк', 'изображен', 'TinyPNG', 'проверен', 'инструмент', 'сжат', 'изображен', 'публикац', 'сайт']</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['бесплатн', 'фотобанк', 'Unsplash', 'изумительн', 'красот', 'фотограф', 'основн', 'видов', 'Gratisography', 'бесплатн', 'жанров', 'фотограф', 'StockSnap.io', 'кажд', 'недел', 'сервис', 'пополня', 'сотн', 'нов', 'разрешен', 'свободн', 'использован', 'изображен', 'Picjumbo', 'платн', 'ресурс', 'част', 'фотограф', 'брат', 'оттуд', 'прост', 'Picography', 'небольш', 'обь', 'коллекц', 'бесплатн', 'фотограф', 'Library', 'Congress', 'историческ', 'фотограф', 'коллекц', 'библиотек', 'конгресс', 'сша', 'перед', 'использован', 'кажд', 'фотограф', 'прочита', 'распространя', 'прав', 'использован', 'разрешен', 'Morguefile', 'основн', 'пользовательск', 'фотограф', 'невысок', 'качеств', 'встреча', 'превосходн', 'снимк', 'Textures', 'подборк', 'паттерн', 'фонов', 'изображен', 'L+T', 'альтернативн', 'сервис', 'подборк', 'фонов', 'изображен', 'FreeStockTextures', '800', 'паттерн', 'TextureZoom', 'тематическ', 'текстур']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>['решен', 'инфографик', 'draw.io', 'интерактивн', 'блок-схем', 'созда', 'помощ', 'инструмент', 'easelly', 'прост', 'употреблен', 'сервис', 'инфографик', 'след', 'обрат', 'вниман', 'русскоязычн', 'шрифт', 'отобража', 'задумыва', 'MyBalsamiq', 'сервис', 'создан', 'прототип', 'можн', 'использова', 'взаимодейств', 'иллюстратор']</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>['визуальн', 'решен', 'сайт', 'StoryMap', 'помощ', 'создава', 'интерактивн', 'карт', 'Juxtapose', 'элегантн', 'инструмент', 'демонстрац', 'изменен', 'однотипн', 'объект', 'помощ', 'слайдер', 'пользовател', 'сравн', 'стал', 'подобн', 'инструмент', 'активн', 'применя', 'сми', 'демонстрац', 'изменен', 'например', 'реконструкц', 'дом', 'улиц', 'снят', 'одн', 'ракурс', 'Timeline', 'помощ', 'создава', 'таймлайн', 'интерактивн', 'истор', 'растянут', 'времен', 'портал', 'использова', 'например', 'создан', 'страниц', '20-лет', 'нижегородск', 'кампус', 'Soundcite', 'инструмент', 'создан', 'аудиопрезентац', 'Prezi', 'мощн', 'альтернатив', 'Powerpoint', 'создан', 'презентац', 'Fliphtml5', 'инструмент', 'размещен', 'пдф-файл', 'вид', 'раскрыт', 'книг', 'возможн', 'листан', 'страниц', 'мышк', 'единствен', 'известн', 'нам', 'стабильн', 'бесплатн', 'инструмент', 'подобн', 'род', 'формул', 'инструмент', 'отображен', 'формул', 'сайт']</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>['создан', 'опрос', 'Google', 'форм', 'бесплатн', 'генератор', 'опрос', 'может', 'пригод', 'нужн', 'провест', 'опрос', 'периметр', 'порта', 'для', 'формирован', 'опросн', 'регистрацион', 'форм', 'портал', 'штатн', 'инструмент']</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>['работ', 'соцсет', 'вконтакт', 'pages.clearCache', 'инструмент', 'вконтакт', 'позволя', 'сброс', 'кэш', 'соцсет', 'конкретн', 'ссылк', 'посл', 'соцсет', 'запрос', 'нов', 'дан', 'иском', 'страниц', 'учтет', 'внесен', 'изменен', 'vk.com/cc', 'инструмент', 'генерац', 'коротк', 'ссылок', 'вконтакт', 'SMMPlanner', 'отложен', 'постинг', 'социальн', 'сет', 'Ezgif', 'создан', 'гиф-изображен', 'видеозапис', 'такж', 'редактур', 'изменен', 'размер', 'обрезк', 'дал', 'Make', 'Beliefs', 'Comix', 'создан', 'комикс']</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>['оптимизац', 'файл', 'онлайн-инструмент', 'любител', 'PDF', 'полност', 'бесплатн', 'онлайн-инструмент', 'объединен', 'разделен', 'сжат', 'PDF-файл', 'преобразован', 'документ', 'Office', 'PDF-файл', 'преобразован', 'PDF-файл', 'JPG', 'JPG', 'PDF', 'без', 'необходим', 'установк']</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>['узна', 'Tutorialspoint', 'обширн', 'набор', 'учебник', 'инструкц', 'пользова', 'Word', 'Powepoint', 'Excel', 'сотн', 'друг', 'программ', 'приложен', 'html', 'academy', 'сайт', 'отличн', 'бесплатн', 'базов', 'курс', 'html', 'css', 'настольн', 'книг', 'кажд', 'имеет', 'доступ', 'редактирован', 'страниц', 'портал', 'Codecademy', 'интерактивн', 'курс', 'программирован', 'https', '//smmplanner.com/']</t>
-        </is>
-      </c>
+          <t>['гарантирова', 'защит', 'подобн', 'могут', 'обеспеч', 'крупн', 'интернет-корпорац', 'минимизирова', 'ущерб', 'возможн', 'существен', 'сократ', 'числ', 'подобн', 'кодов', 'вставок', 'ресурс', 'порта']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -1765,22 +1673,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/poll', 'быстр', 'ссылк', 'создан', 'форм', 'уведомлен', 'почт', 'ответн', 'письм', 'пользовател', 'ссылк', 'форму/клонирование/выгрузк', 'результат', 'CRM-систем']</t>
+          <t>['настоя', 'врем', 'сведен', 'блок', 'показ', 'списк', 'карт', 'дан', 'показ', 'списк', 'карт', 'показыва', 'сайт', 'подразделен', 'однак', 'использ', 'отображен', 'информац', 'подразделен', 'раздел', 'порта']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/poll', 'создан', 'форм', 'для', 'создан', 'регистрацион', 'форм', 'форм', 'подписк', 'новост', 'опрос', 'др.', 'необходим', 'сайт', 'ваш', 'подразделен', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'нажима', 'созда', 'форм', 'дал', 'нужн', 'указа', 'назван', 'назван', 'использ', 'длин', 'слов', 'может', 'постав', 'галочк', 'расстав', 'мягк', 'перенос', 'врем', 'проведен', 'период', 'времен', 'течен', 'котор', 'ответ', 'вопрос', 'статус', 'меня', 'активн', 'форм', 'готов', 'язык', 'форм', 'английск', 'язык', 'необходим', 'выстав', 'язык', 'английск', 'есл', 'регистрац', 'мероприят', 'ограничен', 'количеств', 'участник', 'существ', 'возможн', 'закр', 'регистрац', 'определен', 'количеств', 'заявок', 'ин', 'случа', 'оставля', 'эт', 'пол', 'незаполнен', 'галочк', 'пройт', 'нужн', 'случа', 'созда', 'опрос', 'галочк', 'автоматическ', 'нумерова', 'вопрос', 'сто', 'умолчан', 'однак', 'быва', 'случа', 'автоматическ', 'нумерац', 'нужн', 'галочк', 'нужн', 'убра', 'дал', 'необходим', 'нажа', 'кнопк', 'добав', 'блок', 'вопрос', 'есл', 'нужн', 'разб', 'вопрос', 'нескольк', 'тематическ', 'блок', 'заполня', 'пол', 'блок', 'вопрос', 'необходим', 'такж', 'пол', 'описан', 'пример', 'блок', 'есл', 'ваш', 'вопрос', 'должн', 'идт', 'подряд', 'разбивк', 'блок', 'эт', 'пол', 'заполня', 'сраз', 'переход', 'кнопк', 'добав', 'вопрос', 'пол', 'вопрос', 'вписыва', 'непосредствен', 'вопрос', 'пол', 'описан', 'добав', 'комментар', 'вопрос', 'дал', 'нажима', 'кнопк', 'добав', 'ответ', 'вписыва', 'необходим', 'вариант', 'есл', 'ответ', 'дан', 'вопрос', 'обязател', 'став', 'галочк', 'напрот', 'соответств', 'пункт', 'есл', 'вопрос', 'допуска', 'ответ', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'есл', 'вопрос', 'допуска', 'нескольк', 'вариант', 'ответ', 'такж', 'выбира', 'соответств', 'строк', 'пол', 'формат', 'ответ', 'ответ', 'сдела', 'выпада', 'списк', 'пол', 'формат', 'ответ', 'нужн', 'выбра', 'соответств', 'строк', 'есл', 'ответ', 'зада', 'заполня', 'форм', 'долж', 'вписа', 'сво', 'вариант', 'ответ', 'пол', 'формат', 'ответ', 'выбира', 'значен', 'строк', 'нескольк', 'строк', 'может', 'добав', 'какой-т', 'комментар', 'свободн', 'ответ', 'пояснительн', 'текст', 'такж', 'огранич', 'ответ', 'количеств', 'символ', 'есл', 'ответ', 'предполага', 'указан', 'дат', 'номер', 'телефон', 'e-mail', 'стран', 'проживан', 'загрузк', 'файл', 'выбра', 'строк', 'специальн', 'вопрос', 'пол', 'формат', 'ответ', 'дал', 'выпада', 'списк', 'выбра', 'нужн', 'вариант', 'обрат', 'вниман', 'выберет', 'тип', 'специальн', 'вопрос', 'email', 'заполнен', 'форм', 'браузер', 'пользовател', 'постара', 'автозаполн', 'эт', 'пол', 'кеш', 'эт', 'облегча', 'пользовател', 'заполнен', 'форм', 'автозаполнен', 'кеш', 'браузер', 'возможн', 'такж', 'отношен', 'пол', 'фамил', 'нужн', 'выбра', 'код', 'вопрос', 'lastname', 'им', 'код', 'вопрос', 'firstname', 'автозаполнен', 'гарантир', 'однак', 'прав', 'работа', 'посл', 'заполнен', 'необходим', 'сохран', 'форм', 'нажа', 'кнопк', 'созда']</t>
+          <t>['здан', 'наук', 'поиск', 'подразделен', 'сведен', 'образовательн', 'организац', 'кром', 'информац', 'раздел', 'переда', 'яндекс.карт', 'эт', 'каса', 'прежд', 'крупн', 'подразделен']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/poll', 'дополнительн', 'параметр', 'чтоб', 'откр', 'дополнительн', 'параметр', 'необходим', 'нажа', 'стрелк', 'откр', 'окн', 'может', 'добав', 'форм', 'пояснительн', 'текст', 'отобража', 'сраз', 'заголовк', 'добав', 'сообщен', 'страниц', 'отправк', 'форм', 'вывод', 'экран', 'напр.', 'спасиб', 'регистрац', 'ждем', 'адрес', '...', 'добав', 'сообщен', 'страниц', 'завершен', 'регистрац', 'заменя', 'стандартн', 'фраз', 'извин', 'регистрац', 'законч', 'измен', 'текст', 'соглас', 'обработк', 'персональн', 'дан', 'использ', 'необходим', 'замен', 'стандартн', 'текст', 'раздел', 'дополнительн', 'параметр', 'такж', 'сможет', 'постав', 'ссылк', 'переход', 'сохранен', 'имет', 'вид', 'заполн', 'эт', 'пол', 'сообщен', 'тип', 'спасиб', 'регистрац', 'регистрац', 'заверш', 'вывод', 'будут', 'измен', 'схем', 'показ', 'вопрос', 'умолчан', 'идут', 'друг', 'друг', 'схем', 'вопрос', 'вид', 'таблиц', 'позволя', 'выстраива', 'две', 'колонк', 'привяза', 'форм', 'определен', 'сайт', 'например', 'сдела', 'одн', 'сайт', 'нужн', 'форм', 'друг', 'либ', 'нужн', 'привяза', 'сайт', 'указа', 'корпоративн', 'e-mail', 'сотрудник', 'вшэ', 'котор', 'будут', 'приход', 'уведомлен', 'нов', 'ответ', 'кажд', 'адрес', 'долж', 'добавл', 'отдельн', 'кнопк', 'добав', 'связа', 'форм', 'друг', 'язык', 'работа', 'переключалк', 'язык', 'так', 'форм', 'например', 'английск', 'есл', 'хот', 'почт', 'пользовател', 'приход', 'ответн', 'письм', 'постав', 'галочк', 'напрот', 'направ', 'ответн', 'письм', 'пользовател', 'дан', 'функц', 'работа', 'случа', 'форм', 'нужн', 'указыва', 'email', 'ответ', 'вопрос', 'обязател', 'пол', 'текст', 'письм', 'нужн', 'размест', 'текст', 'код', 'вопрос', 'электрон', 'почт', 'прописа', 'слов', 'email', 'больш', 'просьб', 'текст', 'письм', 'указыва', 'контактн', 'информац', 'пользовател', 'обрат', 'вопрос', 'т.к.', 'письм', 'приход', 'адрес', 'robot', 'hse.ru', 'есл', 'хот', 'ответн', 'письм', 'пользовател', 'персонализирова', 'пол', 'текст', 'письм', 'начал', 'нужн', 'размест', 'фраз', 'здравств', 'ANSWER_TO_QUESTION_lastname', 'ANSWER_TO_QUESTION_firstname', 'при', 'необходим', 'кром', 'e-mail', 'ваш', 'форм', 'обязательн', 'вопрос', 'отдельн', 'фамил', 'им', 'имя-отчеств', 'код', 'вопрос', 'нужн', 'прописа', 'слов', 'lastname', 'firstname']</t>
+          <t>['редактирован', 'дан', 'чтоб', 'перейт', 'редактирован', 'блок', 'зайд', 'административн', 'интерфейс', 'порта', 'перейд', 'дан', 'показ', 'списк', 'карт']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/poll', 'ссылк', 'форму/клонирование/выгрузк', 'ответ', 'необходим', 'зайт', 'редактор', 'дан', 'опрос', 'регистрацион', 'форм', 'сможет', 'редактирова', 'форм', 'сохран', 'изменен', 'нужн', 'нажа', 'кнопк', 'сохран', 'клонирова', 'форм', 'необходим', 'созда', 'форм', 'тем', 'похож', 'вопрос', 'найт', 'ссылк', 'форм', 'нажима', 'встраиван', 'откр', 'окн', 'выбира', 'ссылк', 'назван', 'ваш', 'подразделен', 'форм', 'открыва', 'внутр', 'ваш', 'сайт', 'клика', 'ссылк', 'адресн', 'строк', 'открыш', 'окн', 'копирует', 'ссылк', 'ваш', 'форм', 'пример', 'выгруз', 'ответ', 'форм', 'возможн', 'посмотрет', 'результат', 'pdf', 'html', 'excel']</t>
+          <t>['описан', 'пол', 'телефон', 'адрес', 'основн', 'телефон', 'укаж', 'телефон', 'формат', '4957787704', 'внутрен', 'телефон', 'необход', 'при', 'необходим', 'укаж', 'ком', 'принадлеж', 'номер', 'есл', 'подразделен', 'располага', 'разн', 'здан', 'кажд', 'адрес', 'указа', 'сво', 'номер', 'телефон', 'есл', 'укажет', 'телефон', 'кажд', 'адрес', 'указыва', 'основн', 'телефон', 'необязательн', 'отображен', 'яндекс.карт', 'будут', 'использова', 'телефон', 'указа', 'адрес', 'есл', 'указа', 'основн', 'телефон', 'показыва', 'обо', 'адрес', 'есл', 'нашл', 'адрес', 'ни', 'вшэ', 'справочник', 'напиш', 'portal', 'hse.ru', 'поч', 'важн', 'указа', 'телефон', 'подразделен', 'вам', 'удобн', 'связа', 'тольк', 'налич', 'адрес', 'телефон', 'подразделен', 'показа', 'яндекс.карт', 'обрат', 'вниман', 'яндекс.карт', 'показыва', 'факультет', 'крупн', 'институт', 'международн', 'лаборатор', 'редакц', 'журнал', 'электрон', 'почт', 'укаж', 'корпоративн', 'почт', 'подразделен', 'корпоративн', 'почт', 'сотрудник', 'выполня', 'обязан', 'секретаря/менеджер', 'уровен', 'подготовк', 'указан', 'уровн', 'образован', 'актуальн', 'подразделен', 'реализ', 'образовательн', 'программ', 'имеющ', 'аспирантск', 'школ', 'тип', 'подразделен', 'яндекс', 'актуальн', 'крупн', 'подразделен', 'тип', 'факультет', 'указыва', 'подразделен', 'реализ', 'основн', 'образовательн', 'программ', 'крупн', 'институт', 'тип', 'дополнительн', 'образован', 'курс', 'иностра', 'язык', 'маркетингов', 'услуг', 'учебн', 'центр', 'центр', 'повышен', 'квалификац', 'указыва', 'тех', 'подразделен', 'котор', 'эт', 'категор', 'подразделен', 'скор', 'категор', 'проставл', 'есл', 'проставьт', 'обрат', 'вниман', 'научно-учебн', 'лаборатор', 'явля', 'международн', 'долж', 'стоя', 'тип', 'международн', 'лаборатор', 'возникновен', 'вопрос', 'обраща', 'мар', 'юдкевич', 'тематик', 'исследован', 'дан', 'справочник', 'основа', 'расширен', 'классификатор', 'OECD', 'использ', 'отображен', 'подразделен', 'раздел', 'наук', 'такж', 'общ', 'каталог', 'подразделен', 'ни', 'вшэ']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -1851,39 +1759,31 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['быстр', 'ссылк', 'заголовк', 'страниц', 'мета-описан', 'страниц', 'заголовк', 'текст', 'ссылк', 'изображен', 'общ', 'рекомендац']</t>
+          <t>['https', '//portal.hse.ru/instann', 'быстр', 'ссылк', 'создан', 'анонс', 'составн', 'редактор', 'анонс', 'английск', 'верс', 'копирован', 'сайт', 'подписк', 'анонс', 'подразделен']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['заголовк', 'страниц', 'заголовк', 'должн', 'соответствова', 'содержан', 'страниц', 'заголовок', 'долж', 'уникальн', 'максимальн', 'соответствова', 'содержан', 'страниц', 'чег', 'след', 'избега', 'заголовк', 'имеющ', 'отношен', 'содержан', 'страниц', 'шаблон', 'бессмыслен', 'заголовк', 'так', 'поступа', 'студент', 'использ', 'кратк', 'содержательн', 'заголовк', 'максимальн', 'длин', 'заголовк', '150', 'символ', 'оптимальн', 'символ', 'заголовок', 'долж', 'информативн', 'кратк', 'есл', 'связа', 'содержан', 'слишк', 'длин', 'поисков', 'систем', 'показа', 'част', 'заголовок', 'котор', 'созда', 'основ', 'содержим', 'страниц', 'чег', 'след', 'избега', 'слишк', 'длин', 'заголовк', 'бесполезн', 'пользовател']</t>
+          <t>['https', '//portal.hse.ru/instann', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'котор', 'состо', 'ближайш', 'будущ', 'анонс', 'эт', 'новост', 'новост', 'рассказыва', 'прошедш', 'событ', 'есл', 'будущ', 'программ', 'планир', 'никак', 'событ', 'блок', 'мероприят', 'вывод', 'для', 'добавлен', 'анонс', 'необходим', 'откр', 'дан', 'выбра', 'соответств', 'пункт', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'пол', 'заполнен', 'заголовок', 'анонс', 'заполня', 'след', 'пол', 'заголовок', 'язык', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'семафор-онлайн', 'необходим', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'аннотац', 'текст', 'добав', 'ключев', 'слов', 'учет', 'результат', 'работ', 'ни', 'вшэ', 'остальн', 'пол', 'трога', 'заголовок', 'долж', 'кратк', 'отража', 'формат', 'мероприят', 'назван', 'например', 'всероссийск', 'научн', 'конференц', 'памят', 'юр', 'левад', 'современ', 'российск', 'обществ', 'социолог', 'лекц', 'ирин', 'новиков', 'образ', 'росс', 'русск', 'истор', 'латвийск', 'мед', 'международн', 'летн', 'школ', 'киберправ', 'ISSC', '2015', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт', 'мероприят', 'имеет', 'ограничен', 'возраст', 'согласн', 'законодательств', 'мероприят', 'кром', 'научн', 'должн', 'имет', 'соответств', 'маркировк', 'возраст', '12+', 'т.д.', 'например', 'маркировк', 'должн', 'имет', 'анонс', 'дне', 'открыт', 'двер', 'подробн', 'написа', 'положен', 'защ', 'несовершеннолетн', 'обуча', 'ни', 'вшэ', 'информац', 'причиня', 'вред', 'здоров', 'развит', 'для', 'необходим', 'режим', 'редактирован', 'анонс', 'пол', 'мероприят', 'имеет', 'ограничен', 'возраст', 'выстав', 'нужн', 'возраст', 'как', 'поня', 'категор', 'относ', 'ваш', 'информац', 'основан', 'ст.', '5-10', 'федеральн', 'закон', '29.12.2010', '436-фз', 'защ', 'дет', 'информац', 'причиня', 'вред', 'здоров', 'развит']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['мета-описан', 'страниц', 'тег', 'description', 'описан', 'должн', 'точн', 'отража', 'содержан', 'страниц', 'помн', 'описан', 'показа', 'результат', 'поиск', 'поэт', 'он', 'должн', 'информативн', 'интересн', 'пользовател', 'дела', 'мета-описан', '300', 'символ', 'коротк', 'будут', 'плох', 'выглядет', 'длин', 'уреза', 'чег', 'след', 'избега', 'создан', 'мет', 'тег', 'описан', 'имеющ', 'отношен', 'содержан', 'страниц', 'использован', 'описан', 'общ', 'характер', 'например', 'эт', 'веб-страниц', 'учебн', 'программ', 'использован', 'описан', 'ключев', 'слов', 'копирован', 'описан', 'содержан', 'документ', 'использ', 'разн', 'описан', 'разн', 'страниц', 'есл', 'будет', 'использова', 'уникальн', 'мет', 'тег', 'описан', 'кажд', 'страниц', 'эт', 'поможет', 'пользовател', 'сдела', 'правильн', 'выбор', 'особен', 'случа', 'результат', 'поиск', 'отобража', 'нескольк', 'страниц', 'сайт', 'чег', 'след', 'избега', 'использован', 'одн', 'мет', 'тег', 'описан', 'мног', 'страниц', 'сайт', 'инструкц', 'заполнен', 'мета-тег', 'редактор', 'найт', 'https', '//portal.hse.ru/meta']</t>
+          <t>['https', '//portal.hse.ru/instann', 'больш', 'част', 'информац', 'распространя', 'университет', 'относ', 'категор', 'т.е.', 'то', 'котор', 'свободн', 'распространя', 'сред', 'дет', 'люб', 'возраст', 'общ', 'правил', 'информац', 'достаточн', 'указа', 'ограничива', 'доступ', 'информац', 'треб', 'основан', 'ст.', 'закон', 'защ', 'дет', 'мероприят', 'территор', 'университет', 'должн', 'содержа', 'информац', '18+', 'получ', 'специальн', 'разрешен', 'ректор', 'проректор', 'подробн', 'защ', 'несовершеннолетн', 'обучающих', 'информац', 'причиня', 'вред', 'здоров', 'развит']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['заголовк', 'текст', 'h2-h6', 'предназначен', 'пример', 'основн', 'предназначен', 'дан', 'тег', 'структурирован', 'оформлен', 'контент', 'страниц', 'сдела', 'чита', 'легк', 'воспринима', 'пользовател', 'сайт', 'кром', 'применен', 'дан', 'тег', 'качеств', 'структуризац', 'контент', 'оформлен', 'использован', 'придан', 'дизайн', 'отдельн', 'фраз', 'предложен', 'допуска', 'заголовк', 'должн', 'использова', 'разбиен', 'текст', 'логическ', 'блок', 'тег', 'заголовк', 'h2-h6', 'отлича', 'значим', 'кажд', 'низш', 'уровен', 'долж', 'мен', 'знач', 'при', 'использован', 'дан', 'тег', 'нужн', 'выдержива', 'структур', 'h2-h3-h4-h5-h6', 'так', 'избега', 'использован', 'друг', 'тег', 'акцентирован', 'strong', 'ссылок', 'внутр', 'тег', 'h2-h6', 'длин', 'заголовк', 'должн', 'превыша', 'символ', 'поисков', 'систем', 'обрабатыва', 'ограничен', 'количеств', 'знак', 'длин', 'заголовк', 'будут', 'воспринят', 'полност', 'редактор', 'дан', 'заголовк', 'найт', 'пол', 'формат', 'инструкц', 'добавлен', 'заголовк', 'редактор', 'https', '//portal.hse.ru/format/', 'headrs', 'представьт', 'пишет', 'обзор', 'как', 'написан', 'обзор', 'больш', 'текст', 'излож', 'основн', 'пункт', 'подпункт', 'документ', 'подума', 'использова', 'тег', 'заголовк', 'чег', 'след', 'избега', 'выделен', 'тег', 'заголовк', 'так', 'текст', 'котор', 'помога', 'определ', 'структур', 'страниц', 'использован', 'заголовк', 'подход', 'друг', 'тег', 'например', 'курс', 'strong', 'полужирн', 'бессистемн', 'использован', 'заголовк', 'разн', 'размер', 'злоупотребля', 'заголовк', 'использ', 'тег', 'заголовк', 'эт', 'имеет', 'смысл', 'чрезмерн', 'количеств', 'заголовк', 'страниц', 'затрудня', 'просмотр', 'контент', 'меша', 'определ', 'заканчива', 'одн', 'тем', 'начина', 'друг', 'чег', 'след', 'избега', 'злоупотреблен', 'заголовк', 'страниц', 'слишк', 'длин', 'заголовк', 'использован', 'заголовк', 'оформлен', 'текст', 'структурирован']</t>
+          <t>['https', '//portal.hse.ru/instann', 'язык', 'мероприят', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'пол', 'нов', 'порта', 'метк', 'комментар', 'указыва', 'информац', 'срок', 'окончан', 'подач', 'заявок', 'мероприят', 'отобража', 'флажк', 'заголовк', 'семафор-онлайн', 'необходим', 'пол', 'нов', 'порта', 'семафор', 'онлайн', 'включа', 'налич', 'онлайн-трансляц', 'мероприят', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'при', 'добавлен', 'анонс', 'особ', 'вниман', 'обраща', 'пункт', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'при', 'игнорирован', 'эт', 'пункт', 'ваш', 'анонс', 'отправ', 'арх', 'отобраз', 'сайт', 'подразделен', 'например', 'дат', 'пол', 'мероприят', 'начнет', 'мероприят', 'заверш', 'должн', 'совпада', 'реальн', 'дат', 'событ', 'дат', 'добавля', 'анонс', 'как', 'дат', 'нача', 'мероприят', 'совпадет', 'реальн', 'дат', 'времен', 'анонс', 'пропадет', 'блок', 'мероприят', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'прав', 'став', 'дат', 'последн', 'дня', 'мероприят', 'врем', '23.55', 'обрат', 'вниман', 'указа', 'часов', 'пояс', 'умолчан', 'сто', 'московск', 'врем', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'необходим', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'использ', 'необходим', 'отображен', 'главн', 'страниц', 'подразделен', 'общ', 'лент', 'анонс', 'как', 'прав', 'использ', 'мероприят', 'срок', 'подач', 'заявок', 'при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'нет', 'анонс', 'вывод', 'главн', 'страниц', 'блок', 'мероприят', 'доступ', 'общ', 'списк', 'анонс', 'адрес', '/announcements', 'при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'анонс', 'вывод', 'главн', 'страниц', 'есл', 'нескольк', 'анонс', 'хот', 'выстро', 'блок', 'мероприят', 'календарн', 'порядк', 'обрат', 'особ', 'вниман', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'желательн', 'анонс', 'дат', 'перв', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'одинаков', 'дал', 'регулирует', 'положен', 'анонс', 'блок', 'главн', 'времен', 'показ', 'чем', 'раньш', 'врем', 'выш', 'анонс', 'блок', 'главн', 'вне', 'зависим', 'дат', 'реальн', 'событ', 'например', 'набор', 'образовательн', 'программ', 'Bridge', '2015', 'конкурс', 'Cоздан', 'международн', 'лаборатор', 'ни', 'вшэ', 'санкт-петербург', 'HSE', 'Filmfest', '2015', 'дат', 'нача', 'показ', 'анонс', 'одинаков', 'январ', '2015', 'времен', '21.45', '22.00', '22.10', 'скорректирова', 'последовательн', 'отображен', 'аннотац', 'текст', 'аннотац', 'вывод', 'общ', 'текст', 'анонс', 'пожалуйст', 'дублир', 'информац', 'след', 'пол', 'текст', 'пол', 'текст', 'указыва', 'подробн', 'предстоя', 'мероприят', 'текст', 'долж', 'содержа', 'необходим', 'информац', 'котор', 'понадоб', 'посетител', 'мероприят', 'числ', 'сотрудник', 'вышк', 'посетител', 'сторон', 'назван', 'мероприят', 'организатор', 'подразделен', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск', 'обрат', 'вниман', 'копирован', 'текс', 'Word', 'окн', 'текст', 'текст', 'анонс', 'располага', 'ровн', 'страниц', 'необходим', 'чист', 'код', 'для', 'выдел', 'ве', 'текст', 'окн', 'нажм', 'значк', 'панел', 'управлен', 'ластик', 'метелк', 'посл', 'понадоб', 'удал', 'лишн', 'абзац', 'пробел', 'начал', 'строк', 'использ', 'курс', 'разн', 'цвет', 'Caps', 'Lock', 'злоупотребля', 'выделен', 'жирн', 'шрифт', 'подробн', 'форматирован', 'текст', 'использован', 'основн', 'инструмент', 'редактирован', 'страниц', 'прочита', 'расстав', 'текст', 'ссылк', 'упомянут', 'текст', 'персон', 'подразделен', 'для', 'выдел', 'необходим', 'врагмент', 'текст', 'нажм', 'значок', 'цепочк', 'откр', 'окн', 'необходим', 'встав', 'ссылк', 'адрес', 'электрон', 'почт', 'граф', 'адрес', 'нажа', 'сниз', 'кнопк', 'встав', 'либ', 'персон', 'подразделен', 'принадлеж', 'ни', 'вшэ', 'желательн', 'выбра', 'баз', 'подразделен', 'персон', 'порта', 'тогд', 'автоматическ', 'подгруз', 'страниц', 'дан', 'персон', 'подразделен', 'эт', 'избав', 'необходим', 'иска', 'страниц', 'персон', 'подразделен', 'отдельн', 'поиск', 'портал', 'позвол', 'сэконом', 'врем', 'для', 'вставл', 'граф', 'адрес', 'нужн', 'выбра', 'строк', 'сво', 'ссылк', 'пункт', 'персон', 'подразделен', 'нажа', 'кнопк', 'выбра', 'ряд', 'граф', 'сво', 'ссылк', 'появ', 'окн', 'поиск', 'помощ', 'поисков', 'строк', 'Ctrl', 'найт', 'нужн', 'подразделен', 'когд', 'персон', 'подразделен', 'выбра', 'баз', 'адрес', 'строк', 'адрес', 'имет', 'след', 'вид', 'когд', 'ссылк', 'сформирова', 'забудьт', 'нажа', 'кнопк', 'встав', 'ключев', 'слов', 'для', 'добавлен', 'ключев', 'слов', 'анонс', 'нажм', 'кнопк', 'добав', 'ключев', 'слов', 'через', 'поиск', 'найд', 'нужн', 'слов', 'баз', 'ключев', 'слов', 'порта', 'добавьт', 'завершен', 'заполнен', 'необходим', 'пол', 'статус', 'анонс', 'проставля', 'активн', 'нажима', 'кнопк', 'сохран', 'анонс', 'гот', 'составн', 'редактор', 'есл', 'анонс', 'треб', 'использова', 'верстк', 'различн', 'элемент', 'например', 'постав', 'кнопк', 'регистрац', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн', 'дал', 'следу', 'инструкц', 'составн', 'страниц', 'анонс', 'английск', 'верс', 'сайт', 'важн', 'английск', 'верс', 'подразделен', 'такж', 'должн', 'публикова', 'анонс', 'мероприят', 'котор', 'провод', 'английск', 'язык', 'существ', 'вариант', 'размещен', 'вариант', 'постав', 'анонс', 'перевод', 'для', 'необходим', 'встав', 'перевод', 'сохранен', 'ран', 'анонс', 'русск', 'верс', 'над', 'заголовк', 'нажа', 'британск', 'флаг', 'перевод', 'заполн', 'соответств', 'пол', 'заголовок', 'перевод', 'англ.', 'ключев', 'слов', 'постав', 'статус', 'показыва', 'нажа', 'сохран', 'важн', 'посл', 'сохранен', 'перевод', 'окажет', 'русск', 'верс', 'анонс', 'след', 'нажа', 'сохран', 'русск', 'страниц', 'вариант', 'полност', 'английск', 'анонс', 'созда', 'нов', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'заполня', 'принцип', 'русскоязычн', 'анонс', 'полност', 'английск', 'став', 'язык', 'английск', 'анонс', 'отобража', 'английск', 'верс', 'сайт', 'копирован', 'сайт', 'чтоб', 'воспользова', 'функц', 'необходим', 'выполн', 'вход', 'личн', 'кабинет', 'адрес', 'https', '//www.hse.ru/user/', 'посл', 'открыва', 'нужн', 'анонс', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'анонс', 'списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова', 'размест', 'анонс', 'двум', 'способ', 'ссылк', 'оригинальн', 'анонс', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'котор', 'увод', 'оригинальн', 'анонс', 'сможет', 'редактирова', 'втор', 'случа', 'анонс', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'анонс', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'анонс', 'размещен', 'полн', 'клонирован', 'подтянет', 'есл', 'вам', 'необходим', 'убра', 'анонс', 'размещен', 'ссылк', 'оригинальн', 'анонс', 'вам', 'необходим', 'зайт', 'раздел', 'анонс', 'импортирова', 'анонс', 'ссылк', 'справ', 'найт', 'нужн', 'анонс', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'анонс', 'подразделен', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн', 'есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'анонс', 'пиш', 'portal', 'hse.ru']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['ссылк', 'тщательн', 'продумыва', 'текст', 'ссылок', 'видим', 'текст', 'ссылк', 'помога', 'пользовател', 'поисковик', 'поня', 'содержан', 'страниц', 'ссылк', 'страниц', 'могут', 'внутрен', 'указыва', 'друг', 'страниц', 'сайт', 'внешн', 'ведут', 'друг', 'сайт', 'люб', 'случа', 'понятн', 'текст', 'ссылк', 'прощ', 'пользовател', 'ориентирова', 'сайт', 'поисков', 'систем', 'легч', 'поня', 'страниц', 'котор', 'ведет', 'ссылк', 'хорош', 'продума', 'текст', 'ссылк', 'помога', 'пользовател', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'использ', 'информативн', 'текст', 'текст', 'ссылк', 'долж', 'хот', 'общ', 'описыва', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'чег', 'след', 'избега', 'использован', 'текст', 'ссылк', 'общ', 'слов', 'например', 'страниц', 'стат', 'нажм', 'слов', 'имеющ', 'отношен', 'тем', 'контент', 'страниц', 'котор', 'ведет', 'ссылк', 'част', 'использован', 'URL', 'страниц', 'качеств', 'текст', 'ссылк', 'эт', 'допуска', 'например', 'продвижен', 'указан', 'нов', 'адрес', 'сайт', 'текст', 'долж', 'лаконичн', 'текст', 'долж', 'описательн', 'возможн', 'небольш', 'нескольк', 'слов', 'коротк', 'фраз', 'чег', 'след', 'избега', 'длин', 'текст', 'ссылк', 'например', 'сложн', 'предложен', 'цел', 'абзац', 'подбер', 'текст', 'ссылок', 'внутрен', 'URL', 'забыва', 'ссылк', 'быва', 'внешн', 'внутрен', 'тщательн', 'продума', 'текст', 'внутрен', 'ссылок', 'поможет', 'ориентирова', 'сайт', 'пользовател', 'поисков', 'систем', 'чег', 'след', 'избега', 'длин', 'текст', 'больш', 'количеств', 'ключев', 'слов', 'предназначен', 'поисков', 'сист', 'создан', 'ненужн', 'ссылок', 'котор', 'упроща', 'навигац', 'сайт']</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['изображен', 'использ', 'атрибут', 'alt', 'для', 'изображен', 'использ', 'описательн', 'им', 'файл', 'атрибут', 'alt', 'атрибут', 'alt', 'содерж', 'текст', 'котор', 'вид', 'пользовател', 'изображен', 'показыва', 'то', 'ин', 'причин', 'чтоб', 'заполн', 'атрибут', 'редактор', 'сайт', 'добавлен', 'картинк', 'нужн', 'заполн', 'пол', 'описан', 'для', 'нуж', 'атрибут', 'есл', 'посетител', 'использ', 'просмотр', 'сайт', 'вспомогательн', 'технолог', 'например', 'программ', 'чтен', 'экра', 'сможет', 'поня', 'изображ', 'картинк', 'кром', 'использует', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'служ', 'текст', 'обычн', 'ссылк', 'однак', 'рекоменду', 'злоупотребля', 'изображен', 'навигац', 'сайт', 'использова', 'текстов', 'ссылк', 'наконец', 'оптимизац', 'им', 'графическ', 'файл', 'текст', 'атрибут', 'alt', 'упроща', 'поиск', 'изображен', 'например', 'Google', 'картинк', 'использ', 'кратк', 'описательн', 'им', 'файл', 'текст', 'атрибут', 'alt', 'как', 'мног', 'друг', 'элемент', 'страниц', 'котор', 'оптимизирова', 'им', 'файл', 'текст', 'атрибут', 'alt', 'должн', 'кратк', 'содержательн', 'чег', 'след', 'избега', 'шаблон', 'бессмыслен', 'им', 'так', 'image1.jpg', 'pic.gif', '1.jpg', 'возможн', 'слишк', 'длин', 'им', 'файл', 'добавлен', 'ключев', 'слов', 'цел', 'предложен', 'текст', 'атрибут', 'alt', 'добавля', 'текст', 'атрибут', 'alt', 'использует', 'изображен', 'ссылк', 'есл', 'реш', 'использова', 'изображен', 'качеств', 'ссылк', 'текст', 'атрибут', 'alt', 'поможет', 'поисков', 'систем', 'поня', 'содержан', 'страниц', 'котор', 'ведет', 'ссылк', 'счита', 'пишет', 'текст', 'обычн', 'ссылк', 'чег', 'след', 'избега', 'слишк', 'длин', 'текст', 'атрибут', 'alt', 'рассматрива', 'спам', 'чрезмерн', 'использован', 'изображен', 'качеств', 'ссылок', 'навигац', 'сайт']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>['общ', 'рекомендац', 'пиш', 'легк', 'чита', 'текст', 'текст', 'долж', 'понят', 'пользовател', 'стара', 'выдержива', 'стил', 'допуска', 'ошибок', 'чег', 'след', 'избега', 'грамматическ', 'орфографическ', 'ошибок', 'текст', 'запута', 'формулировок', 'некачествен', 'контент']</t>
-        </is>
-      </c>
+          <t>['https', '//portal.hse.ru/instann', 'как', 'созда', 'подписк', 'анонс', 'подразделен', 'может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям', 'чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1908,17 +1808,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['осторожн', 'относ', 'просьб', 'коллег', 'размест', 'сайт', 'подразделен', 'произвольн', 'JavaScript', 'сторон', 'iframe', 'подобн', 'вставк', 'оказыва', 'очен', 'уязвим', 'элемент', 'сайт', 'точк', 'зрен', 'безопасн', 'через', 'связ', 'внеш', 'сайт', 'могут', 'стат', 'рассадник', 'огромн', 'числ', 'вирус', 'инфицирова', 'компьютер', 'подозрева', 'посетител', 'порта']</t>
+          <t>['быстр', 'ссылк', 'доступ', 'редактирован', 'наполнен', 'сайт', 'размещен', 'текст', 'размещен', 'новост']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['гарантирова', 'защит', 'подобн', 'могут', 'обеспеч', 'крупн', 'интернет-корпорац', 'минимизирова', 'ущерб', 'возможн', 'существен', 'сократ', 'числ', 'подобн', 'кодов', 'вставок', 'ресурс', 'порта']</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+          <t>['доступ', 'редактирован', 'доступ', 'редактирован', 'сайт', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'как', 'получ', 'доступ', 'написа', 'перейт', 'режим', 'редактирован', 'сайт', 'двум', 'способ', 'прям', 'ссылк', 'https', '//www.hse.ru/adm/', 'высвечива', 'список', 'подразделен', 'котор', 'прав', 'пут', 'клик', 'ссылк', 'редактор', 'вниз', 'главн', 'страниц', 'сайт', 'редактирован', 'котор', 'прав', 'дал', 'нажа', 'ссылк', 'дан', 'есл', 'нажмет', 'ссылк', 'редактор', 'статическ', 'страниц', 'новост', 'анонс', 'внутр', 'сайт', 'сраз', 'попадет', 'реж', 'редактирован', 'конкретн', 'элемент', 'отдельн', 'прав', 'редактирован', 'английск', 'верс', 'нужн', 'подробн', 'работ', 'английск', 'верс', 'написа']</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['наполнен', 'сайт', 'для', 'работ', 'сайт', 'основн', 'будут', 'нужн', 'четыр', 'подраздел', 'сайт', 'блок', 'подраздел', 'осуществля', 'управлен', 'главн', 'страниц', 'сайт', 'включ', 'добавлен', 'пункт', 'мен', 'страниц', 'инструкц', 'создан', 'страниц', 'новост', 'инструкц', 'создан', 'новост', 'анонс', 'инструкц', 'создан', 'анонс', 'есл', 'редактирует', 'сайт', 'структурн', 'подразделен', 'такж', 'будут', 'нужн', 'раздел', 'функциона', 'сотрудник', 'подразделен', 'показ', 'списк', 'карт', 'адрес', 'мета-информац', 'подразделен', 'очен', 'част', 'перв', 'желан', 'редактор', 'быва', 'завест', 'нов', 'пункт', 'мен', 'однак', 'случа', 'единствен', 'достигнет', 'эт', 'разочарует', 'посетител', 'сво', 'сайт', 'клик', 'пункт', 'мен', 'получ', 'ошибк', 'кром', 'так', 'ошибок', 'сайт', 'хуж', 'индексир', 'поисковик', 'снача', 'созда', 'страниц', 'наполн', 'содержим', 'внимательн', 'прочита', 'размещен', 'текст', 'портал', 'работ', 'таблиц', 'тольк', 'созда', 'страниц', 'завод', 'пункт', 'мен', 'чтоб', 'завест', 'нов', 'пункт', 'мен', 'необходим', 'перейт', 'раздел', 'блок', 'мен', 'пол', 'назван', 'пропиш', 'назван', 'пункт', 'мен', 'пол', 'URL', 'ссылк', 'страниц', 'мен', 'основн', 'ошибк', 'пункт', 'мен', 'созда', 'раньш', 'соответствующ', 'страниц', 'ссылк', 'прописа', 'правильн', 'страниц', 'открыва', 'проверьт', 'конц', 'ссылк', 'сто', 'пробел', 'удал', 'пробел', 'дан', 'ссылк', 'сайт', 'домен', 'hse.ru', 'сто', 'галочк', 'окол', 'пункт', 'открыва', 'нов', 'окн', 'этот', 'функциона', 'необходим', 'использова', 'каким-т', 'причин', 'хот', 'сосла', 'внешн', 'сайт', 'как', 'вывест', 'страниц', 'сотрудник', 'рекоменду', 'вест', 'так', 'страниц', 'вручн', 'обязательн', 'забудет', 'скорректирова', 'список', 'изменен', 'кадров', 'состав', 'для', 'вывест', 'мен', 'автоматическ', 'страниц', 'сотрудник', 'необходим', 'прописа', 'пол', 'URL', 'пункт', 'мен', 'слов', 'persons', 'предварительн', 'убед', 'ваш', 'подразделен', 'хот', 'оформлен', 'сотрудник', 'ссылк', 'пуст', 'страниц', 'добавля', 'нужн', 'есл', 'точн', 'знает', 'ваш', 'подразделен', 'оформлен', 'сотрудник', 'страниц', 'показыва', 'напиш', 'адрес', 'portal', 'hse.ru', 'указа', 'письм', 'ссылк', 'сайт', 'котор', 'идет', 'реч', 'ссылк', 'сотрудник', 'имеющ', 'трудоустройств', 'подразделен', 'трудоустройств', 'должн', 'показыва', 'страниц', 'подробн', 'появля', 'персональн', 'страниц', 'портал', 'откуд', 'берет', 'информац', 'написа']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['размещен', 'текст', 'можн', 'нужн', 'есл', 'страниц', 'размещ', 'прост', 'текст', 'например', 'необходим', 'вывест', 'список', 'участник', 'мероприят', 'фотограф', 'рекоменду', 'воспользова', 'шаблон', 'составн', 'страницы/новости/анонс', 'инструкц', 'работ', 'страниц', 'наход', 'принцип', 'работ', 'составн', 'страницами/новостями/анонс', 'одинаков', 'посл', 'переключен', 'обычн', 'страниц', 'реж', 'составн', 'получа', 'набор', 'готов', 'элемент', 'оформлен', 'страниц', 'постара', 'разн', 'браузер', 'разн', 'устройств', 'элемент', 'отобража', 'корректн', 'однак', 'замет', 'ошибк', 'пожалуйст', 'напиш', 'нам', 'portal', 'hse.ru', 'есл', 'информац', 'треб', 'сложн', 'оформлен', 'выбира', 'реж', 'прост', 'страниц', 'выделя', 'текст', 'подзаголовк', 'разн', 'уровн', 'треб', 'текст.', 'помн', 'нужн', 'оформ', 'текст', 'заголовок', 'выдел', 'жирн', 'увелич', 'шрифт', 'заголовок', 'важн', 'элемент', 'структур', 'страниц', 'поможет', 'поисковик', 'поня', 'ваш', 'сайт', 'заголовк', 'оформля', 'отдельн', 'предложен', 'абзац', 'подробн', 'поисков', 'оптимизац', 'прочита', 'есл', 'очен', 'важн', 'страниц', 'понима', 'как', 'блок', 'хотел', 'выдел', 'знает', 'эт', 'сдела', 'напиш', 'сво', 'вопрос', 'portal', 'hse.ru', 'постара', 'помоч', 'категорическ', 'размеща', 'текст', 'скопирова', 'Word', 'послед', 'очистк', 'посторон', 'стил', 'эт', 'привод', 'непредсказуем', 'отображен', 'текст', 'разн', 'браузер', 'некотор', 'случа', 'мобильн', 'устройств', 'текст', 'выход', 'границ', 'экра', 'посетител', 'принцип', 'сможет', 'прочита', 'текст', 'прост', 'стат', 'невидим', 'подробн', 'размещен', 'текст', 'написа', 'меня', 'размер', 'стил', 'шрифт', 'крас', 'текст', 'разн', 'цвет', 'эт', 'такж', 'привод', 'некорректн', 'отображен', 'конц', 'конц', 'эт', 'прост', 'некрасив', 'сайт', 'выгляд', 'школьн', 'стенгазет', 'выравнива', 'текст', 'ширин', 'стационарн', 'компьютер', 'так', 'форматирован', 'выглядет', 'симпатичн', 'мобильн', 'верс', 'слов', 'могут', 'прилипнут', 'кра', 'экра', 'центр', 'страниц', 'образ', 'пустот', 'размеща', 'текст', 'вид', 'изображен', 'зна', 'мероприят', 'част', 'готов', 'рекламн', 'постер', 'он', 'предназнач', 'размещен', 'стенд', 'сайт', 'текст', 'вид', 'картинок', 'тяжел', 'чита', 'мобильн', 'устройств', 'индексир', 'поисков', 'систем', 'недоступн', 'прочтен', 'слабовидя', 'использ', 'ознакомлен', 'сайт', 'специальн', 'программ', 'писа', 'заголовк', 'использу', 'заглавн', 'букв', 'налич', 'текст', 'заглавн', 'букв', 'усложня', 'восприят', 'чем', 'длин', 'текст', 'набра', 'заглавн', 'букв', 'сложн', 'прочита', 'кром', 'интернет', 'традицион', 'счита', 'автор', 'пишет', 'заглавн', 'букв', 'эт', 'означа', 'крич', 'размеща', 'заголовк', 'нескольк', 'строк', 'мобильн', 'верс', 'будут', 'занима', 'ве', 'экра']</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['размещен', 'новост', 'обрат', 'вниман', 'кажд', 'новост', 'долж', 'коротк', 'заголовок', 'аннотац', 'рубрик', 'ключев', 'слов', 'текст', 'новост', 'про', 'эт', 'написа', 'инструкц', 'закрепл', 'стандарт', 'форматирован', 'текст', 'абзац', 'перенос', 'строк', 'эт', 'одн', 'ссылк', 'инструкц', 'точк', 'заголовк', 'став', 'иллюстрац', 'хорош', 'новост', 'иллюстрир', 'фотограф', 'сдела', 'вам', 'рамк', 'работ', 'такж', 'здоров', 'изображен', 'переда', 'автор', 'размещен', 'сайт', 'категорическ', 'использова', 'изображен', 'найден', 'сет', 'обязательн', 'проверя', 'копирайт', 'иногд', 'достаточн', 'указа', 'откуд', 'скопирова', 'изображен', 'треб', 'письмен', 'разрешен', 'автор', 'некотор', 'случа', 'размеща', 'изображен', 'принцип', 'при', 'необходим', 'может', 'взят', 'изображен', 'бесплатн', 'фотобанк', 'иллюстрац', 'явля', 'обязательн', 'элемент', 'новост', 'картинк', 'должн', 'горизонтальн', 'хорош', 'качеств', 'недопустим', 'размещен', 'качеств', 'иллюстрац', 'новост', 'скриншот', 'баннер', 'листовок', 'обложек', 'постер', 'логотип']</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1945,19 +1857,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['страниц', 'показыва', 'штатн', 'сотрудник', 'подразделен', 'проведен', 'зик', 'москв', 'ис-пр', 'кампус', 'подробн', 'ком', 'обраща', 'случа', 'отсутств', 'трудустроен', 'вшэ', 'сотрудник', 'написа']</t>
+          <t>['https', '//portal.hse.ru/nov', 'быстр', 'ссылк', 'создан', 'новост', 'предосмотр', 'новост', 'составн', 'редактор', 'иллюстрац', 'новост', 'копирован', 'сайт']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['страниц', 'имеет', 'автоматическ', 'формируем', 'техническ', 'им', 'persons', 'чтоб', 'добав', 'автоматическ', 'страниц', 'сотрудник', 'сайт', 'необходим', 'соответств', 'пункт', 'мен', 'прописа', 'адрес', 'сайта/персонс', 'например', 'управлен', 'развит', 'поддержк', 'порта', 'адрес', 'страниц', 'выгляд', 'https', '//portal.hse.ru/persons', 'завод', 'статическ', 'страниц', 'так', 'адрес', 'нужн']</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>['сортировк', 'сотрудник', 'должност', 'страниц', 'редактор', 'подразделен', 'имеет', 'возможн', 'измен', 'автоматическ', 'сортировк', 'сотрудник', 'установ', 'сортировк', 'должност', 'для', 'кажд', 'должност', 'внутр', 'сайт', 'подразделен', 'необходим', 'установ', 'сво', 'порядков', 'номер', 'например', 'руководител', 'имет', 'порядков', 'номер', 'заместител', 'люб', 'друг', 'числ', 'профессор', 'случа', 'страниц', 'алфавитн', 'порядк', 'будут', 'показыва', 'снача', 'люд', 'должност', 'руководител', 'люд', 'должност', 'заместител', 'руководител', 'сотрудник', 'должност', 'профессор', 'административн', 'интерфейс', 'раздел', 'найт', 'след', 'пут', 'дан', 'должност', 'для', 'выставлен', 'порядков', 'номер', 'необходим', 'кликнут', 'мышк', 'значок', 'редактирова', 'простав', 'соответств', 'номер', 'шаг', 'шаг', 'обрат', 'вниман', 'дан', 'страниц', 'имеет', 'автоматическ', 'кэш', 'час', 'есл', 'хот', 'сраз', 'увидет', 'изменен', 'пересохран', 'основн', 'страниц', 'подразделен']</t>
-        </is>
-      </c>
+          <t>['https', '//portal.hse.ru/nov', 'раздел', 'новост', 'предусматрива', 'размещен', 'репортаж', 'прошедш', 'мероприят', 'сообщен', 'получен', 'наград', 'профессиональн', 'обществен', 'признан', 'образовательн', 'программ', 'мегафакультет', 'преподавател', 'т.п.', 'новост', 'обязательн', 'должн', 'содержа', 'заголовок', 'кратк', 'аннотац', 'текст', 'новост', 'рубрик', 'ключев', 'слов', 'желан', 'текст', 'новост', 'сопровожда', 'иллюстрац', 'недопустим', 'размещен', 'английск', 'текст', 'русск', 'верс', 'сайт', 'русск', 'текст', 'английск', 'верс', 'инструкц', 'размещен', 'английск', 'новост', 'новостн', 'лент', 'размеща', 'лент', 'новост', 'анонс', 'мероприят', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн', 'есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'новост', 'пиш', 'portal', 'hse.ru', 'создан', 'новост', 'для', 'добавлен', 'новост', 'необходим', 'зайт', 'редактор', 'дан', 'новост', 'нов', 'зап', 'добавля', 'клик', 'иконк', 'заголовок', 'кратк', 'указыва', 'сам', 'сут', 'событ', 'заголовок', 'долж', 'назывн', 'кратк', 'заголовок', 'став', 'нескольк', 'предложен', 'одн', 'длин', 'предложен', 'больш', 'количеств', 'подробн', 'пример', 'длин', 'заголовк', 'посмотрет', 'главн', 'лент', 'порта', 'заголовк', 'употребля', 'слов', 'вниман', 'важн', 'информац', 'дорог', 'друз', 'т.д.', 'точк', 'конц', 'заголовк', 'став', 'CapsLock', 'заглавн', 'букв', 'использу', 'аннотац', 'должн', 'обязательн', 'кратк', 'изложен', 'чем', 'читател', 'узна', 'стат', '2-3', 'предложен', 'текст', 'долж', 'обязательн', 'непосредствен', 'тел', 'новост', 'подробн', 'раскрыва', 'сут', 'событ', 'новост', 'состоя', 'одн', 'предложен', 'фотограф', 'подробн', 'сопроводительн', 'текст', 'дублирова', 'аннотац', 'пол', 'текст', 'нужн', 'есл', 'ваш', 'аннотац', 'повторя', 'перв', 'абзац', 'текст', 'новост', 'став', 'напрот', 'пол', 'отобража', 'аннотац', 'нет', 'при', 'копирован', 'текст', 'Word', 'вставк', 'сайт', 'необходим', 'обязательн', 'порядк', 'чист', 'формат', 'обязательн', 'выбира', 'рубрик', 'ключев', 'слов', 'есл', 'имеющ', 'рубрик', 'соответств', 'тематик', 'ваш', 'сайт', 'напиш', 'portal', 'hse.ru', 'пришл', 'список', 'необходим', 'рубрик', 'завед', 'специальн', 'ваш', 'сайт', 'есл', 'необходим', 'может', 'выбра', 'тип', 'материала/статус', 'новости/сфер', 'деятельн', 'выбира', 'действительн', 'соответств', 'содержан', 'новост', 'эт', 'раздел', 'разработа', 'главн', 'лент', 'hse.ru', 'есл', 'подход', 'новост', 'ваш', 'подразделен', 'пропуска', 'ключев', 'слов', 'выбира', 'соответств', 'содержан', 'ваш', 'новост', 'он', 'дальн', 'позволя', 'дела', 'выборк', 'новост', 'ин', 'тем', 'внутр', 'ваш', 'сайт', 'ключев', 'слов', 'рубрик', 'нужн', 'читател', 'могл', 'найт', 'нужн', 'интересн', 'новост', 'поэт', 'выбира', 'рубрик', 'ключев', 'слов', 'котор', 'соответств', 'тематик', 'новост', 'инач', 'эт', 'прост', 'набор', 'рубрик', 'ключев', 'слов', 'котор', 'ваш', 'новост', 'найдут', 'необходим', 'нажа', 'добав', 'ключев', 'слов', 'вписа', 'необходим', 'слов', 'нажа', 'поиск', 'зат', 'выбра', 'слов', 'словосочетан', 'есл', 'нашл', 'нужн', 'ключев', 'слов', 'может', 'ввест', 'самостоятельн', 'он', 'попадет', 'баз', 'ключев', 'слов', 'настоятельн', 'просьб', 'прежд', 'эт', 'сдела', 'убед', 'нужн', 'ключев', 'слов', 'действительн', 'отсутств', 'предосмотр', 'новост', 'прежд', 'вывод', 'новост', 'лент', 'ваш', 'сайт', 'посмотр', 'пожалуйст', 'получ', 'для', 'нужн', 'воспользова', 'функц', 'предосмотр', 'ссылк', 'располож', 'редакторск', 'интерфейс', 'ряд', 'заголовк', 'новост', 'составн', 'редактор', 'есл', 'новост', 'треб', 'использова', 'сложн', 'верстк', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн', 'дал', 'следу', 'инструкц', 'составн', 'страниц', 'иллюстрац', 'новост', 'обрат', 'вниман', 'картинк', 'используем', 'новост', 'сайт', 'цел', 'должн', 'размеща', 'соблюден', 'закон', 'авторск', 'прав', 'т.е.', 'эт', 'должн', 'фот', 'либ', 'сдела', 'непосредствен', 'сотрудниками/студент', 'либ', 'приобретен', 'фотоагентств', 'фото/картинк', 'найден', 'случайн', 'образ', 'простор', 'интернет', 'недопустим', 'размещен', 'фот', 'явля', 'обязательн', 'элемент', 'новост', 'фотограф', 'должн', 'горизонтальн', 'хорош', 'качеств', 'есл', 'картинк', 'плох', 'качеств', 'несет', 'никак', 'смыслов', 'нагрузк', 'нужн', 'загружа', 'новост', 'нужн', 'загружа', 'качеств', 'иллюстрац', 'новост', 'главн', 'страниц', 'сайт', 'скан', 'скриншот', 'баннер', 'постер', 'обложк', 'логотип', 'портретн', 'фот', 'крупн', 'одн', 'лиц', 'чтоб', 'картинк', 'появ', 'лент', 'новост', 'ваш', 'сайт', 'нужн', 'загруз', 'сплеш-картинк', 'новост', 'размер', 'фот', '1083', '722', 'есл', 'собира', 'размест', 'нескольк', 'изображен', 'воспользова', 'опц', 'фотоальб', 'нажима', 'кнопк', 'добав', 'изображен', 'выбира', 'нужн', 'файл', 'дал', 'сохраня', 'новост', 'либ', 'может', 'воспользова', 'функционал', 'составн', 'редактор', 'обрат', 'ваш', 'вниман', 'фот', 'размеща', 'портал', 'необходим', 'оптимизирова', 'копирован', 'сайт', 'чтоб', 'воспользова', 'функц', 'необходим', 'залогин', 'портал', 'посл', 'открыва', 'нужн', 'новост', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'новост', 'списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова', 'размест', 'новост', 'двум', 'способ', 'ссылк', 'оригинальн', 'новост', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'аннотац', 'котор', 'будут', 'увод', 'оригинальн', 'новост', 'сможет', 'редактирова', 'втор', 'случа', 'новост', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'новост', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'новост', 'размещен', 'полн', 'клонирован', 'подтянет', 'есл', 'вам', 'необходим', 'убра', 'новост', 'размещен', 'ссылк', 'оригинальн', 'новост', 'вам', 'необходим', 'зайт', 'раздел', 'новост', 'импортирова', 'новост', 'ссылк', 'справ', 'найт', 'нужн', 'новост', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'новост', 'подразделен']</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1986,29 +1894,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['быстр', 'ссылк', 'доступ', 'редактирован', 'наполнен', 'сайт', 'размещен', 'текст', 'размещен', 'новост']</t>
+          <t>['страниц', 'показыва', 'штатн', 'сотрудник', 'подразделен', 'проведен', 'зик', 'москв', 'ис-пр', 'кампус', 'подробн', 'ком', 'обраща', 'случа', 'отсутств', 'трудустроен', 'вшэ', 'сотрудник', 'написа']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['доступ', 'редактирован', 'доступ', 'редактирован', 'сайт', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'как', 'получ', 'доступ', 'написа', 'перейт', 'режим', 'редактирован', 'сайт', 'двум', 'способ', 'прям', 'ссылк', 'https', '//www.hse.ru/adm/', 'высвечива', 'список', 'подразделен', 'котор', 'прав', 'пут', 'клик', 'ссылк', 'редактор', 'вниз', 'главн', 'страниц', 'сайт', 'редактирован', 'котор', 'прав', 'дал', 'нажа', 'ссылк', 'дан', 'есл', 'нажмет', 'ссылк', 'редактор', 'статическ', 'страниц', 'новост', 'анонс', 'внутр', 'сайт', 'сраз', 'попадет', 'реж', 'редактирован', 'конкретн', 'элемент', 'отдельн', 'прав', 'редактирован', 'английск', 'верс', 'нужн', 'подробн', 'работ', 'английск', 'верс', 'написа']</t>
+          <t>['страниц', 'имеет', 'автоматическ', 'формируем', 'техническ', 'им', 'persons', 'чтоб', 'добав', 'автоматическ', 'страниц', 'сотрудник', 'сайт', 'необходим', 'соответств', 'пункт', 'мен', 'прописа', 'адрес', 'сайта/персонс', 'например', 'управлен', 'развит', 'поддержк', 'порта', 'адрес', 'страниц', 'выгляд', 'https', '//portal.hse.ru/persons', 'завод', 'статическ', 'страниц', 'так', 'адрес', 'нужн']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['наполнен', 'сайт', 'для', 'работ', 'сайт', 'основн', 'будут', 'нужн', 'четыр', 'подраздел', 'сайт', 'блок', 'подраздел', 'осуществля', 'управлен', 'главн', 'страниц', 'сайт', 'включ', 'добавлен', 'пункт', 'мен', 'страниц', 'инструкц', 'создан', 'страниц', 'новост', 'инструкц', 'создан', 'новост', 'анонс', 'инструкц', 'создан', 'анонс', 'есл', 'редактирует', 'сайт', 'структурн', 'подразделен', 'такж', 'будут', 'нужн', 'раздел', 'функциона', 'сотрудник', 'подразделен', 'показ', 'списк', 'карт', 'адрес', 'мета-информац', 'подразделен', 'очен', 'част', 'перв', 'желан', 'редактор', 'быва', 'завест', 'нов', 'пункт', 'мен', 'однак', 'случа', 'единствен', 'достигнет', 'эт', 'разочарует', 'посетител', 'сво', 'сайт', 'клик', 'пункт', 'мен', 'получ', 'ошибк', 'кром', 'так', 'ошибок', 'сайт', 'хуж', 'индексир', 'поисковик', 'снача', 'созда', 'страниц', 'наполн', 'содержим', 'внимательн', 'прочита', 'размещен', 'текст', 'портал', 'работ', 'таблиц', 'тольк', 'созда', 'страниц', 'завод', 'пункт', 'мен', 'чтоб', 'завест', 'нов', 'пункт', 'мен', 'необходим', 'перейт', 'раздел', 'блок', 'мен', 'пол', 'назван', 'пропиш', 'назван', 'пункт', 'мен', 'пол', 'URL', 'ссылк', 'страниц', 'мен', 'основн', 'ошибк', 'пункт', 'мен', 'созда', 'раньш', 'соответствующ', 'страниц', 'ссылк', 'прописа', 'правильн', 'страниц', 'открыва', 'проверьт', 'конц', 'ссылк', 'сто', 'пробел', 'удал', 'пробел', 'дан', 'ссылк', 'сайт', 'домен', 'hse.ru', 'сто', 'галочк', 'окол', 'пункт', 'открыва', 'нов', 'окн', 'этот', 'функциона', 'необходим', 'использова', 'каким-т', 'причин', 'хот', 'сосла', 'внешн', 'сайт', 'как', 'вывест', 'страниц', 'сотрудник', 'рекоменду', 'вест', 'так', 'страниц', 'вручн', 'обязательн', 'забудет', 'скорректирова', 'список', 'изменен', 'кадров', 'состав', 'для', 'вывест', 'мен', 'автоматическ', 'страниц', 'сотрудник', 'необходим', 'прописа', 'пол', 'URL', 'пункт', 'мен', 'слов', 'persons', 'предварительн', 'убед', 'ваш', 'подразделен', 'хот', 'оформлен', 'сотрудник', 'ссылк', 'пуст', 'страниц', 'добавля', 'нужн', 'есл', 'точн', 'знает', 'ваш', 'подразделен', 'оформлен', 'сотрудник', 'страниц', 'показыва', 'напиш', 'адрес', 'portal', 'hse.ru', 'указа', 'письм', 'ссылк', 'сайт', 'котор', 'идет', 'реч', 'ссылк', 'сотрудник', 'имеющ', 'трудоустройств', 'подразделен', 'трудоустройств', 'должн', 'показыва', 'страниц', 'подробн', 'появля', 'персональн', 'страниц', 'портал', 'откуд', 'берет', 'информац', 'написа']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['размещен', 'текст', 'можн', 'нужн', 'есл', 'страниц', 'размещ', 'прост', 'текст', 'например', 'необходим', 'вывест', 'список', 'участник', 'мероприят', 'фотограф', 'рекоменду', 'воспользова', 'шаблон', 'составн', 'страницы/новости/анонс', 'инструкц', 'работ', 'страниц', 'наход', 'принцип', 'работ', 'составн', 'страницами/новостями/анонс', 'одинаков', 'посл', 'переключен', 'обычн', 'страниц', 'реж', 'составн', 'получа', 'набор', 'готов', 'элемент', 'оформлен', 'страниц', 'постара', 'разн', 'браузер', 'разн', 'устройств', 'элемент', 'отобража', 'корректн', 'однак', 'замет', 'ошибк', 'пожалуйст', 'напиш', 'нам', 'portal', 'hse.ru', 'есл', 'информац', 'треб', 'сложн', 'оформлен', 'выбира', 'реж', 'прост', 'страниц', 'выделя', 'текст', 'подзаголовк', 'разн', 'уровн', 'треб', 'текст.', 'помн', 'нужн', 'оформ', 'текст', 'заголовок', 'выдел', 'жирн', 'увелич', 'шрифт', 'заголовок', 'важн', 'элемент', 'структур', 'страниц', 'поможет', 'поисковик', 'поня', 'ваш', 'сайт', 'заголовк', 'оформля', 'отдельн', 'предложен', 'абзац', 'подробн', 'поисков', 'оптимизац', 'прочита', 'есл', 'очен', 'важн', 'страниц', 'понима', 'как', 'блок', 'хотел', 'выдел', 'знает', 'эт', 'сдела', 'напиш', 'сво', 'вопрос', 'portal', 'hse.ru', 'постара', 'помоч', 'категорическ', 'размеща', 'текст', 'скопирова', 'Word', 'послед', 'очистк', 'посторон', 'стил', 'эт', 'привод', 'непредсказуем', 'отображен', 'текст', 'разн', 'браузер', 'некотор', 'случа', 'мобильн', 'устройств', 'текст', 'выход', 'границ', 'экра', 'посетител', 'принцип', 'сможет', 'прочита', 'текст', 'прост', 'стат', 'невидим', 'подробн', 'размещен', 'текст', 'написа', 'меня', 'размер', 'стил', 'шрифт', 'крас', 'текст', 'разн', 'цвет', 'эт', 'такж', 'привод', 'некорректн', 'отображен', 'конц', 'конц', 'эт', 'прост', 'некрасив', 'сайт', 'выгляд', 'школьн', 'стенгазет', 'выравнива', 'текст', 'ширин', 'стационарн', 'компьютер', 'так', 'форматирован', 'выглядет', 'симпатичн', 'мобильн', 'верс', 'слов', 'могут', 'прилипнут', 'кра', 'экра', 'центр', 'страниц', 'образ', 'пустот', 'размеща', 'текст', 'вид', 'изображен', 'зна', 'мероприят', 'част', 'готов', 'рекламн', 'постер', 'он', 'предназнач', 'размещен', 'стенд', 'сайт', 'текст', 'вид', 'картинок', 'тяжел', 'чита', 'мобильн', 'устройств', 'индексир', 'поисков', 'систем', 'недоступн', 'прочтен', 'слабовидя', 'использ', 'ознакомлен', 'сайт', 'специальн', 'программ', 'писа', 'заголовк', 'использу', 'заглавн', 'букв', 'налич', 'текст', 'заглавн', 'букв', 'усложня', 'восприят', 'чем', 'длин', 'текст', 'набра', 'заглавн', 'букв', 'сложн', 'прочита', 'кром', 'интернет', 'традицион', 'счита', 'автор', 'пишет', 'заглавн', 'букв', 'эт', 'означа', 'крич', 'размеща', 'заголовк', 'нескольк', 'строк', 'мобильн', 'верс', 'будут', 'занима', 'ве', 'экра']</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['размещен', 'новост', 'обрат', 'вниман', 'кажд', 'новост', 'долж', 'коротк', 'заголовок', 'аннотац', 'рубрик', 'ключев', 'слов', 'текст', 'новост', 'про', 'эт', 'написа', 'инструкц', 'закрепл', 'стандарт', 'форматирован', 'текст', 'абзац', 'перенос', 'строк', 'эт', 'одн', 'ссылк', 'инструкц', 'точк', 'заголовк', 'став', 'иллюстрац', 'хорош', 'новост', 'иллюстрир', 'фотограф', 'сдела', 'вам', 'рамк', 'работ', 'такж', 'здоров', 'изображен', 'переда', 'автор', 'размещен', 'сайт', 'категорическ', 'использова', 'изображен', 'найден', 'сет', 'обязательн', 'проверя', 'копирайт', 'иногд', 'достаточн', 'указа', 'откуд', 'скопирова', 'изображен', 'треб', 'письмен', 'разрешен', 'автор', 'некотор', 'случа', 'размеща', 'изображен', 'принцип', 'при', 'необходим', 'может', 'взят', 'изображен', 'бесплатн', 'фотобанк', 'иллюстрац', 'явля', 'обязательн', 'элемент', 'новост', 'картинк', 'должн', 'горизонтальн', 'хорош', 'качеств', 'недопустим', 'размещен', 'качеств', 'иллюстрац', 'новост', 'скриншот', 'баннер', 'листовок', 'обложек', 'постер', 'логотип']</t>
-        </is>
-      </c>
+          <t>['сортировк', 'сотрудник', 'должност', 'страниц', 'редактор', 'подразделен', 'имеет', 'возможн', 'измен', 'автоматическ', 'сортировк', 'сотрудник', 'установ', 'сортировк', 'должност', 'для', 'кажд', 'должност', 'внутр', 'сайт', 'подразделен', 'необходим', 'установ', 'сво', 'порядков', 'номер', 'например', 'руководител', 'имет', 'порядков', 'номер', 'заместител', 'люб', 'друг', 'числ', 'профессор', 'случа', 'страниц', 'алфавитн', 'порядк', 'будут', 'показыва', 'снача', 'люд', 'должност', 'руководител', 'люд', 'должност', 'заместител', 'руководител', 'сотрудник', 'должност', 'профессор', 'административн', 'интерфейс', 'раздел', 'найт', 'след', 'пут', 'дан', 'должност', 'для', 'выставлен', 'порядков', 'номер', 'необходим', 'кликнут', 'мышк', 'значок', 'редактирова', 'простав', 'соответств', 'номер', 'шаг', 'шаг', 'обрат', 'вниман', 'дан', 'страниц', 'имеет', 'автоматическ', 'кэш', 'час', 'есл', 'хот', 'сраз', 'увидет', 'изменен', 'пересохран', 'основн', 'страниц', 'подразделен']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -2035,27 +1935,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/instann', 'быстр', 'ссылк', 'создан', 'анонс', 'составн', 'редактор', 'анонс', 'английск', 'верс', 'копирован', 'сайт', 'подписк', 'анонс', 'подразделен']</t>
+          <t>['https', '//portal.hse.ru/events', 'быстр', 'ссылк', 'как', 'опубликова', 'анонс', 'портал', 'как', 'созда', 'подписк', 'анонс', 'как', 'сдела', 'сайт', 'мероприят']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/instann', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'котор', 'состо', 'ближайш', 'будущ', 'анонс', 'эт', 'новост', 'новост', 'рассказыва', 'прошедш', 'событ', 'есл', 'будущ', 'программ', 'планир', 'никак', 'событ', 'блок', 'мероприят', 'вывод', 'для', 'добавлен', 'анонс', 'необходим', 'откр', 'дан', 'выбра', 'соответств', 'пункт', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'пол', 'заполнен', 'заголовок', 'анонс', 'заполня', 'след', 'пол', 'заголовок', 'язык', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'семафор-онлайн', 'необходим', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'аннотац', 'текст', 'добав', 'ключев', 'слов', 'учет', 'результат', 'работ', 'ни', 'вшэ', 'остальн', 'пол', 'трога', 'заголовок', 'долж', 'кратк', 'отража', 'формат', 'мероприят', 'назван', 'например', 'всероссийск', 'научн', 'конференц', 'памят', 'юр', 'левад', 'современ', 'российск', 'обществ', 'социолог', 'лекц', 'ирин', 'новиков', 'образ', 'росс', 'русск', 'истор', 'латвийск', 'мед', 'международн', 'летн', 'школ', 'киберправ', 'ISSC', '2015', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт', 'мероприят', 'имеет', 'ограничен', 'возраст', 'согласн', 'законодательств', 'мероприят', 'кром', 'научн', 'должн', 'имет', 'соответств', 'маркировк', 'возраст', '12+', 'т.д.', 'например', 'маркировк', 'должн', 'имет', 'анонс', 'дне', 'открыт', 'двер', 'подробн', 'написа', 'положен', 'защ', 'несовершеннолетн', 'обуча', 'ни', 'вшэ', 'информац', 'причиня', 'вред', 'здоров', 'развит', 'для', 'необходим', 'режим', 'редактирован', 'анонс', 'пол', 'мероприят', 'имеет', 'ограничен', 'возраст', 'выстав', 'нужн', 'возраст', 'как', 'поня', 'категор', 'относ', 'ваш', 'информац', 'основан', 'ст.', '5-10', 'федеральн', 'закон', '29.12.2010', '436-фз', 'защ', 'дет', 'информац', 'причиня', 'вред', 'здоров', 'развит']</t>
+          <t>['https', '//portal.hse.ru/events', 'как', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'для', 'публикац', 'анонс', 'главн', 'страниц', 'порта', 'раздел', 'мероприят', 'общ', 'лент', 'анонс', 'необходим', 'изначальн', 'размест', 'анонс', 'сайт', 'сво', 'подразделен', 'обраща', 'редактор', 'сво', 'подразделен', 'информац', 'об', 'анонс', 'размещен', 'сайт', 'подразделен', 'вшэ', 'приход', 'порта', 'след', 'ден', 'редактор', 'порта', 'просматрива', 'анонс', 'соответств', 'всем', 'требован', 'добавля', 'лент', 'событ', 'вшэ', 'раздел', 'мероприят', 'есл', 'хот', 'сообщ', 'сво', 'анонс', 'раньш', 'придет', 'порта', 'пришл', 'нам', 'заявк', 'portalnews', 'hse.ru', 'заявк', 'представля', 'соб', 'ссылк', 'ваш', 'анонс', 'ссылк', 'сайт', 'мероприят', 'конференц', 'форум', 'анонс', 'добавля', 'лент', 'порядк', 'общ', 'очеред', 'рабоч', 'дни', 'пн.-пт.', 'обрат', 'вниман', 'лент', 'событ', 'главн', 'страниц', 'сайт', 'добавля', 'анонс', 'мероприят', 'участ', 'котор', 'приглаша', 'жела', 'сотрудники/', 'уча', 'вшэ', 'есл', 'ваш', 'мероприят', 'рассчита', 'гост', 'вшэ', 'достаточн', 'размест', 'анонс', 'страниц', 'ваш', 'подразделен', 'пожалуйст', 'пута', 'анонс', 'новост', 'анонс', 'информир', 'предстоя', 'событ', 'приглаша', 'участ', 'новост', 'рассказыва', 'сверш', 'событ']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/instann', 'больш', 'част', 'информац', 'распространя', 'университет', 'относ', 'категор', 'т.е.', 'то', 'котор', 'свободн', 'распространя', 'сред', 'дет', 'люб', 'возраст', 'общ', 'правил', 'информац', 'достаточн', 'указа', 'ограничива', 'доступ', 'информац', 'треб', 'основан', 'ст.', 'закон', 'защ', 'дет', 'мероприят', 'территор', 'университет', 'должн', 'содержа', 'информац', '18+', 'получ', 'специальн', 'разрешен', 'ректор', 'проректор', 'подробн', 'защ', 'несовершеннолетн', 'обучающих', 'информац', 'причиня', 'вред', 'здоров', 'развит']</t>
+          <t>['https', '//portal.hse.ru/events', 'обязательн', 'требован', 'анонс', 'назван', 'мероприятия/', 'заголовок', 'анонс', 'организатор', 'подразделен', 'ни', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.', 'степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт', 'размещен', 'анонс', 'сайт', 'подразделен', 'сайт', 'подразделен', 'анонс', 'размеща', 'непосредствен', 'редактор', 'дан', 'подразделен', 'инструкц', 'размещен', 'анонс']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/instann', 'язык', 'мероприят', 'изменя', 'англ.', 'анонс', 'метка-комментар', 'необходим', 'пол', 'нов', 'порта', 'метк', 'комментар', 'указыва', 'информац', 'срок', 'окончан', 'подач', 'заявок', 'мероприят', 'отобража', 'флажк', 'заголовк', 'семафор-онлайн', 'необходим', 'пол', 'нов', 'порта', 'семафор', 'онлайн', 'включа', 'налич', 'онлайн-трансляц', 'мероприят', 'мероприят', 'начнет', 'мероприят', 'заверш', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'при', 'добавлен', 'анонс', 'особ', 'вниман', 'обраща', 'пункт', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'при', 'игнорирован', 'эт', 'пункт', 'ваш', 'анонс', 'отправ', 'арх', 'отобраз', 'сайт', 'подразделен', 'например', 'дат', 'пол', 'мероприят', 'начнет', 'мероприят', 'заверш', 'должн', 'совпада', 'реальн', 'дат', 'событ', 'дат', 'добавля', 'анонс', 'как', 'дат', 'нача', 'мероприят', 'совпадет', 'реальн', 'дат', 'времен', 'анонс', 'пропадет', 'блок', 'мероприят', 'когд', 'убра', 'анонс', 'мероприят', 'сайт', 'прав', 'став', 'дат', 'последн', 'дня', 'мероприят', 'врем', '23.55', 'обрат', 'вниман', 'указа', 'часов', 'пояс', 'умолчан', 'сто', 'московск', 'врем', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'необходим', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'использ', 'необходим', 'отображен', 'главн', 'страниц', 'подразделен', 'общ', 'лент', 'анонс', 'как', 'прав', 'использ', 'мероприят', 'срок', 'подач', 'заявок', 'при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'нет', 'анонс', 'вывод', 'главн', 'страниц', 'блок', 'мероприят', 'доступ', 'общ', 'списк', 'анонс', 'адрес', '/announcements', 'при', 'проставлен', 'флажк', 'показыва', 'анонс', 'главн', 'страниц', 'положен', 'анонс', 'вывод', 'главн', 'страниц', 'есл', 'нескольк', 'анонс', 'хот', 'выстро', 'блок', 'мероприят', 'календарн', 'порядк', 'обрат', 'особ', 'вниман', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'желательн', 'анонс', 'дат', 'перв', 'пол', 'дат', 'показ', 'анонс', 'главн', 'страниц', 'одинаков', 'дал', 'регулирует', 'положен', 'анонс', 'блок', 'главн', 'времен', 'показ', 'чем', 'раньш', 'врем', 'выш', 'анонс', 'блок', 'главн', 'вне', 'зависим', 'дат', 'реальн', 'событ', 'например', 'набор', 'образовательн', 'программ', 'Bridge', '2015', 'конкурс', 'Cоздан', 'международн', 'лаборатор', 'ни', 'вшэ', 'санкт-петербург', 'HSE', 'Filmfest', '2015', 'дат', 'нача', 'показ', 'анонс', 'одинаков', 'январ', '2015', 'времен', '21.45', '22.00', '22.10', 'скорректирова', 'последовательн', 'отображен', 'аннотац', 'текст', 'аннотац', 'вывод', 'общ', 'текст', 'анонс', 'пожалуйст', 'дублир', 'информац', 'след', 'пол', 'текст', 'пол', 'текст', 'указыва', 'подробн', 'предстоя', 'мероприят', 'текст', 'долж', 'содержа', 'необходим', 'информац', 'котор', 'понадоб', 'посетител', 'мероприят', 'числ', 'сотрудник', 'вышк', 'посетител', 'сторон', 'назван', 'мероприят', 'организатор', 'подразделен', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск', 'обрат', 'вниман', 'копирован', 'текс', 'Word', 'окн', 'текст', 'текст', 'анонс', 'располага', 'ровн', 'страниц', 'необходим', 'чист', 'код', 'для', 'выдел', 'ве', 'текст', 'окн', 'нажм', 'значк', 'панел', 'управлен', 'ластик', 'метелк', 'посл', 'понадоб', 'удал', 'лишн', 'абзац', 'пробел', 'начал', 'строк', 'использ', 'курс', 'разн', 'цвет', 'Caps', 'Lock', 'злоупотребля', 'выделен', 'жирн', 'шрифт', 'подробн', 'форматирован', 'текст', 'использован', 'основн', 'инструмент', 'редактирован', 'страниц', 'прочита', 'расстав', 'текст', 'ссылк', 'упомянут', 'текст', 'персон', 'подразделен', 'для', 'выдел', 'необходим', 'врагмент', 'текст', 'нажм', 'значок', 'цепочк', 'откр', 'окн', 'необходим', 'встав', 'ссылк', 'адрес', 'электрон', 'почт', 'граф', 'адрес', 'нажа', 'сниз', 'кнопк', 'встав', 'либ', 'персон', 'подразделен', 'принадлеж', 'ни', 'вшэ', 'желательн', 'выбра', 'баз', 'подразделен', 'персон', 'порта', 'тогд', 'автоматическ', 'подгруз', 'страниц', 'дан', 'персон', 'подразделен', 'эт', 'избав', 'необходим', 'иска', 'страниц', 'персон', 'подразделен', 'отдельн', 'поиск', 'портал', 'позвол', 'сэконом', 'врем', 'для', 'вставл', 'граф', 'адрес', 'нужн', 'выбра', 'строк', 'сво', 'ссылк', 'пункт', 'персон', 'подразделен', 'нажа', 'кнопк', 'выбра', 'ряд', 'граф', 'сво', 'ссылк', 'появ', 'окн', 'поиск', 'помощ', 'поисков', 'строк', 'Ctrl', 'найт', 'нужн', 'подразделен', 'когд', 'персон', 'подразделен', 'выбра', 'баз', 'адрес', 'строк', 'адрес', 'имет', 'след', 'вид', 'когд', 'ссылк', 'сформирова', 'забудьт', 'нажа', 'кнопк', 'встав', 'ключев', 'слов', 'для', 'добавлен', 'ключев', 'слов', 'анонс', 'нажм', 'кнопк', 'добав', 'ключев', 'слов', 'через', 'поиск', 'найд', 'нужн', 'слов', 'баз', 'ключев', 'слов', 'порта', 'добавьт', 'завершен', 'заполнен', 'необходим', 'пол', 'статус', 'анонс', 'проставля', 'активн', 'нажима', 'кнопк', 'сохран', 'анонс', 'гот', 'составн', 'редактор', 'есл', 'анонс', 'треб', 'использова', 'верстк', 'различн', 'элемент', 'например', 'постав', 'кнопк', 'регистрац', 'может', 'воспользова', 'составн', 'редактор', 'для', 'пол', 'тип', 'редактор', 'выбира', 'составн', 'дал', 'следу', 'инструкц', 'составн', 'страниц', 'анонс', 'английск', 'верс', 'сайт', 'важн', 'английск', 'верс', 'подразделен', 'такж', 'должн', 'публикова', 'анонс', 'мероприят', 'котор', 'провод', 'английск', 'язык', 'существ', 'вариант', 'размещен', 'вариант', 'постав', 'анонс', 'перевод', 'для', 'необходим', 'встав', 'перевод', 'сохранен', 'ран', 'анонс', 'русск', 'верс', 'над', 'заголовк', 'нажа', 'британск', 'флаг', 'перевод', 'заполн', 'соответств', 'пол', 'заголовок', 'перевод', 'англ.', 'ключев', 'слов', 'постав', 'статус', 'показыва', 'нажа', 'сохран', 'важн', 'посл', 'сохранен', 'перевод', 'окажет', 'русск', 'верс', 'анонс', 'след', 'нажа', 'сохран', 'русск', 'страниц', 'вариант', 'полност', 'английск', 'анонс', 'созда', 'нов', 'анонс', 'нов', 'зап', 'раздел', 'добавля', 'клик', 'иконк', 'заполня', 'принцип', 'русскоязычн', 'анонс', 'полност', 'английск', 'став', 'язык', 'английск', 'анонс', 'отобража', 'английск', 'верс', 'сайт', 'копирован', 'сайт', 'чтоб', 'воспользова', 'функц', 'необходим', 'выполн', 'вход', 'личн', 'кабинет', 'адрес', 'https', '//www.hse.ru/user/', 'посл', 'открыва', 'нужн', 'анонс', 'ссылк', 'размест', 'подразделен', 'наход', 'справ', 'заголовк', 'зайт', 'полн', 'текст', 'анонс', 'списк', 'подразделен', 'отобража', 'подразделен', 'котор', 'редактор', 'прав', 'редактирован', 'зде', 'нужн', 'выбра', 'необходим', 'зат', 'нажа', 'кнопк', 'импортирова', 'размест', 'анонс', 'двум', 'способ', 'ссылк', 'оригинальн', 'анонс', 'полн', 'клонирован', 'перв', 'случа', 'сайт', 'ваш', 'подразделен', 'появ', 'лиш', 'заголовок', 'котор', 'увод', 'оригинальн', 'анонс', 'сможет', 'редактирова', 'втор', 'случа', 'анонс', 'целик', 'копир', 'сайт', 'ваш', 'подразделен', 'сможет', 'редактирова', 'однак', 'имет', 'вид', 'изменен', 'котор', 'будут', 'внос', 'оригинальн', 'анонс', 'ваш', 'отража', 'будут', 'например', 'добав', 'перевод', 'английск', 'язык', 'анонс', 'размещен', 'полн', 'клонирован', 'подтянет', 'есл', 'вам', 'необходим', 'убра', 'анонс', 'размещен', 'ссылк', 'оригинальн', 'анонс', 'вам', 'необходим', 'зайт', 'раздел', 'анонс', 'импортирова', 'анонс', 'ссылк', 'справ', 'найт', 'нужн', 'анонс', 'нажа', 'слев', 'иконк', 'карандаш', 'дал', 'нажа', 'убра', 'анонс', 'подразделен', 'есл', 'увер', 'размеща', 'информац', 'новост', 'анонс', 'зайд', 'главн', 'страниц', 'порта', 'разделен', 'новост', 'анонс', 'представл', 'достаточн', 'наглядн', 'есл', 'возника', 'вопрос', 'техническ', 'характер', 'размещен', 'анонс', 'пиш', 'portal', 'hse.ru']</t>
+          <t>['https', '//portal.hse.ru/events', 'как', 'созда', 'подписк', 'анонс', 'подразделен', 'может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям', 'чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/instann', 'как', 'созда', 'подписк', 'анонс', 'подразделен', 'может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям', 'чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт']</t>
+          <t>['https', '//portal.hse.ru/events', 'как', 'созда', 'сайт', 'мероприят', 'есл', 'ваш', 'подразделен', 'провод', 'крупн', 'мероприят', 'например', 'конференц', 'летн', 'школ', 'подразумева', 'размещен', 'разнопланов', 'информац', 'программ', 'организатор', 'спикер', 'др.', 'может', 'созда', 'сайт', 'мероприят', 'сотрудник', 'порта', 'завод', 'сайт', 'выда', 'прав', 'ответствен', 'ваш', 'подразделен', 'котор', 'занима', 'наполнен', 'сайт', 'порта', 'оказыва', 'консультацион', 'поддержк', 'такж', 'помога', 'оформлен', 'част', 'нужн', 'сложн', 'верстк', 'для', 'заказа', 'сайт', 'мероприят', 'необходим', 'присла', 'portal', 'hse.ru', 'заявк', 'котор', 'указыва', 'жела', 'шаблон', 'сайт', 'стандартн', 'сайт', 'мероприят', 'лендинг', 'жела', 'адрес', 'сайт', 'ссылк', 'сайт', 'мероприят', 'предыдущ', 'год', 'мероприят', 'ежегодн', 'заголовок', 'сайт', 'назван', 'мероприят', 'фи', 'ответствен', 'редактирован', 'сайт']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2084,29 +1984,21 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/events', 'быстр', 'ссылк', 'как', 'опубликова', 'анонс', 'портал', 'как', 'созда', 'подписк', 'анонс', 'как', 'сдела', 'сайт', 'мероприят']</t>
+          <t>['https', '//portal.hse.ru/landing', 'для', 'вход', 'реж', 'редактирован', 'перейд', 'ссылк', 'редактор', 'главн', 'страниц', 'сайт', 'нажм', 'наверх', 'ссылк', 'дан', 'перейд', 'раздел', 'блок', 'русск', 'верс', 'блоки_англ', 'английск', 'верс']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/events', 'как', 'опубликова', 'анонс', 'главн', 'страниц', 'порта', 'для', 'публикац', 'анонс', 'главн', 'страниц', 'порта', 'раздел', 'мероприят', 'общ', 'лент', 'анонс', 'необходим', 'изначальн', 'размест', 'анонс', 'сайт', 'сво', 'подразделен', 'обраща', 'редактор', 'сво', 'подразделен', 'информац', 'об', 'анонс', 'размещен', 'сайт', 'подразделен', 'вшэ', 'приход', 'порта', 'след', 'ден', 'редактор', 'порта', 'просматрива', 'анонс', 'соответств', 'всем', 'требован', 'добавля', 'лент', 'событ', 'вшэ', 'раздел', 'мероприят', 'есл', 'хот', 'сообщ', 'сво', 'анонс', 'раньш', 'придет', 'порта', 'пришл', 'нам', 'заявк', 'portalnews', 'hse.ru', 'заявк', 'представля', 'соб', 'ссылк', 'ваш', 'анонс', 'ссылк', 'сайт', 'мероприят', 'конференц', 'форум', 'анонс', 'добавля', 'лент', 'порядк', 'общ', 'очеред', 'рабоч', 'дни', 'пн.-пт.', 'обрат', 'вниман', 'лент', 'событ', 'главн', 'страниц', 'сайт', 'добавля', 'анонс', 'мероприят', 'участ', 'котор', 'приглаша', 'жела', 'сотрудники/', 'уча', 'вшэ', 'есл', 'ваш', 'мероприят', 'рассчита', 'гост', 'вшэ', 'достаточн', 'размест', 'анонс', 'страниц', 'ваш', 'подразделен', 'пожалуйст', 'пута', 'анонс', 'новост', 'анонс', 'информир', 'предстоя', 'событ', 'приглаша', 'участ', 'новост', 'рассказыва', 'сверш', 'событ']</t>
+          <t>['https', '//portal.hse.ru/landing', 'быстр', 'ссылк', 'шапк', 'мен', 'основн', 'колонк', 'виджет']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/events', 'обязательн', 'требован', 'анонс', 'назван', 'мероприятия/', 'заголовок', 'анонс', 'организатор', 'подразделен', 'ни', 'вшэ', 'кратк', 'аннотац', 'основн', 'докладчик', 'указан', 'уч.', 'степен', 'подразделен', 'работа', 'мест', 'врем', 'проведен', 'приглаша', 'абитуриент', 'студент', 'ппс', 'исследовател', 'жела', 'пр.', 'рабоч', 'язык', 'мероприят', 'выступа', 'иностра', 'докладчик', 'предусмотр', 'перевод', 'нужн', 'проход', 'предварительн', 'регистрац', 'контактн', 'информац', 'обраща', 'уточнениями/пропуск', 'соответств', 'стандарт', 'заголовок', 'анонс', 'долж', 'коротк', 'отража', 'сут', 'анонс', 'долж', 'превыша', 'знак', 'пробел', 'исключен', 'назван', 'конференц', 'содержа', 'больш', 'количеств', 'знак', 'английск', 'верс', 'сайт', 'необходим', 'обязательн', 'порядк', 'размеща', 'анонс', 'англоязычн', 'мероприят', 'подразделен', 'недопустим', 'размещен', 'русскоязычн', 'текст', 'английск', 'верс', 'английск', 'текст', 'русск', 'верс', 'сайт', 'размещен', 'анонс', 'сайт', 'подразделен', 'сайт', 'подразделен', 'анонс', 'размеща', 'непосредствен', 'редактор', 'дан', 'подразделен', 'инструкц', 'размещен', 'анонс']</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/events', 'как', 'созда', 'подписк', 'анонс', 'подразделен', 'может', 'созда', 'страниц', 'сво', 'подразделен', 'отдельн', 'подписк', 'коллег', 'котор', 'интересн', 'ваш', 'событ', 'могл', 'получа', 'приглашен', 'напрям', 'чтоб', 'получ', 'ссылк', 'подписк', 'перейд', 'страниц', 'подписк', 'анонс', 'мероприят', 'высш', 'школ', 'экономик', 'пол', 'как', 'подразделен', 'провод', 'выбер', 'сво', 'подразделен', 'скопир', 'появ', 'адресн', 'строк', 'браузер', 'ссылк', 'добавьт', 'ссылк', 'подписк', 'нужн', 'раздел', 'сайт']</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/events', 'как', 'созда', 'сайт', 'мероприят', 'есл', 'ваш', 'подразделен', 'провод', 'крупн', 'мероприят', 'например', 'конференц', 'летн', 'школ', 'подразумева', 'размещен', 'разнопланов', 'информац', 'программ', 'организатор', 'спикер', 'др.', 'может', 'созда', 'сайт', 'мероприят', 'сотрудник', 'порта', 'завод', 'сайт', 'выда', 'прав', 'ответствен', 'ваш', 'подразделен', 'котор', 'занима', 'наполнен', 'сайт', 'порта', 'оказыва', 'консультацион', 'поддержк', 'такж', 'помога', 'оформлен', 'част', 'нужн', 'сложн', 'верстк', 'для', 'заказа', 'сайт', 'мероприят', 'необходим', 'присла', 'portal', 'hse.ru', 'заявк', 'котор', 'указыва', 'жела', 'шаблон', 'сайт', 'стандартн', 'сайт', 'мероприят', 'лендинг', 'жела', 'адрес', 'сайт', 'ссылк', 'сайт', 'мероприят', 'предыдущ', 'год', 'мероприят', 'ежегодн', 'заголовок', 'сайт', 'назван', 'мероприят', 'фи', 'ответствен', 'редактирован', 'сайт']</t>
-        </is>
-      </c>
+          <t>['https', '//portal.hse.ru/landing', 'шапк', 'дан', 'раздел', 'редактир', 'размеща', 'шапк', 'сайт', 'картинк', 'заголовок', 'подзаголовок', 'кнопк', 'при', 'выбор', 'картинк', 'шапк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1600', 'пиксел', 'ширин', 'вес', '200-300', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'проект', 'сво', 'фирстил', 'котор', 'долж', 'отраж', 'шапк', 'необходим', 'учитыва', 'требован', 'картинк', 'чтоб', 'шапк', 'отобража', 'главн', 'внутрен', 'страниц', 'сайт', 'нужн', 'зайт', 'раздел', 'шапк', 'втор', 'страниц', 'выбра', 'шапк', 'главн', 'страниц', 'сво', 'шапк', 'обычн', 'показ', 'внутрен', 'страниц', 'сайт', 'использ', 'шапк', 'главн', 'страниц', 'мен', 'отображен', 'мен', 'регулир', 'раздел', 'шапк', 'умолчан', 'мен', 'скрыт', 'есл', 'нужн', 'он', 'показыва', 'выбра', 'хот', 'вывест', 'сниз', 'сверх', 'ест', 'такж', 'опц', 'сдела', 'мен', 'центр', 'сам', 'пункт', 'мен', 'редактир', 'данные-блоки-мен', 'основн', 'колонк', 'основн', 'колонк', 'главн', 'страниц', 'главн', 'раздел', 'котор', 'пользует', 'слев', 'располож', 'набор', 'виджет', 'справ', 'пол', 'виджет', 'нужн', 'перемест', 'располага', 'ваш', 'контент', 'выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк', 'нажима', 'сохран', 'конц', 'страниц', 'обязательн', 'проверя', 'получ', 'текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'чтоб', 'текст', 'смотрел', 'браузер', 'удал', 'лишн', 'пробел', 'стоя', 'кавычк', 'елочк', 'лапк', 'слов', 'цифр', 'соединя', 'тир', 'дефис', 'использ', 'программ', 'типограф', 'изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова', 'виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor', 'цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример', 'новост', 'новост', 'размеща', 'раздел', 'новост', 'см.', 'инструкц', 'при', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'новост', 'выбра', 'оформлен', 'плитк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'новост', 'пол', 'заголовок', 'пример', 'мероприят', 'анонс', 'анонс', 'размеща', 'раздел', 'анонс', 'см.', 'инструкц', 'при', 'анонс', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'мероприят', 'выбра', 'стил', 'карточк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'мероприят', 'пол', 'заголовок', 'пример', 'связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример', 'список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример', 'партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример', 'колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример', 'контент-блок', 'есл', 'необходим', 'разб', 'текст', 'смыслов', 'част', 'налож', 'текст', 'фон', 'цвет', 'картинк', 'воспользова', 'виджет', 'контент-блок', 'перенос', 'виджет', 'добавля', 'цвет', 'картинк', 'внутр', 'перенос', 'виджет', 'котор', 'непосредствен', 'будет', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример', 'соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример', 'плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'мож', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример', 'дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример', 'цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример', 'выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример', 'кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример', 'част', 'задава', 'вопрос', 'есл', 'нужн', 'созда', 'блок', 'част', 'задава', 'вопрос', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'част', 'задава', 'вопрос', 'заполня', 'пол', 'вопрос', 'ответ', 'дал', 'нажима', 'добав', 'откр', 'пол', 'заполня', 'назван', 'кнопк', 'ссылк', 'страниц', 'кнопк', 'должн', 'вест', 'кнопок', 'нескольк', 'кнопк', 'сдела', 'заливк', 'прозрачн', 'пример', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример', 'вкладк', 'есл', 'хот', 'размест', 'информац', 'вид', 'переключа', 'соб', 'блок', 'нужн', 'выбра', 'виджет', 'вкладк', 'дал', 'нажима', 'добав', 'вкладк', 'пол', 'заголовок', 'пиш', 'назван', 'вкладк', 'пуст', 'пол', 'перемеща', 'виджет', 'фрагмент', 'текст', 'заголовк', 'размеща', 'информац', 'пример', 'слайдер', 'инструкц', 'размещен', 'баннер', 'виджет', 'слайдер', 'может', 'прочита']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
@@ -2133,19 +2025,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/landing', 'для', 'вход', 'реж', 'редактирован', 'перейд', 'ссылк', 'редактор', 'главн', 'страниц', 'сайт', 'нажм', 'наверх', 'ссылк', 'дан', 'перейд', 'раздел', 'блок', 'русск', 'верс', 'блоки_англ', 'английск', 'верс']</t>
+          <t>['прост', 'вариант', 'состо', 'текст', 'фонов', 'изображен', 'фон', 'долж', 'так', 'нем', 'чита', 'текст', 'бел', 'цвет', 'фон', 'должн', 'значим', 'элемент', 'котор', 'обреза', 'пересека', 'текст', 'ширин', 'фонов', 'изображен', '1600px', 'картинк', 'обязательн', 'должн', 'оптимизирова', 'https', '//portal.hse.ru/photo']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/landing', 'быстр', 'ссылк', 'шапк', 'мен', 'основн', 'колонк', 'виджет']</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/landing', 'шапк', 'дан', 'раздел', 'редактир', 'размеща', 'шапк', 'сайт', 'картинк', 'заголовок', 'подзаголовок', 'кнопк', 'при', 'выбор', 'картинк', 'шапк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1600', 'пиксел', 'ширин', 'вес', '200-300', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'проект', 'сво', 'фирстил', 'котор', 'долж', 'отраж', 'шапк', 'необходим', 'учитыва', 'требован', 'картинк', 'чтоб', 'шапк', 'отобража', 'главн', 'внутрен', 'страниц', 'сайт', 'нужн', 'зайт', 'раздел', 'шапк', 'втор', 'страниц', 'выбра', 'шапк', 'главн', 'страниц', 'сво', 'шапк', 'обычн', 'показ', 'внутрен', 'страниц', 'сайт', 'использ', 'шапк', 'главн', 'страниц', 'мен', 'отображен', 'мен', 'регулир', 'раздел', 'шапк', 'умолчан', 'мен', 'скрыт', 'есл', 'нужн', 'он', 'показыва', 'выбра', 'хот', 'вывест', 'сниз', 'сверх', 'ест', 'такж', 'опц', 'сдела', 'мен', 'центр', 'сам', 'пункт', 'мен', 'редактир', 'данные-блоки-мен', 'основн', 'колонк', 'основн', 'колонк', 'главн', 'страниц', 'главн', 'раздел', 'котор', 'пользует', 'слев', 'располож', 'набор', 'виджет', 'справ', 'пол', 'виджет', 'нужн', 'перемест', 'располага', 'ваш', 'контент', 'выбира', 'виджет', 'подходя', 'информац', 'котор', 'необходим', 'размест', 'страниц', 'цепля', 'курсор', 'лев', 'колонк', 'тян', 'мышк', 'вправ', 'больш', 'центральн', 'колонк', 'нажима', 'сохран', 'конц', 'страниц', 'обязательн', 'проверя', 'получ', 'текст', 'для', 'размещен', 'текст', 'нужн', 'выбра', 'виджет', 'фрагмент', 'текст', 'заголовк', 'посл', 'вставк', 'текст', 'нужн', 'обязательн', 'выдел', 'нажа', 'панел', 'инструмент', 'кнопк', 'очистк', 'лишн', 'код', 'дал', 'необходим', 'разб', 'текст', 'абзац', 'использова', 'клавиш', 'Enter', 'чтоб', 'текст', 'смотрел', 'браузер', 'удал', 'лишн', 'пробел', 'стоя', 'кавычк', 'елочк', 'лапк', 'слов', 'цифр', 'соединя', 'тир', 'дефис', 'использ', 'программ', 'типограф', 'изображен', 'может', 'размест', 'одиночн', 'изображен', 'фотогалер', 'при', 'загрузк', 'изображен', 'обязательн', 'помн', 'снача', 'необходим', 'оптимизирова', 'виде', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'зат', 'выбира', 'виджет', 'виде', 'став', 'галочк', 'сторон', 'виде', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/pWeQh4ocVUk/', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'копирует', 'оттуд', 'значен', 'embed', 'вставля', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'заголовок', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'чтоб', 'созда', 'якор', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'адрес', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'напр', 'https', '//portal.hse.ru/', 'anchor', 'цветн', 'блок', 'для', 'оформлен', 'контент', 'вид', 'цветн', 'блок', 'нужн', 'выбра', 'одноимен', 'виджет', 'регулирует', 'количеств', 'блок', 'строк', 'нажима', 'кнопк', 'добав', 'открыва', 'окн', 'котор', 'прописыва', 'заголовок', 'ссылк', 'боков', 'мен', 'нужн', 'такж', 'загружа', 'фонов', 'фотограф', 'пример', 'новост', 'новост', 'размеща', 'раздел', 'новост', 'см.', 'инструкц', 'при', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'новост', 'выбра', 'оформлен', 'плитк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'новост', 'пол', 'заголовок', 'пример', 'мероприят', 'анонс', 'анонс', 'размеща', 'раздел', 'анонс', 'см.', 'инструкц', 'при', 'анонс', 'показыва', 'страниц', 'нужн', 'вывест', 'помощ', 'виджет', 'мероприят', 'выбра', 'стил', 'карточк', 'есл', 'хот', 'заголовок', 'раздел', 'вывод', 'нужн', 'вписа', 'слов', 'мероприят', 'пол', 'заголовок', 'пример', 'связа', 'материал', 'есл', 'нужн', 'вынест', 'главн', 'страниц', 'материал', 'котор', 'связа', 'соб', 'какой-т', 'общ', 'тем', 'может', 'воспользова', 'виджет', 'связа', 'материал', 'например', 'нескольк', 'интерв', 'выпускник', 'студент', 'став', 'фотограф', 'предварительн', 'выреза', 'подпис', 'фи', 'м.б.', 'такж', 'кратк', 'заголовок', 'интерв', 'ссылк', 'пример', 'список', 'персон', 'информац', 'персон', 'представ', 'страниц', 'разн', 'способ', 'горизонтальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'вертикальн', 'список', 'перемеща', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'выбира', 'вид', 'список', 'проставля', 'галочк', 'отобража', 'вертикальн', 'списк', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'эт', 'необходим', 'сдела', 'показыва', 'имен', 'кругл', 'фот', 'овальн', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'одиночн', 'кругл', 'больш', 'фот', 'есл', 'нужн', 'размест', 'одиночн', 'больш', 'фот', 'подпис', 'текст', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'одиночн', 'стил', 'больш', 'фот', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'пол', 'описание/контакт', 'добавля', 'необходим', 'информац', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'кругл', 'больш', 'фот', 'колонк', 'есл', 'хот', 'размест', 'нескольк', 'подряд', 'кругл', 'фот', 'колонк', 'перемеща', 'снача', 'виджет', 'строк', 'колонк', 'непосредствен', 'добавля', 'виджет', 'список', 'персон', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'выставля', 'ширин', 'колонк', 'хот', 'персон', 'ряд', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'остальн', 'действ', 'размещен', 'одиночн', 'кругл', 'фот', 'пример', 'карусел', 'есл', 'персон', 'хот', 'выстраива', 'ряд', 'выбира', 'виджет', 'список', 'персон', 'заполня', 'пол', 'заголовок', 'дал', 'выбира', 'вид', 'карусел', 'нажима', 'добав', 'персон', 'есл', 'персон', 'вшэ', 'ввод', 'фи', 'нажима', 'найт', 'выбира', 'нужн', 'сотрудник', 'баз', 'должност', 'ввест', 'вручн', 'выбра', 'предлага', 'списк', 'должност', 'фот', 'ссылк', 'личн', 'страниц', 'подтягива', 'автоматическ', 'есл', 'персон', 'вшэ', 'меня', 'положен', 'вшэ', 'вшэ', 'вручн', 'вписыва', 'фи', 'должност', 'загружа', 'фот', 'посл', 'заливк', 'фот', 'обязательн', 'нажима', 'выреза', 'выбра', 'област', 'фотограф', 'котор', 'показыва', 'страниц', 'есл', 'необходим', 'постав', 'ссылк', 'фи', 'став', 'пол', 'URL', 'пример', 'хронолог', 'помощ', 'виджет', 'хронолог', 'созда', 'таймлайн', 'пошагов', 'инструкц', 'перемеща', 'лев', 'колонк', 'виджет', 'хронолог', 'есл', 'нужн', 'сдела', 'пошагов', 'инструкц', 'став', 'галочк', 'возл', 'слов', 'нумерац', 'выбира', 'цвет', 'дал', 'нажима', 'добав', 'зап', 'появ', 'окн', 'вписыва', 'заголовок', 'текст', 'дал', 'нажима', 'добав', 'зап', 'предел', 'окн', 'есл', 'нужн', 'добав', 'плашк', 'выстраива', 'колонк', 'нажима', 'добав', 'зап', 'внутр', 'окн', 'пример', 'партнер', 'чтоб', 'размест', 'логотип', 'партнер', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'партнер', 'заполн', 'пол', 'заголовок', 'загруз', 'логотип', 'постав', 'ссылк', 'написа', 'назван', 'компании-партнер', 'логотип', 'встают', 'колонк', 'строк', 'пример', 'колонк', 'есл', 'нужн', 'размест', 'информац', 'колонк', 'пожалуйст', 'создава', 'таблиц', 'польз', 'виджет', 'строк', 'колонк', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'дал', 'внутр', 'виджет', 'нужн', 'встав', 'виджет', 'котор', 'будет', 'непосредствен', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример', 'контент-блок', 'есл', 'необходим', 'разб', 'текст', 'смыслов', 'част', 'налож', 'текст', 'фон', 'цвет', 'картинк', 'воспользова', 'виджет', 'контент-блок', 'перенос', 'виджет', 'добавля', 'цвет', 'картинк', 'внутр', 'перенос', 'виджет', 'котор', 'непосредствен', 'будет', 'размеща', 'информац', 'например', 'виджет', 'фрагмент', 'текст', 'заголовк', 'пример', 'соцсет', 'есл', 'необходим', 'размест', 'иконк', 'социальн', 'сет', 'нужн', 'перемест', 'лев', 'колонк', 'виджет', 'соцсет', 'нажа', 'добав', 'зап', 'заполн', 'пол', 'заголовок', 'постав', 'ссылк', 'соцсет', 'такж', 'выбра', 'перечн', 'нужн', 'иконк', 'при', 'необходим', 'иконк', 'располож', 'центр', 'постав', 'соответств', 'галочк', 'пример', 'плашк', 'для', 'выделен', 'значим', 'пункт', 'текст', 'воспользова', 'виджет', 'плашк', 'цифр', 'перемеща', 'виджет', 'центральн', 'колонк', 'заполня', 'пол', 'заголовок', 'раздел', 'выбира', 'цвет', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'нажима', 'добав', 'зап', 'внутр', 'заполня', 'пол', 'заголовок', 'нужн', 'пол', 'текст', 'пример', 'мож', 'сдела', 'плашк', 'цифр', 'став', 'галочк', 'окол', 'нумерац', 'пример', 'плашк', 'постав', 'колонк', 'тогд', 'предварительн', 'нужн', 'перемест', 'виджет', 'строк', 'колонк', 'эт', 'сдела', 'смотр', 'выш', 'перемест', 'виджет', 'плашк', 'цифр', 'пример', 'дат', 'когд', 'нужн', 'красив', 'оформ', 'дат', 'мероприят', 'воспольз', 'виджет', 'связа', 'событ', 'посл', 'перемест', 'виджет', 'нажима', 'добав', 'зап', 'дал', 'заполня', 'пол', 'числ', 'месяц', 'текст', 'есл', 'хот', 'дат', 'стоя', 'стрелк', 'став', 'галочк', 'показыва', 'стрелк', 'пример', 'цифр', 'есл', 'текст', 'нужн', 'размест', 'блок', 'значим', 'цифр', 'выбира', 'виджет', 'цифр', 'дня', 'перемеща', 'выбира', 'цвет', 'цифр', 'текст', 'заполня', 'необходим', 'пол', 'пример', 'выпадайк', 'есл', 'нужн', 'размест', 'раскрыва', 'цветн', 'блок', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'проставля', 'заголовок', 'пол', 'описан', 'став', 'текст', 'котор', 'показыва', 'скрыт', 'текст', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'дал', 'выбира', 'цвет', 'блок', 'пример', 'есл', 'нужн', 'прост', 'сдела', 'выпада', 'список', 'выбира', 'виджет', 'набор', 'выпадайк', 'нажима', 'кнопк', 'добав', 'блок', 'пол', 'заголовок', 'вписыва', 'текст', 'котор', 'будут', 'клика', 'пол', 'открыва', 'текст', 'вписыва', 'текст', 'котор', 'открыва', 'клик', 'пример', 'кнопк', 'есл', 'нужн', 'созда', 'кнопк', 'например', 'регистрац', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'кнопк', 'размеща', 'назван', 'кнопк', 'ссылк', 'страниц', 'котор', 'кнопк', 'должн', 'вест', 'пример', 'част', 'задава', 'вопрос', 'есл', 'нужн', 'созда', 'блок', 'част', 'задава', 'вопрос', 'выбира', 'виджет', 'декоратор', 'выбира', 'опц', 'част', 'задава', 'вопрос', 'заполня', 'пол', 'вопрос', 'ответ', 'дал', 'нажима', 'добав', 'откр', 'пол', 'заполня', 'назван', 'кнопк', 'ссылк', 'страниц', 'кнопк', 'должн', 'вест', 'кнопок', 'нескольк', 'кнопк', 'сдела', 'заливк', 'прозрачн', 'пример', 'чтоб', 'размест', 'вопрос', 'страниц', 'выбра', 'виджет', 'вопрос', 'ответ', 'FAQ', 'нажа', 'добав', 'вопрос', 'заполн', 'пол', 'вопрос', 'ответ', 'пример', 'вкладк', 'есл', 'хот', 'размест', 'информац', 'вид', 'переключа', 'соб', 'блок', 'нужн', 'выбра', 'виджет', 'вкладк', 'дал', 'нажима', 'добав', 'вкладк', 'пол', 'заголовок', 'пиш', 'назван', 'вкладк', 'пуст', 'пол', 'перемеща', 'виджет', 'фрагмент', 'текст', 'заголовк', 'размеща', 'информац', 'пример', 'слайдер', 'инструкц', 'размещен', 'баннер', 'виджет', 'слайдер', 'может', 'прочита']</t>
-        </is>
-      </c>
+          <t>['сложн', 'вариант', 'использ', 'проект', 'сво', 'фирстил', 'баннер/шапк', 'представля', 'композиц', 'меньш', 'основн', 'элемент', 'фон', 'пример', 'заливк', 'цвет', 'паттерн', 'значим', 'текст', 'пример', 'заголовк', 'назван', 'мероприят', 'опциональн', 'кнопк', 'графическ', 'элемент', 'пример', 'логотип', 'иллюстрац', 'фот', 'при', 'подготовк', 'макет', 'важн', 'предусмотрет', 'адаптац', 'размер', 'взаимн', 'расположен', 'основн', 'элемент', 'разн', 'ширин', 'экра', 'макет', 'направля', 'команд', 'порта', '3-х', 'вариант', 'ширин', '375px', 'мобильн', 'устройств', '800px', 'планшет', '1600px', 'ноутбук', 'высот', 'баннер', 'главн', 'страниц', 'порта', '600px', '180px', 'сверх', '80px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон.', 'высот', 'шапк', 'лендинг', '490px', '45px', 'сверх', '50px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон.', 'для', 'верстк', 'сложн', 'вариант', 'баннера/шапк', 'след', 'присла', 'послойн', 'картинк', 'эт', 'означа', 'отдельн', 'элемент', 'лежат', 'разн', 'сло', 'изображен', 'верстальщик', 'использова', 'отдельн', 'друг', 'друг']</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2174,18 +2062,34 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['прост', 'вариант', 'состо', 'текст', 'фонов', 'изображен', 'фон', 'долж', 'так', 'нем', 'чита', 'текст', 'бел', 'цвет', 'фон', 'должн', 'значим', 'элемент', 'котор', 'обреза', 'пересека', 'текст', 'ширин', 'фонов', 'изображен', '1600px', 'картинк', 'обязательн', 'должн', 'оптимизирова', 'https', '//portal.hse.ru/photo']</t>
+          <t>['вход', 'редакторск', 'реж', 'https', '//www.hse.ru/adm/', 'логин', 'парол', 'так', 'ваш', 'личн', 'кабинет', 'елк']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['сложн', 'вариант', 'использ', 'проект', 'сво', 'фирстил', 'баннер/шапк', 'представля', 'композиц', 'меньш', 'основн', 'элемент', 'фон', 'пример', 'заливк', 'цвет', 'паттерн', 'значим', 'текст', 'пример', 'заголовк', 'назван', 'мероприят', 'опциональн', 'кнопк', 'графическ', 'элемент', 'пример', 'логотип', 'иллюстрац', 'фот', 'при', 'подготовк', 'макет', 'важн', 'предусмотрет', 'адаптац', 'размер', 'взаимн', 'расположен', 'основн', 'элемент', 'разн', 'ширин', 'экра', 'макет', 'направля', 'команд', 'порта', '3-х', 'вариант', 'ширин', '375px', 'мобильн', 'устройств', '800px', 'планшет', '1600px', 'ноутбук', 'высот', 'баннер', 'главн', 'страниц', 'порта', '600px', '180px', 'сверх', '80px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон.', 'высот', 'шапк', 'лендинг', '490px', '45px', 'сверх', '50px', 'сниз', 'служебн', 'пол', 'котор', 'размещ', 'фон.', 'для', 'верстк', 'сложн', 'вариант', 'баннера/шапк', 'след', 'присла', 'послойн', 'картинк', 'эт', 'означа', 'отдельн', 'элемент', 'лежат', 'разн', 'сло', 'изображен', 'верстальщик', 'использова', 'отдельн', 'друг', 'друг']</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+          <t>['оформлен', 'главн', 'страниц', 'основн', 'вкладк', 'котор', 'будет', 'работа', 'эт', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'сайт', 'опрос', 'создан', 'форм', 'регистрац', 'мероприят', 'блок', 'основн', 'управлен', 'контент', 'происход', 'вкладк', 'блок', 'блок', 'англ.', 'английск', 'верс', 'сайт', 'чтоб', 'вам', 'легч', 'сориентирова', 'редакторск', 'интерфейс', 'пояснен', 'разн', 'пол', 'внесен', 'информац', 'отмечен', 'звездочк', 'сер', 'шрифт', 'пункт', 'заполня', 'блок', 'прав', 'колонк', 'дан', 'мероприят', 'заголовок', 'рекоменд', 'заполня', 'об', 'верхн', 'пол', 'текст', 'перв', 'строк', 'отобража', 'мелк', 'шрифт', 'тогд', 'текст', 'основн', 'назван', 'мероприят', 'отобража', 'крупн', 'дат', 'мероприятия3', 'кнопк', 'регистрац', 'ссылк', 'регистрац', 'создан', 'форм', 'регистрац', 'ключев', 'дат', 'заполня', 'пол', 'пояснен', 'надп', 'важн', 'дат', 'варьирова', 'усмотрен', 'мест', 'проведен', 'контакт', 'вкладк', 'может', 'заполня', 'использова', 'друг', 'пол', 'врем', 'нача', 'мероприят', 'язык', 'мероприят', 'ссылк', 'карт', 'как', 'добра', 'важн', 'ссылк', 'файл', 'дан', 'будут', 'отобража', 'прав', 'част', 'сайт', 'мен', 'горизонтальн', 'центральн', 'част', 'страниц', 'блок', 'настройк', 'мен', 'необходим', 'созда', 'нов', 'групп', 'внутр', 'групп', 'добав', 'ссылк', 'перв', 'строк', 'назван', 'пункт', 'мен', 'втор', 'ссылк', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'для', 'пункт', 'мен', 'выстраива', 'горизонтальн', 'лин', 'необходим', 'кажд', 'пункт', 'мен', 'создава', 'нов', 'групп', 'при', 'добавлен', 'ссылк', 'то', 'групп', 'след', 'пункт', 'мен', 'располага', 'предыдущ', 'возмож', 'вариант', 'расположен', 'мен', 'прав', 'част', 'сайт', 'дат', 'мероприят', 'см.', 'рисунок', 'ниж', 'логик', 'заполнен', 'редактирован', 'прав', 'част', 'сайт', 'дан', 'пункт', 'внос', 'блок', 'прав', 'колонк', 'дан', 'мероприят', 'важн', 'ссылк']</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['оформлен', 'аннотации/главн', 'страниц', 'сайт', 'мероприят', 'информац', 'котор', 'размеща', 'главн', 'страниц', 'сайт', 'явля', 'ключев', 'должн', 'отража', 'важност', 'проводим', 'мероприят', 'для', 'заполнения/редактирован', 'аннотац', 'необходим', 'зайт', 'редакторск', 'интерфейс', 'главн', 'страниц', 'люб', 'https', '//www.hse.ru/adm/', 'дан', 'либ', 'помощ', 'значк', 'редактор', 'нижн', 'прав', 'угл', 'главн', 'страниц', 'аннотац', 'наход', 'пол', 'подразделен', 'верста', 'аналог', 'верстк', 'текст', 'статическ', 'страниц', 'использован', 'так', 'инструментар']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['оформлен', 'нижн', 'част', 'сайт', 'мероприят', 'вниз', 'главн', 'страниц', 'может', 'размест', 'член', 'программн', 'организацион', 'комитет', 'ключев', 'спикер', 'докладчик', 'партнер', 'пр.', 'фот', 'регал', 'ссылк', 'персон', 'эт', 'дела', 'блок', 'подва', 'участник', 'внутр', 'завод', 'соответств', 'групп', 'ключев', 'спикер', 'например', 'поочередн', 'добавля', 'персон', 'ссылк', 'персональн', 'страниц', 'фотограф', 'сотрудник', 'вышк', 'подгружа', 'автоматическ', 'для', 'персон', 'вшэ', 'может', 'подгружа', 'фот', 'ссылк', 'откр', 'окн', 'вручн', 'аналогичн', 'принцип', 'устро', 'пункт', 'оформлен', 'партнер', 'мероприят', 'блок', 'подва', 'партнер', 'необходим', 'добавля', 'логотип', 'организации-партнер', 'ссылк', 'однак', 'зачаст', 'быва', 'удобн', 'размеща', 'партнер', 'прав', 'част', 'сайт', 'зде', 'снов', 'работа', 'логик', 'работ', 'прав', 'колонк', 'блок', 'прав', 'колонк', 'текстов', 'блок', 'необходим', 'завест', 'нов', 'текстов', 'блок', 'заполн', 'картинками-логотип', 'желан', 'ссылк', 'сайт', 'партнер']</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['оформлен', 'программ', 'мероприят', 'такж', 'вас', 'возможн', 'сверста', 'программ', 'ваш', 'мероприят', 'он', 'располага', 'главн', 'страниц', 'сайт', 'мероприят', 'аннотац', 'дан', 'инструмент', 'наход', 'блок', 'контент', 'расписан', 'мероприят', 'структур', 'программ', 'выстраива', 'пут', 'добавлен', 'пункт', 'добав', 'ден', 'добав', 'мероприят', 'добав', 'событ', 'зависим', 'структур', 'продолжительн', 'ваш', 'мероприят']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['оформлен', 'страниц', 'организацион', 'комитет', 'программн', 'комитет', 'докладчик', 'др.', 'есл', 'реш', 'созда', 'отдельн', 'статическ', 'страниц', 'перечислен', 'член', 'организацион', 'программн', 'комитет', 'докладчик', 'др.', 'вам', 'необходим', 'использова', 'созда', 'составн', 'страниц', 'выбра', 'виджет', 'список', 'персон', 'как', 'эт', 'сдела', 'может', 'прочита', 'инструкц', 'https', '//portal.hse.ru/sostav', 'главн', 'забыва', 'нажима', 'кнопк', 'сохран', 'вниз', 'кажд', 'карточк', 'котор', 'заполня']</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -2211,46 +2115,94 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['вход', 'редакторск', 'реж', 'https', '//www.hse.ru/adm/', 'логин', 'парол', 'так', 'ваш', 'личн', 'кабинет', 'елк']</t>
+          <t>['шаблон', 'сайт', 'образовательн', 'программ', 'шаблон', 'сайт', 'образовательн', 'программ', 'сам', 'сложн', 'портал', 'при', 'формирован', 'страниц', 'использ', 'информац', 'различн', 'баз', 'дан', 'университет', 'аса', 'руз', 'внутрен', 'баз', 'порта', 'поэт', 'случа', 'необходим', 'добавления/корректировк', 'информац', 'необходим', 'правк', 'имен', 'эт', 'баз', 'дан', 'шаблон', 'позволя', 'постав', 'главн', 'страниц', 'сайт', 'люб', 'блок', 'люб', 'последовательн', 'зависим', 'этап', 'приемн', 'кампан', 'при', 'меня', 'информац', 'страниц', 'редактор', 'сайт', 'программ', 'самостоятельн', 'обра', 'помощ', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'исключен', 'аннотац', 'шапк', 'образовательн', 'программ', 'текст', 'вывод', 'баз', 'дан', 'каталог', 'образовательн', 'программ', 'ест', 'возможн', 'созда', 'турбо-верс', 'сайт', 'эт', 'помога', 'существен', 'увелич', 'трафик', 'мобильн', 'устройств', 'размещен', 'SEO-оптимизирова', 'текст', 'SEO', 'search', 'engine', 'optimization', 'главн', 'страниц', 'служ', 'поднят', 'позиц', 'сайт', 'результат', 'выдач', 'поисков', 'сист', 'определен', 'запрос', 'пользовател', 'обрат', 'вниман', 'SEO-оптимизац', 'эт', 'комплекс', 'мероприят', 'продвижен', 'сайт', 'однак', 'наибольш', 'рол', 'игра', 'качествен', 'контент']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['оформлен', 'главн', 'страниц', 'основн', 'вкладк', 'котор', 'будет', 'работа', 'эт', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'сайт', 'опрос', 'создан', 'форм', 'регистрац', 'мероприят', 'блок', 'основн', 'управлен', 'контент', 'происход', 'вкладк', 'блок', 'блок', 'англ.', 'английск', 'верс', 'сайт', 'чтоб', 'вам', 'легч', 'сориентирова', 'редакторск', 'интерфейс', 'пояснен', 'разн', 'пол', 'внесен', 'информац', 'отмечен', 'звездочк', 'сер', 'шрифт', 'пункт', 'заполня', 'блок', 'прав', 'колонк', 'дан', 'мероприят', 'заголовок', 'рекоменд', 'заполня', 'об', 'верхн', 'пол', 'текст', 'перв', 'строк', 'отобража', 'мелк', 'шрифт', 'тогд', 'текст', 'основн', 'назван', 'мероприят', 'отобража', 'крупн', 'дат', 'мероприятия3', 'кнопк', 'регистрац', 'ссылк', 'регистрац', 'создан', 'форм', 'регистрац', 'ключев', 'дат', 'заполня', 'пол', 'пояснен', 'надп', 'важн', 'дат', 'варьирова', 'усмотрен', 'мест', 'проведен', 'контакт', 'вкладк', 'может', 'заполня', 'использова', 'друг', 'пол', 'врем', 'нача', 'мероприят', 'язык', 'мероприят', 'ссылк', 'карт', 'как', 'добра', 'важн', 'ссылк', 'файл', 'дан', 'будут', 'отобража', 'прав', 'част', 'сайт', 'мен', 'горизонтальн', 'центральн', 'част', 'страниц', 'блок', 'настройк', 'мен', 'необходим', 'созда', 'нов', 'групп', 'внутр', 'групп', 'добав', 'ссылк', 'перв', 'строк', 'назван', 'пункт', 'мен', 'втор', 'ссылк', 'страниц', 'создан', 'редактирован', 'статическ', 'страниц', 'для', 'пункт', 'мен', 'выстраива', 'горизонтальн', 'лин', 'необходим', 'кажд', 'пункт', 'мен', 'создава', 'нов', 'групп', 'при', 'добавлен', 'ссылк', 'то', 'групп', 'след', 'пункт', 'мен', 'располага', 'предыдущ', 'возмож', 'вариант', 'расположен', 'мен', 'прав', 'част', 'сайт', 'дат', 'мероприят', 'см.', 'рисунок', 'ниж', 'логик', 'заполнен', 'редактирован', 'прав', 'част', 'сайт', 'дан', 'пункт', 'внос', 'блок', 'прав', 'колонк', 'дан', 'мероприят', 'важн', 'ссылк']</t>
+          <t>['основн', 'контакт', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'получен', 'редакторск', 'прав', 'размещен', 'виде', 'главн', 'страниц', 'налич', 'виде', 'Youtube', 'включен', 'раздел', 'студент', 'выпускник', 'налич', 'наполнен', 'страниц', 'раздел', 'добавлен', 'ссылок', 'пункт', 'мен', 'помечен', 'замочк', 'ссылк', 'общ', 'мен', 'страниц', 'рейтинг', 'общ', 'техническ', 'вопрос', 'редактирован', 'сайт', 'вынесен', 'пункт', 'ниж', 'никитин', 'мар', 'константиновн', 'управлен', 'развит', 'поддержк', 'порта', 'английск', 'верс', 'сайт', 'райа', 'сюзан', 'халилевн', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'раздел', 'руководств', 'руководител', 'менеджер', 'игнатов', 'натал', 'генадиевн', 'центр', 'сервис', 'департамент', 'страниц', 'рейтинг', 'курс', 'преподавател', 'раздел', 'документ', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'управлен', 'развит', 'образовательн', 'программ', 'раздел', 'паспорт', 'образовательн', 'программ', 'аббасов', 'ел', 'сергеевн', 'центр', 'сервис', 'студент', 'страниц', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'редактор', 'подразделен', 'реализ', 'программ', 'размещен', 'анонс', 'шапк', 'программ', 'шишк', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'дирекц', 'маркетингов', 'коммуникац', 'съемк', 'проморолик', 'участ', 'акад', 'руководител', 'размещен', 'проморолик', 'Yоутубе-канал', 'ни', 'вшэ']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['оформлен', 'аннотации/главн', 'страниц', 'сайт', 'мероприят', 'информац', 'котор', 'размеща', 'главн', 'страниц', 'сайт', 'явля', 'ключев', 'должн', 'отража', 'важност', 'проводим', 'мероприят', 'для', 'заполнения/редактирован', 'аннотац', 'необходим', 'зайт', 'редакторск', 'интерфейс', 'главн', 'страниц', 'люб', 'https', '//www.hse.ru/adm/', 'дан', 'либ', 'помощ', 'значк', 'редактор', 'нижн', 'прав', 'угл', 'главн', 'страниц', 'аннотац', 'наход', 'пол', 'подразделен', 'верста', 'аналог', 'верстк', 'текст', 'статическ', 'страниц', 'использован', 'так', 'инструментар']</t>
+          <t>['основн', 'документ', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'бакалавриат', 'магистратур', 'специалитет', 'корпоративн', 'сайт', 'портал', 'национальн', 'исследовательск', 'университет', 'высш', 'школ', 'экономик', 'положен', 'основн', 'образовательн', 'программ', 'высш', 'образован', 'быстр', 'ссылк', 'как', 'нача', 'что', 'дела', 'программ', 'нов', 'сайт', 'как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'структур', 'сайт', 'образовательн', 'программ', 'шапк', 'сайт', 'образовательн', 'программ', 'размещен', 'анонс', 'шапк', 'сайт', 'главн', 'страниц', 'программ', 'верхн', 'мен', 'раздел', 'программ', 'общ', 'мен', 'создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'адрес', 'текстов', 'блок', 'учебн', 'офис', 'социальн', 'кнопк', 'буклет', 'программ', 'турбо-верс', 'английск', 'верс', 'таблиц', 'регистрацион', 'форм']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['оформлен', 'нижн', 'част', 'сайт', 'мероприят', 'вниз', 'главн', 'страниц', 'может', 'размест', 'член', 'программн', 'организацион', 'комитет', 'ключев', 'спикер', 'докладчик', 'партнер', 'пр.', 'фот', 'регал', 'ссылк', 'персон', 'эт', 'дела', 'блок', 'подва', 'участник', 'внутр', 'завод', 'соответств', 'групп', 'ключев', 'спикер', 'например', 'поочередн', 'добавля', 'персон', 'ссылк', 'персональн', 'страниц', 'фотограф', 'сотрудник', 'вышк', 'подгружа', 'автоматическ', 'для', 'персон', 'вшэ', 'может', 'подгружа', 'фот', 'ссылк', 'откр', 'окн', 'вручн', 'аналогичн', 'принцип', 'устро', 'пункт', 'оформлен', 'партнер', 'мероприят', 'блок', 'подва', 'партнер', 'необходим', 'добавля', 'логотип', 'организации-партнер', 'ссылк', 'однак', 'зачаст', 'быва', 'удобн', 'размеща', 'партнер', 'прав', 'част', 'сайт', 'зде', 'снов', 'работа', 'логик', 'работ', 'прав', 'колонк', 'блок', 'прав', 'колонк', 'текстов', 'блок', 'необходим', 'завест', 'нов', 'текстов', 'блок', 'заполн', 'картинками-логотип', 'желан', 'ссылк', 'сайт', 'партнер']</t>
+          <t>['как', 'нача', 'есл', 'ран', 'работа', 'сайт', 'образовательн', 'программ', 'т.ч.', 'предыдущ', 'верс', 'получ', 'прав', 'редактор', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'указа', 'ссылк', 'сайт', 'программ', 'котор', 'необходим', 'доступ', 'для', 'получен', 'редакторск', 'доступ', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'порта', 'заявк', 'присыла', 'одн', 'письм']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['оформлен', 'программ', 'мероприят', 'такж', 'вас', 'возможн', 'сверста', 'программ', 'ваш', 'мероприят', 'он', 'располага', 'главн', 'страниц', 'сайт', 'мероприят', 'аннотац', 'дан', 'инструмент', 'наход', 'блок', 'контент', 'расписан', 'мероприят', 'структур', 'программ', 'выстраива', 'пут', 'добавлен', 'пункт', 'добав', 'ден', 'добав', 'мероприят', 'добав', 'событ', 'зависим', 'структур', 'продолжительн', 'ваш', 'мероприят']</t>
+          <t>['что', 'дела', 'программ', 'нов', 'сайт', 'сайт', 'открыва', 'программ', 'утвержден', 'учен', 'совет', 'вшэ', 'контент', 'сайт', 'нача', 'готов', 'заран', 'как', 'материал', 'нужн', 'открыт', 'сайт', 'базов', 'верс', 'точн', 'назван', 'программ', 'русск', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'аннотац', 'шапк', 'программ', '500', 'знак', 'программ', 'реализуем', 'английск', 'язык', 'русск', 'английск', 'контакт', 'адрес', 'указан', 'город', 'телефон', 'e-mail', 'ком', 'предостав', 'редакторск', 'прав', 'сотрудник', 'долж', 'откр', 'доступ', 'личн', 'кабинет', 'портал']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['оформлен', 'страниц', 'организацион', 'комитет', 'программн', 'комитет', 'докладчик', 'др.', 'есл', 'реш', 'созда', 'отдельн', 'статическ', 'страниц', 'перечислен', 'член', 'организацион', 'программн', 'комитет', 'докладчик', 'др.', 'вам', 'необходим', 'использова', 'созда', 'составн', 'страниц', 'выбра', 'виджет', 'список', 'персон', 'как', 'эт', 'сдела', 'может', 'прочита', 'инструкц', 'https', '//portal.hse.ru/sostav', 'главн', 'забыва', 'нажима', 'кнопк', 'сохран', 'вниз', 'кажд', 'карточк', 'котор', 'заполня']</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+          <t>['как', 'подготов', 'SEO-оптимизирова', 'текст', 'сайт', 'необходим', 'определ', 'готов', 'самостоятельн', 'подготов', 'текст', 'техническ', 'задан', 'получен', 'управлен', 'развит', 'поддержк', 'порта', 'нужн', 'услуг', 'копирайтер', 'порта', 'втор', 'случа', 'срок', 'подготовк', 'текст', 'будут', 'зависет', 'общ', 'загружен', 'внешн', 'копирайтер', 'порта', 'работ', 'подготовк', 'текст', 'начина', 'получен', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'заявк', 'подготовк', 'техническ', 'задан', 'копирайтер', 'эт', 'необходим', 'текст', 'сайт', 'заявк', 'необходим', 'указа', 'адрес', 'сайт', 'нов', 'программ', 'прилож', 'письм', 'концепц', 'программ', 'описан', 'курс', 'проч.', 'документ', 'основ', 'котор', 'состав', 'представлен', 'содержан', 'программ', 'обрат', 'вниман', 'налич', 'SEO-оптимизирова', 'текст', 'сайт', 'программ', 'учитыва', 'KPI', 'декан', 'ежегодн', 'проверк', 'сайт', 'котор', 'обычн', 'проход', 'ноябре-декабр', 'есл', 'программ', 'англоязычн', 'SEO-оптимизац', 'обязательн', 'порядк', 'подлежат', 'такж', 'текст', 'английск', 'верс', 'сайт']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>['структур', 'сайт', 'образовательн', 'программ', 'сайт', 'имеет', 'жестк', 'структур', 'мен', 'назван', 'раздел', 'измен', 'главн', 'страниц', 'абитуриент', 'программ', 'ведущ', 'набор', 'текущ', 'год', 'студент', 'программ', 'имеющ', 'студент', 'выпускник', 'программ', 'имеющ', 'выпускник', 'открыва', 'желан', 'программ', 'обязательн', 'подраздел', 'мен', 'определя', 'стандарт', 'оформлен', 'наполнен', 'интернет-страниц', 'сайт', 'образовательн', 'программ', 'есл', 'программ', 'необходим', 'завест', 'страниц', 'пункт', 'мен', 'определен', 'стандарт', 'сдела', 'эт', 'самостоятельн', 'все', 'страниц', 'созда', 'редактор', 'сайт', 'самостоятельн', 'никак', 'запрет', 'эт', 'требован', 'содержан', 'сайт', 'определ', 'закон', 'образован', 'локальн', 'акт', 'университет']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['шапк', 'сайт', 'образовательн', 'программ', 'шапк', 'образовательн', 'программ', 'размеща', 'аннотац', 'программ', 'объем', '500', 'знак', 'текст', 'аннотац', 'присыла', 'представител', 'программ', 'размеща', 'внос', 'правк', 'текст', 'просьб', 'служб', 'поддержк', 'порта', 'кнопк', 'обратн', 'связ', 'например', 'зада', 'вопрос', 'программ', 'опросн', 'форм', 'созда', 'размеща', 'кнопк', 'шапк', 'служб', 'поддержк', 'порта', 'чтоб', 'ознаком', 'инструкц', 'создан', 'опросн', 'форм', 'перейд', 'ссылк', 'https', '//portal.hse.ru/poll', 'тизер', 'очен', 'важн', 'анонс', 'обычн', 'анонс', 'дня', 'открыт', 'двер', 'размещен', 'тизер', 'шапк', 'сайт', 'перед', 'размест', 'тизер', 'шапк', 'образовательн', 'программ', 'необходим', 'размест', 'непосредствен', 'анонс', 'подробн', 'размещен', 'анонс', 'сам', 'тизер', 'шапк', 'добавля', 'сайт', 'программ', 'сайт', 'подразделен', 'котор', 'реализ', 'программ', 'для', 'необходим', 'войт', 'редактор', 'дан', 'блоки→', 'образовательн', 'программ', 'проставля', 'дат', 'событ', 'заголовок', 'заголовк', 'прописыва', 'назван', 'например', 'ден', 'открыт', 'двер', 'дополнительн', 'прописыва', 'дат', 'назван', 'программ', 'нужн', 'ссылк', 'анонс', 'обязательн', 'став', 'галочк', 'активн', 'проставля', 'дат', 'котор', 'тизер', 'отобража', 'программ', 'посл', 'клика', 'выбра', 'образовательн', 'программ', 'откроет', 'список', 'всем', 'программ', 'бакалаврск', 'магистерск', 'котор', 'реализ', 'подразделен', 'проставля', 'галк', 'напрот', 'нужн', 'сохраня']</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>['главн', 'страниц', 'программ', 'главн', 'страниц', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'при', 'открыт', 'сайт', 'служб', 'поддержк', 'порта', 'созда', 'базов', 'структур', 'страниц', 'поэт', 'нул', 'работа', 'не', 'придет', 'как', 'элемент', 'страниц', 'открыт', 'сайт', 'метаинформац', 'основн', 'дан', 'программ', 'соста', 'элемент', 'блок', 'неизмен', 'для', 'русск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'количеств', 'мест', 'язык', 'обучен', 'информац', 'аккредитац', 'английск', 'верс', 'эт', 'срок', 'обучен', 'форм', 'обучен', 'стоимост', 'обучен', 'язык', 'обучен', 'информац', 'аккредитац', 'все', 'дан', 'вывод', 'баз', 'дан', 'порта', 'котор', 'внос', 'утвержден', 'учен', 'совет', 'университет', 'случа', 'обнаружен', 'ошибк', 'напиш', 'portal', 'hse.ru', 'предварительн', 'провер', 'дан', 'сайт', 'программ', 'действительн', 'отлича', 'официальн', 'дан', 'сайт', 'приемн', 'комисс', 'бакалавриат', 'магистратур', 'есл', 'согласн', 'информац', 'эт', 'сайт', 'обраща', 'коллег', 'приемн', 'комисс', 'исключен', 'составля', 'информац', 'международн', 'аккредитац', 'профессионально-обществен', 'аккредитац', 'независим', 'оценк', 'качеств', 'образован', 'налич', 'дан', 'информац', 'размеща', 'прав', 'редактор', 'сайт', 'раздел', 'дан', 'блок', 'аккредитац', 'дан', 'стоимост', 'показыва', 'английск', 'верс', 'вид', 'диапазон', 'цен', 'случа', 'точн', 'дан', 'стипенд', 'иностранц', 'зависим', 'получен', 'балл', 'есл', 'программ', 'особ', 'услов', 'предоставлен', 'скидок', 'умолчан', 'сто', 'полн', 'стоимост', 'программ', 'письм', 'адрес', 'служб', 'поддержк', 'portal', 'hse.ru', 'добавл', 'примечан', 'особ', 'услов', 'предоставлен', 'скидок', 'формулировк', 'HSE', 'Scholarships', 'for', 'International', 'Applicants', 'университеты-партнер', 'образовательн', 'программ', 'дан', 'вывод', 'баз', 'порта', 'есл', 'хот', 'поменя', 'добав', 'партнер', 'portal', 'hse.ru', 'нужн', 'присла', 'назван', 'университет', 'ссылк', 'сайт', 'логотип', 'максимальн', 'числ', 'партнер', 'главн', 'есл', 'необходим', 'показа', 'возможн', 'партнерск', 'отношен', 'эт', 'необходим', 'сдела', 'отдельн', 'страниц', 'партнер', 'Partners', 'раздел', 'главн', 'подробн', 'см.', 'стандарт', 'информац', 'раскрыва', 'блок', 'редактирован', 'блок', 'осуществля', 'раздел', 'дан', 'блок', 'главн', 'страниц', 'информац', 'аккордеон', 'блок', 'использ', 'формирован', 'турбо-верс', 'поэт', 'подразумева', 'добавлен', 'графическ', 'информац', 'затрудня', 'загрузк', 'страниц', 'мобильн', 'устройств', 'обычн', 'раздел', 'сто', 'SEO-оптимизирова', 'текст.', 'виде', 'опциональн', 'главн', 'страниц', 'программ', 'размест', 'проморолик', 'выступлен', 'академическ', 'руководител', 'статистик', 'просмотр', 'видеоролик', 'посмотрет', 'обычн', 'работ', 'съемк', 'видеоролик', 'организ', 'реализ', 'подразделен', 'самостоятельн', 'случа', 'невозможн', 'снят', 'виде', 'сил', 'подразделен', 'обрат', 'дирекц', 'маркетингов', 'коммуникац', 'продвижен', 'шишков', 'олег', 'геннадьевич', 'рзаев', 'карин', 'закировн', 'есл', 'программ', 'готов', 'ролик', 'необходим', 'зал', 'YоуTубе-кана', 'подразделен', 'YоуTубе-кана', 'университет', 'последн', 'случа', 'обрат', 'семенов', 'алин', 'викторовн', 'для', 'размещен', 'проморолик', 'сайт', 'программ', 'пришл', 'ссылк', 'YouTube', 'адрес', 'служб', 'поддержк', 'порта', 'portal', 'hse.ru', 'важн', 'объявлен', 'использ', 'акцентирован', 'важн', 'событий/нов', 'программ', 'помн', 'важн', 'объявлен', 'должн', 'содержа', 'символ', 'он', 'занима', 'одн', 'строк', 'экран', 'все', 'подробн', 'перечисля', 'ссылк', 'важн', 'объявлен', 'одн', 'максимум', 'нужн', 'размеща', 'важн', 'объявлен', 'ссылк', 'мероприят', 'использ', 'функциона', 'анонс', 'важн', 'объявлен', 'оформля', 'ссылк', 'отдельн', 'страниц', 'сам', 'программ', 'люб', 'страниц', 'порта', 'внешн', 'ресурс', 'дан', 'редактир', 'раздел', 'дан', 'блок', 'важн', 'объявлен', 'нажм', 'важн', 'объявлен', 'добав', 'объявлен', 'заполня', 'пол', 'текст', 'пол', 'ссылк', 'добавьт', 'адрес', 'страниц', 'котор', 'перенаправл', 'пользовател', 'нажат', 'текст', 'объявлен', 'информац', 'пол', 'дат', 'отобража', 'лев', 'ссылк', 'объявлен', 'подход', 'уточнен', 'времен', 'событ', 'размещен', 'объявлен', 'пол', 'заполня', 'посл', 'обязательн', 'поставьт', 'галк', 'объявлен', 'активн', 'пол', 'укаж', 'дат', 'котор', 'дан', 'объявлен', 'вывод', 'главн', 'страниц', 'программ', 'нажима', 'сохран', 'объявлен', 'добавл', 'мероприят', 'раздел', 'анонсы/мероприят', 'эт', 'раздел', 'котор', 'предусмотр', 'кажд', 'образовательн', 'программ', 'располага', 'адрес', '/announcements', 'раздел', 'мероприят', 'анонс', 'предусмотр', 'анонсирован', 'предстоя', 'событ', 'значим', 'все', 'программ', 'цел', 'например', 'предстоя', 'лекция/мастер-класс', 'учен', 'цикл', 'лекций/семинар', 'конференц', 'конкурс', 'студент', 'зимние/летн', 'школ', 'встреч', 'работодател', 'дни', 'открыт', 'двер', 'защит', 'предзащит', 'все', 'значим', 'студент', 'абитуриент', 'программ', 'зде', 'могут', 'размещ', 'объявлен', 'конкурс', 'грант', 'приглашен', 'летние/зимн', 'школ', 'мероприят', 'определен', 'срок', 'подач', 'заявок', 'при', 'добавлен', 'анонс', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'можн', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'сообщен', 'инструкц', 'размещен', 'анонс', 'наход', 'адрес', 'https', '//portal.hse.ru/instann', 'анонсирован', 'дне', 'открыт', 'двер', 'как', 'необходим', 'размеща', 'информац', 'сайт', 'факультет', 'образовательн', 'программ', 'случа', 'ден', 'открыт', 'двер', 'провод', 'сраз', 'нескольк', 'образовательн', 'программ', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'посл', 'сайт', 'факультет', 'необходим', 'размест', 'ссылк', 'анонс', 'котор', 'вывод', 'шапк', 'образовательн', 'программ', 'вид', 'тизер', 'обрат', 'вниман', 'назван', 'анонс', 'должн', 'представля', 'соб', 'развернут', 'предложен', 'достаточн', 'прост', 'написа', 'ден', 'открыт', 'двер', 'дополнительн', 'анонс', 'дня', 'открыт', 'двер', 'размест', 'анонс', 'раздел', 'главн', 'абитуриент', 'сайт', 'образовательн', 'программ', 'полност', 'копирова', 'анонс', 'мероприят', 'сайт', 'программ', 'такж', 'нужн', 'достаточн', 'воспользова', 'функционал', 'размест', 'подразделен', 'выбер', 'вариант', 'ссылк', 'оригинальн', 'анонс', 'есл', 'ден', 'открыт', 'двер', 'провод', 'одн', 'программ', 'анонс', 'размеща', 'непосредствен', 'сайт', 'соответств', 'программ', 'раздел', 'главн', 'абитуриент', 'такж', 'анонс', 'размеща', 'сайт', 'факультет', 'раздел', 'анонс', 'мероприят', 'для', 'использ', 'функциона', 'размест', 'подразделен', 'случа', 'мероприят', 'обширн', 'программ', 'например', 'https', '//www.hse.ru/dod2021', 'мероприят', 'созда', 'отдельн', 'ресурс', 'случа', 'размещен', 'анонс', 'сайт', 'факультет', 'программ', 'такж', 'тизер', 'став', 'гиперссылк', 'сайт', 'мероприят', 'обычн', 'случа', 'реч', 'идет', 'факультетск', 'дне', 'открыт', 'двер', 'котор', 'инач', 'присутств', 'программ', 'для', 'создан', 'страниц', 'нужн', 'отправ', 'запрос', 'адрес', 'portal', 'hse.ru', 'прилож', 'письм', 'наполнен', 'сайт', 'новост', 'раздел', 'новост', 'предусматрива', 'размещен', 'развернут', 'материал', 'прошедш', 'состоя', 'событ', 'зде', 'например', 'могут', 'размещ', 'новост', 'имен', 'прошл', 'событ', 'анонсируем', 'мероприят', 'информац', 'студент', 'выигра', 'какие-либ', 'олимпиады/грант', 'заключен', 'договор', 'иностра', 'университет', 'программ', 'обм', 'исследован', 'каса', 'тематик', 'программ', 'поздравлен', 'значим', 'событиями/достижениями…', 'при', 'добавлен', 'новост', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'так', 'раздел', 'четыр', 'главн', 'абитуриент', 'студент', 'выпускник', 'выбра', 'нескольк', 'раздел', 'нужн', 'проставля', 'сраз', 'раздел', 'подума', 'ког', 'действительн', 'актуальн', 'ин', 'новост', 'случа', 'выбра', 'раздел', 'программ', 'добавлен', 'информац', 'отобража', 'сайт', 'программ', 'инструкц', 'размещен', 'новост', 'похож', 'программ', 'вниз', 'главн', 'страниц', 'программ', 'вывод', 'список', 'программ', 'реализуем', 'вшэ', 'так', 'направлен', 'обучен', 'однак', 'список', 'отобража', 'программ', 'измен', 'редактирован', 'дан', 'блок', 'бакалаврск', 'программ', 'друг', 'образовательн', 'программ', 'для', 'изменен', 'списк', 'программ', 'заход', 'друг', 'образовательн', 'программ', 'нажима', 'добав', 'откр', 'окн', 'ввод', 'назван', 'программ', 'нажима', 'найт', 'результат', 'поиск', 'выбира', 'нужн', 'программ', 'клика', 'ок.', 'посл', 'добавл', 'хот', 'одн', 'программ', 'дан', 'блок', 'главн', 'страниц', 'пропадут', 'программ', 'котор', 'вывод', 'автоматическ', 'будут', 'вывод', 'котор', 'зада', 'вручн', 'блок', 'друг', 'образовательн', 'программ', 'вокруг', 'социальн', 'блок', 'есл', 'страниц', 'ваш', 'профил', 'социальн', 'сет', 'идет', 'активн', 'жизн', 'социальн', 'сет', 'материал', 'интересн', 'абитуриент', 'студент', 'программ', 'ссылк', 'актуальн', 'пост', 'запис', 'вывод', 'непосредствен', 'главн', 'страниц', 'программ', 'для', 'предусмотр', 'блок', 'вокруг', 'обрат', 'вниман', 'добавля', 'ссылк', 'кажд', 'нов', 'интересн', 'пост', 'убира', 'неактуальн', 'пост', 'необходим', 'вручн', 'раздел', 'блок', 'выбира', 'вокруг', 'социальн', 'блок', 'добавля', 'заголовок', 'блок', 'добавля', 'запис', 'заполн', 'необходим', 'пол', 'посл', 'проставля', 'галк', 'включ', 'нажима', 'сохран', 'обновля', 'главн', 'страниц', 'кнопк', 'клавиатур', 'проверя', 'отобраз', 'блок', 'социальн', 'сет', 'мен', 'прав', 'колонк', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'мен', 'главн', 'страниц', 'может', 'дублирова', 'пункт', 'мен', 'раздел', 'главн', 'содержа', 'какие-т', 'друг', 'важн', 'пункт', 'усмотрен', 'программ', 'заполня', 'менеджер', 'программ', 'отобража', 'главн', 'страниц', 'сайт', 'программ', 'одн', 'сам', 'кликабельн', 'мест', 'справ', 'верхн', 'част', 'главн', 'страниц', 'руководств', 'программ', 'руководител', 'менеджер', 'раздел', 'редактир', 'центр', 'поддержк', 'мониторинг', 'образовательн', 'программ', 'вопрос', 'внесен', 'изменен', 'необходим', 'обраща', 'сюзан', 'райа']</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>['верхн', 'мен', 'раздел', 'программ', 'верхн', 'мен', 'наход', 'раздел', 'программ', 'абитуриент', 'студент', 'выпускник', 'чтоб', 'попаст', 'главн', 'страниц', 'кажд', 'раздел', 'необходим', 'щелкнут', 'назван', 'вкладк', 'раздел', 'программ', 'абитуриент', 'появля', 'мен', 'мер', 'наполнен', 'раздел', 'блок', 'главн', 'административн', 'интерфейс', 'раздел', 'студент', 'выпускник', 'программ', 'включаеют', 'отключа', 'служб', 'поддержк', 'порта', 'есл', 'программ', 'необходим', 'включ', 'отключ', 'раздел', 'студент', 'и/', 'выпускник', 'пиш', 'portal', 'hse.ru', 'раздел', 'программ', 'дан', 'раздел', 'размеща', 'общ', 'информац', 'программ', 'раздел', 'программ', 'должн', 'вход', 'след', 'пункт', 'программ', 'статстраниц', 'техническ', 'имен', 'about', 'специализац', 'налич', 'специализац', 'добавля', 'подпункт', 'мен', 'партнер', 'статстраниц', 'техническ', 'имен', 'partners', 'рассказ', 'партнер', 'программ', 'зарубежн', 'российск', 'внутрен', 'подразделен', 'вшэ', 'относя', 'факультет', 'пункт', 'явля', 'обязательн', 'достижен', 'студент', 'статстраниц', 'техническ', 'имен', 'success', 'пункт', 'созда', 'случа', 'программ', 'готов', 'дела', 'сводн', 'текст', 'достижен', 'студент', 'вест', 'статистик', 'пункт', 'явля', 'обязательн', 'выпускник', 'статстраниц', 'техническ', 'имен', 'alumni', 'страниц', 'рассказыва', 'выпускник', 'программ', 'привод', 'статистик', 'пункт', 'явля', 'обязательн', 'научно-исследовательск', 'семинар', 'статстраниц', 'техническ', 'имен', 'seminar', 'пункт', 'явля', 'обязательн', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'главн', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'раздел', 'абитуриент', 'набор', 'раздел', 'абитуриент', 'доступ', 'ссылк', '/admission', 'центральн', 'част', 'дан', 'раздел', 'составля', 'паспорт', 'программ', 'такж', 'страниц', 'вывод', 'виде', 'программ', 'новост', 'мероприят', 'важн', 'объявлен', 'налич', 'вся', 'информац', 'представлен', 'паспорт', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'размещен', 'некорректн', 'информац', 'необходим', 'отправ', 'запрос', 'внесен', 'изменен', 'portal', 'hse.ru', 'раздел', 'абитуриент', 'вход', 'след', 'обязательн', 'пункт', 'траектор', 'поступлен', 'статстраниц', 'техническ', 'имен', 'tracks', 'будущ', 'професс', 'статстраниц', 'техническ', 'имен', 'career', 'подготовк', 'статстраниц', 'техническ', 'имен', 'requirements', 'важн', 'указа', 'статическ', 'страниц', 'имеют', 'одинаков', 'техническ', 'им', 'русскоязычн', 'англоязычн', 'верс', 'программ', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'абитурент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'раздел', 'студент', 'студент', 'раздел', 'студент', 'программ', 'доступ', 'ссылк', '/students', 'нем', 'обязательн', 'представл', 'мен', 'предусмотрен', 'программ', 'верхн', 'сер', 'блок', 'доск', 'объявлен', 'при', 'налич', 'программ', 'новост', 'мероприят', 'ориентирова', 'студент', 'такж', 'вывод', 'главн', 'страниц', 'раздел', 'студент', 'сер', 'блок', 'сер', 'блок', 'вынос', 'тематическ', 'ссылк', 'сред', 'котор', 'обязательн', 'котор', 'программ', 'добав', 'сам', 'существ', 'ограничен', 'скольк', 'добав', 'ссылок', 'блок', 'блок', 'ссылок', 'для', 'кажд', 'филиа', 'набор', 'ссылок', 'сво', 'ссылк', 'умолчан', 'программ', 'блок', 'студенческ', 'жизн', 'студенческ', 'организац', 'вшэ', 'https', '//studlife.hse.ru/studentlife', 'спорт', 'http', '//sport.hse.ru/', 'студенческ', 'совет', 'вшэ', 'http', '//studsovet.hse.ru/', 'центр', 'развит', 'карьер', 'http', '//career.hse.ru/', 'блок', 'социальн', 'сфер', 'стипенд', 'http', '//www.hse.ru/scholarships/', 'социальн', 'поддержк', 'http', '//www.hse.ru/org/hse/aup/social/', 'служб', 'психологическ', 'помощ', 'http', '//www.hse.ru/cpc/studenti', 'общежит', 'http', '//www.hse.ru/dormitory/', 'блок', 'информацион', 'сред', 'LMS', 'http', '//lms.hse.ru/', 'антиплагиат', 'http', '//www.hse.ru/org/hse/antiplagiat_info/', 'справочник', 'учебн', 'процесс', 'http', '//www.hse.ru/studyspravka/', 'библиотек', 'http', '//library.hse.ru/', 'кажд', 'колонок', 'редактир', 'соответств', 'раздел', 'блок', 'пункт', 'колонок', 'котор', 'явля', 'обязательн', 'программ', 'отобража', 'редакторск', 'интерфейс', 'программ', 'редактир', 'служб', 'поддержк', 'порта', 'случа', 'назван', 'пункт', 'меня', 'программ', 'сраз', 'редакторск', 'интерфейс', 'программ', 'отобража', 'пункт', 'колонок', 'котор', 'менеджер', 'программ', 'добавляют/редактир', 'самостоятельн', 'раздел', 'студент', 'вход', 'след', 'обязательн', 'пункт', 'рейтинг', 'автоматическ', 'страниц', 'техническ', 'имен', 'ratings', 'курс', 'выбор', 'проектн', 'работ', 'http', '//electives.hse.ru/', 'рекомендова', 'онлайн-курс', 'MOOCs', 'статстраниц', 'техническ', 'имен', 'moocs', 'студенческ', 'мобильн', 'cтажировк', 'программ', 'обмен', 'проч.', 'статстраниц', 'техническ', 'имен', 'mobility', 'практическ', 'подготовк', 'статстраниц', 'техническ', 'имен', 'internships', 'каталог', 'вкр', 'автоматическ', 'страниц', 'техническ', 'имен', 'diplomas', 'итогов', 'аттестац', 'актуальн', 'статстраниц', 'техническ', 'имен', 'assessment', 'страниц', 'рейтинг', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/ратингс', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'страниц', 'каталог', 'вкр', 'формир', 'автоматическ', 'основ', 'дан', 'LMS', 'статическ', 'страниц', 'раздел', 'создава', 'нужн', 'страниц', 'доступн', 'адрес', 'адрес', 'программы/дипломас', 'раздел', 'редактир', 'редактор', 'блок', 'образовательн', 'программ', 'нов', 'мен', 'студент', 'создан', 'статическ', 'страниц', 'дела', 'пункт', 'мен', 'помеч', 'замочк', 'доск', 'объявлен', 'доск', 'объявлен', 'доступн', 'адрес', '/blackboard', 'использ', 'коротк', 'объявлен', 'текущ', 'учебн', 'процесс', 'изменен', 'расписан', 'отм', 'перенос', 'занят', 'вопрос', 'подготовк', 'письмен', 'работ', 'консультац', 'экзамен', 'разнообразн', 'оповещен', 'справк', 'пр.', 'подробн', 'инструкц', 'настройк', 'работ', 'доск', 'объявлен', 'представл', 'раздел', 'выпускник', 'информац', 'выпускник', 'раздел', 'отобража', 'верхн', 'мен', 'программ', 'случа', 'заполн', 'страниц', 'относя', 'раздел', 'мен', 'выпускник', 'проставл', 'ссылк', 'дан', 'страниц', 'непосредствен', 'главн', 'страниц', 'раздел', 'могут', 'располага', 'новост', 'анонс', 'раздел', 'могут', 'вход', 'след', 'пункт', 'ваканс', 'клуб', 'выпускников/встреч', 'выпускник', 'пожертвован', 'фонд', 'целев', 'капита', 'мен', 'раздел', 'редактир', 'редактор', 'блок', 'нов', 'мен', 'выпускник']</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>['общ', 'мен', 'показыва', 'прав', 'колонк', 'страниц', 'сайт', 'программ', 'чтоб', 'вывест', 'пункт', 'сайт', 'нужн', 'написа', 'portal', 'hse.ru', 'предварительн', 'необходим', 'провер', 'показыва', 'информац', 'соответств', 'страниц', 'учебн', 'курс', 'страниц', 'генерир', 'автоматическ', 'адрес', '/courses', 'основ', 'дан', 'LMS', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'преподавател', 'страниц', 'генерир', 'автоматическ', 'адрес', '/tutors', 'основ', 'дан', 'нагрузк', 'преподавател', 'аса', 'есл', 'страниц', 'отобража', 'некорректн', 'дан', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'игнатов', 'натал', 'генадиевн', 'числ', 'студент', 'вакантн', 'бюджетн', 'мест', 'автоматическ', 'страниц', 'доступн', 'адрес', '/vacant', 'дан', 'внос', 'редакторск', 'интерфейс', 'для', 'главн', 'страниц', 'сайт', 'программ', 'необходим', 'зайт', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'дан', 'бюджетн', 'вакантн', 'мест', 'есл', 'дан', 'обновл', 'показыва', 'некорректн', 'необходим', 'обрат', 'дирекц', 'основн', 'образовательн', 'программ', 'аббасов', 'елен', 'сергеевн', 'информац', 'обновля', 'мен', 'четырех', 'год.', 'документ', 'раздел', 'располага', 'адрес', '/documents', 'част', 'документ', 'вывод', 'страниц', 'автоматическ', 'аса', 'част', 'внос', 'менеджер', 'структур', 'документ', 'образовательн', 'программ', 'выгляд', 'след', 'образ', 'включа', 'паспорт', 'образовательн', 'программ', 'изменя', 'част', 'документ', 'образовательн', 'программ', 'учебн', 'план', 'образовательн', 'программ', 'календарн', 'учебн', 'график', 'документ', 'автоматическ', 'загружа', 'аса', 'оценочн', 'материал', 'методическ', 'материал', 'ин', 'компонент', 'образовательн', 'программ', 'заполня', 'ответствен', 'программ', 'редактирован', 'страниц', 'образовательн', 'программ', 'инструкц', 'заполнен', 'раздел', 'документ', 'для', 'внесен', 'информац', 'раздел', 'документ', 'зайт', 'сайт', 'сво', 'образовательн', 'программ', 'дал', 'редактор', 'блок', 'раздел', 'документ', 'образовательн', 'программ', 'при', 'нажат', 'раздел', 'документ', 'откроет', 'так', 'окн', 'программ', 'практик', 'ссылк', 'страниц', 'описан', 'практик', 'добавля', 'самостоятельн', 'оценочн', 'материал', 'образовательн', 'программ', 'нажима', 'кнопк', 'добав', 'размеща', 'ссылк', 'имеющ', 'документ', 'необходим', 'например', 'программ', 'госэкзам', 'методическ', 'рекомендац', 'подготовк', 'вкр', 'ссылк', 'файл', 'добавля', 'обязательн', 'методическ', 'материал', 'образовательн', 'программ', 'могут', 'добавля', 'требован', 'организац', 'результат', 'проектн', 'научно-исследовательск', 'деятельн', 'студент', 'ссылк', 'файл', 'методическ', 'рекомендац', 'подготовк', 'курсов', 'работ', 'ссылк', 'файл', 'перечен', 'вкр', 'ссылк', 'баз', 'вкр', 'прошл', 'лет', 'выпуск', 'прикреп', 'файл', 'примерн', 'тем', 'вкр', 'обязательн', 'тем', 'вкр', 'котор', 'ин', 'компонент', 'образовательн', 'программ', 'добавля', 'ссылк', 'имеющ', 'документ', 'перечен', 'курсов', 'работ', 'предусмотр', 'прикрепля', 'файл', 'пример', 'курсов', 'перечен', 'тематик', 'проект', 'студент', 'предусмотр', 'прикрепля', 'файл', 'пример', 'проект', 'инструкц', 'заполнен', 'паспорт', 'образовательн', 'программ', 'необходим', 'зайт', 'порта', 'страниц', 'сво', 'образовательн', 'программ', 'качеств', 'редактор', 'дал', 'блок', 'паспорт', 'программ', 'приступа', 'заполнен', 'раздел', 'паспорт', 'пол', 'утвержден', 'программ', 'должн', 'пол', 'реквизит', 'документ', 'утверд', 'программ', 'например', 'приказ', '15.07.2014', '6.18.1-01/1507-07', 'тех', 'новеньк', 'протокол', 'заседан', 'учен', 'совет', '28.09.2018', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'обраща', 'вниман', 'реквизит', 'утвержден', 'программ', 'паспорт', 'дат', 'документ', 'котор', 'утвержда', 'программ', 'пол', 'дат', 'обновлен', 'паспорт', 'должн', 'дат', 'обновлен', 'документ', 'реквизит', 'соответств', 'документ', 'заполня', 'строг', 'инструкц', 'дд.мм.год', 'например', '26.08.2019', 'протокол', 'пол', 'количеств', 'зачетн', 'единиц', 'внос', 'значен', 'объем', 'ваш', 'образовательн', 'программ', 'з.е.', 'пол', 'конкурентн', 'преимуществ', 'программ', 'бер', 'соответств', 'текст', 'сво', 'программ', 'пол', 'характеристик', 'профессиональн', 'деятельн', 'перечен', 'профессиональн', 'компетенц', 'выпускник', 'бер', 'текст', 'сво', 'программ', 'соответств', 'стандарт', 'пол', 'характеристик', 'образовательн', 'модул', 'программ', 'берет', 'текст', 'сво', 'программ', 'соответств', 'учебн', 'план', 'посл', 'заполнен', 'пол', 'нажима', 'кнопк', 'сохран', 'информац', 'отраз', 'паспорт', 'вопрос', 'раздел', 'паспорт', 'образовательн', 'программ', 'необходим', 'направля', 'управлен', 'развит', 'образовательн', 'программ', 'знак', 'светла', 'александровн', 'залесск', 'светла', 'николаевн', 'расписан', 'страниц', 'генерир', 'автоматическ', 'основ', 'дан', 'руз', 'доступн', 'адрес', '/timetable', 'есл', 'расписан', 'загруж', 'руз', 'формирован', 'автоматическ', 'страниц', 'адрес', 'timetable', 'необходим', 'редакторск', 'интерфейс', 'раздел', 'расписан', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'настройк', 'расписан', 'простав', 'галк', 'отобража', 'страниц', 'расписан', 'академическ', 'совет', 'страниц', 'академическ', 'совет', 'созда', 'редактир', 'раздел', 'академическ', 'совет', 'блок', 'зде', 'сможет', 'добав', 'сотрудник', 'вшэ', 'внешн', 'люд', 'есл', 'сотрудник', 'вшэ', 'вписыва', 'фамил', 'нажима', 'найт', 'откр', 'окн', 'выбира', 'нужн', 'персон', 'должност', 'может', 'добав', 'котор', 'предлага', 'систем', 'либ', 'вписа', 'должност', 'самостоятельн', 'меня', 'порядок', 'расположен', 'член', 'академическ', 'совет', 'прост', 'перетаскив', 'мышк', 'ин', 'зап', 'нужн', 'мест', 'обрат', 'вниман', 'дан', 'блок', 'прописыва', 'назван', 'групп', 'персон', 'академическ', 'совет', 'нужн', 'посл', 'заполн', 'блок', 'проверьт', 'страниц', 'совет', 'выгляд', 'нужн', 'адресн', 'строк', 'прописа', 'адрес', 'ваш', 'программы/аcадем_cоунc', 'когд', 'убед', 'порядк', 'напиш', 'portal', 'hse.ru', 'просьб', 'откр', 'пункт', 'мен']</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>['создан', 'нов', 'страниц', 'нов', 'пункт', 'мен', 'прежд', 'создава', 'страниц', 'прочита', 'информац', 'каса', 'страниц', 'раздел', 'верхн', 'мен', 'раздел', 'программ', 'прежд', 'добав', 'нов', 'пункт', 'мен', 'необходим', 'созда', 'статическ', 'страниц', 'наполнен', 'поможет', 'инструкц', 'создан', 'нов', 'статическ', 'страниц', 'при', 'добавлен', 'страниц', 'обраща', 'особ', 'вниман', 'выбор', 'пол', 'раздел', 'образовательн', 'программ', 'случа', 'например', 'клик', 'раздел', 'подготовк', 'пользовател', 'остава', 'раздел', 'абитуриент', 'страниц', 'быва', 'прост', 'составн', 'есл', 'необходим', 'прост', 'аккуратн', 'размест', 'текст', 'текст', 'таблиц', 'достаточн', 'прост', 'страниц', 'есл', 'хот', 'добав', 'фот', 'преподавателей/студент', 'кнопк', 'проч.', 'воспользова', 'составн', 'страниц', 'зат', 'выбира', 'мен', 'главн', 'абитуриент', 'студент', 'котор', 'располага', 'ссылк', 'статическ', 'страниц', 'нажима', 'добав', 'групп', 'прописыва', 'назван', 'групп', 'пункт', 'мен', 'ссылк', 'статстраниц', 'сохраня', 'есл', 'какого-т', 'пункт', 'предусмотр', 'подмен', 'внутр', 'групп', 'клика', 'добав', 'ссылк', 'прописыва', 'назван', 'страниц', 'ссылк', 'не', 'сохраня', 'обрат', 'вниман', 'групп', 'сто', 'символ', 'замок', 'менеджер', 'программ', 'редактирова', 'дан', 'пункт', 'мен', 'однак', 'созда', 'редактирова', 'непосредствен', 'страниц', 'для', 'внесен', 'изменен', 'мен', 'добавлен', 'ссылк', 'страниц', 'заблокирова', 'пункт', 'мен', 'необходим', 'отправ', 'письм', 'portal', 'hse.ru', 'пункт', 'мен', 'раздел', 'общ', 'такж', 'открыва', 'служб', 'поддержк', 'порта', 'запрос', 'программ', 'важн', 'создава', 'нов', 'пункт', 'мен', 'аналогичн', 'наход', 'замочк']</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>['адрес', 'текстов', 'блок', 'отредактирова', 'добав', 'адрес', 'подразделен', 'реализ', 'программ', 'зайд', 'раздел', 'текстов', 'блок', 'главн', 'страниц', 'заход', 'редактор', 'дан', 'блок', 'заголовк', 'указыва', 'назван', 'блок', 'опциональн', 'пол', 'текст', 'непосредствен', 'фактическ', 'адрес', 'кром', 'текстов', 'блок', 'позволя', 'добавля', 'люб', 'дополнительн', 'информац', 'прав', 'колонк', 'сайт', 'контактн', 'информац', 'дополнительн', 'ссылк', 'руководств', 'т.п.', 'текстов', 'блок', 'использ', 'след', 'визуальн', 'редактор', 'иллюстрац', 'указа', 'основн', 'инструмент', 'обрат', 'вниман', 'назначен', 'кажд', 'инструмент', 'узна', 'навед', 'курсор', 'соответств', 'иконк', 'панел']</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>['буклет', 'программ', 'нов', 'буклет', 'образовательн', 'программ', 'ежегодн', 'верста', 'сотрудник', 'отдел', 'визуальн', 'коммуникац', 'обновля', 'буклет', 'сайт', 'служб', 'поддержк', 'порта', 'получен', 'файл', 'отдел', 'визуальн', 'коммуникац', 'обрат', 'вниман', 'созда', 'буклет', 'самостоятельн', 'отправ', 'служб', 'поддержк', 'порта', 'просьб', 'замен', 'буклет', 'сайт', 'снача', 'соглас', 'готов', 'макет', 'руководител', 'отдел', 'визуальн', 'коммуникац', 'кутьков', 'ю.']</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>['учебн', 'офис', 'главн', 'страниц', 'необходим', 'добав', 'ссылк', 'учебн', 'офис', 'программ', 'редакторск', 'интерфейс', 'сайт', 'образовательн', 'программ', 'предусмотр', 'возможн', 'создан', 'страниц', 'учебн', 'офис', 'специальн', 'функциона', 'чтоб', 'добра', 'блок', 'учебн', 'офис', 'главн', 'страниц', 'программ', 'заход', 'редактор', 'дан', 'блок', 'образовательн', 'программ', 'учебн', 'офис', 'вам', 'необходим', 'зайт', 'блок', 'учебн', 'офис', 'добав', 'персон', 'обрат', 'вниман', 'такж', 'предусмотр', 'возможн', 'добавлен', 'контактн', 'дан', 'кажд', 'персон', 'нажа', 'кнопк', 'сохран', 'посмотрет', 'получ', 'может', 'страниц', 'адрес', 'http', '//адрес_вашей_программы/студы_оффиc', 'например', 'http', '//www.hse.ru/ba/cultural/study_office/', 'посл', 'нов', 'ссылк', 'необходим', 'добав', 'раздел', 'ссылк', 'учебн', 'офис']</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>['социальн', 'кнопк', 'блок', 'социальн', 'кнопк', 'использ', 'программ', 'проф', 'популярн', 'социальн', 'сет', 'редакторск', 'интерфейс', 'необходим', 'лиш', 'выбра', 'сет', 'дат', 'ссылк', 'профил', 'порядок', 'расположен', 'ссылок', 'социальн', 'сет', 'легк', 'меня', 'прост', 'перетащ', 'ссылк', 'нужн', 'строк']</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>['турбо-верс', 'турбо-страниц', 'ускоря', 'загрузк', 'контент', 'поиск', 'яндекс', 'новост', 'дзен', '3G-сет', 'турбо-страниц', 'формир', 'един', 'шаблон', 'быстр', 'загружа', 'смартфон', 'медлен', 'нестабильн', 'интернет', 'при', 'открыт', 'сайт', 'нов', 'программ', 'турбо-верс', 'созда', 'служб', 'поддержк', 'порта', 'дальн', 'корректировк', 'содержан', 'турбо-верс', 'дела', 'самостоятельн', 'изменен', 'турбо-верс', 'привод', 'автоматическ', 'изменен', 'главн', 'страниц', 'сайт', 'турбо-верс', 'программ', 'редактир', 'дан', 'блок', 'общ', 'главн', 'страниц', 'турбо-верс', 'шапк', 'турбо-верс', 'навигацион', 'мен', 'содержа', 'максимальн', 'вкладк', 'кажд', 'дает', 'ссылк', 'главн', 'страниц', 'сайт', 'программ', 'абитуриент', 'студент', 'выпускник', 'есл', 'программ', 'появ', 'вкладк', 'котор', 'ран', 'например', 'студент', 'выпускник', 'добавьт', 'навигацион', 'мен', 'турбо-верс', 'заголовок', 'ссылк', 'забудьт', 'сохран', 'изменен', 'важн', 'заголовк', 'уровн', 'такж', 'изображен', 'внос', 'сотрудник', 'служб', 'поддержк', 'порта', 'главн', 'страниц', 'турбо-верс', 'виджет', 'текст', 'текстов', 'пол', 'внос', 'скопирова', 'главн', 'страниц', 'описан', 'программ', 'при', 'изменен', 'описан', 'зам', 'текст', 'главн', 'страниц', 'производ', 'сотрудник', 'служб', 'порта', 'меня', 'текст', 'турбо-верс', 'виджет', 'информац', 'аккордеон', 'зам', 'текст', 'внутр', 'происход', 'автоматическ', 'измен', 'текст', 'раскрыва', 'блок', 'главн', 'страниц', 'сайт', 'оп.', 'виджет', 'кнопк', 'заголовок', 'вынос', 'назван', 'кнопк', 'пол', 'ссылк', 'став', 'ссылк', 'есл', 'главн', 'страниц', 'поменя', 'назван', 'кнопк', 'ссылк', 'забудьт', 'внест', 'обновлен', 'турбо-верс', 'добавля', 'турбо-верс', 'одн', 'кнопк', 'виджет', 'ссылк', 'виде', 'став', 'налич', 'виде', 'главн', 'страниц', 'оп.', 'есл', 'виде', 'измен', 'главн', 'страниц', 'он', 'появ', 'автоматическ', 'турбо-верс', 'должн', 'поменя', 'ссылк', 'самостоятельн']</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>['английск', 'верс', 'есл', 'программ', 'английск', 'верс', 'редактирован', 'происход', 'русск', 'верс', 'английск', 'блок', 'редактор', 'дан', 'блок', 'англ.', 'единствен', 'отлич', 'создан', 'статическ', 'страниц', 'пол', 'язык', 'необходим', 'установ', 'английск', 'есл', 'программ', 'существ', 'страниц', 'одинаков', 'содержан', 'русск', 'английск', 'язык', 'например', 'программ', 'техническ', 'им', 'должн', 'совпада', 'нужн', 'имен', 'английск', 'страниц', 'задава', 'различ', 'дан', 'случа', 'служ', 'пол', 'язык', 'тольк', 'случа', 'им', 'стат.', 'страниц', 'разн', 'язык', 'совпада', 'пользовател', 'переход', 'страниц', 'одн', 'язык', 'страниц', 'друг', 'язык', 'попада', 'идентичн', 'страниц', 'главн', 'страниц', 'программ', 'есл', 'программ', 'английск', 'верс', 'необходим', 'программ', 'провод', 'английск', 'язык', 'больш', 'числ', 'англоязычн', 'курс', 'след', 'присла', 'заявк', 'активац', 'английск', 'верс', 'главн', 'редактор', 'мар', 'никитин', 'mpustovoyt', 'hse.ru', 'письм', 'необходим', 'прилож', 'имеющ', 'английск', 'текст', 'программ', 'есл', 'готов', 'текст', 'нужн', 'указа', 'список', 'страниц', 'перевод', 'есл', 'программ', 'существ', 'английск', 'верс', 'необходим', 'поддержива', 'обновля', 'добавля', 'новост', 'анонс', 'мероприят', 'интересн', 'иностра', 'аудитор', 'подробн', 'инструкц', 'guidelines', 'работ', 'английск', 'верс', 'сайт', 'образовательн', 'программ']</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2264,29 +2216,69 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/dpo_new', '2021', 'год', 'заказ', 'операцион', 'управлен', 'дополнительн', 'профессиональн', 'образован', 'портал', 'ни', 'вшэ', 'внедр', 'нов', 'карточк', 'образовательн', 'программ', 'дополнительн', 'образован', 'особен', 'карточк', 'ярк', 'визуальн', 'ряд', 'жестк', 'требован', 'формат', 'вся', 'информац', 'размеща', 'помощ', 'виджет', 'позволя', 'верста', 'сайт', 'име', 'опыт', 'работ', 'HTML', 'CSS']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/dpo_new', 'видеозапис', 'семинар', 'апрел', '2021', 'ма', '2021']</t>
+          <t>['чтоб', 'включ', 'доск', 'объявлен', 'сайт', 'образовательн', 'программ', 'необходим', 'откр', 'блок', 'доск', 'объявлен', 'дан', 'блок', 'постав', 'соответств', 'галочк']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/dpo_new', 'поддержк', 'программ', 'дпо', 'содержательн', 'вопрос', 'работ', 'каталог', 'операцион', 'управлен', 'дпо', 'жгун', 'окса', 'леонидовн', 'фатьянов', 'екатерин', 'алексеевн', 'получен', 'доступ', 'вопрос', 'работ', 'редакторск', 'интерфейс', 'получ', 'доступ', 'редактирован', 'получ', 'консультац', 'цифров', 'маркетинг', 'программ', 'дпо', 'доступ', 'поддержк', 'получ', 'доступ', 'веб-аналитик', 'получ', 'доступ', 'Roistat', 'получ', 'доступ', 'Unisender', 'запрос', 'поддержк', 'CRM', 'техническ', 'поддержк', 'получ', 'доступ', 'CRM', 'запрос', 'доработк', 'сообщ', 'ошибк', 'запрос', 'поддержк', 'нов', 'дизайн', 'карточк', 'дпо', 'три', 'важн', 'прав', 'пыта', 'внедр', 'собствен', 'шрифт', 'стил', 'вам', 'нужн', 'прост', 'размест', 'текст', 'очист', 'сторон', 'форматирован', 'исходн', 'изображен', 'необходим', 'оптимизирова', 'веб', 'зач', 'эт', 'нужн', 'подробн', 'написа', 'уважа', 'авторск', 'прав', 'нельз', 'прост', 'взят', 'скача', 'люб', 'изображен', 'интернет', 'быстр', 'ссылк', 'как', 'нача', 'как', 'клонирова', 'карточк', 'как', 'дат', 'ссылк', 'существ', 'лендинг', 'программ', 'как', 'посмотрет', 'получ', 'собира', 'шапк', 'сайт', 'программ', 'изображен', 'шапк', 'программ', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'собира', 'страниц', 'программ', 'виджет', 'якор', 'виджет', 'важн', 'объявлен', 'виджет', 'программ', 'виджет', 'нумерова', 'блок', 'виджет', 'результат', 'виджет', 'для', 'ког', 'виджет', 'список', 'изображен', 'виджет', 'документ', 'окончан', 'виджет', 'текст', 'заголовк', 'виджет', 'программ', 'обучен', 'виджет', 'FAQ', 'виджет', 'сообществ', 'виджет', 'отзыв', 'выпускник', 'виджет', 'контакт', 'виджет', 'стоимост', 'услов', 'виджет', 'преподавател', 'виджет', 'школ', 'виджет', 'формат', 'обучен', 'виджет', 'загрузк', 'файл', 'виджет', 'показ', 'учебн', 'план', 'связа', 'программ', 'сведен', 'образовательн', 'организац', 'мен', 'SEO', 'как', 'нача', 'добавлен', 'программ', 'создан', 'нов', 'карточк', 'осуществля', 'каталог', 'операцион', 'управлен', 'дпо', 'самостоятельн', 'добавлен', 'программ', 'портал', 'закрыт', 'случа', 'отсутств', 'карточк', 'программ', 'каталог', 'обраща', 'операцион', 'управлен', 'дпо', 'фатьянов', 'екатерин', 'алексеевн', 'чтоб', 'продолж', 'заполнен', 'карточк', 'войд', 'административн', 'интерфейс', 'https', '//www.hse.ru/adm/', 'перейд', 'раздел', 'образован', 'дополнительн', 'образован', 'new', 'увид', 'список', 'карточек', 'программ', 'дпо', 'ни', 'вшэ', 'для', 'поиск', 'внесен', 'программ', 'воспольз', 'пол', 'фильтр', 'поиск', 'осуществля', 'назван', 'программ', 'для', 'редактирован', 'программ', 'нажм', 'значок', 'карандаш', 'есл', 'увер', 'программ', 'нужн', 'нужн', 'удал', 'напиш', 'portal', 'hse.ru', 'для', 'времен', 'скрыт', 'сайт', 'карточк', 'сдела', 'карточк', 'неактивн', 'раздел', 'дан', 'конкретн', 'карточк', 'есл', 'может', 'войт', 'административн', 'интерфейс', 'знач', 'хвата', 'прав.', 'получ', 'прав', 'менеджер', 'дополнительн', 'образован', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'клонирован', 'карточек', 'программ', 'есл', 'двух', 'программ', 'общ', 'клонирова', 'карточк', 'существ', 'программ', 'чтоб', 'клонирова', 'карточк', 'напиш', 'portal', 'hse.ru', 'указа', 'ссылк', 'карточк', 'котор', 'необходим', 'клонирова', 'точн', 'назван', 'программ', 'нов', 'карточк', 'программ', 'каталог', 'операцион', 'управлен', 'дпо', 'уточн', 'операцион', 'управлен', 'дпо', 'помн', 'страниц', 'иска', 'поисков', 'систем', 'долж', 'уникальн', 'контент', 'одн', 'дел', 'реч', 'идет', 'преподавател', 'программ', 'друг', 'двух', 'программ', 'совпада', 'описан', 'преимуществ', 'проч.', 'что', 'дела', 'программ', 'полноцен', 'лендинг', 'котор', 'идет', 'реклам', 'случа', 'вам', 'необходим', 'заполн', 'пол', 'раздел', 'дан', 'пол', 'сайт', 'программ', 'программ', 'имеющ', 'лендинг', 'вписа', 'адрес', 'лендинг', 'программ', 'собира', 'шапк', 'сайт', 'программ', 'посл', 'нажат', 'знак', 'перв', 'страниц', 'попадет', 'редактор', 'карточк', 'дпо', 'раздел', 'дан', 'раздел', 'подел', 'част', 'дан', 'импортируем', 'баз', 'дпо', 'заполнен', 'редактирован', 'пол', 'назван', 'тип', 'программ', 'проч.', 'осуществля', 'баз', 'дан', 'каталог', 'дпо', 'сам', 'карточк', 'пол', 'внесен', 'изменен', 'закрыт', 'вопрос', 'работ', 'каталог', 'дпо', 'необходим', 'обраща', 'фатьянов', 'екатерин', 'алексеевн', 'как', 'выгляд', 'административн', 'интерфейс', 'дополнительн', 'дан', 'карточк', 'портал', 'пол', 'менторств', 'изображен', 'ключев', 'выгод', 'программ', 'одн', 'предложен', 'соста', 'занят', 'итогов', 'работ', 'заполня', 'редактир', 'карточк', 'как', 'выгляд', 'административн', 'интерфейс', 'дан', 'сведен', 'вшэ', 'основ', 'формир', 'информац', 'обязательн', 'кажд', 'университет', 'раздел', 'заполня', 'редактир', 'карточк', 'как', 'выгляд', 'административн', 'интерфейс', 'есл', 'нужн', 'посмотрет', 'как', 'дан', 'карточк', 'синхронизац', 'каталог', 'дпо', 'может', 'зайт', 'раздел', 'стар', 'дан', 'изображен', 'шапк', 'программ', 'подбер', 'изображен', 'шапк', 'при', 'выбор', 'картинк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1520', '800', 'пиксел', 'вес', '100-250', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'шапк', 'добав', 'форм', 'прием', 'заявок', 'форм', 'зада', 'вопрос', 'при', 'установк', 'ползунк', 'показ', 'кнопк', 'заявк', 'показ', 'кнопк', 'форм', 'позиц', 'включ', 'форм', 'созда', 'автоматическ', 'забудьт', 'перейт', 'реж', 'редактирован', 'нажа', 'иконк', 'ряд', 'слов', 'редактирова', 'форм', 'измен', 'дат', 'актуальн', 'форм', 'при', 'необходим', 'может', 'измен', 'пол', 'форм', 'подробн', 'редактирован', 'форм', 'прочита', 'https', '//portal.hse.ru/poll', 'част', 'создан', 'форм', 'нужн', 'пропуст', 'ваш', 'случа', 'форм', 'созда', 'стандартн', 'вид', 'есл', 'каким-т', 'причин', 'форм', 'карточк', 'подход', 'хот', 'дат', 'ссылк', 'форм', 'созда', 'друг', 'сайт', 'может', 'указа', 'ссылк', 'пол', 'ссылк', 'внешн', 'форм', 'заявки/вопрос', 'кнопк', 'будут', 'показыва', 'шапк', 'такж', 'плашк', 'результат', 'документ', 'образован', 'стоимост', 'услов', 'подложк', 'как', 'посмотрет', 'получ', 'верхн', 'прав', 'угл', 'размещ', 'кнопк', 'откр', 'сайт', 'нажм', 'есл', 'вид', 'ошибк', '404', 'проверьт', 'карточк', 'имеет', 'статус', 'активн', 'раздел', 'дан', 'собира', 'страниц', 'программ', 'все', 'программ', 'унифицирова', 'формат', 'подач', 'информац', 'почт', 'вся', 'работ', 'происход', 'вкладк', 'конструктор', 'выпада', 'списк', 'выбер', 'нужн', 'виджет', 'нажм', 'знак', 'порядок', 'виджет', 'изменя', 'для', 'перемест', 'курсор', 'влев', 'назван', 'виджет', 'см.', 'скриншот', 'нажа', 'лев', 'кнопк', 'мыш', 'перемест', 'виджет', 'нужн', 'мест', 'виджет', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'дан', 'случа', 'якор', 'нуж', 'мен', 'переход', 'определен', 'раздел', 'сайт', 'вам', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'URL', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'важн', 'объявлен', 'дан', 'функциона', 'необход', 'хот', 'донест', 'посетител', 'сайт', 'что-т', 'крайн', 'важн', 'использ', 'важн', 'объявлен', 'размещен', 'информац', 'котор', 'страниц', 'стара', 'сайт', 'одн', 'важн', 'объявлен', 'заполн', 'пол', 'выбер', 'фонов', 'цвет', 'объявлен', 'выбор', 'цвет', 'кликн', 'пипетк', 'соответств', 'пол', 'дат', 'указыва', 'необязательн', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'программ', 'виджет', 'две', 'вкладк', 'текст', 'виде', 'вкладк', 'текст', 'явля', 'обязательн', 'заполнен', 'забудьт', 'выдел', 'текст', 'очист', 'посторон', 'форматирован', 'нажа', 'иконк', 'вкладк', 'виде', 'размест', 'проморолик', 'программ', 'виде', 'приветствен', 'слов', 'руководител', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/VYSTPqTdHqk', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'ве', 'код', 'копирова', 'нужн', 'нужн', 'взят', 'ссылк', 'embed', 'встав', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'подп', 'загруз', 'прев', 'виде', 'оптимизирова', 'изображен', '314×184', 'пиксел', 'ил', 'нажм', 'загруз', 'прев', 'административн', 'интерфейс', 'случа', 'использова', 'заставк', 'Youtube', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'нумерова', 'блок', 'заголовк', 'размеща', 'ключев', 'навык', 'котор', 'получат', 'выпускник', 'программ', 'дал', 'необходим', 'размест', 'тезис', 'раскрыва', 'сут', 'обучен', 'программ', 'числ', 'пункт', 'огранич', 'визуальн', 'смотр', 'тезис', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'результат', 'виджет', 'позволя', 'размест', 'заголовок', 'подзаголовок', 'нескольк', 'карточек', 'текст', 'оптимальн', 'карточк', 'хот', 'количеств', 'карточек', 'огранич', 'здрав', 'смысл', 'плашк', 'плашк', 'автоматическ', 'добав', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'ран', 'включ', 'раздел', 'дан', 'забудьт', 'измен', 'размер', 'загружа', 'картинок', 'оптимизирова', 'веб', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'для', 'ког', 'пол', 'основн', 'подзаголовок', 'обязательн', 'заполнен', 'числ', 'пункт', 'огранич', 'желательн', '3-5', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'список', 'изображен', 'виджет', 'позволя', 'зал', 'изображен', 'размер', 'изображен', '100', '250', 'пиксел', 'гиперссылк', 'например', 'использова', 'виджет', 'публикац', 'логотип', 'партнер', 'обрат', 'вниман', 'логотип', 'необходим', 'вписа', 'прямоугольник', '100', '250', 'пиксел', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'документ', 'окончан', 'заполн', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'загружа', 'страниц', 'изображен', 'документ', 'необязательн', 'изображен', 'документ', 'показа', 'справочник', 'основ', 'то', 'информац', 'котор', 'внесл', 'пол', 'тип', 'документ', 'образован', 'раздел', 'дан', 'однак', 'какой-т', 'причин', 'устраива', 'изображен', 'умолчан', 'может', 'загруз', 'сво', 'вариант', 'ширин', 'изображен', '430', 'пиксел', 'изображен', 'спозиционирова', 'центр', 'вертика', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'текст', 'заголовк', 'можн', 'добав', 'текст', 'заголовк', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'программ', 'обучен', 'пол', 'заголовок', 'указа', 'назван', 'дисциплин', 'блок', 'дисциплин', 'пол', 'бейдж', 'числ', 'час', 'кредитн', 'единиц', 'пол', 'текст', 'кратк', 'описан', 'список', 'дисциплин', 'ран', 'указа', 'назван', 'блок', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'FAQ', 'нажм', 'кнопк', '+вопрос', 'заполн', 'соответств', 'пол', 'пол', 'ответ', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'сообществ', 'виджет', 'позволя', 'размест', 'нескольк', 'иконок', 'текст', 'изображен', 'должн', 'имет', 'размер', '80×80', 'пиксел', 'рекомендуем', 'формат', 'gif', 'png', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'отзыв', 'выпускник', 'позволя', 'размест', 'текст', 'отзыв', 'рекомендуем', 'числ', 'знак', '650', 'знак', 'пробел', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'размер', 'фот', '48×48', 'пиксел', 'посл', 'заливк', 'фот', 'нажима', 'выреза', 'выбра', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'контакт', 'заполн', 'пол', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'обрат', 'вниман', 'телефон', 'номер', 'ввод', 'формат', '000', '000-00-00', 'обязательн', 'указыва', 'код', 'город', 'кажд', 'нов', 'телефон', 'указыва', 'сво', 'пол', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'стоимост', 'услов', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'прост', 'позволя', 'добав', 'заголовок', 'подзаголовок', 'гиперссылк', 'переход', 'страниц', 'подробн', 'необязательн', 'лейбл', 'скидк', 'помим', 'текст', 'подзаголовк', 'гиперссылк', 'добав', 'лейбл', 'скидк', 'подложк', 'позволя', 'дополнительн', 'размест', 'текст', 'кнопк', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'все', 'дан', 'стоимост', 'необходим', 'внос', 'рамк', 'одн', 'виджет', 'случа', 'информац', 'выстраива', 'столбик', 'начина', 'кажд', 'нов', 'строк', 'есл', 'вариант', 'скидок', 'разн', 'услов', 'дат', 'информац', 'прост', 'текст', 'использова', 'виджет', 'текст', 'заголовк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'преподавател', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'вшэ', 'вшэ', 'виджет', 'вшэ', 'позволя', 'выбра', 'преподавател', 'списк', 'персон', 'вшэ', 'забудьт', 'выбор', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'изображен', 'нерезк', 'есл', 'добавля', 'сотрудник', 'вшэ', 'заполня', 'пол', 'всплыва', 'текст', 'клик', 'осуществля', 'переход', 'персональн', 'страниц', 'сайт', 'вшэ', 'есл', 'пол', 'заполн', 'откроет', 'всплыва', 'текст.', 'пол', 'должност', 'может', 'вписа', 'вручн', 'должност', 'котор', 'должн', 'отобража', 'карточк', 'устраива', 'автоматическ', 'вывод', 'информац', 'виджет', 'вшэ', 'позволя', 'добав', 'персон', 'след', 'атрибут', 'фи', 'должност', 'фот', 'желательн', 'горизонтальн', 'ориентирова', 'всплыва', 'текст.', 'забудьт', 'выбор', 'фот', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'вшэ', 'вшэ', 'условн', 'делен', 'есл', 'хот', 'оформ', 'фот', 'одн', 'стил', 'преподавател', 'загруз', 'вшэ', 'виджет', 'использова', 'списк', 'преподавател', 'т.к.', 'заголовок', 'раздел', 'редактируем', 'ответствен', 'подход', 'выбор', 'фотограф', 'есл', 'фот', 'паспорт', 'конференц', 'фон', 'провод', 'фуршет', 'бокал', 'вероятн', 'использован', 'фотограф', 'блок', 'сто', 'отказа', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'школ', 'позволя', 'загруз', 'горизонтальн', 'ориентирова', 'фотограф', 'текст.', 'рекомендова', 'ширин', 'фотограф', '1600', 'пиксел', 'контейнер', 'изображен', 'имеет', 'фиксирова', 'высот', 'изображен', 'заполня', 'спозиционирова', 'центр', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'параметр', 'изображен', 'меня', 'зависим', 'разрешен', 'экра', 'текст', 'добавля', 'строк', 'внутр', 'строк', 'колонк', 'максимальн', 'количеств', 'колонок', 'однак', 'рекоменду', 'дела', 'одн', 'строк', 'колонок', 'оптимальн', '1-3', 'колонк', 'кажд', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'например', 'хот', 'две', 'одинаков', 'ширин', 'колонк', 'кажд', 'колонк', 'необходим', 'зада', 'ширин', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'формат', 'обучен', 'формир', 'основ', 'сведен', 'раздел', 'дан', 'загрузк', 'файл', 'страниц', 'загруз', 'нескольк', 'файл', 'для', 'загрузк', 'файл', 'использ', 'виджет', 'список', 'файл', 'при', 'загрузк', 'файл', 'указа', 'текст', 'клик', 'котор', 'открыва', 'файл', 'есл', 'хот', 'загруз', 'сайт', 'учебн', 'план', 'использ', 'виджет', 'учебн', 'план', 'загружа', 'файл', 'прост', 'дума', 'запрос', 'пользовател', 'как', 'выгляд', 'административн', 'интерфейс', 'показ', 'учебн', 'план', 'учебн', 'план', 'загружа', 'раздел', 'дан', 'сведен', 'образовательн', 'организац', 'посл', 'загрузк', 'файл', 'необходим', 'перейт', 'раздел', 'конструктор', 'помощ', 'виджет', 'учебн', 'план', 'указа', 'мест', 'страниц', 'необходим', 'использова', 'файл', 'пожалуйст', 'использ', 'загрузк', 'учебн', 'план', 'виджет', 'список', 'файл', 'связа', 'программ', 'страниц', 'программ', 'указа', 'релевантн', 'программ', 'для', 'перейд', 'раздел', 'дан', 'связа', 'программ', 'нажм', 'введ', 'пол', 'поиск', 'назван', 'программ', 'есл', 'программ', 'наход', 'точн', 'нов', 'каталог', 'программ', 'попроб', 'иска', 'част', 'назван', 'сведен', 'образовательн', 'организац', 'посл', 'внедрен', 'нов', 'каталог', 'дпо', 'информац', 'раздел', 'кратк', 'характеристик', 'программ', 'аннотац', 'рабоч', 'программ', 'дисциплин', 'учебн', 'план', 'календарн', 'учебн', 'график', 'показыва', 'раздел', 'сведен', 'образовательн', 'организац', 'обязательн', 'раздел', 'сайт', 'вуз', 'файл', 'учебн', 'план', 'показа', 'страниц', 'программ', 'для', 'загрузк', 'файл', 'перейд', 'дан', 'сведен', 'образовательн', 'организац', 'как', 'выгляд', 'административн', 'интерфейс', 'мен', 'для', 'упрощен', 'навигац', 'страниц', 'добав', 'страниц', 'программ', 'пункт', 'мен', 'предварительн', 'раздел', 'конструктор', 'добавьт', 'нужн', 'мест', 'якор', 'мен', 'пол', 'URL', 'нужн', 'прописа', 'адрес', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'SEO', 'заполн', 'пол', 'описан', 'документ', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'соб', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'есл', 'знает', 'написа', 'пол', 'напиш', 'назван', 'программ', 'дал', 'текст', 'длин', '50-110', 'символ', 'тем', 'дает', 'программ', 'конц', 'добавьт', 'номер', 'телефон', 'желан', 'ни', 'вшэ', 'кавычек', 'пол', 'использова', 'качеств', 'заголовк', 'окн', 'убра', 'автоматическ', 'формируем', 'част', 'окн', 'меня', 'нужн', 'эт', 'пол', 'работа', 'специалист', 'проверьт', 'порядок', 'расположен', 'блок', 'страниц', 'программ', 'порядок', 'влия', 'приоритет', 'ключев', 'слов', 'поисков', 'систем', 'рекомендуем', 'порядок', 'блок', 'программ', 'для', 'ког', 'описан', 'начина', 'слов', 'очная/онлайн', 'программ', 'назван', 'программ', 'формат', 'обучен', 'программ', 'обучен', 'эт', 'возможн', 'помим', 'назван', 'дисциплин', 'указыва', 'тип', 'дисциплин', 'лекц', 'семинар', 'т.д.', 'добавля', 'кратк', 'аннотац', 'дисциплин', 'результат', 'документ', 'окончан', 'преимуществ', 'программ', 'преподавател', 'стоимост', 'услов', 'как', 'поступ', 'программ', 'наш', 'выпускник', 'трудоустро', 'ведущ', 'компан', 'партнер', 'программ', 'отзыв', 'выпускник', 'контакт', 'адрес', 'повтор', 'назван', 'программ', '1-3', 'раз', 'текст', 'вне', 'заголовк', 'обрат', 'особ', 'вниман', 'раздел', 'описан', 'преподава', 'программ', 'дисциплин', 'чем', 'подробн', 'доходчив', 'распишет', 'изуча', 'слушател', 'программ', 'есл', 'достаточн', 'есл', 'сдела', 'перечислен', 'выш', 'полност', 'удовлетвор', 'результат', 'трафик', 'отправьт', 'заявк', 'подбор', 'ключев', 'слов', 'portal', 'hse.ru', 'ссылк', 'программ', 'команд', 'порта', 'подберет', 'набор', 'слов', 'словосочетан', 'взяв', 'основ', 'назван', 'ваш', 'программ', 'список', 'дисциплин', 'список', 'слов', 'должн', 'будет', 'добав', 'размещен', 'страниц', 'программ', 'контент', 'срок', 'подбор', 'составля', 'дне', 'зависим', 'текущ', 'объем', 'работ']</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['блок', 'добав', 'нов', 'рубрик', 'фильтр', 'обрат', 'вниман', 'умолчан', 'доск', 'объявлен', 'содержат', 'ряд', 'типов', 'част', 'встреча', 'рубрик', 'кажд', 'объявлен', 'обязательн', 'порядк', 'должн', 'привяза', 'хот', 'одн', 'фильтр', 'умолчан', 'эт', 'курс', 'хот', 'одн', 'рубрик']</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['программ', 'котор', 'имеют', 'нескольк', 'специализац', 'рекоменду', 'добав', 'дополнительн', 'фильтр', 'рубрик', 'специализац', 'имет', 'возможн', 'публикова', 'объявлен', 'студент', 'обуча', 'разн', 'трекам.чтоб', 'добав', 'нов', 'объявлен', 'мен', 'личн', 'кабинет', 'hse.ru/user', 'раздел', 'мо', 'задач', 'редактор', 'сайт', 'образовательн', 'программ', 'долж', 'выбра', 'пункт', 'объявлен', 'доск', 'объявлен']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['откр', 'страниц', 'будут', 'доступн', 'ссылк', 'добавлен', 'нов', 'объявлен', 'ниж', 'наход', 'список', 'размещен', 'ран', 'объявлен', 'таков']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['обрат', 'вниман', 'явля', 'редактор', 'сайт', 'нескольк', 'программ', 'создан', 'нов', 'объявлен', 'след', 'выбра', 'нужн', 'доск', 'списк']</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>['что', 'след', 'дела']</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>['создава', 'фильтр', 'тем', 'несущ', 'смыслов', 'нагрузк', 'так', 'например', 'относ', 'важн', 'информац', 'важн', 'пропуст', 'всем', 'использова', 'написан', 'заголовк', 'прописн', 'заглавн', 'букв', 'неправильн', 'обновл', 'расписан', 'правильн', 'обновл', 'расписан', 'пренебрега', 'форматирован', 'текст', 'текст', 'больш', 'количеств', 'пробел', 'интервал', 'т.п.', 'неудобн', 'чита']</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>['все', 'материал', 'связа', 'образовательн', 'программ', 'необходим', 'размеща', 'сайт', 'программ', 'например', 'расписан', 'должн', 'наход', 'сайт', 'образовательн', 'программ', 'сайт', 'факультет']</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>['инструкц', 'редактирован', 'сайт', 'образовательн', 'программ', 'размещ', 'http', '//portal.hse.ru/progs']</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2305,17 +2297,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['портал', 'организова', 'при', 'платеж', 'участ', 'проводим', 'подразделен', 'ни', 'вшэ', 'мероприят', 'заявк', 'создан', 'форм', 'прием', 'платеж', 'направля', 'руководител', 'подразделен', 'адрес', 'underground', 'hse.ru', 'срок', 'оказан', 'услуг', 'рабоч', 'дня', 'момент', 'получен', 'полн', 'пакет', 'необходим', 'сведен', 'заказчик', 'услов', 'создан', 'стандартн', 'форм']</t>
+          <t>['https', '//portal.hse.ru/dpo_new', '2021', 'год', 'заказ', 'операцион', 'управлен', 'дополнительн', 'профессиональн', 'образован', 'портал', 'ни', 'вшэ', 'внедр', 'нов', 'карточк', 'образовательн', 'программ', 'дополнительн', 'образован', 'особен', 'карточк', 'ярк', 'визуальн', 'ряд', 'жестк', 'требован', 'формат', 'вся', 'информац', 'размеща', 'помощ', 'виджет', 'позволя', 'верста', 'сайт', 'име', 'опыт', 'работ', 'HTML', 'CSS']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['что', 'нужн', 'указа', 'заявк', 'обрат', 'вниман', 'требован', 'финансов', 'блок', 'создан', 'форм', 'прием', 'платеж', 'возможн', 'налич', 'подписа', 'приказ', 'проведен', 'мероприят', 'приказ', 'созда', 'подразделение-организатор', 'мероприят', 'документ', 'соглас', 'руководител', 'соответств', 'полномоч', 'есл', 'доход', 'расход', 'мероприят', 'треб', 'проставлен', 'финансов', 'аналитик', 'согласован', 'такж', 'участв', 'пфу', 'коп', 'договор', 'необходим', 'прилож', 'заявк', 'нужн', 'указа', 'номер', 'учетн', 'договор', 'пфу', 'номер', 'бэст', 'котор', 'вест', 'при', 'средств', 'для', 'учет', 'поступа', 'средств', 'мероприят', 'ис-пр', 'созда', 'управленческ', 'договор', 'договор', 'созда', 'подразделен', 'самостоятельн', 'подразделен', 'имеет', 'доступ', 'ис-пр', 'соответств', 'прав', 'либ', 'ответствен', 'работник', 'пфу', 'наименован', 'подразделен', 'котор', 'осуществля', 'при', 'платеж', 'шифр', 'подразделен', 'ис-пр', 'адрес', 'сайт', 'зон', 'hse.ru', 'размещ', 'страниц', 'мероприят', 'желательн', 'указа', 'такж', 'адрес', 'страниц', 'описан', 'особен', 'оплат', 'список', 'электрон', 'почтов', 'адрес', 'ответствен', 'лиц', 'домен', 'hse.ru', 'ежедневн', 'выгрузк', 'отчет', 'произведен', 'оплат', 'срок', 'прием', 'платеж', 'включ', 'сумм', 'платеж', 'ндс', 'треб', 'англоязычн', 'верс', 'форм', 'список', 'категор', 'участник', 'перевод', 'английск', 'язык', 'необходим', 'создан', 'форм', 'английск', 'язык', 'соответств', 'сумм', 'платеж', 'рубл', 'текст', 'договора-оферт', 'котор', 'размещ', 'страниц', 'форм', 'прием', 'платеж', 'согласова', 'юрист', 'при', 'необходим', 'бланк', 'платежн', 'извещен', 'оплат', 'участник', 'валют', 'рубл', 'банк', 'размещен', 'страниц', 'мероприят', 'есл', 'форм', 'платеж', 'нужн', 'разов', 'мероприят', 'пожалуйст', 'добавьт', 'заявк', 'информац', 'тип', 'платеж', 'оплат', 'обучен', 'оплат', 'проживан', 'оплат', 'проч', 'услуг', 'либ', 'нов', 'вид', 'оплат', 'договорен', 'пфу', 'уб', 'взаимодейств', 'участник', 'мероприят', 'провод', 'основан', 'договора-оферт', 'котор', 'долж', 'размещ', 'страниц', 'мероприят', 'случа', 'необходим', 'предоставлен', 'участник', 'мероприят', 'каких-либ', 'подтвержда', 'документ', 'перечен', 'необходим', 'обязательн', 'порядк', 'предварительн', 'согласова', 'бухгалтер', 'ни', 'вшэ', 'важн', 'планир', 'расценк', 'участ', 'мероприят', 'учет', 'страниц', 'сбор', 'платеж', 'сумм', 'оплат', 'указыва', 'рубл', 'указан', 'сумм', 'иностра', 'валют', 'допуска', 'числ', 'иностра', 'участников.•', 'банк', 'удержива', 'комисс', 'сумм', 'платеж', 'комисс', 'карт', 'сбербанк', 'взима', 'актуальн', 'размер', 'комисс', 'завис', 'услов', 'банка-эмитент', 'карт', 'платеж', 'требован', 'банк', 'выделя', 'комисс', 'сумм', 'платеж', 'страниц', 'оплат', 'мероприят']</t>
+          <t>['https', '//portal.hse.ru/dpo_new', 'видеозапис', 'семинар', 'апрел', '2021', 'ма', '2021']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['вариант', 'форм', 'оплат', 'для', 'стандартн', 'форм', 'оплат', 'допуска', 'налич', 'нескольк', 'категор', 'участник', 'кажд', 'котор', 'присво', 'отдельн', 'сумм', 'оплат', 'например', 'сотрудник', 'ни', 'вшэ', 'руб.', 'иностра', 'гражда', 'руб.', 'автоматическ', 'проверк', 'статус', 'участник', 'момент', 'оплат', 'производ', 'стандартн', 'форм', 'оплат', 'выгляд']</t>
+          <t>['https', '//portal.hse.ru/dpo_new', 'поддержк', 'программ', 'дпо', 'содержательн', 'вопрос', 'работ', 'каталог', 'операцион', 'управлен', 'дпо', 'жгун', 'окса', 'леонидовн', 'фатьянов', 'екатерин', 'алексеевн', 'получен', 'доступ', 'вопрос', 'работ', 'редакторск', 'интерфейс', 'получ', 'доступ', 'редактирован', 'получ', 'консультац', 'цифров', 'маркетинг', 'программ', 'дпо', 'доступ', 'поддержк', 'получ', 'доступ', 'веб-аналитик', 'получ', 'доступ', 'Roistat', 'получ', 'доступ', 'Unisender', 'запрос', 'поддержк', 'CRM', 'техническ', 'поддержк', 'получ', 'доступ', 'CRM', 'запрос', 'доработк', 'сообщ', 'ошибк', 'запрос', 'поддержк', 'нов', 'дизайн', 'карточк', 'дпо', 'три', 'важн', 'прав', 'пыта', 'внедр', 'собствен', 'шрифт', 'стил', 'вам', 'нужн', 'прост', 'размест', 'текст', 'очист', 'сторон', 'форматирован', 'исходн', 'изображен', 'необходим', 'оптимизирова', 'веб', 'зач', 'эт', 'нужн', 'подробн', 'написа', 'уважа', 'авторск', 'прав', 'нельз', 'прост', 'взят', 'скача', 'люб', 'изображен', 'интернет', 'быстр', 'ссылк', 'как', 'нача', 'как', 'клонирова', 'карточк', 'как', 'дат', 'ссылк', 'существ', 'лендинг', 'программ', 'как', 'посмотрет', 'получ', 'собира', 'шапк', 'сайт', 'программ', 'изображен', 'шапк', 'программ', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'собира', 'страниц', 'программ', 'виджет', 'якор', 'виджет', 'важн', 'объявлен', 'виджет', 'программ', 'виджет', 'нумерова', 'блок', 'виджет', 'результат', 'виджет', 'для', 'ког', 'виджет', 'список', 'изображен', 'виджет', 'документ', 'окончан', 'виджет', 'текст', 'заголовк', 'виджет', 'программ', 'обучен', 'виджет', 'FAQ', 'виджет', 'сообществ', 'виджет', 'отзыв', 'выпускник', 'виджет', 'контакт', 'виджет', 'стоимост', 'услов', 'виджет', 'преподавател', 'виджет', 'школ', 'виджет', 'формат', 'обучен', 'виджет', 'загрузк', 'файл', 'виджет', 'показ', 'учебн', 'план', 'связа', 'программ', 'сведен', 'образовательн', 'организац', 'мен', 'SEO', 'как', 'нача', 'добавлен', 'программ', 'создан', 'нов', 'карточк', 'осуществля', 'каталог', 'операцион', 'управлен', 'дпо', 'самостоятельн', 'добавлен', 'программ', 'портал', 'закрыт', 'случа', 'отсутств', 'карточк', 'программ', 'каталог', 'обраща', 'операцион', 'управлен', 'дпо', 'фатьянов', 'екатерин', 'алексеевн', 'чтоб', 'продолж', 'заполнен', 'карточк', 'войд', 'административн', 'интерфейс', 'https', '//www.hse.ru/adm/', 'перейд', 'раздел', 'образован', 'дополнительн', 'образован', 'new', 'увид', 'список', 'карточек', 'программ', 'дпо', 'ни', 'вшэ', 'для', 'поиск', 'внесен', 'программ', 'воспольз', 'пол', 'фильтр', 'поиск', 'осуществля', 'назван', 'программ', 'для', 'редактирован', 'программ', 'нажм', 'значок', 'карандаш', 'есл', 'увер', 'программ', 'нужн', 'нужн', 'удал', 'напиш', 'portal', 'hse.ru', 'для', 'времен', 'скрыт', 'сайт', 'карточк', 'сдела', 'карточк', 'неактивн', 'раздел', 'дан', 'конкретн', 'карточк', 'есл', 'может', 'войт', 'административн', 'интерфейс', 'знач', 'хвата', 'прав.', 'получ', 'прав', 'менеджер', 'дополнительн', 'образован', 'написа', 'корпоративн', 'почт', 'письм', 'свободн', 'форм', 'адрес', 'portal', 'hse.ru', 'служб', 'поддержк', 'порта', 'клонирован', 'карточек', 'программ', 'есл', 'двух', 'программ', 'общ', 'клонирова', 'карточк', 'существ', 'программ', 'чтоб', 'клонирова', 'карточк', 'напиш', 'portal', 'hse.ru', 'указа', 'ссылк', 'карточк', 'котор', 'необходим', 'клонирова', 'точн', 'назван', 'программ', 'нов', 'карточк', 'программ', 'каталог', 'операцион', 'управлен', 'дпо', 'уточн', 'операцион', 'управлен', 'дпо', 'помн', 'страниц', 'иска', 'поисков', 'систем', 'долж', 'уникальн', 'контент', 'одн', 'дел', 'реч', 'идет', 'преподавател', 'программ', 'друг', 'двух', 'программ', 'совпада', 'описан', 'преимуществ', 'проч.', 'что', 'дела', 'программ', 'полноцен', 'лендинг', 'котор', 'идет', 'реклам', 'случа', 'вам', 'необходим', 'заполн', 'пол', 'раздел', 'дан', 'пол', 'сайт', 'программ', 'программ', 'имеющ', 'лендинг', 'вписа', 'адрес', 'лендинг', 'программ', 'собира', 'шапк', 'сайт', 'программ', 'посл', 'нажат', 'знак', 'перв', 'страниц', 'попадет', 'редактор', 'карточк', 'дпо', 'раздел', 'дан', 'раздел', 'подел', 'част', 'дан', 'импортируем', 'баз', 'дпо', 'заполнен', 'редактирован', 'пол', 'назван', 'тип', 'программ', 'проч.', 'осуществля', 'баз', 'дан', 'каталог', 'дпо', 'сам', 'карточк', 'пол', 'внесен', 'изменен', 'закрыт', 'вопрос', 'работ', 'каталог', 'дпо', 'необходим', 'обраща', 'фатьянов', 'екатерин', 'алексеевн', 'как', 'выгляд', 'административн', 'интерфейс', 'дополнительн', 'дан', 'карточк', 'портал', 'пол', 'менторств', 'изображен', 'ключев', 'выгод', 'программ', 'одн', 'предложен', 'соста', 'занят', 'итогов', 'работ', 'заполня', 'редактир', 'карточк', 'как', 'выгляд', 'административн', 'интерфейс', 'дан', 'сведен', 'вшэ', 'основ', 'формир', 'информац', 'обязательн', 'кажд', 'университет', 'раздел', 'заполня', 'редактир', 'карточк', 'как', 'выгляд', 'административн', 'интерфейс', 'есл', 'нужн', 'посмотрет', 'как', 'дан', 'карточк', 'синхронизац', 'каталог', 'дпо', 'может', 'зайт', 'раздел', 'стар', 'дан', 'изображен', 'шапк', 'программ', 'подбер', 'изображен', 'шапк', 'при', 'выбор', 'картинк', 'им', 'вид', 'соотношен', 'сторон', 'разн', 'разрешен', 'экра', 'меня', 'поэт', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'размер', 'изображен', '1520', '800', 'пиксел', 'вес', '100-250', 'кб.', 'изображен', 'залива', 'порта', 'должн', 'оптимизирова', 'веб', 'воспользова', 'например', 'сервис', 'https', '//tinypng.com/', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'кнопк', 'пода', 'заявк', 'зада', 'вопрос', 'шапк', 'добав', 'форм', 'прием', 'заявок', 'форм', 'зада', 'вопрос', 'при', 'установк', 'ползунк', 'показ', 'кнопк', 'заявк', 'показ', 'кнопк', 'форм', 'позиц', 'включ', 'форм', 'созда', 'автоматическ', 'забудьт', 'перейт', 'реж', 'редактирован', 'нажа', 'иконк', 'ряд', 'слов', 'редактирова', 'форм', 'измен', 'дат', 'актуальн', 'форм', 'при', 'необходим', 'может', 'измен', 'пол', 'форм', 'подробн', 'редактирован', 'форм', 'прочита', 'https', '//portal.hse.ru/poll', 'част', 'создан', 'форм', 'нужн', 'пропуст', 'ваш', 'случа', 'форм', 'созда', 'стандартн', 'вид', 'есл', 'каким-т', 'причин', 'форм', 'карточк', 'подход', 'хот', 'дат', 'ссылк', 'форм', 'созда', 'друг', 'сайт', 'может', 'указа', 'ссылк', 'пол', 'ссылк', 'внешн', 'форм', 'заявки/вопрос', 'кнопк', 'будут', 'показыва', 'шапк', 'такж', 'плашк', 'результат', 'документ', 'образован', 'стоимост', 'услов', 'подложк', 'как', 'посмотрет', 'получ', 'верхн', 'прав', 'угл', 'размещ', 'кнопк', 'откр', 'сайт', 'нажм', 'есл', 'вид', 'ошибк', '404', 'проверьт', 'карточк', 'имеет', 'статус', 'активн', 'раздел', 'дан', 'собира', 'страниц', 'программ', 'все', 'программ', 'унифицирова', 'формат', 'подач', 'информац', 'почт', 'вся', 'работ', 'происход', 'вкладк', 'конструктор', 'выпада', 'списк', 'выбер', 'нужн', 'виджет', 'нажм', 'знак', 'порядок', 'виджет', 'изменя', 'для', 'перемест', 'курсор', 'влев', 'назван', 'виджет', 'см.', 'скриншот', 'нажа', 'лев', 'кнопк', 'мыш', 'перемест', 'виджет', 'нужн', 'мест', 'виджет', 'якор', 'якор', 'называ', 'закладк', 'определен', 'мест', 'страниц', 'предназначен', 'создан', 'переход', 'ссылк', 'дан', 'случа', 'якор', 'нуж', 'мен', 'переход', 'определен', 'раздел', 'сайт', 'вам', 'необходим', 'перемест', 'виджет', 'якор', 'нужн', 'мест', 'прописа', 'нем', 'латинск', 'букв', 'им', 'якор', 'напр', 'anchor', 'ссылк', 'котор', 'пользовател', 'переход', 'определен', 'мест', 'страниц', 'пол', 'URL', 'нужн', 'прописа', 'ссылк', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'важн', 'объявлен', 'дан', 'функциона', 'необход', 'хот', 'донест', 'посетител', 'сайт', 'что-т', 'крайн', 'важн', 'использ', 'важн', 'объявлен', 'размещен', 'информац', 'котор', 'страниц', 'стара', 'сайт', 'одн', 'важн', 'объявлен', 'заполн', 'пол', 'выбер', 'фонов', 'цвет', 'объявлен', 'выбор', 'цвет', 'кликн', 'пипетк', 'соответств', 'пол', 'дат', 'указыва', 'необязательн', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'программ', 'виджет', 'две', 'вкладк', 'текст', 'виде', 'вкладк', 'текст', 'явля', 'обязательн', 'заполнен', 'забудьт', 'выдел', 'текст', 'очист', 'посторон', 'форматирован', 'нажа', 'иконк', 'вкладк', 'виде', 'размест', 'проморолик', 'программ', 'виде', 'приветствен', 'слов', 'руководител', 'виде', 'снача', 'необходим', 'размест', 'Youtube', 'пол', 'URL', 'проставля', 'ссылк', 'вид', 'https', '//www.youtube.com/embed/VYSTPqTdHqk', 'чтоб', 'получ', 'так', 'ссылк', 'наход', 'непосредствен', 'Youtube', 'нажима', 'кнопк', 'подел', 'располага', 'виде', 'выбира', 'сам', 'перв', 'вариант', 'встро', 'откроет', 'окн', 'слев', 'виде', 'справ', 'встраива', 'код', 'ве', 'код', 'копирова', 'нужн', 'нужн', 'взят', 'ссылк', 'embed', 'встав', 'ссылк', 'виджет', 'есл', 'необходим', 'добав', 'подп', 'загруз', 'прев', 'виде', 'оптимизирова', 'изображен', '314×184', 'пиксел', 'ил', 'нажм', 'загруз', 'прев', 'административн', 'интерфейс', 'случа', 'использова', 'заставк', 'Youtube', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'нумерова', 'блок', 'заголовк', 'размеща', 'ключев', 'навык', 'котор', 'получат', 'выпускник', 'программ', 'дал', 'необходим', 'размест', 'тезис', 'раскрыва', 'сут', 'обучен', 'программ', 'числ', 'пункт', 'огранич', 'визуальн', 'смотр', 'тезис', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'результат', 'виджет', 'позволя', 'размест', 'заголовок', 'подзаголовок', 'нескольк', 'карточек', 'текст', 'оптимальн', 'карточк', 'хот', 'количеств', 'карточек', 'огранич', 'здрав', 'смысл', 'плашк', 'плашк', 'автоматическ', 'добав', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'ран', 'включ', 'раздел', 'дан', 'забудьт', 'измен', 'размер', 'загружа', 'картинок', 'оптимизирова', 'веб', 'есл', 'возможн', 'оптимизирова', 'изображен', 'воспольз', 'встроен', 'административн', 'интерфейс', 'функц', 'выреза', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'для', 'ког', 'пол', 'основн', 'подзаголовок', 'обязательн', 'заполнен', 'числ', 'пункт', 'огранич', 'желательн', '3-5', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'список', 'изображен', 'виджет', 'позволя', 'зал', 'изображен', 'размер', 'изображен', '100', '250', 'пиксел', 'гиперссылк', 'например', 'использова', 'виджет', 'публикац', 'логотип', 'партнер', 'обрат', 'вниман', 'логотип', 'необходим', 'вписа', 'прямоугольник', '100', '250', 'пиксел', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'документ', 'окончан', 'заполн', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'загружа', 'страниц', 'изображен', 'документ', 'необязательн', 'изображен', 'документ', 'показа', 'справочник', 'основ', 'то', 'информац', 'котор', 'внесл', 'пол', 'тип', 'документ', 'образован', 'раздел', 'дан', 'однак', 'какой-т', 'причин', 'устраива', 'изображен', 'умолчан', 'может', 'загруз', 'сво', 'вариант', 'ширин', 'изображен', '430', 'пиксел', 'изображен', 'спозиционирова', 'центр', 'вертика', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'текст', 'заголовк', 'можн', 'добав', 'текст', 'заголовк', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'программ', 'обучен', 'пол', 'заголовок', 'указа', 'назван', 'дисциплин', 'блок', 'дисциплин', 'пол', 'бейдж', 'числ', 'час', 'кредитн', 'единиц', 'пол', 'текст', 'кратк', 'описан', 'список', 'дисциплин', 'ран', 'указа', 'назван', 'блок', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'FAQ', 'нажм', 'кнопк', '+вопрос', 'заполн', 'соответств', 'пол', 'пол', 'ответ', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'сообществ', 'виджет', 'позволя', 'размест', 'нескольк', 'иконок', 'текст', 'изображен', 'должн', 'имет', 'размер', '80×80', 'пиксел', 'рекомендуем', 'формат', 'gif', 'png', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'отзыв', 'выпускник', 'позволя', 'размест', 'текст', 'отзыв', 'рекомендуем', 'числ', 'знак', '650', 'знак', 'пробел', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'размер', 'фот', '48×48', 'пиксел', 'посл', 'заливк', 'фот', 'нажима', 'выреза', 'выбра', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'контакт', 'заполн', 'пол', 'пол', 'текст', 'забудьт', 'выдел', 'текст', 'очист', 'сторон', 'форматирован', 'нажа', 'иконк', 'обрат', 'вниман', 'телефон', 'номер', 'ввод', 'формат', '000', '000-00-00', 'обязательн', 'указыва', 'код', 'город', 'кажд', 'нов', 'телефон', 'указыва', 'сво', 'пол', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'стоимост', 'услов', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'прост', 'позволя', 'добав', 'заголовок', 'подзаголовок', 'гиперссылк', 'переход', 'страниц', 'подробн', 'необязательн', 'лейбл', 'скидк', 'помим', 'текст', 'подзаголовк', 'гиперссылк', 'добав', 'лейбл', 'скидк', 'подложк', 'позволя', 'дополнительн', 'размест', 'текст', 'кнопк', 'форм', 'пода', 'заявк', 'зада', 'вопрос', 'все', 'дан', 'стоимост', 'необходим', 'внос', 'рамк', 'одн', 'виджет', 'случа', 'информац', 'выстраива', 'столбик', 'начина', 'кажд', 'нов', 'строк', 'есл', 'вариант', 'скидок', 'разн', 'услов', 'дат', 'информац', 'прост', 'текст', 'использова', 'виджет', 'текст', 'заголовк', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'преподавател', 'виджет', 'имеет', 'нескольк', 'вариант', 'раздел', 'содержим', 'вшэ', 'вшэ', 'виджет', 'вшэ', 'позволя', 'выбра', 'преподавател', 'списк', 'персон', 'вшэ', 'забудьт', 'выбор', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'изображен', 'нерезк', 'есл', 'добавля', 'сотрудник', 'вшэ', 'заполня', 'пол', 'всплыва', 'текст', 'клик', 'осуществля', 'переход', 'персональн', 'страниц', 'сайт', 'вшэ', 'есл', 'пол', 'заполн', 'откроет', 'всплыва', 'текст.', 'пол', 'должност', 'может', 'вписа', 'вручн', 'должност', 'котор', 'должн', 'отобража', 'карточк', 'устраива', 'автоматическ', 'вывод', 'информац', 'виджет', 'вшэ', 'позволя', 'добав', 'персон', 'след', 'атрибут', 'фи', 'должност', 'фот', 'желательн', 'горизонтальн', 'ориентирова', 'всплыва', 'текст.', 'забудьт', 'выбор', 'фот', 'воспользова', 'функц', 'выреза', 'позволя', 'определ', 'фрагмент', 'изображен', 'котор', 'показыва', 'страниц', 'есл', 'сдела', 'фотограф', 'страниц', 'скор', 'будут', 'имет', 'разн', 'высот', 'вшэ', 'вшэ', 'условн', 'делен', 'есл', 'хот', 'оформ', 'фот', 'одн', 'стил', 'преподавател', 'загруз', 'вшэ', 'виджет', 'использова', 'списк', 'преподавател', 'т.к.', 'заголовок', 'раздел', 'редактируем', 'ответствен', 'подход', 'выбор', 'фотограф', 'есл', 'фот', 'паспорт', 'конференц', 'фон', 'провод', 'фуршет', 'бокал', 'вероятн', 'использован', 'фотограф', 'блок', 'сто', 'отказа', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'школ', 'позволя', 'загруз', 'горизонтальн', 'ориентирова', 'фотограф', 'текст.', 'рекомендова', 'ширин', 'фотограф', '1600', 'пиксел', 'контейнер', 'изображен', 'имеет', 'фиксирова', 'высот', 'изображен', 'заполня', 'спозиционирова', 'центр', 'значим', 'част', 'изображен', 'должн', 'наход', 'центр', 'параметр', 'изображен', 'меня', 'зависим', 'разрешен', 'экра', 'текст', 'добавля', 'строк', 'внутр', 'строк', 'колонк', 'максимальн', 'количеств', 'колонок', 'однак', 'рекоменду', 'дела', 'одн', 'строк', 'колонок', 'оптимальн', '1-3', 'колонк', 'кажд', 'колонк', 'нужн', 'зада', 'ширин', 'сумм', 'ширин', 'колонок', 'должн', 'равн', 'числ', 'например', 'хот', 'две', 'одинаков', 'ширин', 'колонк', 'кажд', 'колонк', 'необходим', 'зада', 'ширин', 'как', 'выгляд', 'административн', 'интерфейс', 'виджет', 'формат', 'обучен', 'формир', 'основ', 'сведен', 'раздел', 'дан', 'загрузк', 'файл', 'страниц', 'загруз', 'нескольк', 'файл', 'для', 'загрузк', 'файл', 'использ', 'виджет', 'список', 'файл', 'при', 'загрузк', 'файл', 'указа', 'текст', 'клик', 'котор', 'открыва', 'файл', 'есл', 'хот', 'загруз', 'сайт', 'учебн', 'план', 'использ', 'виджет', 'учебн', 'план', 'загружа', 'файл', 'прост', 'дума', 'запрос', 'пользовател', 'как', 'выгляд', 'административн', 'интерфейс', 'показ', 'учебн', 'план', 'учебн', 'план', 'загружа', 'раздел', 'дан', 'сведен', 'образовательн', 'организац', 'посл', 'загрузк', 'файл', 'необходим', 'перейт', 'раздел', 'конструктор', 'помощ', 'виджет', 'учебн', 'план', 'указа', 'мест', 'страниц', 'необходим', 'использова', 'файл', 'пожалуйст', 'использ', 'загрузк', 'учебн', 'план', 'виджет', 'список', 'файл', 'связа', 'программ', 'страниц', 'программ', 'указа', 'релевантн', 'программ', 'для', 'перейд', 'раздел', 'дан', 'связа', 'программ', 'нажм', 'введ', 'пол', 'поиск', 'назван', 'программ', 'есл', 'программ', 'наход', 'точн', 'нов', 'каталог', 'программ', 'попроб', 'иска', 'част', 'назван', 'сведен', 'образовательн', 'организац', 'посл', 'внедрен', 'нов', 'каталог', 'дпо', 'информац', 'раздел', 'кратк', 'характеристик', 'программ', 'аннотац', 'рабоч', 'программ', 'дисциплин', 'учебн', 'план', 'календарн', 'учебн', 'график', 'показыва', 'раздел', 'сведен', 'образовательн', 'организац', 'обязательн', 'раздел', 'сайт', 'вуз', 'файл', 'учебн', 'план', 'показа', 'страниц', 'программ', 'для', 'загрузк', 'файл', 'перейд', 'дан', 'сведен', 'образовательн', 'организац', 'как', 'выгляд', 'административн', 'интерфейс', 'мен', 'для', 'упрощен', 'навигац', 'страниц', 'добав', 'страниц', 'программ', 'пункт', 'мен', 'предварительн', 'раздел', 'конструктор', 'добавьт', 'нужн', 'мест', 'якор', 'мен', 'пол', 'URL', 'нужн', 'прописа', 'адрес', 'страниц', 'плюс', 'им', 'якор', 'символ', 'решетк', 'вперед', 'например', 'https', '//www.hse.ru/edu/dpo/452691928', 'anchor', 'SEO', 'заполн', 'пол', 'описан', 'документ', 'напишет', 'пол', 'сформир', 'мета-тег', 'description', 'описыва', 'содержим', 'страниц', 'поисков', 'робот', 'яндекс', 'Google', 'есл', 'description', 'ваш', 'страница/сайт', 'проч', 'равн', 'индексирова', 'поисковик', 'окажут', 'выш', 'выдач', 'соответствен', 'увелич', 'поисков', 'трафик', 'ваш', 'сайт', 'кром', 'част', 'имен', 'эт', 'описан', 'Google', 'подставля', 'выдач', 'страниц', 'результат', 'поиск', 'что', 'соб', 'представля', 'описан', 'документ', 'эт', 'коротк', 'связн', 'текст', 'описыва', 'контент', 'страниц', 'оптимизатор', 'сайт', 'рекоменд', 'дела', 'описан', '160', 'знак', 'им', 'вид', 'большинств', 'поисков', 'робот', 'игнорир', 'написа', 'перв', '160-180', 'знак', 'такж', 'дела', 'описан', 'набор', 'ключев', 'слов', 'запят', 'во-перв', 'эт', 'очен', 'нрав', 'робот', 'результат', 'оказа', 'отрицательн', 'во-втор', 'эт', 'информац', 'показыва', 'люд', 'нуж', 'связн', 'текст.', 'есл', 'знает', 'написа', 'пол', 'напиш', 'назван', 'программ', 'дал', 'текст', 'длин', '50-110', 'символ', 'тем', 'дает', 'программ', 'конц', 'добавьт', 'номер', 'телефон', 'желан', 'ни', 'вшэ', 'кавычек', 'пол', 'использова', 'качеств', 'заголовк', 'окн', 'убра', 'автоматическ', 'формируем', 'част', 'окн', 'меня', 'нужн', 'эт', 'пол', 'работа', 'специалист', 'проверьт', 'порядок', 'расположен', 'блок', 'страниц', 'программ', 'порядок', 'влия', 'приоритет', 'ключев', 'слов', 'поисков', 'систем', 'рекомендуем', 'порядок', 'блок', 'программ', 'для', 'ког', 'описан', 'начина', 'слов', 'очная/онлайн', 'программ', 'назван', 'программ', 'формат', 'обучен', 'программ', 'обучен', 'эт', 'возможн', 'помим', 'назван', 'дисциплин', 'указыва', 'тип', 'дисциплин', 'лекц', 'семинар', 'т.д.', 'добавля', 'кратк', 'аннотац', 'дисциплин', 'результат', 'документ', 'окончан', 'преимуществ', 'программ', 'преподавател', 'стоимост', 'услов', 'как', 'поступ', 'программ', 'наш', 'выпускник', 'трудоустро', 'ведущ', 'компан', 'партнер', 'программ', 'отзыв', 'выпускник', 'контакт', 'адрес', 'повтор', 'назван', 'программ', '1-3', 'раз', 'текст', 'вне', 'заголовк', 'обрат', 'особ', 'вниман', 'раздел', 'описан', 'преподава', 'программ', 'дисциплин', 'чем', 'подробн', 'доходчив', 'распишет', 'изуча', 'слушател', 'программ', 'есл', 'достаточн', 'есл', 'сдела', 'перечислен', 'выш', 'полност', 'удовлетвор', 'результат', 'трафик', 'отправьт', 'заявк', 'подбор', 'ключев', 'слов', 'portal', 'hse.ru', 'ссылк', 'программ', 'команд', 'порта', 'подберет', 'набор', 'слов', 'словосочетан', 'взяв', 'основ', 'назван', 'ваш', 'программ', 'список', 'дисциплин', 'список', 'слов', 'должн', 'будет', 'добав', 'размещен', 'страниц', 'программ', 'контент', 'срок', 'подбор', 'составля', 'дне', 'зависим', 'текущ', 'объем', 'работ']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2346,19 +2338,59 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['дан', 'обозначен', 'использова', 'оформлен', 'лендинг', 'цвет', 'подложк', 'шапк', 'основн', 'колонк', 'контент-блок', 'цвет', 'подложек', 'виджет', 'набор', 'выпадайк', 'таб', 'карточк', 'виджет', 'цифр', 'дня', 'плашк', 'цифр', 'хронолог', 'фон', 'виджет', 'программ', 'карусел', 'цифр', 'цифр', 'факт', 'ссылк', 'мероприят', 'публикац', 'такж', 'мобильн', 'тулбар']</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+          <t>['2017', 'год', 'ваш', 'распоряжен', 'полн', 'набор', 'инструмент', 'предоставля', 'нэб/ринц', 'помощ', 'уточн', 'улучш', 'ваш', 'показател', 'ринц', 'большинств', 'операц', 'может', 'выполн', 'самостоятельн', 'никт', 'кром', 'сможет', 'эт', 'сдела', 'должн', 'образ', 'некотор', 'случа', 'необходим', 'обрат', 'представител', 'подразделен']</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>['что', 'сдела', 'перв', 'очеред', 'зарегистрирова', 'ринц', 'Science', 'Index', 'уточн', 'регистрацион', 'дан', 'улучшен', 'привязк', 'публикац', 'провер', 'скорректирова', 'сво', 'список', 'публикац', 'провер', 'скорректирова', 'список', 'ссылок', 'сво', 'публикац']</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['ниж', 'привед', 'кратк', 'инструкц', 'учет', 'опыт', 'работ', 'ринц', 'ни', 'вшэ', 'полн', 'инструкц', 'автор', 'найт', 'сайт', 'ринц']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>['вниман', 'для', 'корректн', 'работ', 'сайт', 'ринц', 'необходим', 'отключ', 'блокировк', 'всплыва', 'окон', 'elibrary.ru']</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['инструкц', 'регистрац', 'Science', 'Iндеxвнесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикацийработ', 'списк', 'публикацийработ', 'ссылк', 'публикациипорядок', 'обращен', 'ответствен', 'подразделенийанализ', 'публикацион', 'активн', 'автор']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['регистрац', 'Science', 'Index', 'есл', 'зарегистрирова', 'Science', 'Index', 'пройд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isnew=1', 'inreestr=on', 'либ', 'выбер', 'кнопк', 'регистрац', 'панел', 'вход', 'сайт', 'elibrary.ru', 'убед', 'регистрацион', 'анкет', 'проставл', 'галочк', 'зарегистрирова', 'автор', 'систем', 'Science', 'Index']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>['внесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикац', 'при', 'регистрац', 'необходим', 'внест', 'дан', 'пол', 'обязательн', 'заполнен', 'однак', 'рекоменду', 'обрат', 'вниман', 'друг', 'пол', 'эт', 'поможет', 'автоматическ', 'привяза', 'максимальн', 'числ', 'ваш', 'публикац', 'аккаунт', 'есл', 'зарегистрирова', 'Science', 'Index', 'может', 'внест', 'дан', 'перейд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isold=1', 'пройд', 'личн', 'кабинет', 'профил', 'автор', 'регистрацион', 'карточк', 'автор', 'проверьт', 'указа', 'аффилиац', 'ни', 'вшэ', 'нижн', 'част', 'форм', 'наход', 'пол', 'котор', 'могут', 'улучш', 'качеств', 'автоматическ', 'привязк', 'публикац', 'пол', 'журнал', 'внес', 'журнал', 'котор', 'публикова', 'пол', 'организац', 'укаж', 'друг', 'организац', 'котор', 'могл', 'работа', 'ран', 'есл', 'раньш', 'друг', 'фамил', 'укаж', 'пол', 'предыдущ', 'фамил', 'девич', 'есл', 'публикова', 'собира', 'публикова', 'зарубежн', 'издан', 'укаж', 'вариант', 'написан', 'фамил', 'латиниц', 'запят', 'пол', 'идентификацион', 'код', 'автор', 'укаж', 'люб', 'друг', 'сво', 'идентификацион', 'код', 'посл', 'сохранен', 'карточк', 'течен', '2-10', 'дне', 'получ', 'уникальн', 'идентификатор', 'SPIN-код', 'автор', 'указа', 'панел', 'сесс', 'слев', 'такж', 'начал', 'регистрацион', 'карточк', 'необходим', 'указа', 'SPIN-код', 'сво', 'личн', 'кабинет', 'портал', 'ни', 'вшэ', 'посл', 'получен', 'SPIN-код', 'систем', 'выполн', 'привязк', 'публикац', 'ваш', 'профил', 'получ', 'возможн', 'внос', 'исправлен', 'список', 'публикац', 'список', 'ссылок', 'публикац']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['работ', 'списк', 'публикац', 'посл', 'регистрац', 'заполнен', 'карточк', 'систем', 'попыта', 'идентифицирова', 'ваш', 'работ', 'автоматическ', 'привяза', 'ваш', 'профил', 'однак', 'возможн', 'ошибк', 'идентификац', 'начн', 'просмотр', 'списк', 'ваш', 'публикац', 'профил', 'автор', 'мо', 'публикац', 'проверьт', 'публикац', 'присутств', 'списк', 'нет', 'публикац', 'друг', 'автор', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'публикации…', 'проверьт', 'правильн', 'указа', 'аффилиац', 'эт', 'публикац', 'например', 'аффилиац', 'ни', 'вшэ', 'должн', 'выглядет', 'рисунк', 'ниж', 'оформл', 'вид', 'гиперссылк', 'всплыва', 'полн', 'назван', 'есл', 'эт', 'нажм', 'идентифицирова', 'организац', 'указа', 'публикац', 'качеств', 'мест', 'мо', 'работ', 'панел', 'инструмент', 'есл', 'списк', 'обнаруж', 'некотор', 'публикац', 'выбер', 'выпада', 'списк', 'показыва', 'непривяза', 'публикац', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'публикац', 'список', 'работ', 'автор', 'есл', 'некотор', 'публикац', 'одн', 'указа', 'двух', 'списк', 'эт', 'означа', 'систем', 'смогл', 'идентифицирова', 'публикац', 'автоматическ', 'так', 'случа', 'попыта', 'найт', 'привяза', 'публикац', 'вручн', 'воспольз', 'расширен', 'поиск', 'лев', 'верхн', 'част', 'страниц', 'вначал', 'поиска', 'неполн', 'имен', 'отчеств', 'автор', 'зат', 'например', 'известн', 'точн', 'назван', 'публикац', 'назван', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'найден', 'публикац', 'звездочк', 'помеч', 'котор', 'привяза', 'ваш', 'профил', 'есл', 'списк', 'найден', 'публикац', 'вид', 'котор', 'необходим', 'привяза', 'щелкн', 'назван', 'откроет', 'страниц', 'описан', 'панел', 'инструмент', 'выбер', 'пункт', 'добав', 'публикац', 'список', 'мо', 'работ', 'явля', 'автор', 'посл', 'проверк', 'публикац', 'привяза', 'ваш', 'профил', 'есл', 'уда', 'найт', 'публикац', 'одн', 'эт', 'случа', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'нужн', 'публикац']</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>['работ', 'ссылк', 'публикац', 'работ', 'ссылк', 'мног', 'напомина', 'работ', 'публикац', 'начн', 'просмотр', 'списк', 'ссылок', 'профил', 'автор', 'мо', 'цитирован', 'либ', 'списк', 'публикац', 'панел', 'инструмент', 'выбер', 'вывест', 'список', 'ссылок', 'работ', 'автор', 'проверьт', 'списк', 'лишн', 'ссылок', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'ссылк', 'списк', 'цитирован', 'автор', 'выпада', 'списк', 'показыва', 'выбер', 'непривяза', 'ссылк', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'цитирован', 'автор', 'есл', 'какие-т', 'ссылк', 'эт', 'списк', 'отсутств', 'попыта', 'привяза', 'вручн', 'для', 'профил', 'автор', 'перейд', 'раздел', 'поиск', 'цитирован', 'ринц', 'довольн', 'част', 'ссылк', 'могут', 'привяза', 'цитир', 'работ', 'неверн', 'указа', 'фи', 'автор', 'поэт', 'нача', 'поиск', 'ввод', 'пол', 'автор', 'цитируем', 'публикац', 'фамил', 'автор', 'инициал', 'част', 'фамил', 'есл', 'хотел', 'уточн', 'список', 'ссылок', 'конкретн', 'работ', 'пол', 'люб', 'слов', 'текст', 'ссылк', 'ввест', 'част', 'назван', 'работ', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'работ', 'соответств', 'ссылк', 'звездочк', 'означа', 'дан', 'ссылк', 'привяза', 'ваш', 'публикац', 'выбер', 'списк', 'ссылк', 'котор', 'необходим', 'привяза', 'панел', 'инструмент', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'мо', 'цитирован', 'есл', 'ссылк', 'по-прежн', 'отсутств', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'цитир', 'публикац', 'ринц', 'см.', 'ниж']</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>['порядок', 'обращен', 'ответствен', 'подразделен', 'как', 'видн', 'сказа', 'выш', 'автор', 'имеет', 'достаточн', 'богат', 'набор', 'инструмент', 'уточнен', 'дан', 'сво', 'публикац', 'следовательн', 'уточнен', 'индекс', 'цитирован', 'единствен', 'существен', 'ограничен', 'отсутств', 'возможн', 'добавля', 'публикац', 'прич', 'эт', 'каса', 'добавлен', 'ссылок', 'ваш', 'публикац', 'добавлен', 'ссылк', 'равносильн', 'добавлен', 'публикац', 'пожалуйст', 'прим', 'вниман', 'ответствен', 'подразделен', 'сможет', 'добав', 'публикац', 'полн', 'описан', 'оператор', 'сторон', 'ринц', 'отказа', 'добавлен', 'ссылк', 'опубликова', 'стат', 'электрон', 'коп', 'поэт', 'обращен', 'ответствен', 'необходим', 'предостав', 'след', 'дан', 'есл', 'эт', 'стат', 'назван', 'стат', 'назван', 'журна', 'год', 'номер', 'страниц', 'тематик', 'желательн', 'классификатор', 'грнти', 'список', 'литератур', 'прям', 'ссылк', 'опубликова', 'стат', 'желательн', 'электрон', 'коп', 'стат', 'есл', 'эт', 'книга/сборник', 'назван', 'издательств', 'год', 'мест', 'издан', 'город', 'тематик', 'желательн', 'классификатор', 'грнти', 'прям', 'ссылк', 'описан', 'книг', 'сайт', 'издательств', 'желательн', 'электрон', 'коп', 'книг', 'случа', 'добавлен', 'публикац', 'треб', 'привязк', 'качеств', 'ссылк', 'одн', 'ваш', 'публикац', 'привед', 'назван', 'сво', 'публикац', 'дал', 'список', 'ссыла', 'публикац', 'всем', 'необходим', 'дан', 'см.', 'выш', 'ответствен', 'сво', 'подразделен', 'может', 'найт', 'списк', 'ниж', 'есл', 'ответствен', 'списк', 'написа', 'ощепков', 'иван', 'владимирович']</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>['анализ', 'публикацион', 'активн', 'автор', 'чтоб', 'оцен', 'влиян', 'вносим', 'изменен', 'показател', 'публикацион', 'активн', 'индекс', 'хирш', 'т.п.', 'пожалуйст', 'перейд', 'страниц', 'анализ', 'публикацион', 'активн', 'автор', 'попаст', 'страниц', 'раздел', 'персональн', 'профил', 'автор', 'такж', 'авторск', 'указател', 'щелкнув', 'мыш', 'цветн', 'иконк', 'гистограмм', 'есл', 'внесл', 'изменен', 'эт', 'отобраз', 'статистик', 'нажм', 'обнов', 'показател', 'автор', 'панел', 'инструмент', 'как', 'прав', 'внесен', 'изменен', 'будут', 'отраж', 'ваш', 'показател', 'ден', 'однак', 'отдельн', 'напр.', 'спорн', 'случа', 'изменен', 'могут', 'учт', 'лиш', 'некотор', 'врем', 'недел', 'двух', 'месяц', 'есл', 'счита', 'нек', 'изменен', 'учт', 'течен', 'долг', 'времен', 'обрат', 'ответствен', 'ваш', 'подразделен']</t>
+        </is>
+      </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2379,36 +2411,64 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['портал', 'ни', 'вшэ', 'установл', 'счетчик', 'Google', 'Analytics', 'яндекс.метрик', 'помощ', 'узна', 'количеств', 'посещен', 'сайт', 'проанализирова', 'действ', 'пользовател', 'поня', 'перешл', 'ин', 'страниц', 'доступн', 'такж', 'статистик', 'скачиван', 'файл']</t>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'экономик']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['вопрос', 'связа', 'посещаем', 'страниц', 'порта', 'занима', 'отдел', 'веб-аналитик', 'моделирован']</t>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'менеджмент']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['доступ', 'аналитик', 'предоставлен', 'доступ', 'специалист', 'привлечен', 'трафик', 'рекламн', 'агентств', 'доступ', 'предоставля', 'отдельн', 'представлен', 'Google', 'Analytics', 'выделен', 'представлен', 'присутств', 'дан', 'отдельн', 'поддом', 'настройк', 'представлен', 'производ', 'специалист', 'привлечен', 'трафик', 'посредств', 'GTM', 'Google', 'Tag', 'Manager', 'предоставлен', 'доступ', 'сотрудник', 'вшэ', 'доступ', 'предоставля', 'сотрудник', 'вшэ', 'Google', 'Analytics', 'я.метрик', 'ограничен', 'доступ', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'запрос', 'предоставлен', 'доступ']</t>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'государствен', 'муниципальн', 'управлен', 'философск', 'наук']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['как', 'узна', 'посещаем', 'сайт', 'яндекс.метрик', 'сам', 'прост', 'способ', 'узна', 'скольк', 'человек', 'посет', 'страниц', 'сайт', 'ваш', 'подразделен', 'мероприят', 'яндекс.метрик', 'использова', 'сервис', 'стандартн', 'отчет', 'заголовк', 'страниц', 'пол', 'поиск', 'зада', 'назван', 'страниц', 'результир', 'таблиц', 'содержат', 'значен', 'указа', 'времен', 'диапазон', 'числ', 'просмотр', 'загрузок', 'страниц', 'числ', 'посетител', 'количеств', 'уникальн', 'люд', 'пришедш', 'ваш', 'страниц', 'подробн', 'пользовательск', 'инструкц', 'яндекс.метрик', 'доступн', 'адрес', 'https', '//yandex.ru/support/metrika/', 'Google', 'Analytics', 'мен', 'сервис', 'расположен', 'лев', 'част', 'экра', 'выбира', 'вкладк', 'поведен', 'контент', 'сайт', 'все', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'нужн', 'страниц', 'указан', 'сетев', 'протокол', 'https', 'для', 'увеличен', 'точност', 'анализ', 'нужн', 'передвинут', 'соответств', 'бегунок', 'вверх', 'экра', 'строк', 'выбор', 'дат', 'такж', 'выбра', 'узк', 'времен', 'промежуток', 'подробн', 'пользовательск', 'инструкц', 'Google', 'Analytics', 'наход', 'адрес', 'https', '//support.google.com/analytics/']</t>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'прав']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['как', 'узна', 'числ', 'скачиван', 'файл', 'яндекс.метрик', 'стандартн', 'отчет', 'формир', 'отчет', 'стандартн', 'отчет', 'содержан', 'загрузк', 'файл', 'зада', 'необходим', 'времен', 'промежуток', 'график', 'выбира', 'URL', 'загрузк', 'файл', 'котор', 'интерес', 'Google', 'Analytics', 'мен', 'сервис', 'выбира', 'вкладк', 'поведен', 'событ', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'страниц', 'котор', 'наход', 'ссылк', 'файл', 'указан', 'сетев', 'протокол', 'https', 'выбира', 'категор', 'событ', 'Download', 'результирующ', 'таблиц', 'показыва', 'числ', 'скача', 'страниц', 'файл', 'выбра', 'промежуток', 'времен']</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'социологическ', 'наук', 'политическ', 'наук', 'искусств', 'дизайн', 'международн', 'отношен', 'зарубежн', 'региональн', 'исследован']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'историческ', 'наук', 'филологическ', 'наук', 'философск', 'наук', 'культуролог']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'техническ', 'наук']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'компьютерн', 'наук', 'физик']</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'образован']</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'психолог']</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'математик']</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>['https', '//portal.hse.ru/aspresponsible', 'академическ', 'аспирантур']</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
@@ -2428,59 +2488,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['2017', 'год', 'ваш', 'распоряжен', 'полн', 'набор', 'инструмент', 'предоставля', 'нэб/ринц', 'помощ', 'уточн', 'улучш', 'ваш', 'показател', 'ринц', 'большинств', 'операц', 'может', 'выполн', 'самостоятельн', 'никт', 'кром', 'сможет', 'эт', 'сдела', 'должн', 'образ', 'некотор', 'случа', 'необходим', 'обрат', 'представител', 'подразделен']</t>
+          <t>['портал', 'ни', 'вшэ', 'установл', 'счетчик', 'Google', 'Analytics', 'яндекс.метрик', 'помощ', 'узна', 'количеств', 'посещен', 'сайт', 'проанализирова', 'действ', 'пользовател', 'поня', 'перешл', 'ин', 'страниц', 'доступн', 'такж', 'статистик', 'скачиван', 'файл']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['что', 'сдела', 'перв', 'очеред', 'зарегистрирова', 'ринц', 'Science', 'Index', 'уточн', 'регистрацион', 'дан', 'улучшен', 'привязк', 'публикац', 'провер', 'скорректирова', 'сво', 'список', 'публикац', 'провер', 'скорректирова', 'список', 'ссылок', 'сво', 'публикац']</t>
+          <t>['вопрос', 'связа', 'посещаем', 'страниц', 'порта', 'занима', 'отдел', 'веб-аналитик', 'моделирован']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['ниж', 'привед', 'кратк', 'инструкц', 'учет', 'опыт', 'работ', 'ринц', 'ни', 'вшэ', 'полн', 'инструкц', 'автор', 'найт', 'сайт', 'ринц']</t>
+          <t>['доступ', 'аналитик', 'предоставлен', 'доступ', 'специалист', 'привлечен', 'трафик', 'рекламн', 'агентств', 'доступ', 'предоставля', 'отдельн', 'представлен', 'Google', 'Analytics', 'выделен', 'представлен', 'присутств', 'дан', 'отдельн', 'поддом', 'настройк', 'представлен', 'производ', 'специалист', 'привлечен', 'трафик', 'посредств', 'GTM', 'Google', 'Tag', 'Manager', 'предоставлен', 'доступ', 'сотрудник', 'вшэ', 'доступ', 'предоставля', 'сотрудник', 'вшэ', 'Google', 'Analytics', 'я.метрик', 'ограничен', 'доступ', 'предоставля', 'течен', 'одн', 'рабоч', 'дня', 'запрос', 'предоставлен', 'доступ']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['вниман', 'для', 'корректн', 'работ', 'сайт', 'ринц', 'необходим', 'отключ', 'блокировк', 'всплыва', 'окон', 'elibrary.ru']</t>
+          <t>['как', 'узна', 'посещаем', 'сайт', 'яндекс.метрик', 'сам', 'прост', 'способ', 'узна', 'скольк', 'человек', 'посет', 'страниц', 'сайт', 'ваш', 'подразделен', 'мероприят', 'яндекс.метрик', 'использова', 'сервис', 'стандартн', 'отчет', 'заголовк', 'страниц', 'пол', 'поиск', 'зада', 'назван', 'страниц', 'результир', 'таблиц', 'содержат', 'значен', 'указа', 'времен', 'диапазон', 'числ', 'просмотр', 'загрузок', 'страниц', 'числ', 'посетител', 'количеств', 'уникальн', 'люд', 'пришедш', 'ваш', 'страниц', 'подробн', 'пользовательск', 'инструкц', 'яндекс.метрик', 'доступн', 'адрес', 'https', '//yandex.ru/support/metrika/', 'Google', 'Analytics', 'мен', 'сервис', 'расположен', 'лев', 'част', 'экра', 'выбира', 'вкладк', 'поведен', 'контент', 'сайт', 'все', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'нужн', 'страниц', 'указан', 'сетев', 'протокол', 'https', 'для', 'увеличен', 'точност', 'анализ', 'нужн', 'передвинут', 'соответств', 'бегунок', 'вверх', 'экра', 'строк', 'выбор', 'дат', 'такж', 'выбра', 'узк', 'времен', 'промежуток', 'подробн', 'пользовательск', 'инструкц', 'Google', 'Analytics', 'наход', 'адрес', 'https', '//support.google.com/analytics/']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['инструкц', 'регистрац', 'Science', 'Iндеxвнесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикацийработ', 'списк', 'публикацийработ', 'ссылк', 'публикациипорядок', 'обращен', 'ответствен', 'подразделенийанализ', 'публикацион', 'активн', 'автор']</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['регистрац', 'Science', 'Index', 'есл', 'зарегистрирова', 'Science', 'Index', 'пройд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isnew=1', 'inreestr=on', 'либ', 'выбер', 'кнопк', 'регистрац', 'панел', 'вход', 'сайт', 'elibrary.ru', 'убед', 'регистрацион', 'анкет', 'проставл', 'галочк', 'зарегистрирова', 'автор', 'систем', 'Science', 'Index']</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>['внесен', 'дан', 'регистрацион', 'анкет', 'улучшен', 'автоматическ', 'привязк', 'публикац', 'при', 'регистрац', 'необходим', 'внест', 'дан', 'пол', 'обязательн', 'заполнен', 'однак', 'рекоменду', 'обрат', 'вниман', 'друг', 'пол', 'эт', 'поможет', 'автоматическ', 'привяза', 'максимальн', 'числ', 'ваш', 'публикац', 'аккаунт', 'есл', 'зарегистрирова', 'Science', 'Index', 'может', 'внест', 'дан', 'перейд', 'ссылк', 'https', '//elibrary.ru/author_info.asp', 'isold=1', 'пройд', 'личн', 'кабинет', 'профил', 'автор', 'регистрацион', 'карточк', 'автор', 'проверьт', 'указа', 'аффилиац', 'ни', 'вшэ', 'нижн', 'част', 'форм', 'наход', 'пол', 'котор', 'могут', 'улучш', 'качеств', 'автоматическ', 'привязк', 'публикац', 'пол', 'журнал', 'внес', 'журнал', 'котор', 'публикова', 'пол', 'организац', 'укаж', 'друг', 'организац', 'котор', 'могл', 'работа', 'ран', 'есл', 'раньш', 'друг', 'фамил', 'укаж', 'пол', 'предыдущ', 'фамил', 'девич', 'есл', 'публикова', 'собира', 'публикова', 'зарубежн', 'издан', 'укаж', 'вариант', 'написан', 'фамил', 'латиниц', 'запят', 'пол', 'идентификацион', 'код', 'автор', 'укаж', 'люб', 'друг', 'сво', 'идентификацион', 'код', 'посл', 'сохранен', 'карточк', 'течен', '2-10', 'дне', 'получ', 'уникальн', 'идентификатор', 'SPIN-код', 'автор', 'указа', 'панел', 'сесс', 'слев', 'такж', 'начал', 'регистрацион', 'карточк', 'необходим', 'указа', 'SPIN-код', 'сво', 'личн', 'кабинет', 'портал', 'ни', 'вшэ', 'посл', 'получен', 'SPIN-код', 'систем', 'выполн', 'привязк', 'публикац', 'ваш', 'профил', 'получ', 'возможн', 'внос', 'исправлен', 'список', 'публикац', 'список', 'ссылок', 'публикац']</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>['работ', 'списк', 'публикац', 'посл', 'регистрац', 'заполнен', 'карточк', 'систем', 'попыта', 'идентифицирова', 'ваш', 'работ', 'автоматическ', 'привяза', 'ваш', 'профил', 'однак', 'возможн', 'ошибк', 'идентификац', 'начн', 'просмотр', 'списк', 'ваш', 'публикац', 'профил', 'автор', 'мо', 'публикац', 'проверьт', 'публикац', 'присутств', 'списк', 'нет', 'публикац', 'друг', 'автор', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'публикации…', 'проверьт', 'правильн', 'указа', 'аффилиац', 'эт', 'публикац', 'например', 'аффилиац', 'ни', 'вшэ', 'должн', 'выглядет', 'рисунк', 'ниж', 'оформл', 'вид', 'гиперссылк', 'всплыва', 'полн', 'назван', 'есл', 'эт', 'нажм', 'идентифицирова', 'организац', 'указа', 'публикац', 'качеств', 'мест', 'мо', 'работ', 'панел', 'инструмент', 'есл', 'списк', 'обнаруж', 'некотор', 'публикац', 'выбер', 'выпада', 'списк', 'показыва', 'непривяза', 'публикац', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'публикац', 'список', 'работ', 'автор', 'есл', 'некотор', 'публикац', 'одн', 'указа', 'двух', 'списк', 'эт', 'означа', 'систем', 'смогл', 'идентифицирова', 'публикац', 'автоматическ', 'так', 'случа', 'попыта', 'найт', 'привяза', 'публикац', 'вручн', 'воспольз', 'расширен', 'поиск', 'лев', 'верхн', 'част', 'страниц', 'вначал', 'поиска', 'неполн', 'имен', 'отчеств', 'автор', 'зат', 'например', 'известн', 'точн', 'назван', 'публикац', 'назван', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'найден', 'публикац', 'звездочк', 'помеч', 'котор', 'привяза', 'ваш', 'профил', 'есл', 'списк', 'найден', 'публикац', 'вид', 'котор', 'необходим', 'привяза', 'щелкн', 'назван', 'откроет', 'страниц', 'описан', 'панел', 'инструмент', 'выбер', 'пункт', 'добав', 'публикац', 'список', 'мо', 'работ', 'явля', 'автор', 'посл', 'проверк', 'публикац', 'привяза', 'ваш', 'профил', 'есл', 'уда', 'найт', 'публикац', 'одн', 'эт', 'случа', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'нужн', 'публикац']</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>['работ', 'ссылк', 'публикац', 'работ', 'ссылк', 'мног', 'напомина', 'работ', 'публикац', 'начн', 'просмотр', 'списк', 'ссылок', 'профил', 'автор', 'мо', 'цитирован', 'либ', 'списк', 'публикац', 'панел', 'инструмент', 'выбер', 'вывест', 'список', 'ссылок', 'работ', 'автор', 'проверьт', 'списк', 'лишн', 'ссылок', 'есл', 'таков', 'имеют', 'выбер', 'нажм', 'удал', 'выделен', 'ссылк', 'списк', 'цитирован', 'автор', 'выпада', 'списк', 'показыва', 'выбер', 'непривяза', 'ссылк', 'котор', 'могут', 'принадлежа', 'дан', 'автор', 'откр', 'списк', 'пометьт', 'галочк', 'принадлежа', 'публикац', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'цитирован', 'автор', 'есл', 'какие-т', 'ссылк', 'эт', 'списк', 'отсутств', 'попыта', 'привяза', 'вручн', 'для', 'профил', 'автор', 'перейд', 'раздел', 'поиск', 'цитирован', 'ринц', 'довольн', 'част', 'ссылк', 'могут', 'привяза', 'цитир', 'работ', 'неверн', 'указа', 'фи', 'автор', 'поэт', 'нача', 'поиск', 'ввод', 'пол', 'автор', 'цитируем', 'публикац', 'фамил', 'автор', 'инициал', 'част', 'фамил', 'есл', 'хотел', 'уточн', 'список', 'ссылок', 'конкретн', 'работ', 'пол', 'люб', 'слов', 'текст', 'ссылк', 'ввест', 'част', 'назван', 'работ', 'посл', 'нажат', 'кнопк', 'поиск', 'вывод', 'список', 'работ', 'соответств', 'ссылк', 'звездочк', 'означа', 'дан', 'ссылк', 'привяза', 'ваш', 'публикац', 'выбер', 'списк', 'ссылк', 'котор', 'необходим', 'привяза', 'панел', 'инструмент', 'нажм', 'добав', 'выделен', 'ссылк', 'список', 'мо', 'цитирован', 'есл', 'ссылк', 'по-прежн', 'отсутств', 'может', 'обрат', 'ответствен', 'ваш', 'подразделен', 'добав', 'цитир', 'публикац', 'ринц', 'см.', 'ниж']</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>['порядок', 'обращен', 'ответствен', 'подразделен', 'как', 'видн', 'сказа', 'выш', 'автор', 'имеет', 'достаточн', 'богат', 'набор', 'инструмент', 'уточнен', 'дан', 'сво', 'публикац', 'следовательн', 'уточнен', 'индекс', 'цитирован', 'единствен', 'существен', 'ограничен', 'отсутств', 'возможн', 'добавля', 'публикац', 'прич', 'эт', 'каса', 'добавлен', 'ссылок', 'ваш', 'публикац', 'добавлен', 'ссылк', 'равносильн', 'добавлен', 'публикац', 'пожалуйст', 'прим', 'вниман', 'ответствен', 'подразделен', 'сможет', 'добав', 'публикац', 'полн', 'описан', 'оператор', 'сторон', 'ринц', 'отказа', 'добавлен', 'ссылк', 'опубликова', 'стат', 'электрон', 'коп', 'поэт', 'обращен', 'ответствен', 'необходим', 'предостав', 'след', 'дан', 'есл', 'эт', 'стат', 'назван', 'стат', 'назван', 'журна', 'год', 'номер', 'страниц', 'тематик', 'желательн', 'классификатор', 'грнти', 'список', 'литератур', 'прям', 'ссылк', 'опубликова', 'стат', 'желательн', 'электрон', 'коп', 'стат', 'есл', 'эт', 'книга/сборник', 'назван', 'издательств', 'год', 'мест', 'издан', 'город', 'тематик', 'желательн', 'классификатор', 'грнти', 'прям', 'ссылк', 'описан', 'книг', 'сайт', 'издательств', 'желательн', 'электрон', 'коп', 'книг', 'случа', 'добавлен', 'публикац', 'треб', 'привязк', 'качеств', 'ссылк', 'одн', 'ваш', 'публикац', 'привед', 'назван', 'сво', 'публикац', 'дал', 'список', 'ссыла', 'публикац', 'всем', 'необходим', 'дан', 'см.', 'выш', 'ответствен', 'сво', 'подразделен', 'может', 'найт', 'списк', 'ниж', 'есл', 'ответствен', 'списк', 'написа', 'ощепков', 'иван', 'владимирович']</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>['анализ', 'публикацион', 'активн', 'автор', 'чтоб', 'оцен', 'влиян', 'вносим', 'изменен', 'показател', 'публикацион', 'активн', 'индекс', 'хирш', 'т.п.', 'пожалуйст', 'перейд', 'страниц', 'анализ', 'публикацион', 'активн', 'автор', 'попаст', 'страниц', 'раздел', 'персональн', 'профил', 'автор', 'такж', 'авторск', 'указател', 'щелкнув', 'мыш', 'цветн', 'иконк', 'гистограмм', 'есл', 'внесл', 'изменен', 'эт', 'отобраз', 'статистик', 'нажм', 'обнов', 'показател', 'автор', 'панел', 'инструмент', 'как', 'прав', 'внесен', 'изменен', 'будут', 'отраж', 'ваш', 'показател', 'ден', 'однак', 'отдельн', 'напр.', 'спорн', 'случа', 'изменен', 'могут', 'учт', 'лиш', 'некотор', 'врем', 'недел', 'двух', 'месяц', 'есл', 'счита', 'нек', 'изменен', 'учт', 'течен', 'долг', 'времен', 'обрат', 'ответствен', 'ваш', 'подразделен']</t>
-        </is>
-      </c>
+          <t>['как', 'узна', 'числ', 'скачиван', 'файл', 'яндекс.метрик', 'стандартн', 'отчет', 'формир', 'отчет', 'стандартн', 'отчет', 'содержан', 'загрузк', 'файл', 'зада', 'необходим', 'времен', 'промежуток', 'график', 'выбира', 'URL', 'загрузк', 'файл', 'котор', 'интерес', 'Google', 'Analytics', 'мен', 'сервис', 'выбира', 'вкладк', 'поведен', 'событ', 'страниц', 'строк', 'поиск', 'указыва', 'урл-адрес', 'страниц', 'котор', 'наход', 'ссылк', 'файл', 'указан', 'сетев', 'протокол', 'https', 'выбира', 'категор', 'событ', 'Download', 'результирующ', 'таблиц', 'показыва', 'числ', 'скача', 'страниц', 'файл', 'выбра', 'промежуток', 'времен']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2501,64 +2537,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'экономик']</t>
+          <t>['портал', 'организова', 'при', 'платеж', 'участ', 'проводим', 'подразделен', 'ни', 'вшэ', 'мероприят', 'заявк', 'создан', 'форм', 'прием', 'платеж', 'направля', 'руководител', 'подразделен', 'адрес', 'underground', 'hse.ru', 'срок', 'оказан', 'услуг', 'рабоч', 'дня', 'момент', 'получен', 'полн', 'пакет', 'необходим', 'сведен', 'заказчик', 'услов', 'создан', 'стандартн', 'форм']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'менеджмент']</t>
+          <t>['что', 'нужн', 'указа', 'заявк', 'обрат', 'вниман', 'требован', 'финансов', 'блок', 'создан', 'форм', 'прием', 'платеж', 'возможн', 'налич', 'подписа', 'приказ', 'проведен', 'мероприят', 'приказ', 'созда', 'подразделение-организатор', 'мероприят', 'документ', 'соглас', 'руководител', 'соответств', 'полномоч', 'есл', 'доход', 'расход', 'мероприят', 'треб', 'проставлен', 'финансов', 'аналитик', 'согласован', 'такж', 'участв', 'пфу', 'коп', 'договор', 'необходим', 'прилож', 'заявк', 'нужн', 'указа', 'номер', 'учетн', 'договор', 'пфу', 'номер', 'бэст', 'котор', 'вест', 'при', 'средств', 'для', 'учет', 'поступа', 'средств', 'мероприят', 'ис-пр', 'созда', 'управленческ', 'договор', 'договор', 'созда', 'подразделен', 'самостоятельн', 'подразделен', 'имеет', 'доступ', 'ис-пр', 'соответств', 'прав', 'либ', 'ответствен', 'работник', 'пфу', 'наименован', 'подразделен', 'котор', 'осуществля', 'при', 'платеж', 'шифр', 'подразделен', 'ис-пр', 'адрес', 'сайт', 'зон', 'hse.ru', 'размещ', 'страниц', 'мероприят', 'желательн', 'указа', 'такж', 'адрес', 'страниц', 'описан', 'особен', 'оплат', 'список', 'электрон', 'почтов', 'адрес', 'ответствен', 'лиц', 'домен', 'hse.ru', 'ежедневн', 'выгрузк', 'отчет', 'произведен', 'оплат', 'срок', 'прием', 'платеж', 'включ', 'сумм', 'платеж', 'ндс', 'треб', 'англоязычн', 'верс', 'форм', 'список', 'категор', 'участник', 'перевод', 'английск', 'язык', 'необходим', 'создан', 'форм', 'английск', 'язык', 'соответств', 'сумм', 'платеж', 'рубл', 'текст', 'договора-оферт', 'котор', 'размещ', 'страниц', 'форм', 'прием', 'платеж', 'согласова', 'юрист', 'при', 'необходим', 'бланк', 'платежн', 'извещен', 'оплат', 'участник', 'валют', 'рубл', 'банк', 'размещен', 'страниц', 'мероприят', 'есл', 'форм', 'платеж', 'нужн', 'разов', 'мероприят', 'пожалуйст', 'добавьт', 'заявк', 'информац', 'тип', 'платеж', 'оплат', 'обучен', 'оплат', 'проживан', 'оплат', 'проч', 'услуг', 'либ', 'нов', 'вид', 'оплат', 'договорен', 'пфу', 'уб', 'взаимодейств', 'участник', 'мероприят', 'провод', 'основан', 'договора-оферт', 'котор', 'долж', 'размещ', 'страниц', 'мероприят', 'случа', 'необходим', 'предоставлен', 'участник', 'мероприят', 'каких-либ', 'подтвержда', 'документ', 'перечен', 'необходим', 'обязательн', 'порядк', 'предварительн', 'согласова', 'бухгалтер', 'ни', 'вшэ', 'важн', 'планир', 'расценк', 'участ', 'мероприят', 'учет', 'страниц', 'сбор', 'платеж', 'сумм', 'оплат', 'указыва', 'рубл', 'указан', 'сумм', 'иностра', 'валют', 'допуска', 'числ', 'иностра', 'участников.•', 'банк', 'удержива', 'комисс', 'сумм', 'платеж', 'комисс', 'карт', 'сбербанк', 'взима', 'актуальн', 'размер', 'комисс', 'завис', 'услов', 'банка-эмитент', 'карт', 'платеж', 'требован', 'банк', 'выделя', 'комисс', 'сумм', 'платеж', 'страниц', 'оплат', 'мероприят']</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'государствен', 'муниципальн', 'управлен', 'философск', 'наук']</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'прав']</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'социологическ', 'наук', 'политическ', 'наук', 'искусств', 'дизайн', 'международн', 'отношен', 'зарубежн', 'региональн', 'исследован']</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'историческ', 'наук', 'филологическ', 'наук', 'философск', 'наук', 'культуролог']</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'техническ', 'наук']</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'компьютерн', 'наук', 'физик']</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'образован']</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'психолог']</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'аспирантск', 'школ', 'математик']</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>['https', '//portal.hse.ru/aspresponsible', 'академическ', 'аспирантур']</t>
-        </is>
-      </c>
+          <t>['вариант', 'форм', 'оплат', 'для', 'стандартн', 'форм', 'оплат', 'допуска', 'налич', 'нескольк', 'категор', 'участник', 'кажд', 'котор', 'присво', 'отдельн', 'сумм', 'оплат', 'например', 'сотрудник', 'ни', 'вшэ', 'руб.', 'иностра', 'гражда', 'руб.', 'автоматическ', 'проверк', 'статус', 'участник', 'момент', 'оплат', 'производ', 'стандартн', 'форм', 'оплат', 'выгляд']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
